--- a/GV/RegistroInformacion.xlsx
+++ b/GV/RegistroInformacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2920F3F2-0BA2-43F9-A3A9-A55FAE6A9E1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4E2B35-1D07-4977-BDEE-E419CB380665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294792477" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="158">
   <si>
     <t>CERDOS</t>
   </si>
@@ -596,10 +596,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -917,7 +918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -958,13 +959,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -973,23 +985,17 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -998,7 +1004,7 @@
   <dxfs count="108">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1008,41 +1014,328 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1056,131 +1349,16 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1282,6 +1460,192 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -2701,364 +3065,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3890,67 +3896,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB0CB5FE-EC69-4A3C-B7F8-2A2B829875A7}" name="VentaCerdo" displayName="VentaCerdo" ref="A3:M122" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
-  <autoFilter ref="A3:M122" xr:uid="{C9EBBED2-E078-4EE1-9F48-7C43C603BD9F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB0CB5FE-EC69-4A3C-B7F8-2A2B829875A7}" name="VentaCerdo" displayName="VentaCerdo" ref="A3:M139" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A3:M139" xr:uid="{C9EBBED2-E078-4EE1-9F48-7C43C603BD9F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M122">
     <sortCondition ref="D3:D122"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AF79EB7F-53B6-458F-84BF-82950CA97A22}" name="Año" dataDxfId="105">
+    <tableColumn id="1" xr3:uid="{AF79EB7F-53B6-458F-84BF-82950CA97A22}" name="Año" dataDxfId="12">
       <calculatedColumnFormula>YEAR(VentaCerdo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{19A051CF-8C1B-4292-8170-4118C1548088}" name="Mes" dataDxfId="104">
+    <tableColumn id="32" xr3:uid="{19A051CF-8C1B-4292-8170-4118C1548088}" name="Mes" dataDxfId="11">
       <calculatedColumnFormula>MONTH(VentaCerdo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{6C2E3871-F892-4AAA-80F8-BCBBAF515294}" name="Semana" dataDxfId="103">
+    <tableColumn id="30" xr3:uid="{6C2E3871-F892-4AAA-80F8-BCBBAF515294}" name="Semana" dataDxfId="10">
       <calculatedColumnFormula>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{B8618162-D69B-4A8A-8D93-DA3328E46CB0}" name="FECHA" dataDxfId="102"/>
-    <tableColumn id="27" xr3:uid="{C9E3266E-0727-428C-9BF1-A7AD09AE9EAF}" name="Almacen" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{08C0B01F-B3AD-4119-8859-A6491FD939BC}" name="Kilos Salidas" dataDxfId="100"/>
-    <tableColumn id="3" xr3:uid="{404682AC-60FB-4D7E-B817-BD2248526A86}" name="Kilos Cancelados" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{69CCC8E0-14F6-464A-8ECF-15DB81E956CA}" name="Cabezas Salidas" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{582FE33C-0D80-475D-BE61-AFEF1986FB0B}" name="Cabezas Entradas" dataDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{5DC4E71E-F9FC-4F43-96C9-2941B4DB0D05}" name="Importe Ventas" dataDxfId="96" dataCellStyle="Moneda"/>
-    <tableColumn id="7" xr3:uid="{789D5740-B7CD-4B88-BD7F-0439A78EE71F}" name="Importe Costos" dataDxfId="95" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{21DA54D1-A1D1-476A-AAFA-CCA51CAAD970}" name="No. Ventas" dataDxfId="94" dataCellStyle="Moneda"/>
-    <tableColumn id="9" xr3:uid="{5F292483-6A0F-4601-BDA1-69CB1520DF6A}" name="No. Cancelaciones" dataDxfId="93" dataCellStyle="Moneda"/>
+    <tableColumn id="29" xr3:uid="{B8618162-D69B-4A8A-8D93-DA3328E46CB0}" name="FECHA" dataDxfId="9"/>
+    <tableColumn id="27" xr3:uid="{C9E3266E-0727-428C-9BF1-A7AD09AE9EAF}" name="Almacen" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{08C0B01F-B3AD-4119-8859-A6491FD939BC}" name="Kilos Salidas" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{404682AC-60FB-4D7E-B817-BD2248526A86}" name="Kilos Cancelados" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{69CCC8E0-14F6-464A-8ECF-15DB81E956CA}" name="Cabezas Salidas" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{582FE33C-0D80-475D-BE61-AFEF1986FB0B}" name="Cabezas Entradas" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{5DC4E71E-F9FC-4F43-96C9-2941B4DB0D05}" name="Importe Ventas" dataDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{789D5740-B7CD-4B88-BD7F-0439A78EE71F}" name="Importe Costos" dataDxfId="2" dataCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{21DA54D1-A1D1-476A-AAFA-CCA51CAAD970}" name="No. Ventas" dataDxfId="1" dataCellStyle="Moneda"/>
+    <tableColumn id="9" xr3:uid="{5F292483-6A0F-4601-BDA1-69CB1520DF6A}" name="No. Cancelaciones" dataDxfId="0" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF896AA2-B65B-4FCE-818D-A2F40213676F}" name="VentaBorrego" displayName="VentaBorrego" ref="A3:N42" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF896AA2-B65B-4FCE-818D-A2F40213676F}" name="VentaBorrego" displayName="VentaBorrego" ref="A3:N42" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A3:N42" xr:uid="{38DBC52E-8295-4265-BD99-782A589694BE}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{BD5E6769-D0E8-4F54-880B-5D38062AAF9A}" name="Año" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{BD5E6769-D0E8-4F54-880B-5D38062AAF9A}" name="Año" dataDxfId="65">
       <calculatedColumnFormula>YEAR(VentaBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{14A4283D-6080-4AEE-9DFB-7811E2F62E2B}" name="Mes" dataDxfId="49">
+    <tableColumn id="2" xr3:uid="{14A4283D-6080-4AEE-9DFB-7811E2F62E2B}" name="Mes" dataDxfId="64">
       <calculatedColumnFormula>MONTH(VentaBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{82A091B3-D16B-4CE7-AA3D-FA4F05EDA4BA}" name="Semana" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{82A091B3-D16B-4CE7-AA3D-FA4F05EDA4BA}" name="Semana" dataDxfId="63">
       <calculatedColumnFormula>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{13F5AFB3-77AC-44D0-961F-823E68D126F3}" name="FECHA" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{EBDDF3F9-0C0A-4094-AA1F-B2D397AB66A1}" name="PZA / CABEZA" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{1D78316A-F810-4621-B59B-6F206C31ECCE}" name="Granja" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{E000B50B-F6FB-4F0F-BD43-C09E32FC0162}" name="Kilos Total" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{D1555C53-BD42-42F2-929D-D387FAF35155}" name="Kilos Cancelados" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{F3438513-7B19-4D28-AB39-40BCE1C169BE}" name="Cabezas Salidas" dataDxfId="42"/>
-    <tableColumn id="10" xr3:uid="{897F88A8-933A-486C-AF8B-B272BBA93476}" name="Cabezas Entradas" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{434ABA26-D192-4815-8FC2-8380C56F30E1}" name="Importe Ventas" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{5360CB49-C259-428D-A326-744802978D19}" name="Importe Costos" dataDxfId="39"/>
-    <tableColumn id="13" xr3:uid="{45F67444-6C73-4B85-96D1-DE35910222FD}" name="No. Ventas" dataDxfId="38"/>
-    <tableColumn id="14" xr3:uid="{8238E6F8-EF54-4793-BA99-0035F6738AFB}" name="No. Cancelaciones" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{13F5AFB3-77AC-44D0-961F-823E68D126F3}" name="FECHA" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{EBDDF3F9-0C0A-4094-AA1F-B2D397AB66A1}" name="PZA / CABEZA" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{1D78316A-F810-4621-B59B-6F206C31ECCE}" name="Granja" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{E000B50B-F6FB-4F0F-BD43-C09E32FC0162}" name="Kilos Total" dataDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{D1555C53-BD42-42F2-929D-D387FAF35155}" name="Kilos Cancelados" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{F3438513-7B19-4D28-AB39-40BCE1C169BE}" name="Cabezas Salidas" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{897F88A8-933A-486C-AF8B-B272BBA93476}" name="Cabezas Entradas" dataDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{434ABA26-D192-4815-8FC2-8380C56F30E1}" name="Importe Ventas" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{5360CB49-C259-428D-A326-744802978D19}" name="Importe Costos" dataDxfId="54"/>
+    <tableColumn id="13" xr3:uid="{45F67444-6C73-4B85-96D1-DE35910222FD}" name="No. Ventas" dataDxfId="53"/>
+    <tableColumn id="14" xr3:uid="{8238E6F8-EF54-4793-BA99-0035F6738AFB}" name="No. Cancelaciones" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:V4" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:V4" totalsRowShown="0" headerRowDxfId="51">
   <autoFilter ref="P3:V4" xr:uid="{F3E1A5D4-2206-4A5B-8082-DCC730185F04}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F593C191-662A-4A08-9C07-3BC417717AF5}" name="AÑO">
@@ -3962,17 +3968,17 @@
     <tableColumn id="3" xr3:uid="{AC94EA02-7DE1-43F2-9333-779EF3503D3B}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NB[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="X3:AD4" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="X3:AD4" totalsRowShown="0" headerRowDxfId="46">
   <autoFilter ref="X3:AD4" xr:uid="{C07E5018-4C77-46A8-A50B-107FA9C88156}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1E8E5BF2-508C-417D-BE57-3AACF0C714C5}" name="AÑO">
@@ -3984,10 +3990,10 @@
     <tableColumn id="3" xr3:uid="{0BD97616-9EFF-4FF6-9E9B-D9B72CED3912}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MB[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4004,10 +4010,10 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="C1:C6" xr:uid="{79BD6A38-95D5-48F5-B30F-01B067AA4A61}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4064,7 +4070,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7FA5903A-793D-41AF-927E-0E5AEF940163}" name="NC" displayName="NC" ref="O3:U4" totalsRowShown="0" headerRowDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7FA5903A-793D-41AF-927E-0E5AEF940163}" name="NC" displayName="NC" ref="O3:U4" totalsRowShown="0" headerRowDxfId="107">
   <autoFilter ref="O3:U4" xr:uid="{02D5D0CD-EDA4-456A-A5E8-9F3730BDF858}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C0348CA9-B923-4DF2-B7B8-6F0BEEF03B4F}" name="AÑO">
@@ -4076,10 +4082,10 @@
     <tableColumn id="3" xr3:uid="{A92A8AB5-1C79-4CA4-B109-A49731842416}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NC[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1E2C6755-7899-4C5E-8849-9F4DEA103FB6}" name="Fecha" dataDxfId="91"/>
-    <tableColumn id="5" xr3:uid="{3E44B0DD-62A3-4C63-B2ED-8D9F754BC1C8}" name="Descripción" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{9FD31AF2-F6BB-40A9-A5EF-A7BE8C1EE096}" name="Almacén" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{D483493A-6942-4223-8114-7C47B876A768}" name="Entrada" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{1E2C6755-7899-4C5E-8849-9F4DEA103FB6}" name="Fecha" dataDxfId="106"/>
+    <tableColumn id="5" xr3:uid="{3E44B0DD-62A3-4C63-B2ED-8D9F754BC1C8}" name="Descripción" dataDxfId="105"/>
+    <tableColumn id="7" xr3:uid="{9FD31AF2-F6BB-40A9-A5EF-A7BE8C1EE096}" name="Almacén" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{D483493A-6942-4223-8114-7C47B876A768}" name="Entrada" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4106,10 +4112,10 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="C1:C8" xr:uid="{750FC6F7-70F6-4B4E-96D7-A30F50A00065}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4156,27 +4162,27 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="M1:M25" xr:uid="{066AC525-C68B-40D3-AE6B-D275A0A79615}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="O1:O8" xr:uid="{5D329DB3-7365-4EEF-8F0E-32C5AD338BA4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="Q1:Q4" xr:uid="{B76C3F68-F66F-46E8-9784-B4AAADE438F9}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7AF09891-3B17-4F67-912C-FAE5416AB3EF}" name="Unidad"/>
@@ -4186,7 +4192,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{1EEBF04B-5CA7-4B0A-ADFE-2A6A9768B634}" name="MC" displayName="MC" ref="W3:AC4" totalsRowShown="0" headerRowDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{1EEBF04B-5CA7-4B0A-ADFE-2A6A9768B634}" name="MC" displayName="MC" ref="W3:AC4" totalsRowShown="0" headerRowDxfId="102">
   <autoFilter ref="W3:AC4" xr:uid="{15203CCB-6A72-4C9E-82BA-A853B5165F17}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{99A49235-A43E-4B45-948E-613A29DBA5A6}" name="AÑO">
@@ -4198,10 +4204,10 @@
     <tableColumn id="3" xr3:uid="{CC8DCD94-2C62-421E-8A0B-4EE9F9AA0BA6}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MC[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057B6A06-06EB-4370-9C7D-67B564AB477C}" name="Fecha" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{F7D1F4AC-D899-4963-BC58-63184492E881}" name="Descripción" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{C424C129-BB09-45C4-8A52-C928098DD204}" name="Almacén" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{D7883101-3244-4BC1-AC2D-3BFB937551E5}" name="Salida" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{057B6A06-06EB-4370-9C7D-67B564AB477C}" name="Fecha" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{F7D1F4AC-D899-4963-BC58-63184492E881}" name="Descripción" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{C424C129-BB09-45C4-8A52-C928098DD204}" name="Almacén" dataDxfId="99"/>
+    <tableColumn id="6" xr3:uid="{D7883101-3244-4BC1-AC2D-3BFB937551E5}" name="Salida" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4292,33 +4298,33 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K106" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K106" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="A3:K106" xr:uid="{D4382671-7652-40D0-940C-E955EF481B0A}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD9F0EF0-AAEC-44EF-B652-AEE3A7B1514D}" name="Año" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{FD9F0EF0-AAEC-44EF-B652-AEE3A7B1514D}" name="Año" dataDxfId="95">
       <calculatedColumnFormula>YEAR(VentaHuevo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{38DF3F1A-ECDF-4B36-9176-FD4C2215E738}" name="Mes" dataDxfId="79">
+    <tableColumn id="2" xr3:uid="{38DF3F1A-ECDF-4B36-9176-FD4C2215E738}" name="Mes" dataDxfId="94">
       <calculatedColumnFormula>MONTH(VentaHuevo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0806F8F4-F211-461B-8637-91E4CE806C4D}" name="Semana" dataDxfId="78">
+    <tableColumn id="3" xr3:uid="{0806F8F4-F211-461B-8637-91E4CE806C4D}" name="Semana" dataDxfId="93">
       <calculatedColumnFormula>WEEKNUM(VentaHuevo[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8434CCCE-DE27-4AE6-A002-E0E6CF045C72}" name="FECHA" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{779AD8B5-3C79-434E-A399-2FBAD1799E8D}" name="Postura" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{A97041C1-DD4A-498F-8E13-F603ABE564D9}" name="Kilos Total" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{CC975B41-EAF3-4B15-B675-8C8CEAE44165}" name="Kilos Cancelados" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{AC4B10C7-0849-4C4C-9BA5-AE8FB92493E2}" name="Importe Ventas" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{B2B64C19-21ED-42F7-B0F5-7AE2560707DB}" name="Importe Costos" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{777D0A0A-820D-4722-8450-983DB543ED2D}" name="No. Ventas" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{7E467BF3-DE83-4056-B631-B9B5060F190D}" name="No. Cancelaciones" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{8434CCCE-DE27-4AE6-A002-E0E6CF045C72}" name="FECHA" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{779AD8B5-3C79-434E-A399-2FBAD1799E8D}" name="Postura" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{A97041C1-DD4A-498F-8E13-F603ABE564D9}" name="Kilos Total" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{CC975B41-EAF3-4B15-B675-8C8CEAE44165}" name="Kilos Cancelados" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{AC4B10C7-0849-4C4C-9BA5-AE8FB92493E2}" name="Importe Ventas" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{B2B64C19-21ED-42F7-B0F5-7AE2560707DB}" name="Importe Costos" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{777D0A0A-820D-4722-8450-983DB543ED2D}" name="No. Ventas" dataDxfId="86"/>
+    <tableColumn id="11" xr3:uid="{7E467BF3-DE83-4056-B631-B9B5060F190D}" name="No. Cancelaciones" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B8C3BF5-B426-4FC9-8CCD-BD04125E8FC9}" name="RecoleccionHuevo" displayName="RecoleccionHuevo" ref="M3:T248" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" tableBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B8C3BF5-B426-4FC9-8CCD-BD04125E8FC9}" name="RecoleccionHuevo" displayName="RecoleccionHuevo" ref="M3:T248" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83" tableBorderDxfId="82">
   <autoFilter ref="M3:T248" xr:uid="{60C9021B-900B-4B60-A55B-39BD4E52B0C3}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5556DBC3-8C5C-48FF-AC71-14BD1764535F}" name="Año">
@@ -4330,18 +4336,18 @@
     <tableColumn id="3" xr3:uid="{B97B1594-D27C-4255-B30B-9D3C3FCE7D1F}" name="Semana">
       <calculatedColumnFormula>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F575BA58-C636-4CCE-AEC8-386F16DEDFFA}" name="Fecha" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{F575BA58-C636-4CCE-AEC8-386F16DEDFFA}" name="Fecha" dataDxfId="81"/>
     <tableColumn id="5" xr3:uid="{D6F82851-3690-4182-8BD9-4BE245CA5B59}" name="Bodega Origen"/>
-    <tableColumn id="6" xr3:uid="{F0B3184E-20DE-4D34-8B90-DB4940FA096B}" name="Cantidad" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{9D264A97-0E03-44D4-AE76-4CD1B7BAA7FD}" name="Kilos" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{89B76523-86A1-41BF-B81B-2D6DD4F17AEE}" name="Cajas" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{F0B3184E-20DE-4D34-8B90-DB4940FA096B}" name="Cantidad" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{9D264A97-0E03-44D4-AE76-4CD1B7BAA7FD}" name="Kilos" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{89B76523-86A1-41BF-B81B-2D6DD4F17AEE}" name="Cajas" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{49922715-EB52-4A65-91E4-0475F5534B83}" name="NH" displayName="NH" ref="V3:AB4" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{49922715-EB52-4A65-91E4-0475F5534B83}" name="NH" displayName="NH" ref="V3:AB4" totalsRowShown="0" headerRowDxfId="77">
   <autoFilter ref="V3:AB4" xr:uid="{9E909787-7729-4B69-B0D7-61A481011055}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BB52ECF0-F2EE-4B65-A7D9-9EDA649B5891}" name="AÑO">
@@ -4353,17 +4359,17 @@
     <tableColumn id="3" xr3:uid="{40E66E16-55FD-40FD-8212-C14977333B21}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NH[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4DAFF2EC-25FE-4925-B214-00D322A9AC67}" name="Fecha" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{5EA58C44-0B6E-4368-8DCF-6D66196470FC}" name="Descripción" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{97EB3DE5-BB67-459C-B513-658E8D859B6B}" name="Almacén" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{6E7BB089-A777-4CF9-A575-1F853606112B}" name="Entrada" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{4DAFF2EC-25FE-4925-B214-00D322A9AC67}" name="Fecha" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{5EA58C44-0B6E-4368-8DCF-6D66196470FC}" name="Descripción" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{97EB3DE5-BB67-459C-B513-658E8D859B6B}" name="Almacén" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{6E7BB089-A777-4CF9-A575-1F853606112B}" name="Entrada" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AD3:AJ4" totalsRowShown="0" headerRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AD3:AJ4" totalsRowShown="0" headerRowDxfId="72">
   <autoFilter ref="AD3:AJ4" xr:uid="{8AC8429F-5A18-4F92-8A2F-B1AB086595B2}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2909D7D7-7DF1-42BB-B6A6-7E79BD333390}" name="AÑO">
@@ -4375,10 +4381,10 @@
     <tableColumn id="3" xr3:uid="{5BE7723A-8CFB-4D4C-B93F-00B4E59A0013}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MH[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4671,15 +4677,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM122"/>
+  <dimension ref="A1:AM140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AE1:AG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
@@ -4712,82 +4718,82 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
+      <c r="D1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
     </row>
     <row r="2" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="31"/>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="Z2" s="34" t="s">
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="Z2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AH2" s="43" t="s">
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AH2" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -10180,6 +10186,757 @@
       <c r="M122" s="8">
         <v>0</v>
       </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B123" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C123" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="D123" s="47">
+        <v>44198</v>
+      </c>
+      <c r="E123" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="49">
+        <v>530</v>
+      </c>
+      <c r="G123" s="49">
+        <v>0</v>
+      </c>
+      <c r="H123" s="49">
+        <v>5</v>
+      </c>
+      <c r="I123" s="49">
+        <v>0</v>
+      </c>
+      <c r="J123" s="50">
+        <v>19345</v>
+      </c>
+      <c r="K123" s="50">
+        <v>16367.69</v>
+      </c>
+      <c r="L123" s="50">
+        <v>1</v>
+      </c>
+      <c r="M123" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B124" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C124" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="D124" s="47">
+        <v>44198</v>
+      </c>
+      <c r="E124" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="49">
+        <v>13455</v>
+      </c>
+      <c r="G124" s="49">
+        <v>0</v>
+      </c>
+      <c r="H124" s="49">
+        <v>114</v>
+      </c>
+      <c r="I124" s="49">
+        <v>0</v>
+      </c>
+      <c r="J124" s="50">
+        <v>485477.5</v>
+      </c>
+      <c r="K124" s="50">
+        <v>338133.66000000003</v>
+      </c>
+      <c r="L124" s="50">
+        <v>2</v>
+      </c>
+      <c r="M124" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B125" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C125" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="D125" s="47">
+        <v>44200</v>
+      </c>
+      <c r="E125" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="49">
+        <v>1996.5</v>
+      </c>
+      <c r="G125" s="49">
+        <v>0</v>
+      </c>
+      <c r="H125" s="49">
+        <v>22</v>
+      </c>
+      <c r="I125" s="49">
+        <v>0</v>
+      </c>
+      <c r="J125" s="50">
+        <v>72811.25</v>
+      </c>
+      <c r="K125" s="50">
+        <v>60176.89</v>
+      </c>
+      <c r="L125" s="50">
+        <v>11</v>
+      </c>
+      <c r="M125" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B126" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C126" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="D126" s="47">
+        <v>44200</v>
+      </c>
+      <c r="E126" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="49">
+        <v>37351.099999999991</v>
+      </c>
+      <c r="G126" s="49">
+        <v>0</v>
+      </c>
+      <c r="H126" s="49">
+        <v>338</v>
+      </c>
+      <c r="I126" s="49">
+        <v>0</v>
+      </c>
+      <c r="J126" s="50">
+        <v>1357823.1000000003</v>
+      </c>
+      <c r="K126" s="50">
+        <v>1176660.2900000005</v>
+      </c>
+      <c r="L126" s="50">
+        <v>68</v>
+      </c>
+      <c r="M126" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B127" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C127" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="D127" s="47">
+        <v>44200</v>
+      </c>
+      <c r="E127" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="49">
+        <v>30666</v>
+      </c>
+      <c r="G127" s="49">
+        <v>0</v>
+      </c>
+      <c r="H127" s="49">
+        <v>264</v>
+      </c>
+      <c r="I127" s="49">
+        <v>0</v>
+      </c>
+      <c r="J127" s="50">
+        <v>1081406.2</v>
+      </c>
+      <c r="K127" s="50">
+        <v>751553.53</v>
+      </c>
+      <c r="L127" s="50">
+        <v>6</v>
+      </c>
+      <c r="M127" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B128" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C128" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="D128" s="47">
+        <v>44200</v>
+      </c>
+      <c r="E128" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="49">
+        <v>1082</v>
+      </c>
+      <c r="G128" s="49">
+        <v>557</v>
+      </c>
+      <c r="H128" s="49">
+        <v>9</v>
+      </c>
+      <c r="I128" s="49">
+        <v>4</v>
+      </c>
+      <c r="J128" s="50">
+        <v>17245</v>
+      </c>
+      <c r="K128" s="50">
+        <v>16238.91</v>
+      </c>
+      <c r="L128" s="50">
+        <v>2</v>
+      </c>
+      <c r="M128" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B129" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C129" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>3</v>
+      </c>
+      <c r="D129" s="47">
+        <v>44207</v>
+      </c>
+      <c r="E129" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="49">
+        <v>2715</v>
+      </c>
+      <c r="G129" s="49">
+        <v>0</v>
+      </c>
+      <c r="H129" s="49">
+        <v>29</v>
+      </c>
+      <c r="I129" s="49">
+        <v>0</v>
+      </c>
+      <c r="J129" s="50">
+        <v>95380.5</v>
+      </c>
+      <c r="K129" s="50">
+        <v>80617.739999999991</v>
+      </c>
+      <c r="L129" s="50">
+        <v>13</v>
+      </c>
+      <c r="M129" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B130" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C130" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>3</v>
+      </c>
+      <c r="D130" s="47">
+        <v>44207</v>
+      </c>
+      <c r="E130" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="49">
+        <v>32772.399999999994</v>
+      </c>
+      <c r="G130" s="49">
+        <v>0</v>
+      </c>
+      <c r="H130" s="49">
+        <v>284</v>
+      </c>
+      <c r="I130" s="49">
+        <v>0</v>
+      </c>
+      <c r="J130" s="50">
+        <v>1160187.7000000002</v>
+      </c>
+      <c r="K130" s="50">
+        <v>995179.52000000025</v>
+      </c>
+      <c r="L130" s="50">
+        <v>68</v>
+      </c>
+      <c r="M130" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B131" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C131" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>3</v>
+      </c>
+      <c r="D131" s="47">
+        <v>44207</v>
+      </c>
+      <c r="E131" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="49">
+        <v>7435</v>
+      </c>
+      <c r="G131" s="49">
+        <v>0</v>
+      </c>
+      <c r="H131" s="49">
+        <v>63</v>
+      </c>
+      <c r="I131" s="49">
+        <v>0</v>
+      </c>
+      <c r="J131" s="50">
+        <v>260275</v>
+      </c>
+      <c r="K131" s="50">
+        <v>188658.46000000002</v>
+      </c>
+      <c r="L131" s="50">
+        <v>3</v>
+      </c>
+      <c r="M131" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B132" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C132" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>3</v>
+      </c>
+      <c r="D132" s="47">
+        <v>44207</v>
+      </c>
+      <c r="E132" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="49">
+        <v>19490</v>
+      </c>
+      <c r="G132" s="49">
+        <v>122</v>
+      </c>
+      <c r="H132" s="49">
+        <v>81</v>
+      </c>
+      <c r="I132" s="49">
+        <v>1</v>
+      </c>
+      <c r="J132" s="50">
+        <v>342972</v>
+      </c>
+      <c r="K132" s="50">
+        <v>220845.04</v>
+      </c>
+      <c r="L132" s="50">
+        <v>4</v>
+      </c>
+      <c r="M132" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B133" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C133" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>4</v>
+      </c>
+      <c r="D133" s="47">
+        <v>44214</v>
+      </c>
+      <c r="E133" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="49">
+        <v>26039.4</v>
+      </c>
+      <c r="G133" s="49">
+        <v>321.39999999999998</v>
+      </c>
+      <c r="H133" s="49">
+        <v>227</v>
+      </c>
+      <c r="I133" s="49">
+        <v>3</v>
+      </c>
+      <c r="J133" s="50">
+        <v>894312</v>
+      </c>
+      <c r="K133" s="50">
+        <v>578180.94000000018</v>
+      </c>
+      <c r="L133" s="50">
+        <v>55</v>
+      </c>
+      <c r="M133" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B134" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C134" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>4</v>
+      </c>
+      <c r="D134" s="47">
+        <v>44214</v>
+      </c>
+      <c r="E134" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="49">
+        <v>10512</v>
+      </c>
+      <c r="G134" s="49">
+        <v>10</v>
+      </c>
+      <c r="H134" s="49">
+        <v>106</v>
+      </c>
+      <c r="I134" s="49">
+        <v>10</v>
+      </c>
+      <c r="J134" s="50">
+        <v>359374.4</v>
+      </c>
+      <c r="K134" s="50">
+        <v>224933.3</v>
+      </c>
+      <c r="L134" s="50">
+        <v>4</v>
+      </c>
+      <c r="M134" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B135" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C135" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>4</v>
+      </c>
+      <c r="D135" s="47">
+        <v>44214</v>
+      </c>
+      <c r="E135" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="49">
+        <v>18575.12</v>
+      </c>
+      <c r="G135" s="49">
+        <v>0</v>
+      </c>
+      <c r="H135" s="49">
+        <v>116</v>
+      </c>
+      <c r="I135" s="49">
+        <v>0</v>
+      </c>
+      <c r="J135" s="50">
+        <v>445373.2</v>
+      </c>
+      <c r="K135" s="50">
+        <v>303573.81999999995</v>
+      </c>
+      <c r="L135" s="50">
+        <v>26</v>
+      </c>
+      <c r="M135" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B136" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C136" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="D136" s="47">
+        <v>44221</v>
+      </c>
+      <c r="E136" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" s="49">
+        <v>9499</v>
+      </c>
+      <c r="G136" s="49">
+        <v>0</v>
+      </c>
+      <c r="H136" s="49">
+        <v>90</v>
+      </c>
+      <c r="I136" s="49">
+        <v>0</v>
+      </c>
+      <c r="J136" s="50">
+        <v>324966.25</v>
+      </c>
+      <c r="K136" s="50">
+        <v>247406.68999999986</v>
+      </c>
+      <c r="L136" s="50">
+        <v>28</v>
+      </c>
+      <c r="M136" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B137" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C137" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="D137" s="47">
+        <v>44221</v>
+      </c>
+      <c r="E137" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="49">
+        <v>25285.3</v>
+      </c>
+      <c r="G137" s="49">
+        <v>804.5</v>
+      </c>
+      <c r="H137" s="49">
+        <v>227</v>
+      </c>
+      <c r="I137" s="49">
+        <v>7</v>
+      </c>
+      <c r="J137" s="50">
+        <v>835695.3</v>
+      </c>
+      <c r="K137" s="50">
+        <v>711463.20000000019</v>
+      </c>
+      <c r="L137" s="50">
+        <v>54</v>
+      </c>
+      <c r="M137" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B138" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C138" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="D138" s="47">
+        <v>44221</v>
+      </c>
+      <c r="E138" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="49">
+        <v>23470.800000000003</v>
+      </c>
+      <c r="G138" s="49">
+        <v>0</v>
+      </c>
+      <c r="H138" s="49">
+        <v>203</v>
+      </c>
+      <c r="I138" s="49">
+        <v>0</v>
+      </c>
+      <c r="J138" s="50">
+        <v>794032.8</v>
+      </c>
+      <c r="K138" s="50">
+        <v>501381.18999999994</v>
+      </c>
+      <c r="L138" s="50">
+        <v>10</v>
+      </c>
+      <c r="M138" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="46">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B139" s="46">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C139" s="46">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="D139" s="47">
+        <v>44221</v>
+      </c>
+      <c r="E139" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="49">
+        <v>15125.900000000001</v>
+      </c>
+      <c r="G139" s="49">
+        <v>113.2</v>
+      </c>
+      <c r="H139" s="49">
+        <v>98</v>
+      </c>
+      <c r="I139" s="49">
+        <v>1</v>
+      </c>
+      <c r="J139" s="50">
+        <v>362398.39999999997</v>
+      </c>
+      <c r="K139" s="50">
+        <v>298935.31</v>
+      </c>
+      <c r="L139" s="50">
+        <v>12</v>
+      </c>
+      <c r="M139" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D140" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10206,7 +10963,7 @@
           <x14:formula1>
             <xm:f>ListasCerdo!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E122</xm:sqref>
+          <xm:sqref>E4:E139</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C36725EF-B06F-4509-8254-2CEC4261F233}">
           <x14:formula1>
@@ -10292,96 +11049,96 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
     </row>
     <row r="2" spans="1:46" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="M2" s="38" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="M2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="Y2" s="36" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="Y2" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AG2" s="34" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AG2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AO2" s="43" t="s">
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AO2" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -20991,65 +21748,65 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
     </row>
     <row r="2" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="S2" s="36" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="S2" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="AA2" s="34" t="s">
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="AA2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -23065,8 +23822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A051A8DC-641C-49D6-8AC0-A75FC51D70EC}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23416,13 +24173,13 @@
       <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="34" t="s">
         <v>127</v>
       </c>
     </row>
@@ -23509,7 +24266,7 @@
       <c r="O4" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="Q4" s="35" t="s">
         <v>157</v>
       </c>
     </row>
@@ -23586,7 +24343,7 @@
       <c r="M8" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="35" t="s">
         <v>79</v>
       </c>
     </row>

--- a/GV/RegistroInformacion.xlsx
+++ b/GV/RegistroInformacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4E2B35-1D07-4977-BDEE-E419CB380665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC017730-17FA-4114-9676-E1D096CD1BC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CERDO" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="ListasHuevo" sheetId="5" r:id="rId5"/>
     <sheet name="ListasBorrego" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="165">
   <si>
     <t>CERDOS</t>
   </si>
@@ -236,9 +239,6 @@
   </si>
   <si>
     <t>BORREGO</t>
-  </si>
-  <si>
-    <t>Venta Borrego</t>
   </si>
   <si>
     <t>PZA / CABEZA</t>
@@ -591,6 +591,30 @@
   <si>
     <t>PZAS</t>
   </si>
+  <si>
+    <t>Kilos Total B</t>
+  </si>
+  <si>
+    <t>Kilos Cancelados B</t>
+  </si>
+  <si>
+    <t>Cabezas Salidas B</t>
+  </si>
+  <si>
+    <t>Cabezas Entradas B</t>
+  </si>
+  <si>
+    <t>Importe Ventas B</t>
+  </si>
+  <si>
+    <t>Importe Costos B</t>
+  </si>
+  <si>
+    <t>No. Ventas B</t>
+  </si>
+  <si>
+    <t>No. Cancelaciones B</t>
+  </si>
 </sst>
 </file>
 
@@ -737,7 +761,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,12 +825,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -957,20 +975,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -985,23 +1008,161 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="108">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1118,31 +1279,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1187,78 +1324,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1333,7 +1398,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1897,402 +1962,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3065,6 +2734,364 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3743,8 +3770,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>573750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>291664</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>24964</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3796,8 +3823,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>446995</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>288000</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3850,7 +3877,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>696844</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>784</xdr:rowOff>
+      <xdr:rowOff>29359</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3895,68 +3922,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="VENTAS HUEVO"/>
+      <sheetName val="VENTA BORREGO"/>
+      <sheetName val="VENTAS CERDO"/>
+      <sheetName val="COSTO CERDO"/>
+      <sheetName val="COSTO BORREGO"/>
+      <sheetName val="COSTO HUEVO"/>
+      <sheetName val="MUERTES CERDO"/>
+      <sheetName val="MUERTE HUEVO"/>
+      <sheetName val="MUERTE BORREGO"/>
+      <sheetName val="NACIMIENTOS GALLINA"/>
+      <sheetName val="NACIMIENTOS CERDOS"/>
+      <sheetName val="NACIMIENTO BORREGO"/>
+      <sheetName val="BORREGGASTOS DIRECTOS-EN CORRAL"/>
+      <sheetName val="HUEVO GAST DIRECTO- EN CORRAL "/>
+      <sheetName val="VENTA CERDOS GRANJA"/>
+      <sheetName val="INSUMOS CERDO"/>
+      <sheetName val="VENTAS TOTALES"/>
+      <sheetName val="INSUMOS AVE"/>
+      <sheetName val="MEDICAMENTO GENERAL FORMULACION"/>
+      <sheetName val="CONSUMO GRANO-PASTAS"/>
+      <sheetName val="GASTOS CERDO"/>
+      <sheetName val="GASTOS AVES"/>
+      <sheetName val="SUELDOS Y SALARIOS AVES"/>
+      <sheetName val="SUELDOS Y SALARIOS CERDO"/>
+      <sheetName val="SUELDOS Y SALARIOS BORREGOS"/>
+      <sheetName val="ALIMENTOS FORMULA AVES"/>
+      <sheetName val="ALIMENTOS FORMULAS CERDOS "/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB0CB5FE-EC69-4A3C-B7F8-2A2B829875A7}" name="VentaCerdo" displayName="VentaCerdo" ref="A3:M139" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB0CB5FE-EC69-4A3C-B7F8-2A2B829875A7}" name="VentaCerdo" displayName="VentaCerdo" ref="A3:M139" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A3:M139" xr:uid="{C9EBBED2-E078-4EE1-9F48-7C43C603BD9F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M122">
     <sortCondition ref="D3:D122"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AF79EB7F-53B6-458F-84BF-82950CA97A22}" name="Año" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{AF79EB7F-53B6-458F-84BF-82950CA97A22}" name="Año" dataDxfId="105">
       <calculatedColumnFormula>YEAR(VentaCerdo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{19A051CF-8C1B-4292-8170-4118C1548088}" name="Mes" dataDxfId="11">
+    <tableColumn id="32" xr3:uid="{19A051CF-8C1B-4292-8170-4118C1548088}" name="Mes" dataDxfId="104">
       <calculatedColumnFormula>MONTH(VentaCerdo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{6C2E3871-F892-4AAA-80F8-BCBBAF515294}" name="Semana" dataDxfId="10">
+    <tableColumn id="30" xr3:uid="{6C2E3871-F892-4AAA-80F8-BCBBAF515294}" name="Semana" dataDxfId="103">
       <calculatedColumnFormula>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{B8618162-D69B-4A8A-8D93-DA3328E46CB0}" name="FECHA" dataDxfId="9"/>
-    <tableColumn id="27" xr3:uid="{C9E3266E-0727-428C-9BF1-A7AD09AE9EAF}" name="Almacen" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{08C0B01F-B3AD-4119-8859-A6491FD939BC}" name="Kilos Salidas" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{404682AC-60FB-4D7E-B817-BD2248526A86}" name="Kilos Cancelados" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{69CCC8E0-14F6-464A-8ECF-15DB81E956CA}" name="Cabezas Salidas" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{582FE33C-0D80-475D-BE61-AFEF1986FB0B}" name="Cabezas Entradas" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{5DC4E71E-F9FC-4F43-96C9-2941B4DB0D05}" name="Importe Ventas" dataDxfId="3" dataCellStyle="Moneda"/>
-    <tableColumn id="7" xr3:uid="{789D5740-B7CD-4B88-BD7F-0439A78EE71F}" name="Importe Costos" dataDxfId="2" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{21DA54D1-A1D1-476A-AAFA-CCA51CAAD970}" name="No. Ventas" dataDxfId="1" dataCellStyle="Moneda"/>
-    <tableColumn id="9" xr3:uid="{5F292483-6A0F-4601-BDA1-69CB1520DF6A}" name="No. Cancelaciones" dataDxfId="0" dataCellStyle="Moneda"/>
+    <tableColumn id="29" xr3:uid="{B8618162-D69B-4A8A-8D93-DA3328E46CB0}" name="FECHA" dataDxfId="102"/>
+    <tableColumn id="27" xr3:uid="{C9E3266E-0727-428C-9BF1-A7AD09AE9EAF}" name="Almacen" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{08C0B01F-B3AD-4119-8859-A6491FD939BC}" name="Kilos Salidas" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{404682AC-60FB-4D7E-B817-BD2248526A86}" name="Kilos Cancelados" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{69CCC8E0-14F6-464A-8ECF-15DB81E956CA}" name="Cabezas Salidas" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{582FE33C-0D80-475D-BE61-AFEF1986FB0B}" name="Cabezas Entradas" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{5DC4E71E-F9FC-4F43-96C9-2941B4DB0D05}" name="Importe Ventas" dataDxfId="96" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{789D5740-B7CD-4B88-BD7F-0439A78EE71F}" name="Importe Costos" dataDxfId="95" dataCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{21DA54D1-A1D1-476A-AAFA-CCA51CAAD970}" name="No. Ventas" dataDxfId="94" dataCellStyle="Moneda"/>
+    <tableColumn id="9" xr3:uid="{5F292483-6A0F-4601-BDA1-69CB1520DF6A}" name="No. Cancelaciones" dataDxfId="93" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF896AA2-B65B-4FCE-818D-A2F40213676F}" name="VentaBorrego" displayName="VentaBorrego" ref="A3:N42" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
-  <autoFilter ref="A3:N42" xr:uid="{38DBC52E-8295-4265-BD99-782A589694BE}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{BD5E6769-D0E8-4F54-880B-5D38062AAF9A}" name="Año" dataDxfId="65">
-      <calculatedColumnFormula>YEAR(VentaBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{14A4283D-6080-4AEE-9DFB-7811E2F62E2B}" name="Mes" dataDxfId="64">
-      <calculatedColumnFormula>MONTH(VentaBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{82A091B3-D16B-4CE7-AA3D-FA4F05EDA4BA}" name="Semana" dataDxfId="63">
-      <calculatedColumnFormula>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{13F5AFB3-77AC-44D0-961F-823E68D126F3}" name="FECHA" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{EBDDF3F9-0C0A-4094-AA1F-B2D397AB66A1}" name="PZA / CABEZA" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{1D78316A-F810-4621-B59B-6F206C31ECCE}" name="Granja" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{E000B50B-F6FB-4F0F-BD43-C09E32FC0162}" name="Kilos Total" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{D1555C53-BD42-42F2-929D-D387FAF35155}" name="Kilos Cancelados" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{F3438513-7B19-4D28-AB39-40BCE1C169BE}" name="Cabezas Salidas" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{897F88A8-933A-486C-AF8B-B272BBA93476}" name="Cabezas Entradas" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{434ABA26-D192-4815-8FC2-8380C56F30E1}" name="Importe Ventas" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{5360CB49-C259-428D-A326-744802978D19}" name="Importe Costos" dataDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{45F67444-6C73-4B85-96D1-DE35910222FD}" name="No. Ventas" dataDxfId="53"/>
-    <tableColumn id="14" xr3:uid="{8238E6F8-EF54-4793-BA99-0035F6738AFB}" name="No. Cancelaciones" dataDxfId="52"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:V4" totalsRowShown="0" headerRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:V4" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="P3:V4" xr:uid="{F3E1A5D4-2206-4A5B-8082-DCC730185F04}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F593C191-662A-4A08-9C07-3BC417717AF5}" name="AÑO">
@@ -3968,17 +4031,17 @@
     <tableColumn id="3" xr3:uid="{AC94EA02-7DE1-43F2-9333-779EF3503D3B}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NB[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="X3:AD4" totalsRowShown="0" headerRowDxfId="46">
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="X3:AD4" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="X3:AD4" xr:uid="{C07E5018-4C77-46A8-A50B-107FA9C88156}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1E8E5BF2-508C-417D-BE57-3AACF0C714C5}" name="AÑO">
@@ -3990,10 +4053,42 @@
     <tableColumn id="3" xr3:uid="{0BD97616-9EFF-4FF6-9E9B-D9B72CED3912}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MB[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73802A7C-9467-411F-9B9E-19B18579D18D}" name="InfoBorrego" displayName="InfoBorrego" ref="A2:N44" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A2:N44" xr:uid="{4C07E7EB-F7E2-4DFC-BEF6-4C6501D45968}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N41">
+    <sortCondition ref="D2:D41"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{25DB43AE-6CB5-4052-9309-BB1A746C2B8A}" name="Año" dataDxfId="13">
+      <calculatedColumnFormula>YEAR(InfoBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{B9143660-3AB8-467B-8920-CB6CB4D2AE62}" name="Mes" dataDxfId="12">
+      <calculatedColumnFormula>MONTH(InfoBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{AD20FB6D-7BA0-4707-ADAF-18C68FD3089A}" name="Semana" dataDxfId="2">
+      <calculatedColumnFormula>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{18D75885-EEF0-4220-823D-4DA7DDF39375}" name="FECHA" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{43C2662C-CE7E-4866-957A-930698AB7A66}" name="PZA / CABEZA" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{B36A48EC-1A46-443B-B51A-33AD0D405A7B}" name="Granja" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{45BC65EB-537A-46EE-A94D-E1B7DA25F506}" name="Kilos Total B" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{B13E5F32-1CBF-4933-9A8F-8BD77BB84FD1}" name="Kilos Cancelados B" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{13DF204B-F704-4C3D-9381-D61A397A889E}" name="Cabezas Salidas B" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{27CA73FF-4927-4DCD-B37A-432278B1E1F4}" name="Cabezas Entradas B" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{FDAD35B4-C441-497A-A2DE-3236A7DFCE37}" name="Importe Ventas B" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{C3E0BFB5-AFCA-4C46-A1D9-EFB178AD5EEE}" name="Importe Costos B" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{B77506E4-D768-4D48-8C92-80B9A5A43275}" name="No. Ventas B" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{CEA4441E-EC83-441E-B023-EBEADC5A7A4F}" name="No. Cancelaciones B" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4010,10 +4105,10 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="C1:C6" xr:uid="{79BD6A38-95D5-48F5-B30F-01B067AA4A61}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4070,7 +4165,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7FA5903A-793D-41AF-927E-0E5AEF940163}" name="NC" displayName="NC" ref="O3:U4" totalsRowShown="0" headerRowDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7FA5903A-793D-41AF-927E-0E5AEF940163}" name="NC" displayName="NC" ref="O3:U4" totalsRowShown="0" headerRowDxfId="92">
   <autoFilter ref="O3:U4" xr:uid="{02D5D0CD-EDA4-456A-A5E8-9F3730BDF858}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C0348CA9-B923-4DF2-B7B8-6F0BEEF03B4F}" name="AÑO">
@@ -4082,10 +4177,10 @@
     <tableColumn id="3" xr3:uid="{A92A8AB5-1C79-4CA4-B109-A49731842416}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NC[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1E2C6755-7899-4C5E-8849-9F4DEA103FB6}" name="Fecha" dataDxfId="106"/>
-    <tableColumn id="5" xr3:uid="{3E44B0DD-62A3-4C63-B2ED-8D9F754BC1C8}" name="Descripción" dataDxfId="105"/>
-    <tableColumn id="7" xr3:uid="{9FD31AF2-F6BB-40A9-A5EF-A7BE8C1EE096}" name="Almacén" dataDxfId="104"/>
-    <tableColumn id="6" xr3:uid="{D483493A-6942-4223-8114-7C47B876A768}" name="Entrada" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{1E2C6755-7899-4C5E-8849-9F4DEA103FB6}" name="Fecha" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{3E44B0DD-62A3-4C63-B2ED-8D9F754BC1C8}" name="Descripción" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{9FD31AF2-F6BB-40A9-A5EF-A7BE8C1EE096}" name="Almacén" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{D483493A-6942-4223-8114-7C47B876A768}" name="Entrada" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4112,10 +4207,10 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="C1:C8" xr:uid="{750FC6F7-70F6-4B4E-96D7-A30F50A00065}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4162,27 +4257,27 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="M1:M25" xr:uid="{066AC525-C68B-40D3-AE6B-D275A0A79615}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="O1:O8" xr:uid="{5D329DB3-7365-4EEF-8F0E-32C5AD338BA4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="Q1:Q4" xr:uid="{B76C3F68-F66F-46E8-9784-B4AAADE438F9}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7AF09891-3B17-4F67-912C-FAE5416AB3EF}" name="Unidad"/>
@@ -4192,7 +4287,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{1EEBF04B-5CA7-4B0A-ADFE-2A6A9768B634}" name="MC" displayName="MC" ref="W3:AC4" totalsRowShown="0" headerRowDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{1EEBF04B-5CA7-4B0A-ADFE-2A6A9768B634}" name="MC" displayName="MC" ref="W3:AC4" totalsRowShown="0" headerRowDxfId="87">
   <autoFilter ref="W3:AC4" xr:uid="{15203CCB-6A72-4C9E-82BA-A853B5165F17}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{99A49235-A43E-4B45-948E-613A29DBA5A6}" name="AÑO">
@@ -4204,10 +4299,10 @@
     <tableColumn id="3" xr3:uid="{CC8DCD94-2C62-421E-8A0B-4EE9F9AA0BA6}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MC[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057B6A06-06EB-4370-9C7D-67B564AB477C}" name="Fecha" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{F7D1F4AC-D899-4963-BC58-63184492E881}" name="Descripción" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{C424C129-BB09-45C4-8A52-C928098DD204}" name="Almacén" dataDxfId="99"/>
-    <tableColumn id="6" xr3:uid="{D7883101-3244-4BC1-AC2D-3BFB937551E5}" name="Salida" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{057B6A06-06EB-4370-9C7D-67B564AB477C}" name="Fecha" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{F7D1F4AC-D899-4963-BC58-63184492E881}" name="Descripción" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{C424C129-BB09-45C4-8A52-C928098DD204}" name="Almacén" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{D7883101-3244-4BC1-AC2D-3BFB937551E5}" name="Salida" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4254,10 +4349,10 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{14BF97AA-514C-43B8-ACBF-8377CC8F9163}" name="DMB" displayName="DMB" ref="I1:I2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{14BF97AA-514C-43B8-ACBF-8377CC8F9163}" name="DMB" displayName="DMB" ref="I1:I2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="I1:I2" xr:uid="{7AB45DB3-5E72-4F44-A776-E252D9E90DB7}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4AF18E02-4261-4B0E-844D-1655706EFC80}" name="Descripción" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{4AF18E02-4261-4B0E-844D-1655706EFC80}" name="Descripción" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4298,33 +4393,33 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K106" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K106" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A3:K106" xr:uid="{D4382671-7652-40D0-940C-E955EF481B0A}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD9F0EF0-AAEC-44EF-B652-AEE3A7B1514D}" name="Año" dataDxfId="95">
+    <tableColumn id="1" xr3:uid="{FD9F0EF0-AAEC-44EF-B652-AEE3A7B1514D}" name="Año" dataDxfId="80">
       <calculatedColumnFormula>YEAR(VentaHuevo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{38DF3F1A-ECDF-4B36-9176-FD4C2215E738}" name="Mes" dataDxfId="94">
+    <tableColumn id="2" xr3:uid="{38DF3F1A-ECDF-4B36-9176-FD4C2215E738}" name="Mes" dataDxfId="79">
       <calculatedColumnFormula>MONTH(VentaHuevo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0806F8F4-F211-461B-8637-91E4CE806C4D}" name="Semana" dataDxfId="93">
+    <tableColumn id="3" xr3:uid="{0806F8F4-F211-461B-8637-91E4CE806C4D}" name="Semana" dataDxfId="78">
       <calculatedColumnFormula>WEEKNUM(VentaHuevo[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8434CCCE-DE27-4AE6-A002-E0E6CF045C72}" name="FECHA" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{779AD8B5-3C79-434E-A399-2FBAD1799E8D}" name="Postura" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{A97041C1-DD4A-498F-8E13-F603ABE564D9}" name="Kilos Total" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{CC975B41-EAF3-4B15-B675-8C8CEAE44165}" name="Kilos Cancelados" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{AC4B10C7-0849-4C4C-9BA5-AE8FB92493E2}" name="Importe Ventas" dataDxfId="88"/>
-    <tableColumn id="9" xr3:uid="{B2B64C19-21ED-42F7-B0F5-7AE2560707DB}" name="Importe Costos" dataDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{777D0A0A-820D-4722-8450-983DB543ED2D}" name="No. Ventas" dataDxfId="86"/>
-    <tableColumn id="11" xr3:uid="{7E467BF3-DE83-4056-B631-B9B5060F190D}" name="No. Cancelaciones" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{8434CCCE-DE27-4AE6-A002-E0E6CF045C72}" name="FECHA" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{779AD8B5-3C79-434E-A399-2FBAD1799E8D}" name="Postura" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{A97041C1-DD4A-498F-8E13-F603ABE564D9}" name="Kilos Total" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{CC975B41-EAF3-4B15-B675-8C8CEAE44165}" name="Kilos Cancelados" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{AC4B10C7-0849-4C4C-9BA5-AE8FB92493E2}" name="Importe Ventas" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{B2B64C19-21ED-42F7-B0F5-7AE2560707DB}" name="Importe Costos" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{777D0A0A-820D-4722-8450-983DB543ED2D}" name="No. Ventas" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{7E467BF3-DE83-4056-B631-B9B5060F190D}" name="No. Cancelaciones" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B8C3BF5-B426-4FC9-8CCD-BD04125E8FC9}" name="RecoleccionHuevo" displayName="RecoleccionHuevo" ref="M3:T248" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B8C3BF5-B426-4FC9-8CCD-BD04125E8FC9}" name="RecoleccionHuevo" displayName="RecoleccionHuevo" ref="M3:T248" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" tableBorderDxfId="67">
   <autoFilter ref="M3:T248" xr:uid="{60C9021B-900B-4B60-A55B-39BD4E52B0C3}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5556DBC3-8C5C-48FF-AC71-14BD1764535F}" name="Año">
@@ -4336,18 +4431,18 @@
     <tableColumn id="3" xr3:uid="{B97B1594-D27C-4255-B30B-9D3C3FCE7D1F}" name="Semana">
       <calculatedColumnFormula>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F575BA58-C636-4CCE-AEC8-386F16DEDFFA}" name="Fecha" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{F575BA58-C636-4CCE-AEC8-386F16DEDFFA}" name="Fecha" dataDxfId="66"/>
     <tableColumn id="5" xr3:uid="{D6F82851-3690-4182-8BD9-4BE245CA5B59}" name="Bodega Origen"/>
-    <tableColumn id="6" xr3:uid="{F0B3184E-20DE-4D34-8B90-DB4940FA096B}" name="Cantidad" dataDxfId="80"/>
-    <tableColumn id="7" xr3:uid="{9D264A97-0E03-44D4-AE76-4CD1B7BAA7FD}" name="Kilos" dataDxfId="79"/>
-    <tableColumn id="9" xr3:uid="{89B76523-86A1-41BF-B81B-2D6DD4F17AEE}" name="Cajas" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{F0B3184E-20DE-4D34-8B90-DB4940FA096B}" name="Cantidad" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{9D264A97-0E03-44D4-AE76-4CD1B7BAA7FD}" name="Kilos" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{89B76523-86A1-41BF-B81B-2D6DD4F17AEE}" name="Cajas" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{49922715-EB52-4A65-91E4-0475F5534B83}" name="NH" displayName="NH" ref="V3:AB4" totalsRowShown="0" headerRowDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{49922715-EB52-4A65-91E4-0475F5534B83}" name="NH" displayName="NH" ref="V3:AB4" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="V3:AB4" xr:uid="{9E909787-7729-4B69-B0D7-61A481011055}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BB52ECF0-F2EE-4B65-A7D9-9EDA649B5891}" name="AÑO">
@@ -4359,17 +4454,17 @@
     <tableColumn id="3" xr3:uid="{40E66E16-55FD-40FD-8212-C14977333B21}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NH[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4DAFF2EC-25FE-4925-B214-00D322A9AC67}" name="Fecha" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{5EA58C44-0B6E-4368-8DCF-6D66196470FC}" name="Descripción" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{97EB3DE5-BB67-459C-B513-658E8D859B6B}" name="Almacén" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{6E7BB089-A777-4CF9-A575-1F853606112B}" name="Entrada" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{4DAFF2EC-25FE-4925-B214-00D322A9AC67}" name="Fecha" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{5EA58C44-0B6E-4368-8DCF-6D66196470FC}" name="Descripción" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{97EB3DE5-BB67-459C-B513-658E8D859B6B}" name="Almacén" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{6E7BB089-A777-4CF9-A575-1F853606112B}" name="Entrada" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AD3:AJ4" totalsRowShown="0" headerRowDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AD3:AJ4" totalsRowShown="0" headerRowDxfId="57">
   <autoFilter ref="AD3:AJ4" xr:uid="{8AC8429F-5A18-4F92-8A2F-B1AB086595B2}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2909D7D7-7DF1-42BB-B6A6-7E79BD333390}" name="AÑO">
@@ -4381,10 +4476,10 @@
     <tableColumn id="3" xr3:uid="{5BE7723A-8CFB-4D4C-B93F-00B4E59A0013}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MH[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="69"/>
-    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4679,7 +4774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A120" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
@@ -4718,82 +4813,82 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
+      <c r="D1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
     </row>
     <row r="2" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="31"/>
-      <c r="R2" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="Z2" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AH2" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
+      <c r="R2" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="Z2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AH2" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4837,46 +4932,46 @@
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="Q3" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>53</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="30" t="s">
+      <c r="Y3" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="Y3" s="30" t="s">
-        <v>53</v>
       </c>
       <c r="Z3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AE3" t="s">
         <v>2</v>
@@ -4891,19 +4986,19 @@
         <v>23</v>
       </c>
       <c r="AI3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AJ3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AK3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL3" t="s">
         <v>36</v>
       </c>
       <c r="AM3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -10188,750 +10283,750 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="46">
+      <c r="A123" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B123" s="46">
+      <c r="B123" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C123" s="46">
+      <c r="C123" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>1</v>
       </c>
-      <c r="D123" s="47">
+      <c r="D123" s="37">
         <v>44198</v>
       </c>
-      <c r="E123" s="48" t="s">
+      <c r="E123" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="49">
+      <c r="F123" s="39">
         <v>530</v>
       </c>
-      <c r="G123" s="49">
-        <v>0</v>
-      </c>
-      <c r="H123" s="49">
+      <c r="G123" s="39">
+        <v>0</v>
+      </c>
+      <c r="H123" s="39">
         <v>5</v>
       </c>
-      <c r="I123" s="49">
-        <v>0</v>
-      </c>
-      <c r="J123" s="50">
+      <c r="I123" s="39">
+        <v>0</v>
+      </c>
+      <c r="J123" s="40">
         <v>19345</v>
       </c>
-      <c r="K123" s="50">
+      <c r="K123" s="40">
         <v>16367.69</v>
       </c>
-      <c r="L123" s="50">
+      <c r="L123" s="40">
         <v>1</v>
       </c>
-      <c r="M123" s="50">
+      <c r="M123" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="46">
+      <c r="A124" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B124" s="46">
+      <c r="B124" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C124" s="46">
+      <c r="C124" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>1</v>
       </c>
-      <c r="D124" s="47">
+      <c r="D124" s="37">
         <v>44198</v>
       </c>
-      <c r="E124" s="48" t="s">
+      <c r="E124" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F124" s="49">
+      <c r="F124" s="39">
         <v>13455</v>
       </c>
-      <c r="G124" s="49">
-        <v>0</v>
-      </c>
-      <c r="H124" s="49">
+      <c r="G124" s="39">
+        <v>0</v>
+      </c>
+      <c r="H124" s="39">
         <v>114</v>
       </c>
-      <c r="I124" s="49">
-        <v>0</v>
-      </c>
-      <c r="J124" s="50">
+      <c r="I124" s="39">
+        <v>0</v>
+      </c>
+      <c r="J124" s="40">
         <v>485477.5</v>
       </c>
-      <c r="K124" s="50">
+      <c r="K124" s="40">
         <v>338133.66000000003</v>
       </c>
-      <c r="L124" s="50">
+      <c r="L124" s="40">
         <v>2</v>
       </c>
-      <c r="M124" s="50">
+      <c r="M124" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="46">
+      <c r="A125" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B125" s="46">
+      <c r="B125" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C125" s="46">
+      <c r="C125" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>2</v>
       </c>
-      <c r="D125" s="47">
+      <c r="D125" s="37">
         <v>44200</v>
       </c>
-      <c r="E125" s="48" t="s">
+      <c r="E125" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F125" s="49">
+      <c r="F125" s="39">
         <v>1996.5</v>
       </c>
-      <c r="G125" s="49">
-        <v>0</v>
-      </c>
-      <c r="H125" s="49">
+      <c r="G125" s="39">
+        <v>0</v>
+      </c>
+      <c r="H125" s="39">
         <v>22</v>
       </c>
-      <c r="I125" s="49">
-        <v>0</v>
-      </c>
-      <c r="J125" s="50">
+      <c r="I125" s="39">
+        <v>0</v>
+      </c>
+      <c r="J125" s="40">
         <v>72811.25</v>
       </c>
-      <c r="K125" s="50">
+      <c r="K125" s="40">
         <v>60176.89</v>
       </c>
-      <c r="L125" s="50">
+      <c r="L125" s="40">
         <v>11</v>
       </c>
-      <c r="M125" s="50">
+      <c r="M125" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="46">
+      <c r="A126" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B126" s="46">
+      <c r="B126" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C126" s="46">
+      <c r="C126" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>2</v>
       </c>
-      <c r="D126" s="47">
+      <c r="D126" s="37">
         <v>44200</v>
       </c>
-      <c r="E126" s="48" t="s">
+      <c r="E126" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F126" s="49">
+      <c r="F126" s="39">
         <v>37351.099999999991</v>
       </c>
-      <c r="G126" s="49">
-        <v>0</v>
-      </c>
-      <c r="H126" s="49">
+      <c r="G126" s="39">
+        <v>0</v>
+      </c>
+      <c r="H126" s="39">
         <v>338</v>
       </c>
-      <c r="I126" s="49">
-        <v>0</v>
-      </c>
-      <c r="J126" s="50">
+      <c r="I126" s="39">
+        <v>0</v>
+      </c>
+      <c r="J126" s="40">
         <v>1357823.1000000003</v>
       </c>
-      <c r="K126" s="50">
+      <c r="K126" s="40">
         <v>1176660.2900000005</v>
       </c>
-      <c r="L126" s="50">
+      <c r="L126" s="40">
         <v>68</v>
       </c>
-      <c r="M126" s="50">
+      <c r="M126" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="46">
+      <c r="A127" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B127" s="46">
+      <c r="B127" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C127" s="46">
+      <c r="C127" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>2</v>
       </c>
-      <c r="D127" s="47">
+      <c r="D127" s="37">
         <v>44200</v>
       </c>
-      <c r="E127" s="48" t="s">
+      <c r="E127" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="49">
+      <c r="F127" s="39">
         <v>30666</v>
       </c>
-      <c r="G127" s="49">
-        <v>0</v>
-      </c>
-      <c r="H127" s="49">
+      <c r="G127" s="39">
+        <v>0</v>
+      </c>
+      <c r="H127" s="39">
         <v>264</v>
       </c>
-      <c r="I127" s="49">
-        <v>0</v>
-      </c>
-      <c r="J127" s="50">
+      <c r="I127" s="39">
+        <v>0</v>
+      </c>
+      <c r="J127" s="40">
         <v>1081406.2</v>
       </c>
-      <c r="K127" s="50">
+      <c r="K127" s="40">
         <v>751553.53</v>
       </c>
-      <c r="L127" s="50">
+      <c r="L127" s="40">
         <v>6</v>
       </c>
-      <c r="M127" s="50">
+      <c r="M127" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="46">
+      <c r="A128" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B128" s="46">
+      <c r="B128" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C128" s="46">
+      <c r="C128" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>2</v>
       </c>
-      <c r="D128" s="47">
+      <c r="D128" s="37">
         <v>44200</v>
       </c>
-      <c r="E128" s="48" t="s">
+      <c r="E128" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F128" s="49">
+      <c r="F128" s="39">
         <v>1082</v>
       </c>
-      <c r="G128" s="49">
+      <c r="G128" s="39">
         <v>557</v>
       </c>
-      <c r="H128" s="49">
+      <c r="H128" s="39">
         <v>9</v>
       </c>
-      <c r="I128" s="49">
+      <c r="I128" s="39">
         <v>4</v>
       </c>
-      <c r="J128" s="50">
+      <c r="J128" s="40">
         <v>17245</v>
       </c>
-      <c r="K128" s="50">
+      <c r="K128" s="40">
         <v>16238.91</v>
       </c>
-      <c r="L128" s="50">
+      <c r="L128" s="40">
         <v>2</v>
       </c>
-      <c r="M128" s="50">
+      <c r="M128" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="46">
+      <c r="A129" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B129" s="46">
+      <c r="B129" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C129" s="46">
+      <c r="C129" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>3</v>
       </c>
-      <c r="D129" s="47">
+      <c r="D129" s="37">
         <v>44207</v>
       </c>
-      <c r="E129" s="48" t="s">
+      <c r="E129" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F129" s="49">
+      <c r="F129" s="39">
         <v>2715</v>
       </c>
-      <c r="G129" s="49">
-        <v>0</v>
-      </c>
-      <c r="H129" s="49">
+      <c r="G129" s="39">
+        <v>0</v>
+      </c>
+      <c r="H129" s="39">
         <v>29</v>
       </c>
-      <c r="I129" s="49">
-        <v>0</v>
-      </c>
-      <c r="J129" s="50">
+      <c r="I129" s="39">
+        <v>0</v>
+      </c>
+      <c r="J129" s="40">
         <v>95380.5</v>
       </c>
-      <c r="K129" s="50">
+      <c r="K129" s="40">
         <v>80617.739999999991</v>
       </c>
-      <c r="L129" s="50">
+      <c r="L129" s="40">
         <v>13</v>
       </c>
-      <c r="M129" s="50">
+      <c r="M129" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="46">
+      <c r="A130" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B130" s="46">
+      <c r="B130" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C130" s="46">
+      <c r="C130" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>3</v>
       </c>
-      <c r="D130" s="47">
+      <c r="D130" s="37">
         <v>44207</v>
       </c>
-      <c r="E130" s="48" t="s">
+      <c r="E130" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F130" s="49">
+      <c r="F130" s="39">
         <v>32772.399999999994</v>
       </c>
-      <c r="G130" s="49">
-        <v>0</v>
-      </c>
-      <c r="H130" s="49">
+      <c r="G130" s="39">
+        <v>0</v>
+      </c>
+      <c r="H130" s="39">
         <v>284</v>
       </c>
-      <c r="I130" s="49">
-        <v>0</v>
-      </c>
-      <c r="J130" s="50">
+      <c r="I130" s="39">
+        <v>0</v>
+      </c>
+      <c r="J130" s="40">
         <v>1160187.7000000002</v>
       </c>
-      <c r="K130" s="50">
+      <c r="K130" s="40">
         <v>995179.52000000025</v>
       </c>
-      <c r="L130" s="50">
+      <c r="L130" s="40">
         <v>68</v>
       </c>
-      <c r="M130" s="50">
+      <c r="M130" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="46">
+      <c r="A131" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B131" s="46">
+      <c r="B131" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C131" s="46">
+      <c r="C131" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>3</v>
       </c>
-      <c r="D131" s="47">
+      <c r="D131" s="37">
         <v>44207</v>
       </c>
-      <c r="E131" s="48" t="s">
+      <c r="E131" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="49">
+      <c r="F131" s="39">
         <v>7435</v>
       </c>
-      <c r="G131" s="49">
-        <v>0</v>
-      </c>
-      <c r="H131" s="49">
+      <c r="G131" s="39">
+        <v>0</v>
+      </c>
+      <c r="H131" s="39">
         <v>63</v>
       </c>
-      <c r="I131" s="49">
-        <v>0</v>
-      </c>
-      <c r="J131" s="50">
+      <c r="I131" s="39">
+        <v>0</v>
+      </c>
+      <c r="J131" s="40">
         <v>260275</v>
       </c>
-      <c r="K131" s="50">
+      <c r="K131" s="40">
         <v>188658.46000000002</v>
       </c>
-      <c r="L131" s="50">
+      <c r="L131" s="40">
         <v>3</v>
       </c>
-      <c r="M131" s="50">
+      <c r="M131" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="46">
+      <c r="A132" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B132" s="46">
+      <c r="B132" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C132" s="46">
+      <c r="C132" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>3</v>
       </c>
-      <c r="D132" s="47">
+      <c r="D132" s="37">
         <v>44207</v>
       </c>
-      <c r="E132" s="48" t="s">
+      <c r="E132" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="49">
+      <c r="F132" s="39">
         <v>19490</v>
       </c>
-      <c r="G132" s="49">
+      <c r="G132" s="39">
         <v>122</v>
       </c>
-      <c r="H132" s="49">
+      <c r="H132" s="39">
         <v>81</v>
       </c>
-      <c r="I132" s="49">
+      <c r="I132" s="39">
         <v>1</v>
       </c>
-      <c r="J132" s="50">
+      <c r="J132" s="40">
         <v>342972</v>
       </c>
-      <c r="K132" s="50">
+      <c r="K132" s="40">
         <v>220845.04</v>
       </c>
-      <c r="L132" s="50">
+      <c r="L132" s="40">
         <v>4</v>
       </c>
-      <c r="M132" s="50">
+      <c r="M132" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="46">
+      <c r="A133" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B133" s="46">
+      <c r="B133" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C133" s="46">
+      <c r="C133" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>4</v>
       </c>
-      <c r="D133" s="47">
+      <c r="D133" s="37">
         <v>44214</v>
       </c>
-      <c r="E133" s="48" t="s">
+      <c r="E133" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F133" s="49">
+      <c r="F133" s="39">
         <v>26039.4</v>
       </c>
-      <c r="G133" s="49">
+      <c r="G133" s="39">
         <v>321.39999999999998</v>
       </c>
-      <c r="H133" s="49">
+      <c r="H133" s="39">
         <v>227</v>
       </c>
-      <c r="I133" s="49">
+      <c r="I133" s="39">
         <v>3</v>
       </c>
-      <c r="J133" s="50">
+      <c r="J133" s="40">
         <v>894312</v>
       </c>
-      <c r="K133" s="50">
+      <c r="K133" s="40">
         <v>578180.94000000018</v>
       </c>
-      <c r="L133" s="50">
+      <c r="L133" s="40">
         <v>55</v>
       </c>
-      <c r="M133" s="50">
+      <c r="M133" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="46">
+      <c r="A134" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B134" s="46">
+      <c r="B134" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C134" s="46">
+      <c r="C134" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>4</v>
       </c>
-      <c r="D134" s="47">
+      <c r="D134" s="37">
         <v>44214</v>
       </c>
-      <c r="E134" s="48" t="s">
+      <c r="E134" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="49">
+      <c r="F134" s="39">
         <v>10512</v>
       </c>
-      <c r="G134" s="49">
+      <c r="G134" s="39">
         <v>10</v>
       </c>
-      <c r="H134" s="49">
+      <c r="H134" s="39">
         <v>106</v>
       </c>
-      <c r="I134" s="49">
+      <c r="I134" s="39">
         <v>10</v>
       </c>
-      <c r="J134" s="50">
+      <c r="J134" s="40">
         <v>359374.4</v>
       </c>
-      <c r="K134" s="50">
+      <c r="K134" s="40">
         <v>224933.3</v>
       </c>
-      <c r="L134" s="50">
+      <c r="L134" s="40">
         <v>4</v>
       </c>
-      <c r="M134" s="50">
+      <c r="M134" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="46">
+      <c r="A135" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B135" s="46">
+      <c r="B135" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C135" s="46">
+      <c r="C135" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>4</v>
       </c>
-      <c r="D135" s="47">
+      <c r="D135" s="37">
         <v>44214</v>
       </c>
-      <c r="E135" s="48" t="s">
+      <c r="E135" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F135" s="49">
+      <c r="F135" s="39">
         <v>18575.12</v>
       </c>
-      <c r="G135" s="49">
-        <v>0</v>
-      </c>
-      <c r="H135" s="49">
+      <c r="G135" s="39">
+        <v>0</v>
+      </c>
+      <c r="H135" s="39">
         <v>116</v>
       </c>
-      <c r="I135" s="49">
-        <v>0</v>
-      </c>
-      <c r="J135" s="50">
+      <c r="I135" s="39">
+        <v>0</v>
+      </c>
+      <c r="J135" s="40">
         <v>445373.2</v>
       </c>
-      <c r="K135" s="50">
+      <c r="K135" s="40">
         <v>303573.81999999995</v>
       </c>
-      <c r="L135" s="50">
+      <c r="L135" s="40">
         <v>26</v>
       </c>
-      <c r="M135" s="50">
+      <c r="M135" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="46">
+      <c r="A136" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B136" s="46">
+      <c r="B136" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C136" s="46">
+      <c r="C136" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>5</v>
       </c>
-      <c r="D136" s="47">
+      <c r="D136" s="37">
         <v>44221</v>
       </c>
-      <c r="E136" s="48" t="s">
+      <c r="E136" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F136" s="49">
+      <c r="F136" s="39">
         <v>9499</v>
       </c>
-      <c r="G136" s="49">
-        <v>0</v>
-      </c>
-      <c r="H136" s="49">
+      <c r="G136" s="39">
+        <v>0</v>
+      </c>
+      <c r="H136" s="39">
         <v>90</v>
       </c>
-      <c r="I136" s="49">
-        <v>0</v>
-      </c>
-      <c r="J136" s="50">
+      <c r="I136" s="39">
+        <v>0</v>
+      </c>
+      <c r="J136" s="40">
         <v>324966.25</v>
       </c>
-      <c r="K136" s="50">
+      <c r="K136" s="40">
         <v>247406.68999999986</v>
       </c>
-      <c r="L136" s="50">
+      <c r="L136" s="40">
         <v>28</v>
       </c>
-      <c r="M136" s="50">
+      <c r="M136" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="46">
+      <c r="A137" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B137" s="46">
+      <c r="B137" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C137" s="46">
+      <c r="C137" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>5</v>
       </c>
-      <c r="D137" s="47">
+      <c r="D137" s="37">
         <v>44221</v>
       </c>
-      <c r="E137" s="48" t="s">
+      <c r="E137" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F137" s="49">
+      <c r="F137" s="39">
         <v>25285.3</v>
       </c>
-      <c r="G137" s="49">
+      <c r="G137" s="39">
         <v>804.5</v>
       </c>
-      <c r="H137" s="49">
+      <c r="H137" s="39">
         <v>227</v>
       </c>
-      <c r="I137" s="49">
+      <c r="I137" s="39">
         <v>7</v>
       </c>
-      <c r="J137" s="50">
+      <c r="J137" s="40">
         <v>835695.3</v>
       </c>
-      <c r="K137" s="50">
+      <c r="K137" s="40">
         <v>711463.20000000019</v>
       </c>
-      <c r="L137" s="50">
+      <c r="L137" s="40">
         <v>54</v>
       </c>
-      <c r="M137" s="50">
+      <c r="M137" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="46">
+      <c r="A138" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B138" s="46">
+      <c r="B138" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C138" s="46">
+      <c r="C138" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>5</v>
       </c>
-      <c r="D138" s="47">
+      <c r="D138" s="37">
         <v>44221</v>
       </c>
-      <c r="E138" s="48" t="s">
+      <c r="E138" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="49">
+      <c r="F138" s="39">
         <v>23470.800000000003</v>
       </c>
-      <c r="G138" s="49">
-        <v>0</v>
-      </c>
-      <c r="H138" s="49">
+      <c r="G138" s="39">
+        <v>0</v>
+      </c>
+      <c r="H138" s="39">
         <v>203</v>
       </c>
-      <c r="I138" s="49">
-        <v>0</v>
-      </c>
-      <c r="J138" s="50">
+      <c r="I138" s="39">
+        <v>0</v>
+      </c>
+      <c r="J138" s="40">
         <v>794032.8</v>
       </c>
-      <c r="K138" s="50">
+      <c r="K138" s="40">
         <v>501381.18999999994</v>
       </c>
-      <c r="L138" s="50">
+      <c r="L138" s="40">
         <v>10</v>
       </c>
-      <c r="M138" s="50">
+      <c r="M138" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="46">
+      <c r="A139" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B139" s="46">
+      <c r="B139" s="36">
         <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C139" s="46">
+      <c r="C139" s="36">
         <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
         <v>5</v>
       </c>
-      <c r="D139" s="47">
+      <c r="D139" s="37">
         <v>44221</v>
       </c>
-      <c r="E139" s="48" t="s">
+      <c r="E139" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F139" s="49">
+      <c r="F139" s="39">
         <v>15125.900000000001</v>
       </c>
-      <c r="G139" s="49">
+      <c r="G139" s="39">
         <v>113.2</v>
       </c>
-      <c r="H139" s="49">
+      <c r="H139" s="39">
         <v>98</v>
       </c>
-      <c r="I139" s="49">
+      <c r="I139" s="39">
         <v>1</v>
       </c>
-      <c r="J139" s="50">
+      <c r="J139" s="40">
         <v>362398.39999999997</v>
       </c>
-      <c r="K139" s="50">
+      <c r="K139" s="40">
         <v>298935.31</v>
       </c>
-      <c r="L139" s="50">
+      <c r="L139" s="40">
         <v>12</v>
       </c>
-      <c r="M139" s="50">
+      <c r="M139" s="40">
         <v>1</v>
       </c>
     </row>
@@ -11049,96 +11144,96 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
     </row>
     <row r="2" spans="1:46" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="M2" s="43" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="M2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="Y2" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AG2" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AO2" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="Y2" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AG2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AO2" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -11199,46 +11294,46 @@
         <v>38</v>
       </c>
       <c r="V3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="30" t="s">
+      <c r="X3" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="X3" s="30" t="s">
-        <v>53</v>
       </c>
       <c r="Y3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA3" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB3" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" s="30" t="s">
+      <c r="AF3" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="AF3" s="30" t="s">
-        <v>53</v>
       </c>
       <c r="AG3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AH3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ3" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL3" t="s">
         <v>2</v>
@@ -11253,19 +11348,19 @@
         <v>23</v>
       </c>
       <c r="AP3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AQ3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AR3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS3" t="s">
         <v>36</v>
       </c>
       <c r="AT3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
@@ -21718,16 +21813,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4E6DD1-DFC3-45C9-9E3B-A4985EE15B0A}">
-  <dimension ref="A1:AD42"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -21748,194 +21843,223 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-    </row>
-    <row r="2" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="44" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+    </row>
+    <row r="2" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="S2" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="AA2" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
+      <c r="F2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="S2" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="AA2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="A3" s="5">
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2018</v>
+      </c>
+      <c r="B3" s="5">
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
         <v>5</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="D3" s="7">
+        <v>43131</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>18</v>
+      <c r="F3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1810.5</v>
+      </c>
+      <c r="H3" s="8">
+        <v>38</v>
+      </c>
+      <c r="I3" s="8">
+        <v>46</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="20">
+        <v>72276.44</v>
+      </c>
+      <c r="L3" s="20">
+        <v>67877.679999999993</v>
+      </c>
+      <c r="M3" s="21">
+        <v>7</v>
+      </c>
+      <c r="N3" s="21">
+        <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="R3" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>53</v>
       </c>
       <c r="S3" s="18" t="s">
         <v>23</v>
       </c>
       <c r="T3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="X3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="30" t="s">
+      <c r="Z3" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="Z3" s="30" t="s">
-        <v>53</v>
       </c>
       <c r="AA3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AB3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC3" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD3" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2018</v>
       </c>
       <c r="B4" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>1</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>43831</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>43159</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" s="8">
-        <v>0</v>
+        <v>3458</v>
       </c>
       <c r="H4" s="8">
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="J4" s="8">
         <v>0</v>
       </c>
       <c r="K4" s="20">
-        <v>0</v>
+        <v>148758</v>
       </c>
       <c r="L4" s="20">
-        <v>0</v>
+        <v>123778.639</v>
       </c>
       <c r="M4" s="21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="21">
         <v>0</v>
@@ -21975,46 +22099,46 @@
     </row>
     <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2018</v>
       </c>
       <c r="B5" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>5</v>
-      </c>
-      <c r="D5" s="6">
-        <v>43862</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43190</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8">
+        <v>1367.7</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
         <v>44</v>
       </c>
-      <c r="G5" s="8">
-        <v>16357</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>205</v>
-      </c>
       <c r="J5" s="8">
         <v>0</v>
       </c>
       <c r="K5" s="20">
-        <v>343725</v>
+        <v>69263.5</v>
       </c>
       <c r="L5" s="20">
-        <v>545236.08799999999</v>
+        <v>62793.531999999999</v>
       </c>
       <c r="M5" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N5" s="21">
         <v>0</v>
@@ -22022,46 +22146,46 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2018</v>
       </c>
       <c r="B6" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43220</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1249.0999999999999</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>29</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>46995.5</v>
+      </c>
+      <c r="L6" s="20">
+        <v>56746.347000000002</v>
+      </c>
+      <c r="M6" s="21">
         <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>9</v>
-      </c>
-      <c r="D6" s="6">
-        <v>43891</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="L6" s="20">
-        <v>0</v>
-      </c>
-      <c r="M6" s="21">
-        <v>0</v>
       </c>
       <c r="N6" s="21">
         <v>0</v>
@@ -22069,46 +22193,46 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2018</v>
       </c>
       <c r="B7" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>4</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>14</v>
-      </c>
-      <c r="D7" s="6">
-        <v>43922</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>22</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43251</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G7" s="8">
-        <v>11783</v>
+        <v>1681</v>
       </c>
       <c r="H7" s="8">
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
       </c>
       <c r="K7" s="20">
-        <v>191021</v>
+        <v>72283</v>
       </c>
       <c r="L7" s="20">
-        <v>274945.93800000002</v>
+        <v>76698.024999999994</v>
       </c>
       <c r="M7" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="21">
         <v>0</v>
@@ -22116,93 +22240,93 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2018</v>
       </c>
       <c r="B8" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>5</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>18</v>
-      </c>
-      <c r="D8" s="6">
-        <v>43952</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>26</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43281</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G8" s="8">
-        <v>208</v>
+        <v>6834</v>
       </c>
       <c r="H8" s="8">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="J8" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="20">
-        <v>4804</v>
+        <v>280570</v>
       </c>
       <c r="L8" s="20">
-        <v>5339.759</v>
+        <v>328385.29300000001</v>
       </c>
       <c r="M8" s="21">
         <v>3</v>
       </c>
       <c r="N8" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2018</v>
       </c>
       <c r="B9" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>6</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>7</v>
       </c>
       <c r="C9" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>23</v>
-      </c>
-      <c r="D9" s="6">
-        <v>43983</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43312</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G9" s="8">
-        <v>21032</v>
+        <v>45</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
       </c>
       <c r="K9" s="20">
-        <v>310574</v>
+        <v>4000</v>
       </c>
       <c r="L9" s="20">
-        <v>399383.87300000002</v>
+        <v>2253.5619999999999</v>
       </c>
       <c r="M9" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="21">
         <v>0</v>
@@ -22210,46 +22334,46 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2018</v>
       </c>
       <c r="B10" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>7</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>8</v>
       </c>
       <c r="C10" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>27</v>
-      </c>
-      <c r="D10" s="6">
-        <v>44013</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>35</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43343</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G10" s="8">
-        <v>1219</v>
+        <v>3100</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
       </c>
       <c r="K10" s="20">
-        <v>43311.5</v>
+        <v>124000</v>
       </c>
       <c r="L10" s="20">
-        <v>68336.247999999992</v>
+        <v>172859.64300000001</v>
       </c>
       <c r="M10" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="21">
         <v>0</v>
@@ -22257,46 +22381,46 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2018</v>
       </c>
       <c r="B11" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>8</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>10</v>
       </c>
       <c r="C11" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>31</v>
-      </c>
-      <c r="D11" s="6">
-        <v>44044</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43404</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G11" s="8">
-        <v>8855</v>
+        <v>5655.2</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="J11" s="8">
         <v>0</v>
       </c>
       <c r="K11" s="20">
-        <v>278037</v>
+        <v>233166</v>
       </c>
       <c r="L11" s="20">
-        <v>772707.00099999993</v>
+        <v>321482.20199999999</v>
       </c>
       <c r="M11" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" s="21">
         <v>0</v>
@@ -22304,46 +22428,46 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2018</v>
       </c>
       <c r="B12" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>8</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>11</v>
       </c>
       <c r="C12" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>31</v>
-      </c>
-      <c r="D12" s="6">
-        <v>44044</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>48</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43434</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="8">
-        <v>7726</v>
+        <v>14402</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
       </c>
       <c r="I12" s="8">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="J12" s="8">
         <v>0</v>
       </c>
       <c r="K12" s="20">
-        <v>18480</v>
+        <v>298660</v>
       </c>
       <c r="L12" s="20">
-        <v>0</v>
+        <v>436051.32399999996</v>
       </c>
       <c r="M12" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" s="21">
         <v>0</v>
@@ -22351,140 +22475,140 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2018</v>
       </c>
       <c r="B13" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>9</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>12</v>
       </c>
       <c r="C13" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>36</v>
-      </c>
-      <c r="D13" s="6">
-        <v>44075</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>53</v>
+      </c>
+      <c r="D13" s="7">
+        <v>43465</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G13" s="8">
-        <v>2041</v>
+        <v>9360</v>
       </c>
       <c r="H13" s="8">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="I13" s="8">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="J13" s="8">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="K13" s="20">
-        <v>67024</v>
+        <v>178548</v>
       </c>
       <c r="L13" s="20">
-        <v>-233489.73</v>
+        <v>274059.228</v>
       </c>
       <c r="M13" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2019</v>
       </c>
       <c r="B14" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>10</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>1</v>
       </c>
       <c r="C14" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>40</v>
-      </c>
-      <c r="D14" s="6">
-        <v>44105</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43466</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" s="8">
-        <v>932</v>
+        <v>945.65000000000009</v>
       </c>
       <c r="H14" s="8">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="I14" s="8">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="20">
-        <v>35416</v>
+        <v>33588.5</v>
       </c>
       <c r="L14" s="20">
-        <v>49877.298999999999</v>
+        <v>41935.539000000004</v>
       </c>
       <c r="M14" s="21">
+        <v>9</v>
+      </c>
+      <c r="N14" s="21">
         <v>1</v>
-      </c>
-      <c r="N14" s="21">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2019</v>
       </c>
       <c r="B15" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>11</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2</v>
       </c>
       <c r="C15" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>44</v>
-      </c>
-      <c r="D15" s="6">
-        <v>44136</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>43497</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G15" s="8">
-        <v>6926</v>
+        <v>2932.96</v>
       </c>
       <c r="H15" s="8">
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="J15" s="8">
         <v>0</v>
       </c>
       <c r="K15" s="20">
-        <v>263188</v>
+        <v>122556.56</v>
       </c>
       <c r="L15" s="20">
-        <v>396550.61599999998</v>
+        <v>163460.94200000001</v>
       </c>
       <c r="M15" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" s="21">
         <v>0</v>
@@ -22492,46 +22616,46 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2019</v>
       </c>
       <c r="B16" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>12</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>3</v>
       </c>
       <c r="C16" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>49</v>
-      </c>
-      <c r="D16" s="6">
-        <v>44166</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>43525</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G16" s="8">
-        <v>952</v>
+        <v>2433.0300000000002</v>
       </c>
       <c r="H16" s="8">
         <v>0</v>
       </c>
       <c r="I16" s="8">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="J16" s="8">
         <v>0</v>
       </c>
       <c r="K16" s="20">
-        <v>37128</v>
+        <v>105894.10999999999</v>
       </c>
       <c r="L16" s="20">
-        <v>58402.688000000002</v>
+        <v>159676.16100000002</v>
       </c>
       <c r="M16" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="21">
         <v>0</v>
@@ -22539,46 +22663,46 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2019</v>
       </c>
       <c r="B17" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>9</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>4</v>
       </c>
       <c r="C17" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>36</v>
-      </c>
-      <c r="D17" s="6">
-        <v>44075</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="D17" s="7">
+        <v>43556</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G17" s="8">
-        <v>509</v>
+        <v>1979.9900000000002</v>
       </c>
       <c r="H17" s="8">
         <v>0</v>
       </c>
       <c r="I17" s="8">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J17" s="8">
         <v>0</v>
       </c>
       <c r="K17" s="20">
-        <v>12725</v>
+        <v>76273.209999999992</v>
       </c>
       <c r="L17" s="20">
-        <v>0</v>
+        <v>114989.49900000001</v>
       </c>
       <c r="M17" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="21">
         <v>0</v>
@@ -22586,46 +22710,46 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2019</v>
       </c>
       <c r="B18" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>10</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>5</v>
       </c>
       <c r="C18" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>40</v>
-      </c>
-      <c r="D18" s="6">
-        <v>44105</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
+        <v>43586</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G18" s="8">
-        <v>638</v>
+        <v>18510</v>
       </c>
       <c r="H18" s="8">
         <v>0</v>
       </c>
       <c r="I18" s="8">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="J18" s="8">
         <v>0</v>
       </c>
       <c r="K18" s="20">
-        <v>17864</v>
+        <v>237293.55</v>
       </c>
       <c r="L18" s="20">
-        <v>0</v>
+        <v>377406.59100000001</v>
       </c>
       <c r="M18" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" s="21">
         <v>0</v>
@@ -22633,46 +22757,46 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2019</v>
       </c>
       <c r="B19" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>11</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>6</v>
       </c>
       <c r="C19" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>44</v>
-      </c>
-      <c r="D19" s="6">
-        <v>44136</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>22</v>
+      </c>
+      <c r="D19" s="7">
+        <v>43617</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G19" s="8">
-        <v>3684</v>
+        <v>40</v>
       </c>
       <c r="H19" s="8">
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="J19" s="8">
         <v>0</v>
       </c>
       <c r="K19" s="20">
-        <v>87750.38</v>
+        <v>1500</v>
       </c>
       <c r="L19" s="20">
-        <v>0</v>
+        <v>2837.817</v>
       </c>
       <c r="M19" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="21">
         <v>0</v>
@@ -22680,140 +22804,140 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2020</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2019</v>
       </c>
       <c r="B20" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>12</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>7</v>
       </c>
       <c r="C20" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>49</v>
-      </c>
-      <c r="D20" s="6">
-        <v>44166</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="D20" s="7">
+        <v>43647</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G20" s="8">
-        <v>567</v>
+        <v>6620</v>
       </c>
       <c r="H20" s="8">
-        <v>0</v>
+        <v>3310</v>
       </c>
       <c r="I20" s="8">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="J20" s="8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K20" s="20">
-        <v>15876</v>
+        <v>122470</v>
       </c>
       <c r="L20" s="20">
-        <v>0</v>
+        <v>215788.084</v>
       </c>
       <c r="M20" s="21">
+        <v>2</v>
+      </c>
+      <c r="N20" s="21">
         <v>1</v>
-      </c>
-      <c r="N20" s="21">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
       </c>
       <c r="B21" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>1</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>8</v>
       </c>
       <c r="C21" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>43466</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="D21" s="7">
+        <v>43678</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G21" s="8">
-        <v>945.65000000000009</v>
+        <v>17905</v>
       </c>
       <c r="H21" s="8">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="I21" s="8">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="J21" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="20">
-        <v>33588.5</v>
+        <v>479317</v>
       </c>
       <c r="L21" s="20">
-        <v>41935.539000000004</v>
+        <v>1035274.696</v>
       </c>
       <c r="M21" s="21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N21" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
       </c>
       <c r="B22" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>9</v>
       </c>
       <c r="C22" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>5</v>
-      </c>
-      <c r="D22" s="6">
-        <v>43497</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>35</v>
+      </c>
+      <c r="D22" s="7">
+        <v>43709</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G22" s="8">
-        <v>2932.96</v>
+        <v>5818.1</v>
       </c>
       <c r="H22" s="8">
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="J22" s="8">
         <v>0</v>
       </c>
       <c r="K22" s="20">
-        <v>122556.56</v>
+        <v>215354</v>
       </c>
       <c r="L22" s="20">
-        <v>163460.94200000001</v>
+        <v>407740.527</v>
       </c>
       <c r="M22" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" s="21">
         <v>0</v>
@@ -22821,46 +22945,46 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
       </c>
       <c r="B23" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>3</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>10</v>
       </c>
       <c r="C23" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>9</v>
-      </c>
-      <c r="D23" s="6">
-        <v>43525</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="D23" s="7">
+        <v>43739</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G23" s="8">
-        <v>2433.0300000000002</v>
+        <v>8380</v>
       </c>
       <c r="H23" s="8">
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="J23" s="8">
         <v>0</v>
       </c>
       <c r="K23" s="20">
-        <v>105894.10999999999</v>
+        <v>153700</v>
       </c>
       <c r="L23" s="20">
-        <v>159676.16100000002</v>
+        <v>246729.02900000001</v>
       </c>
       <c r="M23" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23" s="21">
         <v>0</v>
@@ -22868,43 +22992,43 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
       </c>
       <c r="B24" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>4</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>11</v>
       </c>
       <c r="C24" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>14</v>
-      </c>
-      <c r="D24" s="6">
-        <v>43556</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="D24" s="7">
+        <v>43770</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G24" s="8">
-        <v>1979.9900000000002</v>
+        <v>252</v>
       </c>
       <c r="H24" s="8">
         <v>0</v>
       </c>
       <c r="I24" s="8">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="J24" s="8">
         <v>0</v>
       </c>
       <c r="K24" s="20">
-        <v>76273.209999999992</v>
+        <v>187544</v>
       </c>
       <c r="L24" s="20">
-        <v>114989.49900000001</v>
+        <v>362292.65500000003</v>
       </c>
       <c r="M24" s="21">
         <v>2</v>
@@ -22915,46 +23039,46 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2019</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B25" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>5</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>1</v>
       </c>
       <c r="C25" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>18</v>
-      </c>
-      <c r="D25" s="6">
-        <v>43586</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>43831</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G25" s="8">
-        <v>18510</v>
+        <v>0</v>
       </c>
       <c r="H25" s="8">
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="J25" s="8">
         <v>0</v>
       </c>
       <c r="K25" s="20">
-        <v>237293.55</v>
+        <v>0</v>
       </c>
       <c r="L25" s="20">
-        <v>377406.59100000001</v>
+        <v>0</v>
       </c>
       <c r="M25" s="21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25" s="21">
         <v>0</v>
@@ -22962,46 +23086,46 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2019</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B26" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2</v>
+      </c>
+      <c r="C26" s="5">
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>43862</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="8">
+        <v>16357</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>205</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0</v>
+      </c>
+      <c r="K26" s="20">
+        <v>343725</v>
+      </c>
+      <c r="L26" s="20">
+        <v>545236.08799999999</v>
+      </c>
+      <c r="M26" s="21">
         <v>6</v>
-      </c>
-      <c r="C26" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>22</v>
-      </c>
-      <c r="D26" s="6">
-        <v>43617</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="8">
-        <v>40</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
-        <v>1</v>
-      </c>
-      <c r="J26" s="8">
-        <v>0</v>
-      </c>
-      <c r="K26" s="20">
-        <v>1500</v>
-      </c>
-      <c r="L26" s="20">
-        <v>2837.817</v>
-      </c>
-      <c r="M26" s="21">
-        <v>1</v>
       </c>
       <c r="N26" s="21">
         <v>0</v>
@@ -23009,93 +23133,93 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2019</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B27" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>7</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>3</v>
       </c>
       <c r="C27" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>27</v>
-      </c>
-      <c r="D27" s="6">
-        <v>43647</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="D27" s="7">
+        <v>43891</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G27" s="8">
-        <v>6620</v>
+        <v>0</v>
       </c>
       <c r="H27" s="8">
-        <v>3310</v>
+        <v>0</v>
       </c>
       <c r="I27" s="8">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="J27" s="8">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K27" s="20">
-        <v>122470</v>
+        <v>0</v>
       </c>
       <c r="L27" s="20">
-        <v>215788.084</v>
+        <v>0</v>
       </c>
       <c r="M27" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2019</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B28" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>8</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>4</v>
       </c>
       <c r="C28" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>31</v>
-      </c>
-      <c r="D28" s="6">
-        <v>43678</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="D28" s="7">
+        <v>43922</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G28" s="8">
-        <v>17905</v>
+        <v>11783</v>
       </c>
       <c r="H28" s="8">
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="J28" s="8">
         <v>0</v>
       </c>
       <c r="K28" s="20">
-        <v>479317</v>
+        <v>191021</v>
       </c>
       <c r="L28" s="20">
-        <v>1035274.696</v>
+        <v>274945.93800000002</v>
       </c>
       <c r="M28" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" s="21">
         <v>0</v>
@@ -23103,90 +23227,90 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2019</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B29" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>9</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>5</v>
       </c>
       <c r="C29" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>35</v>
-      </c>
-      <c r="D29" s="6">
-        <v>43709</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="D29" s="7">
+        <v>43952</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G29" s="8">
-        <v>5818.1</v>
+        <v>208</v>
       </c>
       <c r="H29" s="8">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I29" s="8">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="J29" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" s="20">
-        <v>215354</v>
+        <v>4804</v>
       </c>
       <c r="L29" s="20">
-        <v>407740.527</v>
+        <v>5339.759</v>
       </c>
       <c r="M29" s="21">
         <v>3</v>
       </c>
       <c r="N29" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2019</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B30" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>10</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>6</v>
       </c>
       <c r="C30" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>40</v>
-      </c>
-      <c r="D30" s="6">
-        <v>43739</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>23</v>
+      </c>
+      <c r="D30" s="7">
+        <v>43983</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G30" s="8">
-        <v>8380</v>
+        <v>21032</v>
       </c>
       <c r="H30" s="8">
         <v>0</v>
       </c>
       <c r="I30" s="8">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="J30" s="8">
         <v>0</v>
       </c>
       <c r="K30" s="20">
-        <v>153700</v>
+        <v>310574</v>
       </c>
       <c r="L30" s="20">
-        <v>246729.02900000001</v>
+        <v>399383.87300000002</v>
       </c>
       <c r="M30" s="21">
         <v>2</v>
@@ -23197,43 +23321,43 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2019</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B31" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>11</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>7</v>
       </c>
       <c r="C31" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>44</v>
-      </c>
-      <c r="D31" s="6">
-        <v>43770</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="D31" s="7">
+        <v>44013</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G31" s="8">
-        <v>252</v>
+        <v>1219</v>
       </c>
       <c r="H31" s="8">
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="J31" s="8">
         <v>0</v>
       </c>
       <c r="K31" s="20">
-        <v>187544</v>
+        <v>43311.5</v>
       </c>
       <c r="L31" s="20">
-        <v>362292.65500000003</v>
+        <v>68336.247999999992</v>
       </c>
       <c r="M31" s="21">
         <v>2</v>
@@ -23244,93 +23368,93 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2018</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B32" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>1</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>8</v>
       </c>
       <c r="C32" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>5</v>
-      </c>
-      <c r="D32" s="6">
-        <v>43131</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="D32" s="7">
+        <v>44044</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G32" s="8">
-        <v>1810.5</v>
+        <v>8855</v>
       </c>
       <c r="H32" s="8">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I32" s="8">
-        <v>46</v>
+        <v>328</v>
       </c>
       <c r="J32" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="20">
-        <v>72276.44</v>
+        <v>278037</v>
       </c>
       <c r="L32" s="20">
-        <v>67877.679999999993</v>
+        <v>772707.00099999993</v>
       </c>
       <c r="M32" s="21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N32" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2018</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B33" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>8</v>
       </c>
       <c r="C33" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>9</v>
-      </c>
-      <c r="D33" s="6">
-        <v>43159</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="D33" s="7">
+        <v>44044</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G33" s="8">
-        <v>3458</v>
+        <v>7726</v>
       </c>
       <c r="H33" s="8">
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="J33" s="8">
         <v>0</v>
       </c>
       <c r="K33" s="20">
-        <v>148758</v>
+        <v>18480</v>
       </c>
       <c r="L33" s="20">
-        <v>123778.639</v>
+        <v>0</v>
       </c>
       <c r="M33" s="21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N33" s="21">
         <v>0</v>
@@ -23338,93 +23462,93 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2018</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B34" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>9</v>
+      </c>
+      <c r="C34" s="5">
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>36</v>
+      </c>
+      <c r="D34" s="7">
+        <v>44075</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="8">
+        <v>2041</v>
+      </c>
+      <c r="H34" s="8">
+        <v>153</v>
+      </c>
+      <c r="I34" s="8">
+        <v>53</v>
+      </c>
+      <c r="J34" s="8">
+        <v>153</v>
+      </c>
+      <c r="K34" s="20">
+        <v>67024</v>
+      </c>
+      <c r="L34" s="20">
+        <v>-233489.73</v>
+      </c>
+      <c r="M34" s="21">
         <v>3</v>
       </c>
-      <c r="C34" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>13</v>
-      </c>
-      <c r="D34" s="6">
-        <v>43190</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1367.7</v>
-      </c>
-      <c r="H34" s="8">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8">
-        <v>44</v>
-      </c>
-      <c r="J34" s="8">
-        <v>0</v>
-      </c>
-      <c r="K34" s="20">
-        <v>69263.5</v>
-      </c>
-      <c r="L34" s="20">
-        <v>62793.531999999999</v>
-      </c>
-      <c r="M34" s="21">
-        <v>7</v>
-      </c>
       <c r="N34" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2018</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B35" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>4</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>9</v>
       </c>
       <c r="C35" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>18</v>
-      </c>
-      <c r="D35" s="6">
-        <v>43220</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>36</v>
+      </c>
+      <c r="D35" s="7">
+        <v>44075</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G35" s="8">
-        <v>1249.0999999999999</v>
+        <v>509</v>
       </c>
       <c r="H35" s="8">
         <v>0</v>
       </c>
       <c r="I35" s="8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J35" s="8">
         <v>0</v>
       </c>
       <c r="K35" s="20">
-        <v>46995.5</v>
+        <v>12725</v>
       </c>
       <c r="L35" s="20">
-        <v>56746.347000000002</v>
+        <v>0</v>
       </c>
       <c r="M35" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" s="21">
         <v>0</v>
@@ -23432,46 +23556,46 @@
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2018</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B36" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>5</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>10</v>
       </c>
       <c r="C36" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>22</v>
-      </c>
-      <c r="D36" s="6">
-        <v>43251</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="D36" s="7">
+        <v>44105</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G36" s="8">
-        <v>1681</v>
+        <v>932</v>
       </c>
       <c r="H36" s="8">
         <v>0</v>
       </c>
       <c r="I36" s="8">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J36" s="8">
         <v>0</v>
       </c>
       <c r="K36" s="20">
-        <v>72283</v>
+        <v>35416</v>
       </c>
       <c r="L36" s="20">
-        <v>76698.024999999994</v>
+        <v>49877.298999999999</v>
       </c>
       <c r="M36" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36" s="21">
         <v>0</v>
@@ -23479,46 +23603,46 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2018</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B37" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>6</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>10</v>
       </c>
       <c r="C37" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>26</v>
-      </c>
-      <c r="D37" s="6">
-        <v>43281</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="D37" s="7">
+        <v>44105</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G37" s="8">
-        <v>6834</v>
+        <v>638</v>
       </c>
       <c r="H37" s="8">
         <v>0</v>
       </c>
       <c r="I37" s="8">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="J37" s="8">
         <v>0</v>
       </c>
       <c r="K37" s="20">
-        <v>280570</v>
+        <v>17864</v>
       </c>
       <c r="L37" s="20">
-        <v>328385.29300000001</v>
+        <v>0</v>
       </c>
       <c r="M37" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N37" s="21">
         <v>0</v>
@@ -23526,43 +23650,43 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2018</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B38" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>7</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>11</v>
       </c>
       <c r="C38" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>31</v>
-      </c>
-      <c r="D38" s="6">
-        <v>43312</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="D38" s="7">
+        <v>44136</v>
       </c>
       <c r="E38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G38" s="8">
-        <v>45</v>
+        <v>6926</v>
       </c>
       <c r="H38" s="8">
         <v>0</v>
       </c>
       <c r="I38" s="8">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="J38" s="8">
         <v>0</v>
       </c>
       <c r="K38" s="20">
-        <v>4000</v>
+        <v>263188</v>
       </c>
       <c r="L38" s="20">
-        <v>2253.5619999999999</v>
+        <v>396550.61599999998</v>
       </c>
       <c r="M38" s="21">
         <v>1</v>
@@ -23573,46 +23697,46 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2018</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B39" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>8</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>11</v>
       </c>
       <c r="C39" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>35</v>
-      </c>
-      <c r="D39" s="6">
-        <v>43343</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="D39" s="7">
+        <v>44136</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G39" s="8">
-        <v>3100</v>
+        <v>3684</v>
       </c>
       <c r="H39" s="8">
         <v>0</v>
       </c>
       <c r="I39" s="8">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J39" s="8">
         <v>0</v>
       </c>
       <c r="K39" s="20">
-        <v>124000</v>
+        <v>87750.38</v>
       </c>
       <c r="L39" s="20">
-        <v>172859.64300000001</v>
+        <v>0</v>
       </c>
       <c r="M39" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" s="21">
         <v>0</v>
@@ -23620,46 +23744,46 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2018</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B40" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>10</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>12</v>
       </c>
       <c r="C40" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>44</v>
-      </c>
-      <c r="D40" s="6">
-        <v>43404</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>49</v>
+      </c>
+      <c r="D40" s="7">
+        <v>44166</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G40" s="8">
-        <v>5655.2</v>
+        <v>952</v>
       </c>
       <c r="H40" s="8">
         <v>0</v>
       </c>
       <c r="I40" s="8">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="J40" s="8">
         <v>0</v>
       </c>
       <c r="K40" s="20">
-        <v>233166</v>
+        <v>37128</v>
       </c>
       <c r="L40" s="20">
-        <v>321482.20199999999</v>
+        <v>58402.688000000002</v>
       </c>
       <c r="M40" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N40" s="21">
         <v>0</v>
@@ -23667,101 +23791,211 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2018</v>
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2020</v>
       </c>
       <c r="B41" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>11</v>
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>12</v>
       </c>
       <c r="C41" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>48</v>
-      </c>
-      <c r="D41" s="6">
-        <v>43434</v>
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>49</v>
+      </c>
+      <c r="D41" s="7">
+        <v>44166</v>
       </c>
       <c r="E41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="8">
+        <v>567</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <v>10</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0</v>
+      </c>
+      <c r="K41" s="20">
+        <v>15876</v>
+      </c>
+      <c r="L41" s="20">
+        <v>0</v>
+      </c>
+      <c r="M41" s="21">
+        <v>1</v>
+      </c>
+      <c r="N41" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="36">
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B42" s="36">
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C42" s="36">
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="D42" s="58">
+        <v>44200</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="G42" s="51">
+        <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="51">
+        <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Entrada*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="51">
+        <f>SUMIFS([1]!Tabla28[Salida],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="51">
+        <v>0</v>
+      </c>
+      <c r="K42" s="52">
+        <f>SUMIFS([1]!Tabla28[Importe Venta],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="52">
+        <f>SUMIFS([1]!Tabla28[Importe Costo],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="53">
+        <f>COUNTIFS([1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="36">
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B43" s="36">
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="36">
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>3</v>
+      </c>
+      <c r="D43" s="58">
+        <v>44211</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="51">
+        <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="51">
+        <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Entrada*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="51">
+        <f>SUMIFS([1]!Tabla28[Salida],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="51">
+        <v>0</v>
+      </c>
+      <c r="K43" s="51">
+        <f>SUMIFS([1]!Tabla28[Importe Venta],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="51">
+        <f>SUMIFS([1]!Tabla28[Importe Costo],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="53">
+        <f>COUNTIFS([1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="54">
+        <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B44" s="54">
+        <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C44" s="54">
+        <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="D44" s="59">
+        <v>44223</v>
+      </c>
+      <c r="E44" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="8">
-        <v>14402</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
-        <v>167</v>
-      </c>
-      <c r="J41" s="8">
-        <v>0</v>
-      </c>
-      <c r="K41" s="20">
-        <v>298660</v>
-      </c>
-      <c r="L41" s="20">
-        <v>436051.32399999996</v>
-      </c>
-      <c r="M41" s="21">
-        <v>4</v>
-      </c>
-      <c r="N41" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <f>YEAR(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>2018</v>
-      </c>
-      <c r="B42" s="5">
-        <f>MONTH(VentaBorrego[[#This Row],[FECHA]])</f>
-        <v>12</v>
-      </c>
-      <c r="C42" s="5">
-        <f>WEEKNUM(VentaBorrego[[#This Row],[FECHA]],2)</f>
-        <v>53</v>
-      </c>
-      <c r="D42" s="6">
-        <v>43465</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="8">
-        <v>9360</v>
-      </c>
-      <c r="H42" s="8">
-        <v>0</v>
-      </c>
-      <c r="I42" s="8">
-        <v>107</v>
-      </c>
-      <c r="J42" s="8">
-        <v>0</v>
-      </c>
-      <c r="K42" s="20">
-        <v>178548</v>
-      </c>
-      <c r="L42" s="20">
-        <v>274059.228</v>
-      </c>
-      <c r="M42" s="21">
-        <v>2</v>
-      </c>
-      <c r="N42" s="21">
-        <v>0</v>
-      </c>
+      <c r="F44" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="55">
+        <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="55">
+        <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Entrada*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="55">
+        <f>SUMIFS([1]!Tabla28[Salida],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="55">
+        <f>SUMIFS([1]!Tabla28[Salida],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="55">
+        <f>SUMIFS([1]!Tabla28[Importe Venta],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="55">
+        <f>SUMIFS([1]!Tabla28[Importe Costo],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="56">
+        <f>COUNTIFS([1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D2:N2"/>
+  <mergeCells count="3">
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="D1:AD1"/>
@@ -23776,18 +24010,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B504D037-90F7-485A-BB9E-C69BAE46861F}">
-          <x14:formula1>
-            <xm:f>ListasBorrego!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>E4:E42</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C2749C3-21D2-4437-933C-470FE58CB8CC}">
-          <x14:formula1>
-            <xm:f>ListasBorrego!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>F4:F42</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{509F3F27-9F6D-46EF-BF57-EDF56909569C}">
           <x14:formula1>
             <xm:f>ListasBorrego!$E$2:$E$3</xm:f>
@@ -23812,6 +24034,18 @@
           </x14:formula1>
           <xm:sqref>AC4</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE365B17-E3AF-49AF-B8D9-9A6C3DD973BB}">
+          <x14:formula1>
+            <xm:f>ListasBorrego!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1210980C-D053-49E0-9090-72A93AC80D26}">
+          <x14:formula1>
+            <xm:f>ListasBorrego!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F44</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -23835,28 +24069,28 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -23864,25 +24098,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="s">
         <v>88</v>
       </c>
-      <c r="M2" t="s">
-        <v>89</v>
-      </c>
       <c r="O2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -23890,25 +24124,25 @@
         <v>8</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
       </c>
       <c r="K3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s">
         <v>90</v>
       </c>
-      <c r="M3" t="s">
-        <v>91</v>
-      </c>
       <c r="O3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -23916,25 +24150,25 @@
         <v>9</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
       </c>
       <c r="K4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" t="s">
         <v>92</v>
       </c>
-      <c r="M4" t="s">
-        <v>93</v>
-      </c>
       <c r="O4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -23942,7 +24176,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -23951,40 +24185,40 @@
         <v>9</v>
       </c>
       <c r="K5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" t="s">
         <v>94</v>
-      </c>
-      <c r="M5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" t="s">
         <v>96</v>
-      </c>
-      <c r="M6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="s">
         <v>98</v>
-      </c>
-      <c r="M7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -23992,15 +24226,15 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s">
         <v>101</v>
-      </c>
-      <c r="M9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
         <v>8</v>
@@ -24008,15 +24242,15 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="s">
         <v>104</v>
-      </c>
-      <c r="M11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M12" t="s">
         <v>7</v>
@@ -24024,102 +24258,102 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -24156,31 +24390,31 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -24191,25 +24425,25 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -24220,25 +24454,25 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>75</v>
-      </c>
       <c r="Q3" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -24249,25 +24483,25 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s">
         <v>75</v>
       </c>
-      <c r="I4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" t="s">
-        <v>76</v>
-      </c>
       <c r="M4" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -24275,22 +24509,22 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -24298,19 +24532,19 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -24318,16 +24552,16 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -24335,116 +24569,116 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M12" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M13" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M14" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M15" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M16" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M17" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M18" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M19" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M20" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M21" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M22" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M23" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M24" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M25" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -24479,42 +24713,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -24522,27 +24756,27 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -24550,7 +24784,7 @@
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -24558,12 +24792,12 @@
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/GV/RegistroInformacion.xlsx
+++ b/GV/RegistroInformacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC017730-17FA-4114-9676-E1D096CD1BC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43373C1C-A66C-48CD-9438-3006F4E3E818}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294821225" uniqueCount="165">
   <si>
     <t>CERDOS</t>
   </si>
@@ -626,7 +626,7 @@
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,14 +739,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -977,13 +969,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,9 +997,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1011,26 +1014,15 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="109">
     <dxf>
       <font>
         <b val="0"/>
@@ -1045,385 +1037,13 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1811,6 +1431,400 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -2132,25 +2146,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     </dxf>
     <dxf>
       <font>
@@ -3329,15 +3324,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>732691</xdr:colOff>
+      <xdr:colOff>1042253</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>185422</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>288000</xdr:rowOff>
+      <xdr:colOff>173516</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3369,8 +3364,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27439326" y="293077"/>
-          <a:ext cx="288000" cy="288000"/>
+          <a:off x="24223722" y="309562"/>
+          <a:ext cx="286169" cy="288000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3382,13 +3377,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>284285</xdr:colOff>
+      <xdr:colOff>343816</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>284285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>572285</xdr:colOff>
+      <xdr:colOff>631816</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>279208</xdr:rowOff>
     </xdr:to>
@@ -3422,8 +3417,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28492939" y="284285"/>
-          <a:ext cx="288000" cy="288000"/>
+          <a:off x="25620785" y="284285"/>
+          <a:ext cx="288000" cy="292579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3651,16 +3646,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>84991</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>846991</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>375922</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2250</xdr:rowOff>
+      <xdr:colOff>233047</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>288000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3692,7 +3687,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26650216" y="304800"/>
+          <a:off x="28793341" y="295275"/>
           <a:ext cx="290931" cy="288000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3705,15 +3700,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>284285</xdr:colOff>
+      <xdr:colOff>455735</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>284285</xdr:rowOff>
+      <xdr:rowOff>293810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>572285</xdr:colOff>
+      <xdr:colOff>743735</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>279208</xdr:rowOff>
+      <xdr:rowOff>288733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3745,7 +3740,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26678060" y="284285"/>
+          <a:off x="30068960" y="293810"/>
           <a:ext cx="288000" cy="290198"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3955,71 +3950,71 @@
       <sheetName val="ALIMENTOS FORMULAS CERDOS "/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB0CB5FE-EC69-4A3C-B7F8-2A2B829875A7}" name="VentaCerdo" displayName="VentaCerdo" ref="A3:M139" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB0CB5FE-EC69-4A3C-B7F8-2A2B829875A7}" name="VentaCerdo" displayName="VentaCerdo" ref="A3:M139" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="A3:M139" xr:uid="{C9EBBED2-E078-4EE1-9F48-7C43C603BD9F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M122">
     <sortCondition ref="D3:D122"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AF79EB7F-53B6-458F-84BF-82950CA97A22}" name="Año" dataDxfId="105">
+    <tableColumn id="1" xr3:uid="{AF79EB7F-53B6-458F-84BF-82950CA97A22}" name="Año" dataDxfId="106">
       <calculatedColumnFormula>YEAR(VentaCerdo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{19A051CF-8C1B-4292-8170-4118C1548088}" name="Mes" dataDxfId="104">
+    <tableColumn id="32" xr3:uid="{19A051CF-8C1B-4292-8170-4118C1548088}" name="Mes" dataDxfId="105">
       <calculatedColumnFormula>MONTH(VentaCerdo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{6C2E3871-F892-4AAA-80F8-BCBBAF515294}" name="Semana" dataDxfId="103">
+    <tableColumn id="30" xr3:uid="{6C2E3871-F892-4AAA-80F8-BCBBAF515294}" name="Semana" dataDxfId="104">
       <calculatedColumnFormula>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{B8618162-D69B-4A8A-8D93-DA3328E46CB0}" name="FECHA" dataDxfId="102"/>
-    <tableColumn id="27" xr3:uid="{C9E3266E-0727-428C-9BF1-A7AD09AE9EAF}" name="Almacen" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{08C0B01F-B3AD-4119-8859-A6491FD939BC}" name="Kilos Salidas" dataDxfId="100"/>
-    <tableColumn id="3" xr3:uid="{404682AC-60FB-4D7E-B817-BD2248526A86}" name="Kilos Cancelados" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{69CCC8E0-14F6-464A-8ECF-15DB81E956CA}" name="Cabezas Salidas" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{582FE33C-0D80-475D-BE61-AFEF1986FB0B}" name="Cabezas Entradas" dataDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{5DC4E71E-F9FC-4F43-96C9-2941B4DB0D05}" name="Importe Ventas" dataDxfId="96" dataCellStyle="Moneda"/>
-    <tableColumn id="7" xr3:uid="{789D5740-B7CD-4B88-BD7F-0439A78EE71F}" name="Importe Costos" dataDxfId="95" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{21DA54D1-A1D1-476A-AAFA-CCA51CAAD970}" name="No. Ventas" dataDxfId="94" dataCellStyle="Moneda"/>
-    <tableColumn id="9" xr3:uid="{5F292483-6A0F-4601-BDA1-69CB1520DF6A}" name="No. Cancelaciones" dataDxfId="93" dataCellStyle="Moneda"/>
+    <tableColumn id="29" xr3:uid="{B8618162-D69B-4A8A-8D93-DA3328E46CB0}" name="FECHA" dataDxfId="103"/>
+    <tableColumn id="27" xr3:uid="{C9E3266E-0727-428C-9BF1-A7AD09AE9EAF}" name="Almacen" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{08C0B01F-B3AD-4119-8859-A6491FD939BC}" name="Kilos Salidas" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{404682AC-60FB-4D7E-B817-BD2248526A86}" name="Kilos Cancelados" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{69CCC8E0-14F6-464A-8ECF-15DB81E956CA}" name="Cabezas Salidas" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{582FE33C-0D80-475D-BE61-AFEF1986FB0B}" name="Cabezas Entradas" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{5DC4E71E-F9FC-4F43-96C9-2941B4DB0D05}" name="Importe Ventas" dataDxfId="97" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{789D5740-B7CD-4B88-BD7F-0439A78EE71F}" name="Importe Costos" dataDxfId="96" dataCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{21DA54D1-A1D1-476A-AAFA-CCA51CAAD970}" name="No. Ventas" dataDxfId="95" dataCellStyle="Moneda"/>
+    <tableColumn id="9" xr3:uid="{5F292483-6A0F-4601-BDA1-69CB1520DF6A}" name="No. Cancelaciones" dataDxfId="94" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:V4" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:V4" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="P3:V4" xr:uid="{F3E1A5D4-2206-4A5B-8082-DCC730185F04}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F593C191-662A-4A08-9C07-3BC417717AF5}" name="AÑO">
@@ -4029,19 +4024,19 @@
       <calculatedColumnFormula>MONTH(NB[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{AC94EA02-7DE1-43F2-9333-779EF3503D3B}" name="SEMANA">
-      <calculatedColumnFormula>WEEKNUM(NB[[#This Row],[Fecha]])</calculatedColumnFormula>
+      <calculatedColumnFormula>WEEKNUM(NB[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="X3:AD4" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="X3:AD4" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="X3:AD4" xr:uid="{C07E5018-4C77-46A8-A50B-107FA9C88156}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1E8E5BF2-508C-417D-BE57-3AACF0C714C5}" name="AÑO">
@@ -4051,44 +4046,44 @@
       <calculatedColumnFormula>MONTH(MB[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{0BD97616-9EFF-4FF6-9E9B-D9B72CED3912}" name="SEMANA">
-      <calculatedColumnFormula>WEEKNUM(MB[[#This Row],[Fecha]])</calculatedColumnFormula>
+      <calculatedColumnFormula>WEEKNUM(MB[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73802A7C-9467-411F-9B9E-19B18579D18D}" name="InfoBorrego" displayName="InfoBorrego" ref="A2:N44" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73802A7C-9467-411F-9B9E-19B18579D18D}" name="InfoBorrego" displayName="InfoBorrego" ref="A2:N44" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A2:N44" xr:uid="{4C07E7EB-F7E2-4DFC-BEF6-4C6501D45968}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N41">
     <sortCondition ref="D2:D41"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{25DB43AE-6CB5-4052-9309-BB1A746C2B8A}" name="Año" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{25DB43AE-6CB5-4052-9309-BB1A746C2B8A}" name="Año" dataDxfId="42">
       <calculatedColumnFormula>YEAR(InfoBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B9143660-3AB8-467B-8920-CB6CB4D2AE62}" name="Mes" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{B9143660-3AB8-467B-8920-CB6CB4D2AE62}" name="Mes" dataDxfId="41">
       <calculatedColumnFormula>MONTH(InfoBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AD20FB6D-7BA0-4707-ADAF-18C68FD3089A}" name="Semana" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{AD20FB6D-7BA0-4707-ADAF-18C68FD3089A}" name="Semana" dataDxfId="40">
       <calculatedColumnFormula>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18D75885-EEF0-4220-823D-4DA7DDF39375}" name="FECHA" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{43C2662C-CE7E-4866-957A-930698AB7A66}" name="PZA / CABEZA" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{B36A48EC-1A46-443B-B51A-33AD0D405A7B}" name="Granja" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{45BC65EB-537A-46EE-A94D-E1B7DA25F506}" name="Kilos Total B" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{B13E5F32-1CBF-4933-9A8F-8BD77BB84FD1}" name="Kilos Cancelados B" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{13DF204B-F704-4C3D-9381-D61A397A889E}" name="Cabezas Salidas B" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{27CA73FF-4927-4DCD-B37A-432278B1E1F4}" name="Cabezas Entradas B" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{FDAD35B4-C441-497A-A2DE-3236A7DFCE37}" name="Importe Ventas B" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{C3E0BFB5-AFCA-4C46-A1D9-EFB178AD5EEE}" name="Importe Costos B" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{B77506E4-D768-4D48-8C92-80B9A5A43275}" name="No. Ventas B" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{CEA4441E-EC83-441E-B023-EBEADC5A7A4F}" name="No. Cancelaciones B" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{18D75885-EEF0-4220-823D-4DA7DDF39375}" name="FECHA" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{43C2662C-CE7E-4866-957A-930698AB7A66}" name="PZA / CABEZA" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{B36A48EC-1A46-443B-B51A-33AD0D405A7B}" name="Granja" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{45BC65EB-537A-46EE-A94D-E1B7DA25F506}" name="Kilos Total B" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{B13E5F32-1CBF-4933-9A8F-8BD77BB84FD1}" name="Kilos Cancelados B" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{13DF204B-F704-4C3D-9381-D61A397A889E}" name="Cabezas Salidas B" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{27CA73FF-4927-4DCD-B37A-432278B1E1F4}" name="Cabezas Entradas B" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{FDAD35B4-C441-497A-A2DE-3236A7DFCE37}" name="Importe Ventas B" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{C3E0BFB5-AFCA-4C46-A1D9-EFB178AD5EEE}" name="Importe Costos B" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{B77506E4-D768-4D48-8C92-80B9A5A43275}" name="No. Ventas B" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{CEA4441E-EC83-441E-B023-EBEADC5A7A4F}" name="No. Cancelaciones B" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4105,10 +4100,10 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="C1:C6" xr:uid="{79BD6A38-95D5-48F5-B30F-01B067AA4A61}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4165,7 +4160,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7FA5903A-793D-41AF-927E-0E5AEF940163}" name="NC" displayName="NC" ref="O3:U4" totalsRowShown="0" headerRowDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7FA5903A-793D-41AF-927E-0E5AEF940163}" name="NC" displayName="NC" ref="O3:U4" totalsRowShown="0" headerRowDxfId="93">
   <autoFilter ref="O3:U4" xr:uid="{02D5D0CD-EDA4-456A-A5E8-9F3730BDF858}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C0348CA9-B923-4DF2-B7B8-6F0BEEF03B4F}" name="AÑO">
@@ -4175,12 +4170,12 @@
       <calculatedColumnFormula>MONTH(NC[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{A92A8AB5-1C79-4CA4-B109-A49731842416}" name="SEMANA">
-      <calculatedColumnFormula>WEEKNUM(NC[[#This Row],[Fecha]])</calculatedColumnFormula>
+      <calculatedColumnFormula>WEEKNUM(NC[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1E2C6755-7899-4C5E-8849-9F4DEA103FB6}" name="Fecha" dataDxfId="91"/>
-    <tableColumn id="5" xr3:uid="{3E44B0DD-62A3-4C63-B2ED-8D9F754BC1C8}" name="Descripción" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{9FD31AF2-F6BB-40A9-A5EF-A7BE8C1EE096}" name="Almacén" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{D483493A-6942-4223-8114-7C47B876A768}" name="Entrada" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{1E2C6755-7899-4C5E-8849-9F4DEA103FB6}" name="Fecha" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{3E44B0DD-62A3-4C63-B2ED-8D9F754BC1C8}" name="Descripción" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{9FD31AF2-F6BB-40A9-A5EF-A7BE8C1EE096}" name="Almacén" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{D483493A-6942-4223-8114-7C47B876A768}" name="Entrada" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4207,10 +4202,10 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="C1:C8" xr:uid="{750FC6F7-70F6-4B4E-96D7-A30F50A00065}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4257,27 +4252,27 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="M1:M25" xr:uid="{066AC525-C68B-40D3-AE6B-D275A0A79615}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="O1:O8" xr:uid="{5D329DB3-7365-4EEF-8F0E-32C5AD338BA4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="Q1:Q4" xr:uid="{B76C3F68-F66F-46E8-9784-B4AAADE438F9}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7AF09891-3B17-4F67-912C-FAE5416AB3EF}" name="Unidad"/>
@@ -4287,7 +4282,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{1EEBF04B-5CA7-4B0A-ADFE-2A6A9768B634}" name="MC" displayName="MC" ref="W3:AC4" totalsRowShown="0" headerRowDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{1EEBF04B-5CA7-4B0A-ADFE-2A6A9768B634}" name="MC" displayName="MC" ref="W3:AC4" totalsRowShown="0" headerRowDxfId="88">
   <autoFilter ref="W3:AC4" xr:uid="{15203CCB-6A72-4C9E-82BA-A853B5165F17}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{99A49235-A43E-4B45-948E-613A29DBA5A6}" name="AÑO">
@@ -4297,12 +4292,12 @@
       <calculatedColumnFormula>MONTH(MC[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CC8DCD94-2C62-421E-8A0B-4EE9F9AA0BA6}" name="SEMANA">
-      <calculatedColumnFormula>WEEKNUM(MC[[#This Row],[Fecha]])</calculatedColumnFormula>
+      <calculatedColumnFormula>WEEKNUM(MC[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057B6A06-06EB-4370-9C7D-67B564AB477C}" name="Fecha" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{F7D1F4AC-D899-4963-BC58-63184492E881}" name="Descripción" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{C424C129-BB09-45C4-8A52-C928098DD204}" name="Almacén" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{D7883101-3244-4BC1-AC2D-3BFB937551E5}" name="Salida" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{057B6A06-06EB-4370-9C7D-67B564AB477C}" name="Fecha" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{F7D1F4AC-D899-4963-BC58-63184492E881}" name="Descripción" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{C424C129-BB09-45C4-8A52-C928098DD204}" name="Almacén" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{D7883101-3244-4BC1-AC2D-3BFB937551E5}" name="Salida" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4349,10 +4344,10 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{14BF97AA-514C-43B8-ACBF-8377CC8F9163}" name="DMB" displayName="DMB" ref="I1:I2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{14BF97AA-514C-43B8-ACBF-8377CC8F9163}" name="DMB" displayName="DMB" ref="I1:I2" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="I1:I2" xr:uid="{7AB45DB3-5E72-4F44-A776-E252D9E90DB7}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4AF18E02-4261-4B0E-844D-1655706EFC80}" name="Descripción" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{4AF18E02-4261-4B0E-844D-1655706EFC80}" name="Descripción" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4379,7 +4374,7 @@
       <calculatedColumnFormula>MONTH(CF[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{86A5A15B-D50E-477A-9CF8-6D990EE8ECD1}" name="Semana">
-      <calculatedColumnFormula>WEEKNUM(CF[[#This Row],[Fecha]])</calculatedColumnFormula>
+      <calculatedColumnFormula>WEEKNUM(CF[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{0F4994FE-CE66-4685-AE8F-4B52BF06ADCE}" name="Fecha"/>
     <tableColumn id="5" xr3:uid="{530C2094-0339-47EE-A25A-B204F60FDADD}" name="Descripción"/>
@@ -4393,33 +4388,33 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K106" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K106" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A3:K106" xr:uid="{D4382671-7652-40D0-940C-E955EF481B0A}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD9F0EF0-AAEC-44EF-B652-AEE3A7B1514D}" name="Año" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{FD9F0EF0-AAEC-44EF-B652-AEE3A7B1514D}" name="Año" dataDxfId="81">
       <calculatedColumnFormula>YEAR(VentaHuevo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{38DF3F1A-ECDF-4B36-9176-FD4C2215E738}" name="Mes" dataDxfId="79">
+    <tableColumn id="2" xr3:uid="{38DF3F1A-ECDF-4B36-9176-FD4C2215E738}" name="Mes" dataDxfId="80">
       <calculatedColumnFormula>MONTH(VentaHuevo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0806F8F4-F211-461B-8637-91E4CE806C4D}" name="Semana" dataDxfId="78">
+    <tableColumn id="3" xr3:uid="{0806F8F4-F211-461B-8637-91E4CE806C4D}" name="Semana" dataDxfId="79">
       <calculatedColumnFormula>WEEKNUM(VentaHuevo[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8434CCCE-DE27-4AE6-A002-E0E6CF045C72}" name="FECHA" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{779AD8B5-3C79-434E-A399-2FBAD1799E8D}" name="Postura" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{A97041C1-DD4A-498F-8E13-F603ABE564D9}" name="Kilos Total" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{CC975B41-EAF3-4B15-B675-8C8CEAE44165}" name="Kilos Cancelados" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{AC4B10C7-0849-4C4C-9BA5-AE8FB92493E2}" name="Importe Ventas" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{B2B64C19-21ED-42F7-B0F5-7AE2560707DB}" name="Importe Costos" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{777D0A0A-820D-4722-8450-983DB543ED2D}" name="No. Ventas" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{7E467BF3-DE83-4056-B631-B9B5060F190D}" name="No. Cancelaciones" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{8434CCCE-DE27-4AE6-A002-E0E6CF045C72}" name="FECHA" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{779AD8B5-3C79-434E-A399-2FBAD1799E8D}" name="Postura" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{A97041C1-DD4A-498F-8E13-F603ABE564D9}" name="Kilos Total" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{CC975B41-EAF3-4B15-B675-8C8CEAE44165}" name="Kilos Cancelados" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{AC4B10C7-0849-4C4C-9BA5-AE8FB92493E2}" name="Importe Ventas" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{B2B64C19-21ED-42F7-B0F5-7AE2560707DB}" name="Importe Costos" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{777D0A0A-820D-4722-8450-983DB543ED2D}" name="No. Ventas" dataDxfId="72"/>
+    <tableColumn id="11" xr3:uid="{7E467BF3-DE83-4056-B631-B9B5060F190D}" name="No. Cancelaciones" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B8C3BF5-B426-4FC9-8CCD-BD04125E8FC9}" name="RecoleccionHuevo" displayName="RecoleccionHuevo" ref="M3:T248" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" tableBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B8C3BF5-B426-4FC9-8CCD-BD04125E8FC9}" name="RecoleccionHuevo" displayName="RecoleccionHuevo" ref="M3:T248" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="M3:T248" xr:uid="{60C9021B-900B-4B60-A55B-39BD4E52B0C3}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5556DBC3-8C5C-48FF-AC71-14BD1764535F}" name="Año">
@@ -4428,21 +4423,21 @@
     <tableColumn id="2" xr3:uid="{C4348503-323D-43E8-8270-63F3FB635C31}" name="Mes">
       <calculatedColumnFormula>MONTH(RecoleccionHuevo[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B97B1594-D27C-4255-B30B-9D3C3FCE7D1F}" name="Semana">
-      <calculatedColumnFormula>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{B97B1594-D27C-4255-B30B-9D3C3FCE7D1F}" name="Semana" dataDxfId="1">
+      <calculatedColumnFormula>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F575BA58-C636-4CCE-AEC8-386F16DEDFFA}" name="Fecha" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{F575BA58-C636-4CCE-AEC8-386F16DEDFFA}" name="Fecha" dataDxfId="67"/>
     <tableColumn id="5" xr3:uid="{D6F82851-3690-4182-8BD9-4BE245CA5B59}" name="Bodega Origen"/>
-    <tableColumn id="6" xr3:uid="{F0B3184E-20DE-4D34-8B90-DB4940FA096B}" name="Cantidad" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{9D264A97-0E03-44D4-AE76-4CD1B7BAA7FD}" name="Kilos" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{89B76523-86A1-41BF-B81B-2D6DD4F17AEE}" name="Cajas" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{F0B3184E-20DE-4D34-8B90-DB4940FA096B}" name="Cantidad" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{9D264A97-0E03-44D4-AE76-4CD1B7BAA7FD}" name="Kilos" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{89B76523-86A1-41BF-B81B-2D6DD4F17AEE}" name="Cajas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{49922715-EB52-4A65-91E4-0475F5534B83}" name="NH" displayName="NH" ref="V3:AB4" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{49922715-EB52-4A65-91E4-0475F5534B83}" name="NH" displayName="NH" ref="V3:AB4" totalsRowShown="0" headerRowDxfId="64">
   <autoFilter ref="V3:AB4" xr:uid="{9E909787-7729-4B69-B0D7-61A481011055}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BB52ECF0-F2EE-4B65-A7D9-9EDA649B5891}" name="AÑO">
@@ -4452,19 +4447,19 @@
       <calculatedColumnFormula>MONTH(NH[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{40E66E16-55FD-40FD-8212-C14977333B21}" name="SEMANA">
-      <calculatedColumnFormula>WEEKNUM(NH[[#This Row],[Fecha]])</calculatedColumnFormula>
+      <calculatedColumnFormula>WEEKNUM(NH[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4DAFF2EC-25FE-4925-B214-00D322A9AC67}" name="Fecha" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{5EA58C44-0B6E-4368-8DCF-6D66196470FC}" name="Descripción" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{97EB3DE5-BB67-459C-B513-658E8D859B6B}" name="Almacén" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{6E7BB089-A777-4CF9-A575-1F853606112B}" name="Entrada" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{4DAFF2EC-25FE-4925-B214-00D322A9AC67}" name="Fecha" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{5EA58C44-0B6E-4368-8DCF-6D66196470FC}" name="Descripción" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{97EB3DE5-BB67-459C-B513-658E8D859B6B}" name="Almacén" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{6E7BB089-A777-4CF9-A575-1F853606112B}" name="Entrada" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AD3:AJ4" totalsRowShown="0" headerRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AD3:AJ4" totalsRowShown="0" headerRowDxfId="59">
   <autoFilter ref="AD3:AJ4" xr:uid="{8AC8429F-5A18-4F92-8A2F-B1AB086595B2}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2909D7D7-7DF1-42BB-B6A6-7E79BD333390}" name="AÑO">
@@ -4474,12 +4469,12 @@
       <calculatedColumnFormula>MONTH(MH[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{5BE7723A-8CFB-4D4C-B93F-00B4E59A0013}" name="SEMANA">
-      <calculatedColumnFormula>WEEKNUM(MH[[#This Row],[Fecha]])</calculatedColumnFormula>
+      <calculatedColumnFormula>WEEKNUM(MH[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4496,7 +4491,7 @@
       <calculatedColumnFormula>MONTH(FH[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{2C877E85-B15F-4BDC-B7AA-AB9C9AB720F1}" name="Semana">
-      <calculatedColumnFormula>WEEKNUM(FH[[#This Row],[Fecha]])</calculatedColumnFormula>
+      <calculatedColumnFormula>WEEKNUM(FH[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{048B4BCB-E965-4D52-8535-C29744E88416}" name="Fecha"/>
     <tableColumn id="5" xr3:uid="{F52BA2AE-2A75-45DD-9152-32ECD5DBB404}" name="Descripción"/>
@@ -4774,13 +4769,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM140"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2:AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
@@ -4802,93 +4797,96 @@
     <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="12.5703125" customWidth="1"/>
-    <col min="36" max="36" width="10" customWidth="1"/>
-    <col min="38" max="38" width="10.140625" customWidth="1"/>
+    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
+      <c r="D1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
     </row>
     <row r="2" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="31"/>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="Z2" s="41" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="Z2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AH2" s="44" t="s">
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AH2" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4982,22 +4980,22 @@
       <c r="AG3" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5054,8 +5052,8 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <f>WEEKNUM(NC[[#This Row],[Fecha]])</f>
-        <v>0</v>
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -5070,8 +5068,8 @@
         <v>1</v>
       </c>
       <c r="Y4">
-        <f>WEEKNUM(MC[[#This Row],[Fecha]])</f>
-        <v>0</v>
+        <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
       </c>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
@@ -5086,8 +5084,8 @@
         <v>1</v>
       </c>
       <c r="AG4">
-        <f>WEEKNUM(CF[[#This Row],[Fecha]])</f>
-        <v>0</v>
+        <f>WEEKNUM(CF[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -11112,8 +11110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499E0046-CD30-4A1D-8AF4-5FE2DD615F25}">
   <dimension ref="A1:AT248"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AL1:AN1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11126,17 +11124,17 @@
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="11.42578125" customWidth="1"/>
     <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="22" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="24" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="0" hidden="1" customWidth="1"/>
+    <col min="30" max="32" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="0" hidden="1" customWidth="1"/>
+    <col min="38" max="40" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11144,96 +11142,96 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
     </row>
     <row r="2" spans="1:46" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="M2" s="48" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="M2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="Y2" s="42" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="Y2" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AG2" s="41" t="s">
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AG2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AO2" s="44" t="s">
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AO2" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -11344,22 +11342,22 @@
       <c r="AN3" t="s">
         <v>4</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR3" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" s="15" t="s">
         <v>130</v>
       </c>
     </row>
@@ -11409,7 +11407,7 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P4" s="26">
@@ -11424,7 +11422,9 @@
       <c r="S4" s="8">
         <v>6619.74</v>
       </c>
-      <c r="T4" s="8"/>
+      <c r="T4" s="8">
+        <v>291</v>
+      </c>
       <c r="V4">
         <f>YEAR(NH[[#This Row],[Fecha]])</f>
         <v>1900</v>
@@ -11434,8 +11434,8 @@
         <v>1</v>
       </c>
       <c r="X4">
-        <f>WEEKNUM(NH[[#This Row],[Fecha]])</f>
-        <v>0</v>
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
       </c>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
@@ -11450,8 +11450,8 @@
         <v>1</v>
       </c>
       <c r="AF4">
-        <f>WEEKNUM(MH[[#This Row],[Fecha]])</f>
-        <v>0</v>
+        <f>WEEKNUM(MH[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
       </c>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
@@ -11466,8 +11466,8 @@
         <v>1</v>
       </c>
       <c r="AN4">
-        <f>WEEKNUM(FH[[#This Row],[Fecha]])</f>
-        <v>0</v>
+        <f>WEEKNUM(FH[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
@@ -11516,7 +11516,7 @@
         <v>2</v>
       </c>
       <c r="O5">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P5" s="26">
@@ -11531,7 +11531,9 @@
       <c r="S5" s="8">
         <v>7181.1</v>
       </c>
-      <c r="T5" s="8"/>
+      <c r="T5" s="8">
+        <v>308</v>
+      </c>
     </row>
     <row r="6" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -11579,8 +11581,8 @@
         <v>3</v>
       </c>
       <c r="O6">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>10</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
       </c>
       <c r="P6" s="26">
         <v>43891</v>
@@ -11594,7 +11596,9 @@
       <c r="S6" s="8">
         <v>8831.48</v>
       </c>
-      <c r="T6" s="8"/>
+      <c r="T6" s="8">
+        <v>380</v>
+      </c>
     </row>
     <row r="7" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -11642,7 +11646,7 @@
         <v>4</v>
       </c>
       <c r="O7">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P7" s="26">
@@ -11657,7 +11661,9 @@
       <c r="S7" s="8">
         <v>7134.1600000000008</v>
       </c>
-      <c r="T7" s="8"/>
+      <c r="T7" s="8">
+        <v>313</v>
+      </c>
     </row>
     <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -11705,7 +11711,7 @@
         <v>5</v>
       </c>
       <c r="O8">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P8" s="26">
@@ -11720,7 +11726,9 @@
       <c r="S8" s="8">
         <v>6770.6100000000006</v>
       </c>
-      <c r="T8" s="8"/>
+      <c r="T8" s="8">
+        <v>299</v>
+      </c>
     </row>
     <row r="9" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -11768,7 +11776,7 @@
         <v>6</v>
       </c>
       <c r="O9">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>23</v>
       </c>
       <c r="P9" s="26">
@@ -11783,7 +11791,9 @@
       <c r="S9" s="8">
         <v>7113.0899999999992</v>
       </c>
-      <c r="T9" s="8"/>
+      <c r="T9" s="8">
+        <v>318</v>
+      </c>
     </row>
     <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -11831,7 +11841,7 @@
         <v>7</v>
       </c>
       <c r="O10">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P10" s="26">
@@ -11846,7 +11856,9 @@
       <c r="S10" s="8">
         <v>6079.54</v>
       </c>
-      <c r="T10" s="8"/>
+      <c r="T10" s="8">
+        <v>273</v>
+      </c>
     </row>
     <row r="11" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -11894,7 +11906,7 @@
         <v>8</v>
       </c>
       <c r="O11">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P11" s="26">
@@ -11909,7 +11921,9 @@
       <c r="S11" s="8">
         <v>6644.53</v>
       </c>
-      <c r="T11" s="8"/>
+      <c r="T11" s="8">
+        <v>300</v>
+      </c>
     </row>
     <row r="12" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -11957,7 +11971,7 @@
         <v>9</v>
       </c>
       <c r="O12">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>36</v>
       </c>
       <c r="P12" s="26">
@@ -11972,7 +11986,9 @@
       <c r="S12" s="8">
         <v>5108.21</v>
       </c>
-      <c r="T12" s="8"/>
+      <c r="T12" s="8">
+        <v>224</v>
+      </c>
     </row>
     <row r="13" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -12020,7 +12036,7 @@
         <v>10</v>
       </c>
       <c r="O13">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P13" s="26">
@@ -12035,7 +12051,9 @@
       <c r="S13" s="8">
         <v>4868.33</v>
       </c>
-      <c r="T13" s="8"/>
+      <c r="T13" s="8">
+        <v>211</v>
+      </c>
     </row>
     <row r="14" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -12083,7 +12101,7 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P14" s="26">
@@ -12098,7 +12116,9 @@
       <c r="S14" s="8">
         <v>24279.8</v>
       </c>
-      <c r="T14" s="8"/>
+      <c r="T14" s="8">
+        <v>1025</v>
+      </c>
     </row>
     <row r="15" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -12146,7 +12166,7 @@
         <v>2</v>
       </c>
       <c r="O15">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P15" s="26">
@@ -12161,7 +12181,9 @@
       <c r="S15" s="8">
         <v>20783.149999999998</v>
       </c>
-      <c r="T15" s="8"/>
+      <c r="T15" s="8">
+        <v>872</v>
+      </c>
     </row>
     <row r="16" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -12209,8 +12231,8 @@
         <v>3</v>
       </c>
       <c r="O16">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>10</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
       </c>
       <c r="P16" s="26">
         <v>43891</v>
@@ -12224,7 +12246,9 @@
       <c r="S16" s="8">
         <v>22223.7</v>
       </c>
-      <c r="T16" s="8"/>
+      <c r="T16" s="8">
+        <v>962</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -12272,7 +12296,7 @@
         <v>4</v>
       </c>
       <c r="O17">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P17" s="26">
@@ -12287,7 +12311,9 @@
       <c r="S17" s="8">
         <v>20305.289999999994</v>
       </c>
-      <c r="T17" s="8"/>
+      <c r="T17" s="8">
+        <v>895</v>
+      </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -12335,7 +12361,7 @@
         <v>5</v>
       </c>
       <c r="O18">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P18" s="26">
@@ -12350,7 +12376,9 @@
       <c r="S18" s="8">
         <v>17088.46</v>
       </c>
-      <c r="T18" s="8"/>
+      <c r="T18" s="8">
+        <v>721</v>
+      </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -12398,7 +12426,7 @@
         <v>6</v>
       </c>
       <c r="O19">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>23</v>
       </c>
       <c r="P19" s="26">
@@ -12413,7 +12441,9 @@
       <c r="S19" s="8">
         <v>18683.87</v>
       </c>
-      <c r="T19" s="8"/>
+      <c r="T19" s="8">
+        <v>837</v>
+      </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -12461,7 +12491,7 @@
         <v>7</v>
       </c>
       <c r="O20">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P20" s="26">
@@ -12476,7 +12506,9 @@
       <c r="S20" s="8">
         <v>9539.42</v>
       </c>
-      <c r="T20" s="8"/>
+      <c r="T20" s="8">
+        <v>341</v>
+      </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -12524,7 +12556,7 @@
         <v>8</v>
       </c>
       <c r="O21">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P21" s="26">
@@ -12539,7 +12571,9 @@
       <c r="S21" s="8">
         <v>771.40000000000009</v>
       </c>
-      <c r="T21" s="8"/>
+      <c r="T21" s="8">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -12587,7 +12621,7 @@
         <v>9</v>
       </c>
       <c r="O22">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>36</v>
       </c>
       <c r="P22" s="26">
@@ -12602,7 +12636,9 @@
       <c r="S22" s="8">
         <v>17084.070000000003</v>
       </c>
-      <c r="T22" s="8"/>
+      <c r="T22" s="8">
+        <v>906</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -12650,7 +12686,7 @@
         <v>10</v>
       </c>
       <c r="O23">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P23" s="26">
@@ -12665,7 +12701,9 @@
       <c r="S23" s="8">
         <v>24993.17</v>
       </c>
-      <c r="T23" s="8"/>
+      <c r="T23" s="8">
+        <v>1191</v>
+      </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -12713,8 +12751,8 @@
         <v>11</v>
       </c>
       <c r="O24">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>45</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
       </c>
       <c r="P24" s="26">
         <v>44136</v>
@@ -12728,7 +12766,9 @@
       <c r="S24" s="8">
         <v>20520.280000000002</v>
       </c>
-      <c r="T24" s="8"/>
+      <c r="T24" s="8">
+        <v>950</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -12776,7 +12816,7 @@
         <v>12</v>
       </c>
       <c r="O25">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>49</v>
       </c>
       <c r="P25" s="26">
@@ -12791,7 +12831,9 @@
       <c r="S25" s="8">
         <v>31364.36</v>
       </c>
-      <c r="T25" s="8"/>
+      <c r="T25" s="8">
+        <v>1422</v>
+      </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -12839,7 +12881,7 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P26" s="26">
@@ -12854,7 +12896,9 @@
       <c r="S26" s="8">
         <v>23133.100000000002</v>
       </c>
-      <c r="T26" s="8"/>
+      <c r="T26" s="8">
+        <v>949</v>
+      </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -12902,7 +12946,7 @@
         <v>2</v>
       </c>
       <c r="O27">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P27" s="26">
@@ -12917,7 +12961,9 @@
       <c r="S27" s="8">
         <v>19979.249999999996</v>
       </c>
-      <c r="T27" s="8"/>
+      <c r="T27" s="8">
+        <v>821</v>
+      </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -12965,8 +13011,8 @@
         <v>3</v>
       </c>
       <c r="O28">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>10</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
       </c>
       <c r="P28" s="26">
         <v>43891</v>
@@ -12980,7 +13026,9 @@
       <c r="S28" s="8">
         <v>20991.500000000004</v>
       </c>
-      <c r="T28" s="8"/>
+      <c r="T28" s="8">
+        <v>900</v>
+      </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -13028,7 +13076,7 @@
         <v>4</v>
       </c>
       <c r="O29">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P29" s="26">
@@ -13043,7 +13091,9 @@
       <c r="S29" s="8">
         <v>20642.659999999996</v>
       </c>
-      <c r="T29" s="8"/>
+      <c r="T29" s="8">
+        <v>900</v>
+      </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -13091,7 +13141,7 @@
         <v>5</v>
       </c>
       <c r="O30">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P30" s="26">
@@ -13106,7 +13156,9 @@
       <c r="S30" s="8">
         <v>16997.25</v>
       </c>
-      <c r="T30" s="8"/>
+      <c r="T30" s="8">
+        <v>748</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -13154,7 +13206,7 @@
         <v>6</v>
       </c>
       <c r="O31">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>23</v>
       </c>
       <c r="P31" s="26">
@@ -13169,7 +13221,9 @@
       <c r="S31" s="8">
         <v>18716.649999999998</v>
       </c>
-      <c r="T31" s="8"/>
+      <c r="T31" s="8">
+        <v>831</v>
+      </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -13217,7 +13271,7 @@
         <v>7</v>
       </c>
       <c r="O32">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P32" s="26">
@@ -13232,7 +13286,9 @@
       <c r="S32" s="8">
         <v>18277.569999999992</v>
       </c>
-      <c r="T32" s="8"/>
+      <c r="T32" s="8">
+        <v>749</v>
+      </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
@@ -13280,7 +13336,7 @@
         <v>8</v>
       </c>
       <c r="O33">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P33" s="26">
@@ -13295,7 +13351,9 @@
       <c r="S33" s="8">
         <v>14605.669999999996</v>
       </c>
-      <c r="T33" s="8"/>
+      <c r="T33" s="8">
+        <v>627</v>
+      </c>
     </row>
     <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
@@ -13343,7 +13401,7 @@
         <v>9</v>
       </c>
       <c r="O34">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>36</v>
       </c>
       <c r="P34" s="26">
@@ -13358,7 +13416,9 @@
       <c r="S34" s="8">
         <v>12678.789999999999</v>
       </c>
-      <c r="T34" s="8"/>
+      <c r="T34" s="8">
+        <v>581</v>
+      </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
@@ -13406,7 +13466,7 @@
         <v>10</v>
       </c>
       <c r="O35">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P35" s="26">
@@ -13421,7 +13481,9 @@
       <c r="S35" s="8">
         <v>8402.75</v>
       </c>
-      <c r="T35" s="8"/>
+      <c r="T35" s="8">
+        <v>382</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
@@ -13469,8 +13531,8 @@
         <v>11</v>
       </c>
       <c r="O36">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>45</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
       </c>
       <c r="P36" s="26">
         <v>44136</v>
@@ -13484,7 +13546,9 @@
       <c r="S36" s="8">
         <v>477.48</v>
       </c>
-      <c r="T36" s="8"/>
+      <c r="T36" s="8">
+        <v>29</v>
+      </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
@@ -13532,7 +13596,7 @@
         <v>12</v>
       </c>
       <c r="O37">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>49</v>
       </c>
       <c r="P37" s="26">
@@ -13547,7 +13611,9 @@
       <c r="S37" s="8">
         <v>22886.92</v>
       </c>
-      <c r="T37" s="8"/>
+      <c r="T37" s="8">
+        <v>1171</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
@@ -13595,7 +13661,7 @@
         <v>1</v>
       </c>
       <c r="O38">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P38" s="26">
@@ -13610,7 +13676,9 @@
       <c r="S38" s="8">
         <v>24736.249999999996</v>
       </c>
-      <c r="T38" s="8"/>
+      <c r="T38" s="8">
+        <v>1133</v>
+      </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
@@ -13658,7 +13726,7 @@
         <v>2</v>
       </c>
       <c r="O39">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P39" s="26">
@@ -13673,7 +13741,9 @@
       <c r="S39" s="8">
         <v>22033.740000000005</v>
       </c>
-      <c r="T39" s="8"/>
+      <c r="T39" s="8">
+        <v>994</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
@@ -13721,8 +13791,8 @@
         <v>3</v>
       </c>
       <c r="O40">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>10</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
       </c>
       <c r="P40" s="26">
         <v>43891</v>
@@ -13736,7 +13806,9 @@
       <c r="S40" s="8">
         <v>23466.7</v>
       </c>
-      <c r="T40" s="8"/>
+      <c r="T40" s="8">
+        <v>1071</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
@@ -13784,7 +13856,7 @@
         <v>4</v>
       </c>
       <c r="O41">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P41" s="26">
@@ -13799,7 +13871,9 @@
       <c r="S41" s="8">
         <v>25910.920000000002</v>
       </c>
-      <c r="T41" s="8"/>
+      <c r="T41" s="8">
+        <v>1142</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
@@ -13847,7 +13921,7 @@
         <v>5</v>
       </c>
       <c r="O42">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P42" s="26">
@@ -13862,7 +13936,9 @@
       <c r="S42" s="8">
         <v>20372.829999999998</v>
       </c>
-      <c r="T42" s="8"/>
+      <c r="T42" s="8">
+        <v>943</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
@@ -13910,7 +13986,7 @@
         <v>6</v>
       </c>
       <c r="O43">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>23</v>
       </c>
       <c r="P43" s="26">
@@ -13925,7 +14001,9 @@
       <c r="S43" s="8">
         <v>24152.809999999998</v>
       </c>
-      <c r="T43" s="8"/>
+      <c r="T43" s="8">
+        <v>1084</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -13973,7 +14051,7 @@
         <v>7</v>
       </c>
       <c r="O44">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P44" s="26">
@@ -13988,7 +14066,9 @@
       <c r="S44" s="8">
         <v>23884.809999999994</v>
       </c>
-      <c r="T44" s="8"/>
+      <c r="T44" s="8">
+        <v>988</v>
+      </c>
     </row>
     <row r="45" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
@@ -14036,7 +14116,7 @@
         <v>8</v>
       </c>
       <c r="O45">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P45" s="26">
@@ -14051,7 +14131,9 @@
       <c r="S45" s="8">
         <v>19725.669999999998</v>
       </c>
-      <c r="T45" s="8"/>
+      <c r="T45" s="8">
+        <v>875</v>
+      </c>
     </row>
     <row r="46" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
@@ -14099,7 +14181,7 @@
         <v>9</v>
       </c>
       <c r="O46">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>36</v>
       </c>
       <c r="P46" s="26">
@@ -14114,7 +14196,9 @@
       <c r="S46" s="8">
         <v>18105.290000000005</v>
       </c>
-      <c r="T46" s="8"/>
+      <c r="T46" s="8">
+        <v>806</v>
+      </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
@@ -14162,7 +14246,7 @@
         <v>10</v>
       </c>
       <c r="O47">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P47" s="26">
@@ -14177,7 +14261,9 @@
       <c r="S47" s="8">
         <v>9393.14</v>
       </c>
-      <c r="T47" s="8"/>
+      <c r="T47" s="8">
+        <v>414</v>
+      </c>
     </row>
     <row r="48" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
@@ -14225,8 +14311,8 @@
         <v>11</v>
       </c>
       <c r="O48">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>45</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
       </c>
       <c r="P48" s="26">
         <v>44136</v>
@@ -14240,7 +14326,9 @@
       <c r="S48" s="8">
         <v>2232.71</v>
       </c>
-      <c r="T48" s="8"/>
+      <c r="T48" s="8">
+        <v>97</v>
+      </c>
     </row>
     <row r="49" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
@@ -14288,7 +14376,7 @@
         <v>12</v>
       </c>
       <c r="O49">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>49</v>
       </c>
       <c r="P49" s="26">
@@ -14303,7 +14391,9 @@
       <c r="S49" s="8">
         <v>23142.215000000004</v>
       </c>
-      <c r="T49" s="8"/>
+      <c r="T49" s="8">
+        <v>936</v>
+      </c>
     </row>
     <row r="50" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
@@ -14351,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="O50">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P50" s="26">
@@ -14366,7 +14456,9 @@
       <c r="S50" s="8">
         <v>26207.710000000003</v>
       </c>
-      <c r="T50" s="8"/>
+      <c r="T50" s="8">
+        <v>1214</v>
+      </c>
     </row>
     <row r="51" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
@@ -14414,7 +14506,7 @@
         <v>2</v>
       </c>
       <c r="O51">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P51" s="26">
@@ -14429,7 +14521,9 @@
       <c r="S51" s="8">
         <v>20637.779999999995</v>
       </c>
-      <c r="T51" s="8"/>
+      <c r="T51" s="8">
+        <v>955</v>
+      </c>
     </row>
     <row r="52" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
@@ -14477,8 +14571,8 @@
         <v>3</v>
       </c>
       <c r="O52">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>10</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
       </c>
       <c r="P52" s="26">
         <v>43891</v>
@@ -14492,7 +14586,9 @@
       <c r="S52" s="8">
         <v>27325.640000000007</v>
       </c>
-      <c r="T52" s="8"/>
+      <c r="T52" s="8">
+        <v>1197</v>
+      </c>
     </row>
     <row r="53" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
@@ -14540,7 +14636,7 @@
         <v>4</v>
       </c>
       <c r="O53">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P53" s="26">
@@ -14555,7 +14651,9 @@
       <c r="S53" s="8">
         <v>27372.530000000002</v>
       </c>
-      <c r="T53" s="8"/>
+      <c r="T53" s="8">
+        <v>1219</v>
+      </c>
     </row>
     <row r="54" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -14603,7 +14701,7 @@
         <v>5</v>
       </c>
       <c r="O54">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P54" s="26">
@@ -14618,7 +14716,9 @@
       <c r="S54" s="8">
         <v>22273.699999999993</v>
       </c>
-      <c r="T54" s="8"/>
+      <c r="T54" s="8">
+        <v>1025</v>
+      </c>
     </row>
     <row r="55" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
@@ -14666,7 +14766,7 @@
         <v>6</v>
       </c>
       <c r="O55">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>23</v>
       </c>
       <c r="P55" s="26">
@@ -14681,7 +14781,9 @@
       <c r="S55" s="8">
         <v>25328.909999999996</v>
       </c>
-      <c r="T55" s="8"/>
+      <c r="T55" s="8">
+        <v>1155</v>
+      </c>
     </row>
     <row r="56" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
@@ -14729,7 +14831,7 @@
         <v>7</v>
       </c>
       <c r="O56">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P56" s="26">
@@ -14744,7 +14846,9 @@
       <c r="S56" s="8">
         <v>23729.279999999995</v>
       </c>
-      <c r="T56" s="8"/>
+      <c r="T56" s="8">
+        <v>1073</v>
+      </c>
     </row>
     <row r="57" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
@@ -14792,7 +14896,7 @@
         <v>8</v>
       </c>
       <c r="O57">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P57" s="26">
@@ -14807,7 +14911,9 @@
       <c r="S57" s="8">
         <v>21801.579999999998</v>
       </c>
-      <c r="T57" s="8"/>
+      <c r="T57" s="8">
+        <v>993</v>
+      </c>
     </row>
     <row r="58" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
@@ -14855,7 +14961,7 @@
         <v>9</v>
       </c>
       <c r="O58">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>36</v>
       </c>
       <c r="P58" s="26">
@@ -14870,7 +14976,9 @@
       <c r="S58" s="8">
         <v>23203.620000000006</v>
       </c>
-      <c r="T58" s="8"/>
+      <c r="T58" s="8">
+        <v>1014</v>
+      </c>
     </row>
     <row r="59" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
@@ -14918,7 +15026,7 @@
         <v>10</v>
       </c>
       <c r="O59">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P59" s="26">
@@ -14933,7 +15041,9 @@
       <c r="S59" s="8">
         <v>20201.499999999993</v>
       </c>
-      <c r="T59" s="8"/>
+      <c r="T59" s="8">
+        <v>909</v>
+      </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -14981,8 +15091,8 @@
         <v>11</v>
       </c>
       <c r="O60">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>45</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
       </c>
       <c r="P60" s="26">
         <v>44136</v>
@@ -14996,7 +15106,9 @@
       <c r="S60" s="8">
         <v>17481.519999999997</v>
       </c>
-      <c r="T60" s="8"/>
+      <c r="T60" s="8">
+        <v>740</v>
+      </c>
     </row>
     <row r="61" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
@@ -15044,7 +15156,7 @@
         <v>12</v>
       </c>
       <c r="O61">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>49</v>
       </c>
       <c r="P61" s="26">
@@ -15059,7 +15171,9 @@
       <c r="S61" s="8">
         <v>24583.66</v>
       </c>
-      <c r="T61" s="8"/>
+      <c r="T61" s="8">
+        <v>1075</v>
+      </c>
     </row>
     <row r="62" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
@@ -15107,7 +15221,7 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P62" s="26">
@@ -15122,7 +15236,9 @@
       <c r="S62" s="8">
         <v>8076.4999999999991</v>
       </c>
-      <c r="T62" s="8"/>
+      <c r="T62" s="8">
+        <v>404</v>
+      </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
@@ -15170,7 +15286,7 @@
         <v>2</v>
       </c>
       <c r="O63">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P63" s="26">
@@ -15185,7 +15301,9 @@
       <c r="S63" s="8">
         <v>20511.749999999996</v>
       </c>
-      <c r="T63" s="8"/>
+      <c r="T63" s="8">
+        <v>1028</v>
+      </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
@@ -15233,8 +15351,8 @@
         <v>3</v>
       </c>
       <c r="O64">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>10</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
       </c>
       <c r="P64" s="26">
         <v>43891</v>
@@ -15248,7 +15366,9 @@
       <c r="S64" s="8">
         <v>23731.040000000005</v>
       </c>
-      <c r="T64" s="8"/>
+      <c r="T64" s="8">
+        <v>1140</v>
+      </c>
     </row>
     <row r="65" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
@@ -15296,7 +15416,7 @@
         <v>4</v>
       </c>
       <c r="O65">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P65" s="26">
@@ -15311,7 +15431,9 @@
       <c r="S65" s="8">
         <v>23659.10999999999</v>
       </c>
-      <c r="T65" s="8"/>
+      <c r="T65" s="8">
+        <v>1143</v>
+      </c>
     </row>
     <row r="66" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
@@ -15359,7 +15481,7 @@
         <v>5</v>
       </c>
       <c r="O66">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P66" s="26">
@@ -15374,7 +15496,9 @@
       <c r="S66" s="8">
         <v>20787.16</v>
       </c>
-      <c r="T66" s="8"/>
+      <c r="T66" s="8">
+        <v>986</v>
+      </c>
     </row>
     <row r="67" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -15422,7 +15546,7 @@
         <v>6</v>
       </c>
       <c r="O67">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>23</v>
       </c>
       <c r="P67" s="26">
@@ -15437,7 +15561,9 @@
       <c r="S67" s="8">
         <v>23477.200000000004</v>
       </c>
-      <c r="T67" s="8"/>
+      <c r="T67" s="8">
+        <v>1122</v>
+      </c>
     </row>
     <row r="68" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
@@ -15485,7 +15611,7 @@
         <v>7</v>
       </c>
       <c r="O68">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P68" s="26">
@@ -15500,7 +15626,9 @@
       <c r="S68" s="8">
         <v>22805.360000000001</v>
       </c>
-      <c r="T68" s="8"/>
+      <c r="T68" s="8">
+        <v>1053</v>
+      </c>
     </row>
     <row r="69" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
@@ -15548,7 +15676,7 @@
         <v>8</v>
       </c>
       <c r="O69">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P69" s="26">
@@ -15563,7 +15691,9 @@
       <c r="S69" s="8">
         <v>21615.860000000008</v>
       </c>
-      <c r="T69" s="8"/>
+      <c r="T69" s="8">
+        <v>992</v>
+      </c>
     </row>
     <row r="70" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
@@ -15611,7 +15741,7 @@
         <v>9</v>
       </c>
       <c r="O70">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>36</v>
       </c>
       <c r="P70" s="26">
@@ -15626,7 +15756,9 @@
       <c r="S70" s="8">
         <v>22362.16</v>
       </c>
-      <c r="T70" s="8"/>
+      <c r="T70" s="8">
+        <v>1020</v>
+      </c>
     </row>
     <row r="71" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
@@ -15674,7 +15806,7 @@
         <v>10</v>
       </c>
       <c r="O71">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P71" s="26">
@@ -15689,7 +15821,9 @@
       <c r="S71" s="8">
         <v>21450.910000000007</v>
       </c>
-      <c r="T71" s="8"/>
+      <c r="T71" s="8">
+        <v>948</v>
+      </c>
     </row>
     <row r="72" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
@@ -15737,8 +15871,8 @@
         <v>11</v>
       </c>
       <c r="O72">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>45</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
       </c>
       <c r="P72" s="26">
         <v>44136</v>
@@ -15752,7 +15886,9 @@
       <c r="S72" s="8">
         <v>16360.98</v>
       </c>
-      <c r="T72" s="8"/>
+      <c r="T72" s="8">
+        <v>750</v>
+      </c>
     </row>
     <row r="73" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
@@ -15800,7 +15936,7 @@
         <v>12</v>
       </c>
       <c r="O73">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>49</v>
       </c>
       <c r="P73" s="26">
@@ -15815,7 +15951,9 @@
       <c r="S73" s="8">
         <v>23622.3</v>
       </c>
-      <c r="T73" s="8"/>
+      <c r="T73" s="8">
+        <v>1071</v>
+      </c>
     </row>
     <row r="74" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
@@ -15863,7 +16001,7 @@
         <v>1</v>
       </c>
       <c r="O74">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P74" s="26">
@@ -15878,7 +16016,9 @@
       <c r="S74" s="8">
         <v>17994.91</v>
       </c>
-      <c r="T74" s="8"/>
+      <c r="T74" s="8">
+        <v>801</v>
+      </c>
     </row>
     <row r="75" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
@@ -15926,7 +16066,7 @@
         <v>2</v>
       </c>
       <c r="O75">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P75" s="26">
@@ -15941,7 +16081,9 @@
       <c r="S75" s="8">
         <v>15184.800000000005</v>
       </c>
-      <c r="T75" s="8"/>
+      <c r="T75" s="8">
+        <v>663</v>
+      </c>
     </row>
     <row r="76" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
@@ -15989,8 +16131,8 @@
         <v>3</v>
       </c>
       <c r="O76">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>10</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
       </c>
       <c r="P76" s="26">
         <v>43891</v>
@@ -16004,7 +16146,9 @@
       <c r="S76" s="8">
         <v>6901.3199999999988</v>
       </c>
-      <c r="T76" s="8"/>
+      <c r="T76" s="8">
+        <v>315</v>
+      </c>
     </row>
     <row r="77" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
@@ -16052,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="O77">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P77" s="26">
@@ -16067,7 +16211,9 @@
       <c r="S77" s="8">
         <v>20455.300000000003</v>
       </c>
-      <c r="T77" s="8"/>
+      <c r="T77" s="8">
+        <v>1133</v>
+      </c>
     </row>
     <row r="78" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
@@ -16115,7 +16261,7 @@
         <v>5</v>
       </c>
       <c r="O78">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P78" s="26">
@@ -16130,7 +16276,9 @@
       <c r="S78" s="8">
         <v>21732.950000000004</v>
       </c>
-      <c r="T78" s="8"/>
+      <c r="T78" s="8">
+        <v>1115</v>
+      </c>
     </row>
     <row r="79" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
@@ -16178,7 +16326,7 @@
         <v>6</v>
       </c>
       <c r="O79">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>23</v>
       </c>
       <c r="P79" s="26">
@@ -16193,7 +16341,9 @@
       <c r="S79" s="8">
         <v>26499.710000000006</v>
       </c>
-      <c r="T79" s="8"/>
+      <c r="T79" s="8">
+        <v>1305</v>
+      </c>
     </row>
     <row r="80" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
@@ -16241,7 +16391,7 @@
         <v>7</v>
       </c>
       <c r="O80">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P80" s="26">
@@ -16256,7 +16406,9 @@
       <c r="S80" s="8">
         <v>25317.680000000004</v>
       </c>
-      <c r="T80" s="8"/>
+      <c r="T80" s="8">
+        <v>1205</v>
+      </c>
     </row>
     <row r="81" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
@@ -16304,7 +16456,7 @@
         <v>8</v>
       </c>
       <c r="O81">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P81" s="26">
@@ -16319,7 +16471,9 @@
       <c r="S81" s="8">
         <v>24851.260000000006</v>
       </c>
-      <c r="T81" s="8"/>
+      <c r="T81" s="8">
+        <v>1151</v>
+      </c>
     </row>
     <row r="82" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
@@ -16367,7 +16521,7 @@
         <v>9</v>
       </c>
       <c r="O82">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>36</v>
       </c>
       <c r="P82" s="26">
@@ -16382,7 +16536,9 @@
       <c r="S82" s="8">
         <v>26026.590000000007</v>
       </c>
-      <c r="T82" s="8"/>
+      <c r="T82" s="8">
+        <v>1181</v>
+      </c>
     </row>
     <row r="83" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
@@ -16430,7 +16586,7 @@
         <v>10</v>
       </c>
       <c r="O83">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P83" s="26">
@@ -16445,7 +16601,9 @@
       <c r="S83" s="8">
         <v>22317.57</v>
       </c>
-      <c r="T83" s="8"/>
+      <c r="T83" s="8">
+        <v>1022</v>
+      </c>
     </row>
     <row r="84" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
@@ -16493,8 +16651,8 @@
         <v>11</v>
       </c>
       <c r="O84">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>45</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
       </c>
       <c r="P84" s="26">
         <v>44136</v>
@@ -16508,7 +16666,9 @@
       <c r="S84" s="8">
         <v>19478.980000000003</v>
       </c>
-      <c r="T84" s="8"/>
+      <c r="T84" s="8">
+        <v>885</v>
+      </c>
     </row>
     <row r="85" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
@@ -16556,7 +16716,7 @@
         <v>12</v>
       </c>
       <c r="O85">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>49</v>
       </c>
       <c r="P85" s="26">
@@ -16571,7 +16731,9 @@
       <c r="S85" s="8">
         <v>29229.920000000002</v>
       </c>
-      <c r="T85" s="8"/>
+      <c r="T85" s="8">
+        <v>1271</v>
+      </c>
     </row>
     <row r="86" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
@@ -16619,7 +16781,7 @@
         <v>1</v>
       </c>
       <c r="O86">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P86" s="26">
@@ -16634,7 +16796,9 @@
       <c r="S86" s="8">
         <v>6969.8499999999995</v>
       </c>
-      <c r="T86" s="8"/>
+      <c r="T86" s="8">
+        <v>288</v>
+      </c>
     </row>
     <row r="87" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
@@ -16682,7 +16846,7 @@
         <v>2</v>
       </c>
       <c r="O87">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P87" s="26">
@@ -16697,7 +16861,9 @@
       <c r="S87" s="8">
         <v>2807.45</v>
       </c>
-      <c r="T87" s="8"/>
+      <c r="T87" s="8">
+        <v>118</v>
+      </c>
     </row>
     <row r="88" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
@@ -16745,7 +16911,7 @@
         <v>4</v>
       </c>
       <c r="O88">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P88" s="26">
@@ -16760,7 +16926,9 @@
       <c r="S88" s="8">
         <v>5167.4900000000007</v>
       </c>
-      <c r="T88" s="8"/>
+      <c r="T88" s="8">
+        <v>285</v>
+      </c>
     </row>
     <row r="89" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
@@ -16808,7 +16976,7 @@
         <v>5</v>
       </c>
       <c r="O89">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P89" s="26">
@@ -16823,7 +16991,9 @@
       <c r="S89" s="8">
         <v>7076.0500000000011</v>
       </c>
-      <c r="T89" s="8"/>
+      <c r="T89" s="8">
+        <v>361</v>
+      </c>
     </row>
     <row r="90" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
@@ -16871,7 +17041,7 @@
         <v>6</v>
       </c>
       <c r="O90">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P90" s="26">
@@ -16886,7 +17056,9 @@
       <c r="S90" s="8">
         <v>8241.06</v>
       </c>
-      <c r="T90" s="8"/>
+      <c r="T90" s="8">
+        <v>371</v>
+      </c>
     </row>
     <row r="91" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
@@ -16934,7 +17106,7 @@
         <v>7</v>
       </c>
       <c r="O91">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P91" s="26">
@@ -16949,7 +17121,9 @@
       <c r="S91" s="8">
         <v>8002.5</v>
       </c>
-      <c r="T91" s="8"/>
+      <c r="T91" s="8">
+        <v>371</v>
+      </c>
     </row>
     <row r="92" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
@@ -16997,7 +17171,7 @@
         <v>8</v>
       </c>
       <c r="O92">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P92" s="26">
@@ -17012,7 +17186,9 @@
       <c r="S92" s="8">
         <v>10598.96</v>
       </c>
-      <c r="T92" s="8"/>
+      <c r="T92" s="8">
+        <v>487</v>
+      </c>
     </row>
     <row r="93" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
@@ -17060,8 +17236,8 @@
         <v>9</v>
       </c>
       <c r="O93">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>36</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
       </c>
       <c r="P93" s="26">
         <v>43709</v>
@@ -17075,7 +17251,9 @@
       <c r="S93" s="8">
         <v>7337.7</v>
       </c>
-      <c r="T93" s="8"/>
+      <c r="T93" s="8">
+        <v>337</v>
+      </c>
     </row>
     <row r="94" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
@@ -17123,7 +17301,7 @@
         <v>10</v>
       </c>
       <c r="O94">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P94" s="26">
@@ -17138,7 +17316,9 @@
       <c r="S94" s="8">
         <v>9520.7999999999993</v>
       </c>
-      <c r="T94" s="8"/>
+      <c r="T94" s="8">
+        <v>449</v>
+      </c>
     </row>
     <row r="95" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
@@ -17186,7 +17366,7 @@
         <v>11</v>
       </c>
       <c r="O95">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P95" s="26">
@@ -17201,7 +17381,9 @@
       <c r="S95" s="8">
         <v>7470.55</v>
       </c>
-      <c r="T95" s="8"/>
+      <c r="T95" s="8">
+        <v>340</v>
+      </c>
     </row>
     <row r="96" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
@@ -17249,8 +17431,8 @@
         <v>12</v>
       </c>
       <c r="O96">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>49</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>48</v>
       </c>
       <c r="P96" s="26">
         <v>43800</v>
@@ -17264,7 +17446,9 @@
       <c r="S96" s="8">
         <v>8867.2000000000007</v>
       </c>
-      <c r="T96" s="8"/>
+      <c r="T96" s="8">
+        <v>409</v>
+      </c>
     </row>
     <row r="97" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
@@ -17312,7 +17496,7 @@
         <v>1</v>
       </c>
       <c r="O97">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P97" s="26">
@@ -17327,7 +17511,9 @@
       <c r="S97" s="8">
         <v>27306.500000000004</v>
       </c>
-      <c r="T97" s="8"/>
+      <c r="T97" s="8">
+        <v>1205</v>
+      </c>
     </row>
     <row r="98" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
@@ -17375,7 +17561,7 @@
         <v>2</v>
       </c>
       <c r="O98">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P98" s="26">
@@ -17390,7 +17576,9 @@
       <c r="S98" s="8">
         <v>24849.180000000004</v>
       </c>
-      <c r="T98" s="8"/>
+      <c r="T98" s="8">
+        <v>1110</v>
+      </c>
     </row>
     <row r="99" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
@@ -17438,7 +17626,7 @@
         <v>3</v>
       </c>
       <c r="O99">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>9</v>
       </c>
       <c r="P99" s="26">
@@ -17453,7 +17641,9 @@
       <c r="S99" s="8">
         <v>25963.58</v>
       </c>
-      <c r="T99" s="8"/>
+      <c r="T99" s="8">
+        <v>1171</v>
+      </c>
     </row>
     <row r="100" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
@@ -17501,7 +17691,7 @@
         <v>4</v>
       </c>
       <c r="O100">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P100" s="26">
@@ -17516,7 +17706,9 @@
       <c r="S100" s="8">
         <v>26114.890000000007</v>
       </c>
-      <c r="T100" s="8"/>
+      <c r="T100" s="8">
+        <v>1165</v>
+      </c>
     </row>
     <row r="101" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
@@ -17564,7 +17756,7 @@
         <v>5</v>
       </c>
       <c r="O101">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P101" s="26">
@@ -17579,7 +17771,9 @@
       <c r="S101" s="8">
         <v>25941.279999999999</v>
       </c>
-      <c r="T101" s="8"/>
+      <c r="T101" s="8">
+        <v>1165</v>
+      </c>
     </row>
     <row r="102" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
@@ -17627,7 +17821,7 @@
         <v>6</v>
       </c>
       <c r="O102">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P102" s="26">
@@ -17642,7 +17836,9 @@
       <c r="S102" s="8">
         <v>21325.23</v>
       </c>
-      <c r="T102" s="8"/>
+      <c r="T102" s="8">
+        <v>963</v>
+      </c>
     </row>
     <row r="103" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
@@ -17690,7 +17886,7 @@
         <v>7</v>
       </c>
       <c r="O103">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P103" s="26">
@@ -17705,7 +17901,9 @@
       <c r="S103" s="8">
         <v>15086.12</v>
       </c>
-      <c r="T103" s="8"/>
+      <c r="T103" s="8">
+        <v>681</v>
+      </c>
     </row>
     <row r="104" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
@@ -17753,7 +17951,7 @@
         <v>8</v>
       </c>
       <c r="O104">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P104" s="26">
@@ -17768,7 +17966,9 @@
       <c r="S104" s="8">
         <v>9869.010000000002</v>
       </c>
-      <c r="T104" s="8"/>
+      <c r="T104" s="8">
+        <v>429</v>
+      </c>
     </row>
     <row r="105" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
@@ -17816,8 +18016,8 @@
         <v>9</v>
       </c>
       <c r="O105">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>36</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
       </c>
       <c r="P105" s="26">
         <v>43709</v>
@@ -17831,7 +18031,9 @@
       <c r="S105" s="8">
         <v>22398.639999999999</v>
       </c>
-      <c r="T105" s="8"/>
+      <c r="T105" s="8">
+        <v>954</v>
+      </c>
     </row>
     <row r="106" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
@@ -17879,7 +18081,7 @@
         <v>10</v>
       </c>
       <c r="O106">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P106" s="26">
@@ -17894,7 +18096,9 @@
       <c r="S106" s="8">
         <v>24164.899999999998</v>
       </c>
-      <c r="T106" s="8"/>
+      <c r="T106" s="8">
+        <v>1010</v>
+      </c>
     </row>
     <row r="107" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M107">
@@ -17906,7 +18110,7 @@
         <v>11</v>
       </c>
       <c r="O107">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P107" s="26">
@@ -17921,7 +18125,9 @@
       <c r="S107" s="8">
         <v>25727.859999999993</v>
       </c>
-      <c r="T107" s="8"/>
+      <c r="T107" s="8">
+        <v>1076</v>
+      </c>
     </row>
     <row r="108" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M108">
@@ -17933,8 +18139,8 @@
         <v>12</v>
       </c>
       <c r="O108">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>49</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>48</v>
       </c>
       <c r="P108" s="26">
         <v>43800</v>
@@ -17948,7 +18154,9 @@
       <c r="S108" s="8">
         <v>24447.340000000004</v>
       </c>
-      <c r="T108" s="8"/>
+      <c r="T108" s="8">
+        <v>988</v>
+      </c>
     </row>
     <row r="109" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M109">
@@ -17960,7 +18168,7 @@
         <v>1</v>
       </c>
       <c r="O109">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P109" s="26">
@@ -17975,7 +18183,9 @@
       <c r="S109" s="8">
         <v>27402.230000000003</v>
       </c>
-      <c r="T109" s="8"/>
+      <c r="T109" s="8">
+        <v>1242</v>
+      </c>
     </row>
     <row r="110" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M110">
@@ -17987,7 +18197,7 @@
         <v>2</v>
       </c>
       <c r="O110">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P110" s="26">
@@ -18002,7 +18212,9 @@
       <c r="S110" s="8">
         <v>24757.989999999998</v>
       </c>
-      <c r="T110" s="8"/>
+      <c r="T110" s="8">
+        <v>1121</v>
+      </c>
     </row>
     <row r="111" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M111">
@@ -18014,7 +18226,7 @@
         <v>3</v>
       </c>
       <c r="O111">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>9</v>
       </c>
       <c r="P111" s="26">
@@ -18029,7 +18241,9 @@
       <c r="S111" s="8">
         <v>26481.350000000006</v>
       </c>
-      <c r="T111" s="8"/>
+      <c r="T111" s="8">
+        <v>1189</v>
+      </c>
     </row>
     <row r="112" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M112">
@@ -18041,7 +18255,7 @@
         <v>4</v>
       </c>
       <c r="O112">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P112" s="26">
@@ -18056,7 +18270,9 @@
       <c r="S112" s="8">
         <v>27190.210000000003</v>
       </c>
-      <c r="T112" s="8"/>
+      <c r="T112" s="8">
+        <v>1213</v>
+      </c>
     </row>
     <row r="113" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M113">
@@ -18068,7 +18284,7 @@
         <v>5</v>
       </c>
       <c r="O113">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P113" s="26">
@@ -18083,7 +18299,9 @@
       <c r="S113" s="8">
         <v>26926.419999999995</v>
       </c>
-      <c r="T113" s="8"/>
+      <c r="T113" s="8">
+        <v>1215</v>
+      </c>
     </row>
     <row r="114" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M114">
@@ -18095,7 +18313,7 @@
         <v>6</v>
       </c>
       <c r="O114">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P114" s="26">
@@ -18110,7 +18328,9 @@
       <c r="S114" s="8">
         <v>21828.27</v>
       </c>
-      <c r="T114" s="8"/>
+      <c r="T114" s="8">
+        <v>995</v>
+      </c>
     </row>
     <row r="115" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M115">
@@ -18122,7 +18342,7 @@
         <v>7</v>
       </c>
       <c r="O115">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P115" s="26">
@@ -18137,7 +18357,9 @@
       <c r="S115" s="8">
         <v>24004.66</v>
       </c>
-      <c r="T115" s="8"/>
+      <c r="T115" s="8">
+        <v>1080</v>
+      </c>
     </row>
     <row r="116" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M116">
@@ -18149,7 +18371,7 @@
         <v>8</v>
       </c>
       <c r="O116">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P116" s="26">
@@ -18164,7 +18386,9 @@
       <c r="S116" s="8">
         <v>24787.850000000002</v>
       </c>
-      <c r="T116" s="8"/>
+      <c r="T116" s="8">
+        <v>1108</v>
+      </c>
     </row>
     <row r="117" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M117">
@@ -18176,8 +18400,8 @@
         <v>9</v>
       </c>
       <c r="O117">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>36</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
       </c>
       <c r="P117" s="26">
         <v>43709</v>
@@ -18191,7 +18415,9 @@
       <c r="S117" s="8">
         <v>20772.509999999998</v>
       </c>
-      <c r="T117" s="8"/>
+      <c r="T117" s="8">
+        <v>921</v>
+      </c>
     </row>
     <row r="118" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M118">
@@ -18203,7 +18429,7 @@
         <v>10</v>
       </c>
       <c r="O118">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P118" s="26">
@@ -18218,7 +18444,9 @@
       <c r="S118" s="8">
         <v>16829.159999999996</v>
       </c>
-      <c r="T118" s="8"/>
+      <c r="T118" s="8">
+        <v>743</v>
+      </c>
     </row>
     <row r="119" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M119">
@@ -18230,7 +18458,7 @@
         <v>11</v>
       </c>
       <c r="O119">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P119" s="26">
@@ -18245,7 +18473,9 @@
       <c r="S119" s="8">
         <v>6293.0399999999991</v>
       </c>
-      <c r="T119" s="8"/>
+      <c r="T119" s="8">
+        <v>269</v>
+      </c>
     </row>
     <row r="120" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M120">
@@ -18257,8 +18487,8 @@
         <v>12</v>
       </c>
       <c r="O120">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>49</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>48</v>
       </c>
       <c r="P120" s="26">
         <v>43800</v>
@@ -18272,7 +18502,9 @@
       <c r="S120" s="8">
         <v>20666.260000000002</v>
       </c>
-      <c r="T120" s="8"/>
+      <c r="T120" s="8">
+        <v>857</v>
+      </c>
     </row>
     <row r="121" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M121">
@@ -18284,7 +18516,7 @@
         <v>1</v>
       </c>
       <c r="O121">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P121" s="26">
@@ -18299,7 +18531,9 @@
       <c r="S121" s="8">
         <v>16695.370000000003</v>
       </c>
-      <c r="T121" s="8"/>
+      <c r="T121" s="8">
+        <v>701</v>
+      </c>
     </row>
     <row r="122" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M122">
@@ -18311,7 +18545,7 @@
         <v>2</v>
       </c>
       <c r="O122">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P122" s="26">
@@ -18326,7 +18560,9 @@
       <c r="S122" s="8">
         <v>14329.159999999998</v>
       </c>
-      <c r="T122" s="8"/>
+      <c r="T122" s="8">
+        <v>613</v>
+      </c>
     </row>
     <row r="123" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M123">
@@ -18338,7 +18574,7 @@
         <v>3</v>
       </c>
       <c r="O123">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>9</v>
       </c>
       <c r="P123" s="26">
@@ -18353,7 +18589,9 @@
       <c r="S123" s="8">
         <v>13600.780000000002</v>
       </c>
-      <c r="T123" s="8"/>
+      <c r="T123" s="8">
+        <v>596</v>
+      </c>
     </row>
     <row r="124" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M124">
@@ -18365,7 +18603,7 @@
         <v>4</v>
       </c>
       <c r="O124">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P124" s="26">
@@ -18380,7 +18618,9 @@
       <c r="S124" s="8">
         <v>7962.9999999999991</v>
       </c>
-      <c r="T124" s="8"/>
+      <c r="T124" s="8">
+        <v>347</v>
+      </c>
     </row>
     <row r="125" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M125">
@@ -18392,7 +18632,7 @@
         <v>6</v>
       </c>
       <c r="O125">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P125" s="26">
@@ -18407,7 +18647,9 @@
       <c r="S125" s="8">
         <v>8938.1400000000012</v>
       </c>
-      <c r="T125" s="8"/>
+      <c r="T125" s="8">
+        <v>522</v>
+      </c>
     </row>
     <row r="126" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M126">
@@ -18419,7 +18661,7 @@
         <v>7</v>
       </c>
       <c r="O126">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P126" s="26">
@@ -18434,7 +18676,9 @@
       <c r="S126" s="8">
         <v>23971.359999999997</v>
       </c>
-      <c r="T126" s="8"/>
+      <c r="T126" s="8">
+        <v>1248</v>
+      </c>
     </row>
     <row r="127" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M127">
@@ -18446,7 +18690,7 @@
         <v>8</v>
       </c>
       <c r="O127">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P127" s="26">
@@ -18461,7 +18705,9 @@
       <c r="S127" s="8">
         <v>27185.469999999998</v>
       </c>
-      <c r="T127" s="8"/>
+      <c r="T127" s="8">
+        <v>1326</v>
+      </c>
     </row>
     <row r="128" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M128">
@@ -18473,8 +18719,8 @@
         <v>9</v>
       </c>
       <c r="O128">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>36</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
       </c>
       <c r="P128" s="26">
         <v>43709</v>
@@ -18488,7 +18734,9 @@
       <c r="S128" s="8">
         <v>24268.450000000004</v>
       </c>
-      <c r="T128" s="8"/>
+      <c r="T128" s="8">
+        <v>1146</v>
+      </c>
     </row>
     <row r="129" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M129">
@@ -18500,7 +18748,7 @@
         <v>10</v>
       </c>
       <c r="O129">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P129" s="26">
@@ -18515,7 +18763,9 @@
       <c r="S129" s="8">
         <v>24147.349999999995</v>
       </c>
-      <c r="T129" s="8"/>
+      <c r="T129" s="8">
+        <v>1133</v>
+      </c>
     </row>
     <row r="130" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M130">
@@ -18527,7 +18777,7 @@
         <v>11</v>
       </c>
       <c r="O130">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P130" s="26">
@@ -18542,7 +18792,9 @@
       <c r="S130" s="8">
         <v>26498.099999999991</v>
       </c>
-      <c r="T130" s="8"/>
+      <c r="T130" s="8">
+        <v>1204</v>
+      </c>
     </row>
     <row r="131" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M131">
@@ -18554,8 +18806,8 @@
         <v>12</v>
       </c>
       <c r="O131">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>49</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>48</v>
       </c>
       <c r="P131" s="26">
         <v>43800</v>
@@ -18569,7 +18821,9 @@
       <c r="S131" s="8">
         <v>25352.920000000002</v>
       </c>
-      <c r="T131" s="8"/>
+      <c r="T131" s="8">
+        <v>1142</v>
+      </c>
     </row>
     <row r="132" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M132">
@@ -18581,7 +18835,7 @@
         <v>1</v>
       </c>
       <c r="O132">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P132" s="26">
@@ -18596,7 +18850,9 @@
       <c r="S132" s="8">
         <v>21493.279999999995</v>
       </c>
-      <c r="T132" s="8"/>
+      <c r="T132" s="8">
+        <v>891</v>
+      </c>
     </row>
     <row r="133" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M133">
@@ -18608,7 +18864,7 @@
         <v>2</v>
       </c>
       <c r="O133">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P133" s="26">
@@ -18623,7 +18879,9 @@
       <c r="S133" s="8">
         <v>19237.099999999999</v>
       </c>
-      <c r="T133" s="8"/>
+      <c r="T133" s="8">
+        <v>811</v>
+      </c>
     </row>
     <row r="134" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M134">
@@ -18635,7 +18893,7 @@
         <v>3</v>
       </c>
       <c r="O134">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>9</v>
       </c>
       <c r="P134" s="26">
@@ -18650,7 +18908,9 @@
       <c r="S134" s="8">
         <v>19852.280000000002</v>
       </c>
-      <c r="T134" s="8"/>
+      <c r="T134" s="8">
+        <v>844</v>
+      </c>
     </row>
     <row r="135" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M135">
@@ -18662,7 +18922,7 @@
         <v>4</v>
       </c>
       <c r="O135">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P135" s="26">
@@ -18677,7 +18937,9 @@
       <c r="S135" s="8">
         <v>19113.5</v>
       </c>
-      <c r="T135" s="8"/>
+      <c r="T135" s="8">
+        <v>820</v>
+      </c>
     </row>
     <row r="136" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M136">
@@ -18689,7 +18951,7 @@
         <v>5</v>
       </c>
       <c r="O136">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P136" s="26">
@@ -18704,7 +18966,9 @@
       <c r="S136" s="8">
         <v>18314.41</v>
       </c>
-      <c r="T136" s="8"/>
+      <c r="T136" s="8">
+        <v>788</v>
+      </c>
     </row>
     <row r="137" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M137">
@@ -18716,7 +18980,7 @@
         <v>6</v>
       </c>
       <c r="O137">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P137" s="26">
@@ -18731,7 +18995,9 @@
       <c r="S137" s="8">
         <v>15201.720000000001</v>
       </c>
-      <c r="T137" s="8"/>
+      <c r="T137" s="8">
+        <v>662</v>
+      </c>
     </row>
     <row r="138" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M138">
@@ -18743,7 +19009,7 @@
         <v>7</v>
       </c>
       <c r="O138">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P138" s="26">
@@ -18758,7 +19024,9 @@
       <c r="S138" s="8">
         <v>16268.94</v>
       </c>
-      <c r="T138" s="8"/>
+      <c r="T138" s="8">
+        <v>700</v>
+      </c>
     </row>
     <row r="139" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M139">
@@ -18770,7 +19038,7 @@
         <v>8</v>
       </c>
       <c r="O139">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P139" s="26">
@@ -18785,7 +19053,9 @@
       <c r="S139" s="8">
         <v>10666.400000000003</v>
       </c>
-      <c r="T139" s="8"/>
+      <c r="T139" s="8">
+        <v>461</v>
+      </c>
     </row>
     <row r="140" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M140">
@@ -18797,7 +19067,7 @@
         <v>10</v>
       </c>
       <c r="O140">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P140" s="26">
@@ -18812,7 +19082,9 @@
       <c r="S140" s="8">
         <v>2996.8800000000015</v>
       </c>
-      <c r="T140" s="8"/>
+      <c r="T140" s="8">
+        <v>173</v>
+      </c>
     </row>
     <row r="141" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M141">
@@ -18824,7 +19096,7 @@
         <v>11</v>
       </c>
       <c r="O141">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P141" s="26">
@@ -18839,7 +19111,9 @@
       <c r="S141" s="8">
         <v>21161.23</v>
       </c>
-      <c r="T141" s="8"/>
+      <c r="T141" s="8">
+        <v>1079</v>
+      </c>
     </row>
     <row r="142" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M142">
@@ -18851,8 +19125,8 @@
         <v>12</v>
       </c>
       <c r="O142">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>49</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>48</v>
       </c>
       <c r="P142" s="26">
         <v>43800</v>
@@ -18866,7 +19140,9 @@
       <c r="S142" s="8">
         <v>25341.510000000002</v>
       </c>
-      <c r="T142" s="8"/>
+      <c r="T142" s="8">
+        <v>1180</v>
+      </c>
     </row>
     <row r="143" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M143">
@@ -18878,7 +19154,7 @@
         <v>1</v>
       </c>
       <c r="O143">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P143" s="26">
@@ -18893,7 +19169,9 @@
       <c r="S143" s="8">
         <v>24820.129999999997</v>
       </c>
-      <c r="T143" s="8"/>
+      <c r="T143" s="8">
+        <v>1007</v>
+      </c>
     </row>
     <row r="144" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M144">
@@ -18905,7 +19183,7 @@
         <v>2</v>
       </c>
       <c r="O144">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P144" s="26">
@@ -18920,7 +19198,9 @@
       <c r="S144" s="8">
         <v>22102.32</v>
       </c>
-      <c r="T144" s="8"/>
+      <c r="T144" s="8">
+        <v>913</v>
+      </c>
     </row>
     <row r="145" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M145">
@@ -18932,7 +19212,7 @@
         <v>3</v>
       </c>
       <c r="O145">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>9</v>
       </c>
       <c r="P145" s="26">
@@ -18947,7 +19227,9 @@
       <c r="S145" s="8">
         <v>23212.57</v>
       </c>
-      <c r="T145" s="8"/>
+      <c r="T145" s="8">
+        <v>968</v>
+      </c>
     </row>
     <row r="146" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M146">
@@ -18959,7 +19241,7 @@
         <v>4</v>
       </c>
       <c r="O146">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P146" s="26">
@@ -18974,7 +19256,9 @@
       <c r="S146" s="8">
         <v>24182.260000000002</v>
       </c>
-      <c r="T146" s="8"/>
+      <c r="T146" s="8">
+        <v>1002</v>
+      </c>
     </row>
     <row r="147" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M147">
@@ -18986,7 +19270,7 @@
         <v>5</v>
       </c>
       <c r="O147">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P147" s="26">
@@ -19001,7 +19285,9 @@
       <c r="S147" s="8">
         <v>23805.180000000004</v>
       </c>
-      <c r="T147" s="8"/>
+      <c r="T147" s="8">
+        <v>995</v>
+      </c>
     </row>
     <row r="148" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M148">
@@ -19013,7 +19299,7 @@
         <v>6</v>
       </c>
       <c r="O148">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P148" s="26">
@@ -19028,7 +19314,9 @@
       <c r="S148" s="8">
         <v>19387.839999999997</v>
       </c>
-      <c r="T148" s="8"/>
+      <c r="T148" s="8">
+        <v>825</v>
+      </c>
     </row>
     <row r="149" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M149">
@@ -19040,7 +19328,7 @@
         <v>7</v>
       </c>
       <c r="O149">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P149" s="26">
@@ -19055,7 +19343,9 @@
       <c r="S149" s="8">
         <v>20514.089999999997</v>
       </c>
-      <c r="T149" s="8"/>
+      <c r="T149" s="8">
+        <v>868</v>
+      </c>
     </row>
     <row r="150" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M150">
@@ -19067,7 +19357,7 @@
         <v>8</v>
       </c>
       <c r="O150">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P150" s="26">
@@ -19082,7 +19372,9 @@
       <c r="S150" s="8">
         <v>21055.049999999992</v>
       </c>
-      <c r="T150" s="8"/>
+      <c r="T150" s="8">
+        <v>902</v>
+      </c>
     </row>
     <row r="151" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M151">
@@ -19094,8 +19386,8 @@
         <v>9</v>
       </c>
       <c r="O151">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>36</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
       </c>
       <c r="P151" s="26">
         <v>43709</v>
@@ -19109,7 +19401,9 @@
       <c r="S151" s="8">
         <v>16707.380000000005</v>
       </c>
-      <c r="T151" s="8"/>
+      <c r="T151" s="8">
+        <v>722</v>
+      </c>
     </row>
     <row r="152" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M152">
@@ -19121,7 +19415,7 @@
         <v>10</v>
       </c>
       <c r="O152">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P152" s="26">
@@ -19136,7 +19430,9 @@
       <c r="S152" s="8">
         <v>17471.370000000003</v>
       </c>
-      <c r="T152" s="8"/>
+      <c r="T152" s="8">
+        <v>738</v>
+      </c>
     </row>
     <row r="153" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M153">
@@ -19148,7 +19444,7 @@
         <v>11</v>
       </c>
       <c r="O153">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P153" s="26">
@@ -19163,7 +19459,9 @@
       <c r="S153" s="8">
         <v>16283.080000000002</v>
       </c>
-      <c r="T153" s="8"/>
+      <c r="T153" s="8">
+        <v>688</v>
+      </c>
     </row>
     <row r="154" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M154">
@@ -19175,7 +19473,7 @@
         <v>1</v>
       </c>
       <c r="O154">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P154" s="26">
@@ -19190,7 +19488,9 @@
       <c r="S154" s="8">
         <v>24730.610000000004</v>
       </c>
-      <c r="T154" s="8"/>
+      <c r="T154" s="8">
+        <v>1076</v>
+      </c>
     </row>
     <row r="155" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M155">
@@ -19202,7 +19502,7 @@
         <v>2</v>
       </c>
       <c r="O155">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P155" s="26">
@@ -19217,7 +19517,9 @@
       <c r="S155" s="8">
         <v>22607.89</v>
       </c>
-      <c r="T155" s="8"/>
+      <c r="T155" s="8">
+        <v>979</v>
+      </c>
     </row>
     <row r="156" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M156">
@@ -19229,7 +19531,7 @@
         <v>3</v>
       </c>
       <c r="O156">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>9</v>
       </c>
       <c r="P156" s="26">
@@ -19244,7 +19546,9 @@
       <c r="S156" s="8">
         <v>21916.409999999996</v>
       </c>
-      <c r="T156" s="8"/>
+      <c r="T156" s="8">
+        <v>971</v>
+      </c>
     </row>
     <row r="157" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M157">
@@ -19256,7 +19560,7 @@
         <v>4</v>
       </c>
       <c r="O157">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>14</v>
       </c>
       <c r="P157" s="26">
@@ -19271,7 +19575,9 @@
       <c r="S157" s="8">
         <v>1783.3100000000002</v>
       </c>
-      <c r="T157" s="8"/>
+      <c r="T157" s="8">
+        <v>85</v>
+      </c>
     </row>
     <row r="158" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M158">
@@ -19283,7 +19589,7 @@
         <v>5</v>
       </c>
       <c r="O158">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P158" s="26">
@@ -19298,7 +19604,9 @@
       <c r="S158" s="8">
         <v>15547.470000000003</v>
       </c>
-      <c r="T158" s="8"/>
+      <c r="T158" s="8">
+        <v>699</v>
+      </c>
     </row>
     <row r="159" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M159">
@@ -19310,7 +19618,7 @@
         <v>6</v>
       </c>
       <c r="O159">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P159" s="26">
@@ -19325,7 +19633,9 @@
       <c r="S159" s="8">
         <v>18181.95</v>
       </c>
-      <c r="T159" s="8"/>
+      <c r="T159" s="8">
+        <v>814</v>
+      </c>
     </row>
     <row r="160" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M160">
@@ -19337,7 +19647,7 @@
         <v>7</v>
       </c>
       <c r="O160">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>27</v>
       </c>
       <c r="P160" s="26">
@@ -19352,7 +19662,9 @@
       <c r="S160" s="8">
         <v>21901.319999999992</v>
       </c>
-      <c r="T160" s="8"/>
+      <c r="T160" s="8">
+        <v>955</v>
+      </c>
     </row>
     <row r="161" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M161">
@@ -19364,7 +19676,7 @@
         <v>8</v>
       </c>
       <c r="O161">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P161" s="26">
@@ -19379,7 +19691,9 @@
       <c r="S161" s="8">
         <v>23151.190000000002</v>
       </c>
-      <c r="T161" s="8"/>
+      <c r="T161" s="8">
+        <v>1021</v>
+      </c>
     </row>
     <row r="162" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M162">
@@ -19391,8 +19705,8 @@
         <v>9</v>
       </c>
       <c r="O162">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>36</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
       </c>
       <c r="P162" s="26">
         <v>43709</v>
@@ -19406,7 +19720,9 @@
       <c r="S162" s="8">
         <v>18551.099999999999</v>
       </c>
-      <c r="T162" s="8"/>
+      <c r="T162" s="8">
+        <v>825</v>
+      </c>
     </row>
     <row r="163" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M163">
@@ -19418,7 +19734,7 @@
         <v>10</v>
       </c>
       <c r="O163">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P163" s="26">
@@ -19433,7 +19749,9 @@
       <c r="S163" s="8">
         <v>19612.199999999997</v>
       </c>
-      <c r="T163" s="8"/>
+      <c r="T163" s="8">
+        <v>859</v>
+      </c>
     </row>
     <row r="164" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M164">
@@ -19445,7 +19763,7 @@
         <v>11</v>
       </c>
       <c r="O164">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P164" s="26">
@@ -19460,7 +19778,9 @@
       <c r="S164" s="8">
         <v>20834.020000000004</v>
       </c>
-      <c r="T164" s="8"/>
+      <c r="T164" s="8">
+        <v>913</v>
+      </c>
     </row>
     <row r="165" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M165">
@@ -19472,8 +19792,8 @@
         <v>12</v>
       </c>
       <c r="O165">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>49</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>48</v>
       </c>
       <c r="P165" s="26">
         <v>43800</v>
@@ -19487,7 +19807,9 @@
       <c r="S165" s="8">
         <v>18233.150000000001</v>
       </c>
-      <c r="T165" s="8"/>
+      <c r="T165" s="8">
+        <v>797</v>
+      </c>
     </row>
     <row r="166" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M166">
@@ -19499,7 +19821,7 @@
         <v>1</v>
       </c>
       <c r="O166">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P166" s="26">
@@ -19514,7 +19836,9 @@
       <c r="S166" s="8">
         <v>8320.3000000000011</v>
       </c>
-      <c r="T166" s="8"/>
+      <c r="T166" s="8">
+        <v>354</v>
+      </c>
     </row>
     <row r="167" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M167">
@@ -19526,7 +19850,7 @@
         <v>2</v>
       </c>
       <c r="O167">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P167" s="26">
@@ -19541,7 +19865,9 @@
       <c r="S167" s="8">
         <v>6976.7199999999993</v>
       </c>
-      <c r="T167" s="8"/>
+      <c r="T167" s="8">
+        <v>299</v>
+      </c>
     </row>
     <row r="168" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M168">
@@ -19553,7 +19879,7 @@
         <v>3</v>
       </c>
       <c r="O168">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>9</v>
       </c>
       <c r="P168" s="26">
@@ -19568,7 +19894,9 @@
       <c r="S168" s="8">
         <v>4738.4799999999996</v>
       </c>
-      <c r="T168" s="8"/>
+      <c r="T168" s="8">
+        <v>211</v>
+      </c>
     </row>
     <row r="169" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M169">
@@ -19580,8 +19908,8 @@
         <v>4</v>
       </c>
       <c r="O169">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>14</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>13</v>
       </c>
       <c r="P169" s="26">
         <v>43191</v>
@@ -19595,7 +19923,9 @@
       <c r="S169" s="8">
         <v>1178.3699999999999</v>
       </c>
-      <c r="T169" s="8"/>
+      <c r="T169" s="8">
+        <v>53</v>
+      </c>
     </row>
     <row r="170" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M170">
@@ -19607,7 +19937,7 @@
         <v>5</v>
       </c>
       <c r="O170">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P170" s="26">
@@ -19622,7 +19952,9 @@
       <c r="S170" s="8">
         <v>6253.04</v>
       </c>
-      <c r="T170" s="8"/>
+      <c r="T170" s="8">
+        <v>266</v>
+      </c>
     </row>
     <row r="171" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M171">
@@ -19634,7 +19966,7 @@
         <v>6</v>
       </c>
       <c r="O171">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P171" s="26">
@@ -19649,7 +19981,9 @@
       <c r="S171" s="8">
         <v>6996.5599999999995</v>
       </c>
-      <c r="T171" s="8"/>
+      <c r="T171" s="8">
+        <v>294</v>
+      </c>
     </row>
     <row r="172" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M172">
@@ -19661,8 +19995,8 @@
         <v>7</v>
       </c>
       <c r="O172">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>27</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>26</v>
       </c>
       <c r="P172" s="26">
         <v>43282</v>
@@ -19676,7 +20010,9 @@
       <c r="S172" s="8">
         <v>7767.9800000000005</v>
       </c>
-      <c r="T172" s="8"/>
+      <c r="T172" s="8">
+        <v>316</v>
+      </c>
     </row>
     <row r="173" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M173">
@@ -19688,7 +20024,7 @@
         <v>8</v>
       </c>
       <c r="O173">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P173" s="26">
@@ -19703,7 +20039,9 @@
       <c r="S173" s="8">
         <v>6536.6399999999994</v>
       </c>
-      <c r="T173" s="8"/>
+      <c r="T173" s="8">
+        <v>277</v>
+      </c>
     </row>
     <row r="174" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M174">
@@ -19715,7 +20053,7 @@
         <v>9</v>
       </c>
       <c r="O174">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>35</v>
       </c>
       <c r="P174" s="26">
@@ -19730,7 +20068,9 @@
       <c r="S174" s="8">
         <v>6574.6</v>
       </c>
-      <c r="T174" s="8"/>
+      <c r="T174" s="8">
+        <v>278</v>
+      </c>
     </row>
     <row r="175" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M175">
@@ -19742,7 +20082,7 @@
         <v>10</v>
       </c>
       <c r="O175">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P175" s="26">
@@ -19757,7 +20097,9 @@
       <c r="S175" s="8">
         <v>7629.75</v>
       </c>
-      <c r="T175" s="8"/>
+      <c r="T175" s="8">
+        <v>321</v>
+      </c>
     </row>
     <row r="176" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M176">
@@ -19769,7 +20111,7 @@
         <v>11</v>
       </c>
       <c r="O176">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P176" s="26">
@@ -19784,7 +20126,9 @@
       <c r="S176" s="8">
         <v>6028.7699999999995</v>
       </c>
-      <c r="T176" s="8"/>
+      <c r="T176" s="8">
+        <v>248</v>
+      </c>
     </row>
     <row r="177" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M177">
@@ -19796,7 +20140,7 @@
         <v>12</v>
       </c>
       <c r="O177">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>48</v>
       </c>
       <c r="P177" s="26">
@@ -19811,7 +20155,9 @@
       <c r="S177" s="8">
         <v>7168.96</v>
       </c>
-      <c r="T177" s="8"/>
+      <c r="T177" s="8">
+        <v>296</v>
+      </c>
     </row>
     <row r="178" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M178">
@@ -19823,7 +20169,7 @@
         <v>1</v>
       </c>
       <c r="O178">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P178" s="26">
@@ -19838,7 +20184,9 @@
       <c r="S178" s="8">
         <v>21060.749999999996</v>
       </c>
-      <c r="T178" s="8"/>
+      <c r="T178" s="8">
+        <v>888</v>
+      </c>
     </row>
     <row r="179" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M179">
@@ -19850,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="O179">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P179" s="26">
@@ -19865,7 +20213,9 @@
       <c r="S179" s="8">
         <v>17044.78</v>
       </c>
-      <c r="T179" s="8"/>
+      <c r="T179" s="8">
+        <v>730</v>
+      </c>
     </row>
     <row r="180" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M180">
@@ -19877,7 +20227,7 @@
         <v>3</v>
       </c>
       <c r="O180">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>9</v>
       </c>
       <c r="P180" s="26">
@@ -19892,7 +20242,9 @@
       <c r="S180" s="8">
         <v>17487.400000000001</v>
       </c>
-      <c r="T180" s="8"/>
+      <c r="T180" s="8">
+        <v>770</v>
+      </c>
     </row>
     <row r="181" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M181">
@@ -19904,8 +20256,8 @@
         <v>4</v>
       </c>
       <c r="O181">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>14</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>13</v>
       </c>
       <c r="P181" s="26">
         <v>43191</v>
@@ -19919,7 +20271,9 @@
       <c r="S181" s="8">
         <v>15740.74</v>
       </c>
-      <c r="T181" s="8"/>
+      <c r="T181" s="8">
+        <v>696</v>
+      </c>
     </row>
     <row r="182" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M182">
@@ -19931,7 +20285,7 @@
         <v>6</v>
       </c>
       <c r="O182">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P182" s="26">
@@ -19946,7 +20300,9 @@
       <c r="S182" s="8">
         <v>2046.1800000000003</v>
       </c>
-      <c r="T182" s="8"/>
+      <c r="T182" s="8">
+        <v>125</v>
+      </c>
     </row>
     <row r="183" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M183">
@@ -19958,8 +20314,8 @@
         <v>7</v>
       </c>
       <c r="O183">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>27</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>26</v>
       </c>
       <c r="P183" s="26">
         <v>43282</v>
@@ -19973,7 +20329,9 @@
       <c r="S183" s="8">
         <v>20700.7</v>
       </c>
-      <c r="T183" s="8"/>
+      <c r="T183" s="8">
+        <v>1079</v>
+      </c>
     </row>
     <row r="184" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M184">
@@ -19985,7 +20343,7 @@
         <v>8</v>
       </c>
       <c r="O184">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P184" s="26">
@@ -20000,7 +20358,9 @@
       <c r="S184" s="8">
         <v>27376.430000000004</v>
       </c>
-      <c r="T184" s="8"/>
+      <c r="T184" s="8">
+        <v>1314</v>
+      </c>
     </row>
     <row r="185" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M185">
@@ -20012,7 +20372,7 @@
         <v>9</v>
       </c>
       <c r="O185">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>35</v>
       </c>
       <c r="P185" s="26">
@@ -20027,7 +20387,9 @@
       <c r="S185" s="8">
         <v>26681.629999999997</v>
       </c>
-      <c r="T185" s="8"/>
+      <c r="T185" s="8">
+        <v>1229</v>
+      </c>
     </row>
     <row r="186" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M186">
@@ -20039,7 +20401,7 @@
         <v>10</v>
       </c>
       <c r="O186">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P186" s="26">
@@ -20054,7 +20416,9 @@
       <c r="S186" s="8">
         <v>26018.899999999998</v>
       </c>
-      <c r="T186" s="8"/>
+      <c r="T186" s="8">
+        <v>1175</v>
+      </c>
     </row>
     <row r="187" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M187">
@@ -20066,7 +20430,7 @@
         <v>11</v>
       </c>
       <c r="O187">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P187" s="26">
@@ -20081,7 +20445,9 @@
       <c r="S187" s="8">
         <v>29762.560000000001</v>
       </c>
-      <c r="T187" s="8"/>
+      <c r="T187" s="8">
+        <v>1343</v>
+      </c>
     </row>
     <row r="188" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M188">
@@ -20093,7 +20459,7 @@
         <v>12</v>
       </c>
       <c r="O188">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>48</v>
       </c>
       <c r="P188" s="26">
@@ -20108,7 +20474,9 @@
       <c r="S188" s="8">
         <v>27631.249999999996</v>
       </c>
-      <c r="T188" s="8"/>
+      <c r="T188" s="8">
+        <v>1222</v>
+      </c>
     </row>
     <row r="189" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M189">
@@ -20120,7 +20488,7 @@
         <v>1</v>
       </c>
       <c r="O189">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P189" s="26">
@@ -20135,7 +20503,9 @@
       <c r="S189" s="8">
         <v>25714.21</v>
       </c>
-      <c r="T189" s="8"/>
+      <c r="T189" s="8">
+        <v>1048</v>
+      </c>
     </row>
     <row r="190" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M190">
@@ -20147,7 +20517,7 @@
         <v>2</v>
       </c>
       <c r="O190">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P190" s="26">
@@ -20162,7 +20532,9 @@
       <c r="S190" s="8">
         <v>22703.38</v>
       </c>
-      <c r="T190" s="8"/>
+      <c r="T190" s="8">
+        <v>896</v>
+      </c>
     </row>
     <row r="191" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M191">
@@ -20174,7 +20546,7 @@
         <v>3</v>
       </c>
       <c r="O191">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>9</v>
       </c>
       <c r="P191" s="26">
@@ -20189,7 +20561,9 @@
       <c r="S191" s="8">
         <v>21139.170000000002</v>
       </c>
-      <c r="T191" s="8"/>
+      <c r="T191" s="8">
+        <v>936</v>
+      </c>
     </row>
     <row r="192" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M192">
@@ -20201,8 +20575,8 @@
         <v>4</v>
       </c>
       <c r="O192">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>14</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>13</v>
       </c>
       <c r="P192" s="26">
         <v>43191</v>
@@ -20216,7 +20590,9 @@
       <c r="S192" s="8">
         <v>20310.239999999998</v>
       </c>
-      <c r="T192" s="8"/>
+      <c r="T192" s="8">
+        <v>907</v>
+      </c>
     </row>
     <row r="193" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M193">
@@ -20228,7 +20604,7 @@
         <v>5</v>
       </c>
       <c r="O193">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P193" s="26">
@@ -20243,7 +20619,9 @@
       <c r="S193" s="8">
         <v>23892.820000000003</v>
       </c>
-      <c r="T193" s="8"/>
+      <c r="T193" s="8">
+        <v>963</v>
+      </c>
     </row>
     <row r="194" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M194">
@@ -20255,7 +20633,7 @@
         <v>6</v>
       </c>
       <c r="O194">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P194" s="26">
@@ -20270,7 +20648,9 @@
       <c r="S194" s="8">
         <v>19963.650000000001</v>
       </c>
-      <c r="T194" s="8"/>
+      <c r="T194" s="8">
+        <v>846</v>
+      </c>
     </row>
     <row r="195" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M195">
@@ -20282,8 +20662,8 @@
         <v>7</v>
       </c>
       <c r="O195">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>27</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>26</v>
       </c>
       <c r="P195" s="26">
         <v>43282</v>
@@ -20297,7 +20677,9 @@
       <c r="S195" s="8">
         <v>19222.789999999994</v>
       </c>
-      <c r="T195" s="8"/>
+      <c r="T195" s="8">
+        <v>823</v>
+      </c>
     </row>
     <row r="196" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M196">
@@ -20309,7 +20691,7 @@
         <v>8</v>
       </c>
       <c r="O196">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P196" s="26">
@@ -20324,7 +20706,9 @@
       <c r="S196" s="8">
         <v>19588.899999999998</v>
       </c>
-      <c r="T196" s="8"/>
+      <c r="T196" s="8">
+        <v>835</v>
+      </c>
     </row>
     <row r="197" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M197">
@@ -20336,7 +20720,7 @@
         <v>9</v>
       </c>
       <c r="O197">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>35</v>
       </c>
       <c r="P197" s="26">
@@ -20351,7 +20735,9 @@
       <c r="S197" s="8">
         <v>7456.3000000000011</v>
       </c>
-      <c r="T197" s="8"/>
+      <c r="T197" s="8">
+        <v>314</v>
+      </c>
     </row>
     <row r="198" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M198">
@@ -20363,7 +20749,7 @@
         <v>10</v>
       </c>
       <c r="O198">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P198" s="26">
@@ -20378,7 +20764,9 @@
       <c r="S198" s="8">
         <v>1756.81</v>
       </c>
-      <c r="T198" s="8"/>
+      <c r="T198" s="8">
+        <v>105</v>
+      </c>
     </row>
     <row r="199" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M199">
@@ -20390,7 +20778,7 @@
         <v>11</v>
       </c>
       <c r="O199">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P199" s="26">
@@ -20405,7 +20793,9 @@
       <c r="S199" s="8">
         <v>20814.560000000001</v>
       </c>
-      <c r="T199" s="8"/>
+      <c r="T199" s="8">
+        <v>1071</v>
+      </c>
     </row>
     <row r="200" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M200">
@@ -20417,7 +20807,7 @@
         <v>12</v>
       </c>
       <c r="O200">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>48</v>
       </c>
       <c r="P200" s="26">
@@ -20432,7 +20822,9 @@
       <c r="S200" s="8">
         <v>25892.539999999997</v>
       </c>
-      <c r="T200" s="8"/>
+      <c r="T200" s="8">
+        <v>1218</v>
+      </c>
     </row>
     <row r="201" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M201">
@@ -20444,7 +20836,7 @@
         <v>1</v>
       </c>
       <c r="O201">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P201" s="26">
@@ -20459,7 +20851,9 @@
       <c r="S201" s="8">
         <v>25811.309999999987</v>
       </c>
-      <c r="T201" s="8"/>
+      <c r="T201" s="8">
+        <v>1096</v>
+      </c>
     </row>
     <row r="202" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M202">
@@ -20471,7 +20865,7 @@
         <v>2</v>
       </c>
       <c r="O202">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P202" s="26">
@@ -20486,7 +20880,9 @@
       <c r="S202" s="8">
         <v>20930.090000000004</v>
       </c>
-      <c r="T202" s="8"/>
+      <c r="T202" s="8">
+        <v>923</v>
+      </c>
     </row>
     <row r="203" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M203">
@@ -20498,7 +20894,7 @@
         <v>3</v>
       </c>
       <c r="O203">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>9</v>
       </c>
       <c r="P203" s="26">
@@ -20513,7 +20909,9 @@
       <c r="S203" s="8">
         <v>22634.699999999997</v>
       </c>
-      <c r="T203" s="8"/>
+      <c r="T203" s="8">
+        <v>985</v>
+      </c>
     </row>
     <row r="204" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M204">
@@ -20525,8 +20923,8 @@
         <v>4</v>
       </c>
       <c r="O204">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>14</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>13</v>
       </c>
       <c r="P204" s="26">
         <v>43191</v>
@@ -20540,7 +20938,9 @@
       <c r="S204" s="8">
         <v>15968.12</v>
       </c>
-      <c r="T204" s="8"/>
+      <c r="T204" s="8">
+        <v>741</v>
+      </c>
     </row>
     <row r="205" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M205">
@@ -20552,7 +20952,7 @@
         <v>5</v>
       </c>
       <c r="O205">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P205" s="26">
@@ -20567,7 +20967,9 @@
       <c r="S205" s="8">
         <v>5715.92</v>
       </c>
-      <c r="T205" s="8"/>
+      <c r="T205" s="8">
+        <v>257</v>
+      </c>
     </row>
     <row r="206" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M206">
@@ -20579,7 +20981,7 @@
         <v>6</v>
       </c>
       <c r="O206">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P206" s="26">
@@ -20594,7 +20996,9 @@
       <c r="S206" s="8">
         <v>17967.28</v>
       </c>
-      <c r="T206" s="8"/>
+      <c r="T206" s="8">
+        <v>783</v>
+      </c>
     </row>
     <row r="207" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M207">
@@ -20606,8 +21010,8 @@
         <v>7</v>
       </c>
       <c r="O207">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>27</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>26</v>
       </c>
       <c r="P207" s="26">
         <v>43282</v>
@@ -20621,7 +21025,9 @@
       <c r="S207" s="8">
         <v>18925.230000000003</v>
       </c>
-      <c r="T207" s="8"/>
+      <c r="T207" s="8">
+        <v>807</v>
+      </c>
     </row>
     <row r="208" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M208">
@@ -20633,7 +21039,7 @@
         <v>8</v>
       </c>
       <c r="O208">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P208" s="26">
@@ -20648,7 +21054,9 @@
       <c r="S208" s="8">
         <v>20934.960000000003</v>
       </c>
-      <c r="T208" s="8"/>
+      <c r="T208" s="8">
+        <v>877</v>
+      </c>
     </row>
     <row r="209" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M209">
@@ -20660,7 +21068,7 @@
         <v>9</v>
       </c>
       <c r="O209">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>35</v>
       </c>
       <c r="P209" s="26">
@@ -20675,7 +21083,9 @@
       <c r="S209" s="8">
         <v>19356.729999999996</v>
       </c>
-      <c r="T209" s="8"/>
+      <c r="T209" s="8">
+        <v>812</v>
+      </c>
     </row>
     <row r="210" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M210">
@@ -20687,7 +21097,7 @@
         <v>10</v>
       </c>
       <c r="O210">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P210" s="26">
@@ -20702,7 +21112,9 @@
       <c r="S210" s="8">
         <v>17532.260000000002</v>
       </c>
-      <c r="T210" s="8"/>
+      <c r="T210" s="8">
+        <v>742</v>
+      </c>
     </row>
     <row r="211" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M211">
@@ -20714,7 +21126,7 @@
         <v>11</v>
       </c>
       <c r="O211">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P211" s="26">
@@ -20729,7 +21141,9 @@
       <c r="S211" s="8">
         <v>19159.22</v>
       </c>
-      <c r="T211" s="8"/>
+      <c r="T211" s="8">
+        <v>819</v>
+      </c>
     </row>
     <row r="212" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M212">
@@ -20741,7 +21155,7 @@
         <v>12</v>
       </c>
       <c r="O212">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>48</v>
       </c>
       <c r="P212" s="26">
@@ -20756,7 +21170,9 @@
       <c r="S212" s="8">
         <v>17182.519999999997</v>
       </c>
-      <c r="T212" s="8"/>
+      <c r="T212" s="8">
+        <v>721</v>
+      </c>
     </row>
     <row r="213" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M213">
@@ -20768,7 +21184,7 @@
         <v>1</v>
       </c>
       <c r="O213">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P213" s="26">
@@ -20783,7 +21199,9 @@
       <c r="S213" s="8">
         <v>27647.039999999997</v>
       </c>
-      <c r="T213" s="8"/>
+      <c r="T213" s="8">
+        <v>1231</v>
+      </c>
     </row>
     <row r="214" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M214">
@@ -20795,7 +21213,7 @@
         <v>2</v>
       </c>
       <c r="O214">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P214" s="26">
@@ -20810,7 +21228,9 @@
       <c r="S214" s="8">
         <v>23591.3</v>
       </c>
-      <c r="T214" s="8"/>
+      <c r="T214" s="8">
+        <v>1045</v>
+      </c>
     </row>
     <row r="215" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M215">
@@ -20822,7 +21242,7 @@
         <v>3</v>
       </c>
       <c r="O215">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>9</v>
       </c>
       <c r="P215" s="26">
@@ -20837,7 +21257,9 @@
       <c r="S215" s="8">
         <v>25939.33</v>
       </c>
-      <c r="T215" s="8"/>
+      <c r="T215" s="8">
+        <v>1152</v>
+      </c>
     </row>
     <row r="216" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M216">
@@ -20849,8 +21271,8 @@
         <v>4</v>
       </c>
       <c r="O216">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>14</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>13</v>
       </c>
       <c r="P216" s="26">
         <v>43191</v>
@@ -20864,7 +21286,9 @@
       <c r="S216" s="8">
         <v>20156.629999999997</v>
       </c>
-      <c r="T216" s="8"/>
+      <c r="T216" s="8">
+        <v>939</v>
+      </c>
     </row>
     <row r="217" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M217">
@@ -20876,7 +21300,7 @@
         <v>5</v>
       </c>
       <c r="O217">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P217" s="26">
@@ -20891,7 +21315,9 @@
       <c r="S217" s="8">
         <v>25222.920000000002</v>
       </c>
-      <c r="T217" s="8"/>
+      <c r="T217" s="8">
+        <v>1106</v>
+      </c>
     </row>
     <row r="218" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M218">
@@ -20903,7 +21329,7 @@
         <v>6</v>
       </c>
       <c r="O218">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P218" s="26">
@@ -20918,7 +21344,9 @@
       <c r="S218" s="8">
         <v>21963.690000000002</v>
       </c>
-      <c r="T218" s="8"/>
+      <c r="T218" s="8">
+        <v>964</v>
+      </c>
     </row>
     <row r="219" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M219">
@@ -20930,8 +21358,8 @@
         <v>7</v>
       </c>
       <c r="O219">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>27</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>26</v>
       </c>
       <c r="P219" s="26">
         <v>43282</v>
@@ -20945,7 +21373,9 @@
       <c r="S219" s="8">
         <v>19384.390000000003</v>
       </c>
-      <c r="T219" s="8"/>
+      <c r="T219" s="8">
+        <v>854</v>
+      </c>
     </row>
     <row r="220" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M220">
@@ -20957,7 +21387,7 @@
         <v>8</v>
       </c>
       <c r="O220">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P220" s="26">
@@ -20972,7 +21402,9 @@
       <c r="S220" s="8">
         <v>6805.1</v>
       </c>
-      <c r="T220" s="8"/>
+      <c r="T220" s="8">
+        <v>297</v>
+      </c>
     </row>
     <row r="221" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M221">
@@ -20984,7 +21416,7 @@
         <v>9</v>
       </c>
       <c r="O221">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>35</v>
       </c>
       <c r="P221" s="26">
@@ -20999,7 +21431,9 @@
       <c r="S221" s="8">
         <v>21344.880000000005</v>
       </c>
-      <c r="T221" s="8"/>
+      <c r="T221" s="8">
+        <v>907</v>
+      </c>
     </row>
     <row r="222" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M222">
@@ -21011,7 +21445,7 @@
         <v>10</v>
       </c>
       <c r="O222">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P222" s="26">
@@ -21026,7 +21460,9 @@
       <c r="S222" s="8">
         <v>20886.239999999998</v>
       </c>
-      <c r="T222" s="8"/>
+      <c r="T222" s="8">
+        <v>892</v>
+      </c>
     </row>
     <row r="223" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M223">
@@ -21038,7 +21474,7 @@
         <v>11</v>
       </c>
       <c r="O223">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P223" s="26">
@@ -21053,7 +21489,9 @@
       <c r="S223" s="8">
         <v>24347.879999999997</v>
       </c>
-      <c r="T223" s="8"/>
+      <c r="T223" s="8">
+        <v>1027</v>
+      </c>
     </row>
     <row r="224" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M224">
@@ -21065,7 +21503,7 @@
         <v>12</v>
       </c>
       <c r="O224">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>48</v>
       </c>
       <c r="P224" s="26">
@@ -21080,7 +21518,9 @@
       <c r="S224" s="8">
         <v>22733.800000000003</v>
       </c>
-      <c r="T224" s="8"/>
+      <c r="T224" s="8">
+        <v>904</v>
+      </c>
     </row>
     <row r="225" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M225">
@@ -21092,7 +21532,7 @@
         <v>1</v>
       </c>
       <c r="O225">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P225" s="26">
@@ -21107,7 +21547,9 @@
       <c r="S225" s="8">
         <v>28743.309999999998</v>
       </c>
-      <c r="T225" s="8"/>
+      <c r="T225" s="8">
+        <v>1294</v>
+      </c>
     </row>
     <row r="226" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M226">
@@ -21119,7 +21561,7 @@
         <v>2</v>
       </c>
       <c r="O226">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P226" s="26">
@@ -21134,7 +21576,9 @@
       <c r="S226" s="8">
         <v>25448.760000000006</v>
       </c>
-      <c r="T226" s="8"/>
+      <c r="T226" s="8">
+        <v>1123</v>
+      </c>
     </row>
     <row r="227" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M227">
@@ -21146,7 +21590,7 @@
         <v>3</v>
       </c>
       <c r="O227">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>9</v>
       </c>
       <c r="P227" s="26">
@@ -21161,7 +21605,9 @@
       <c r="S227" s="8">
         <v>26680.84</v>
       </c>
-      <c r="T227" s="8"/>
+      <c r="T227" s="8">
+        <v>1219</v>
+      </c>
     </row>
     <row r="228" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M228">
@@ -21173,8 +21619,8 @@
         <v>4</v>
       </c>
       <c r="O228">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>14</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>13</v>
       </c>
       <c r="P228" s="26">
         <v>43191</v>
@@ -21188,7 +21634,9 @@
       <c r="S228" s="8">
         <v>22113.140000000003</v>
       </c>
-      <c r="T228" s="8"/>
+      <c r="T228" s="8">
+        <v>1027</v>
+      </c>
     </row>
     <row r="229" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M229">
@@ -21200,7 +21648,7 @@
         <v>5</v>
       </c>
       <c r="O229">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P229" s="26">
@@ -21215,7 +21663,9 @@
       <c r="S229" s="8">
         <v>27657.709999999995</v>
       </c>
-      <c r="T229" s="8"/>
+      <c r="T229" s="8">
+        <v>1205</v>
+      </c>
     </row>
     <row r="230" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M230">
@@ -21227,7 +21677,7 @@
         <v>6</v>
       </c>
       <c r="O230">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P230" s="26">
@@ -21242,7 +21692,9 @@
       <c r="S230" s="8">
         <v>24368.299999999996</v>
       </c>
-      <c r="T230" s="8"/>
+      <c r="T230" s="8">
+        <v>1062</v>
+      </c>
     </row>
     <row r="231" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M231">
@@ -21254,8 +21706,8 @@
         <v>7</v>
       </c>
       <c r="O231">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>27</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>26</v>
       </c>
       <c r="P231" s="26">
         <v>43282</v>
@@ -21269,7 +21721,9 @@
       <c r="S231" s="8">
         <v>24632.839999999997</v>
       </c>
-      <c r="T231" s="8"/>
+      <c r="T231" s="8">
+        <v>1086</v>
+      </c>
     </row>
     <row r="232" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M232">
@@ -21281,7 +21735,7 @@
         <v>8</v>
       </c>
       <c r="O232">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P232" s="26">
@@ -21296,7 +21750,9 @@
       <c r="S232" s="8">
         <v>25589.840000000007</v>
       </c>
-      <c r="T232" s="8"/>
+      <c r="T232" s="8">
+        <v>1124</v>
+      </c>
     </row>
     <row r="233" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M233">
@@ -21308,7 +21764,7 @@
         <v>9</v>
       </c>
       <c r="O233">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>35</v>
       </c>
       <c r="P233" s="26">
@@ -21323,7 +21779,9 @@
       <c r="S233" s="8">
         <v>24188.920000000006</v>
       </c>
-      <c r="T233" s="8"/>
+      <c r="T233" s="8">
+        <v>1040</v>
+      </c>
     </row>
     <row r="234" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M234">
@@ -21335,7 +21793,7 @@
         <v>10</v>
       </c>
       <c r="O234">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P234" s="26">
@@ -21350,7 +21808,9 @@
       <c r="S234" s="8">
         <v>23127.670000000002</v>
       </c>
-      <c r="T234" s="8"/>
+      <c r="T234" s="8">
+        <v>979</v>
+      </c>
     </row>
     <row r="235" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M235">
@@ -21362,7 +21822,7 @@
         <v>11</v>
       </c>
       <c r="O235">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P235" s="26">
@@ -21377,7 +21837,9 @@
       <c r="S235" s="8">
         <v>10561.63</v>
       </c>
-      <c r="T235" s="8"/>
+      <c r="T235" s="8">
+        <v>417</v>
+      </c>
     </row>
     <row r="236" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M236">
@@ -21389,7 +21851,7 @@
         <v>12</v>
       </c>
       <c r="O236">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>48</v>
       </c>
       <c r="P236" s="26">
@@ -21404,7 +21866,9 @@
       <c r="S236" s="8">
         <v>13751.759999999997</v>
       </c>
-      <c r="T236" s="8"/>
+      <c r="T236" s="8">
+        <v>526</v>
+      </c>
     </row>
     <row r="237" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M237">
@@ -21416,7 +21880,7 @@
         <v>1</v>
       </c>
       <c r="O237">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
       <c r="P237" s="26">
@@ -21431,7 +21895,9 @@
       <c r="S237" s="8">
         <v>6304.0199999999995</v>
       </c>
-      <c r="T237" s="8"/>
+      <c r="T237" s="8">
+        <v>268</v>
+      </c>
     </row>
     <row r="238" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M238">
@@ -21443,7 +21909,7 @@
         <v>2</v>
       </c>
       <c r="O238">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>5</v>
       </c>
       <c r="P238" s="26">
@@ -21458,7 +21924,9 @@
       <c r="S238" s="8">
         <v>209.1</v>
       </c>
-      <c r="T238" s="8"/>
+      <c r="T238" s="8">
+        <v>14</v>
+      </c>
     </row>
     <row r="239" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M239">
@@ -21470,7 +21938,7 @@
         <v>3</v>
       </c>
       <c r="O239">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>9</v>
       </c>
       <c r="P239" s="26">
@@ -21485,7 +21953,9 @@
       <c r="S239" s="8">
         <v>17831.580000000005</v>
       </c>
-      <c r="T239" s="8"/>
+      <c r="T239" s="8">
+        <v>963</v>
+      </c>
     </row>
     <row r="240" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M240">
@@ -21497,8 +21967,8 @@
         <v>4</v>
       </c>
       <c r="O240">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>14</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>13</v>
       </c>
       <c r="P240" s="26">
         <v>43191</v>
@@ -21512,7 +21982,9 @@
       <c r="S240" s="8">
         <v>26120.169999999995</v>
       </c>
-      <c r="T240" s="8"/>
+      <c r="T240" s="8">
+        <v>1280</v>
+      </c>
     </row>
     <row r="241" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M241">
@@ -21524,7 +21996,7 @@
         <v>5</v>
       </c>
       <c r="O241">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>18</v>
       </c>
       <c r="P241" s="26">
@@ -21539,7 +22011,9 @@
       <c r="S241" s="8">
         <v>27530.070000000003</v>
       </c>
-      <c r="T241" s="8"/>
+      <c r="T241" s="8">
+        <v>1305</v>
+      </c>
     </row>
     <row r="242" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M242">
@@ -21551,7 +22025,7 @@
         <v>6</v>
       </c>
       <c r="O242">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>22</v>
       </c>
       <c r="P242" s="26">
@@ -21566,7 +22040,9 @@
       <c r="S242" s="8">
         <v>25356.67</v>
       </c>
-      <c r="T242" s="8"/>
+      <c r="T242" s="8">
+        <v>1172</v>
+      </c>
     </row>
     <row r="243" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M243">
@@ -21578,8 +22054,8 @@
         <v>7</v>
       </c>
       <c r="O243">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
-        <v>27</v>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
+        <v>26</v>
       </c>
       <c r="P243" s="26">
         <v>43282</v>
@@ -21593,7 +22069,9 @@
       <c r="S243" s="8">
         <v>26452.559999999994</v>
       </c>
-      <c r="T243" s="8"/>
+      <c r="T243" s="8">
+        <v>1203</v>
+      </c>
     </row>
     <row r="244" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M244">
@@ -21605,7 +22083,7 @@
         <v>8</v>
       </c>
       <c r="O244">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>31</v>
       </c>
       <c r="P244" s="26">
@@ -21620,7 +22098,9 @@
       <c r="S244" s="8">
         <v>28106.670000000002</v>
       </c>
-      <c r="T244" s="8"/>
+      <c r="T244" s="8">
+        <v>1271</v>
+      </c>
     </row>
     <row r="245" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M245">
@@ -21632,7 +22112,7 @@
         <v>9</v>
       </c>
       <c r="O245">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>35</v>
       </c>
       <c r="P245" s="26">
@@ -21647,7 +22127,9 @@
       <c r="S245" s="8">
         <v>26049.070000000003</v>
       </c>
-      <c r="T245" s="8"/>
+      <c r="T245" s="8">
+        <v>1185</v>
+      </c>
     </row>
     <row r="246" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M246">
@@ -21659,7 +22141,7 @@
         <v>10</v>
       </c>
       <c r="O246">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>40</v>
       </c>
       <c r="P246" s="26">
@@ -21674,7 +22156,9 @@
       <c r="S246" s="8">
         <v>24511.53</v>
       </c>
-      <c r="T246" s="8"/>
+      <c r="T246" s="8">
+        <v>1098</v>
+      </c>
     </row>
     <row r="247" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M247">
@@ -21686,7 +22170,7 @@
         <v>11</v>
       </c>
       <c r="O247">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>44</v>
       </c>
       <c r="P247" s="26">
@@ -21701,7 +22185,9 @@
       <c r="S247" s="8">
         <v>27749.679999999993</v>
       </c>
-      <c r="T247" s="8"/>
+      <c r="T247" s="8">
+        <v>1234</v>
+      </c>
     </row>
     <row r="248" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M248">
@@ -21713,7 +22199,7 @@
         <v>12</v>
       </c>
       <c r="O248">
-        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]])</f>
+        <f>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</f>
         <v>48</v>
       </c>
       <c r="P248" s="26">
@@ -21728,7 +22214,9 @@
       <c r="S248" s="8">
         <v>24792.839999999997</v>
       </c>
-      <c r="T248" s="8"/>
+      <c r="T248" s="8">
+        <v>1095</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -21740,13 +22228,14 @@
     <mergeCell ref="AG2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="5">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -21815,8 +22304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4E6DD1-DFC3-45C9-9E3B-A4985EE15B0A}">
   <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="P1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21833,9 +22322,9 @@
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="26" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21843,35 +22332,35 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
     </row>
     <row r="2" spans="1:30" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -21883,7 +22372,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="48" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -21916,18 +22405,18 @@
       <c r="N2" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="AA2" s="41" t="s">
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="AA2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -22073,8 +22562,8 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <f>WEEKNUM(NB[[#This Row],[Fecha]])</f>
-        <v>0</v>
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
       </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -22089,8 +22578,8 @@
         <v>1</v>
       </c>
       <c r="Z4">
-        <f>WEEKNUM(MB[[#This Row],[Fecha]])</f>
-        <v>0</v>
+        <f>WEEKNUM(MB[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
       </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
@@ -23849,43 +24338,43 @@
         <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
         <v>2</v>
       </c>
-      <c r="D42" s="58">
+      <c r="D42" s="49">
         <v>44200</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="51" t="s">
+      <c r="F42" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="42" t="e">
         <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="51">
+        <v>#REF!</v>
+      </c>
+      <c r="H42" s="42" t="e">
         <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Entrada*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="51">
+        <v>#REF!</v>
+      </c>
+      <c r="I42" s="42" t="e">
         <f>SUMIFS([1]!Tabla28[Salida],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="51">
-        <v>0</v>
-      </c>
-      <c r="K42" s="52">
+        <v>#REF!</v>
+      </c>
+      <c r="J42" s="42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="43" t="e">
         <f>SUMIFS([1]!Tabla28[Importe Venta],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="52">
+        <v>#REF!</v>
+      </c>
+      <c r="L42" s="43" t="e">
         <f>SUMIFS([1]!Tabla28[Importe Costo],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="53">
+        <v>#REF!</v>
+      </c>
+      <c r="M42" s="44" t="e">
         <f>COUNTIFS([1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="53">
+        <v>#REF!</v>
+      </c>
+      <c r="N42" s="44">
         <v>0</v>
       </c>
     </row>
@@ -23902,97 +24391,97 @@
         <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
         <v>3</v>
       </c>
-      <c r="D43" s="58">
+      <c r="D43" s="49">
         <v>44211</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="51" t="s">
+      <c r="F43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="51">
+      <c r="G43" s="42" t="e">
         <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="51">
+        <v>#REF!</v>
+      </c>
+      <c r="H43" s="42" t="e">
         <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Entrada*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="51">
+        <v>#REF!</v>
+      </c>
+      <c r="I43" s="42" t="e">
         <f>SUMIFS([1]!Tabla28[Salida],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="51">
-        <v>0</v>
-      </c>
-      <c r="K43" s="51">
+        <v>#REF!</v>
+      </c>
+      <c r="J43" s="42">
+        <v>0</v>
+      </c>
+      <c r="K43" s="42" t="e">
         <f>SUMIFS([1]!Tabla28[Importe Venta],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="51">
+        <v>#REF!</v>
+      </c>
+      <c r="L43" s="42" t="e">
         <f>SUMIFS([1]!Tabla28[Importe Costo],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="53">
+        <v>#REF!</v>
+      </c>
+      <c r="M43" s="44" t="e">
         <f>COUNTIFS([1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="53">
+        <v>#REF!</v>
+      </c>
+      <c r="N43" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="54">
+      <c r="A44" s="45">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2021</v>
       </c>
-      <c r="B44" s="54">
+      <c r="B44" s="45">
         <f>MONTH(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>1</v>
       </c>
-      <c r="C44" s="54">
+      <c r="C44" s="45">
         <f>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</f>
         <v>5</v>
       </c>
-      <c r="D44" s="59">
+      <c r="D44" s="50">
         <v>44223</v>
       </c>
       <c r="E44" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="55">
+      <c r="G44" s="46" t="e">
         <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="55">
+        <v>#REF!</v>
+      </c>
+      <c r="H44" s="46" t="e">
         <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Entrada*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="55">
+        <v>#REF!</v>
+      </c>
+      <c r="I44" s="46" t="e">
         <f>SUMIFS([1]!Tabla28[Salida],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="55">
+        <v>#REF!</v>
+      </c>
+      <c r="J44" s="46" t="e">
         <f>SUMIFS([1]!Tabla28[Salida],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="55">
+        <v>#REF!</v>
+      </c>
+      <c r="K44" s="46" t="e">
         <f>SUMIFS([1]!Tabla28[Importe Venta],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="55">
+        <v>#REF!</v>
+      </c>
+      <c r="L44" s="46" t="e">
         <f>SUMIFS([1]!Tabla28[Importe Costo],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="56">
+        <v>#REF!</v>
+      </c>
+      <c r="M44" s="47" t="e">
         <f>COUNTIFS([1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="56"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N44" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/GV/RegistroInformacion.xlsx
+++ b/GV/RegistroInformacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43373C1C-A66C-48CD-9438-3006F4E3E818}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC19BB0D-A35D-442C-86D0-1D4DA3B2DDF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,6 @@
     <sheet name="ListasHuevo" sheetId="5" r:id="rId5"/>
     <sheet name="ListasBorrego" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294821225" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="165">
   <si>
     <t>CERDOS</t>
   </si>
@@ -999,6 +996,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1014,37 +1014,12 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="109">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2161,6 +2136,25 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
@@ -2197,6 +2191,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3917,71 +3914,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="VENTAS HUEVO"/>
-      <sheetName val="VENTA BORREGO"/>
-      <sheetName val="VENTAS CERDO"/>
-      <sheetName val="COSTO CERDO"/>
-      <sheetName val="COSTO BORREGO"/>
-      <sheetName val="COSTO HUEVO"/>
-      <sheetName val="MUERTES CERDO"/>
-      <sheetName val="MUERTE HUEVO"/>
-      <sheetName val="MUERTE BORREGO"/>
-      <sheetName val="NACIMIENTOS GALLINA"/>
-      <sheetName val="NACIMIENTOS CERDOS"/>
-      <sheetName val="NACIMIENTO BORREGO"/>
-      <sheetName val="BORREGGASTOS DIRECTOS-EN CORRAL"/>
-      <sheetName val="HUEVO GAST DIRECTO- EN CORRAL "/>
-      <sheetName val="VENTA CERDOS GRANJA"/>
-      <sheetName val="INSUMOS CERDO"/>
-      <sheetName val="VENTAS TOTALES"/>
-      <sheetName val="INSUMOS AVE"/>
-      <sheetName val="MEDICAMENTO GENERAL FORMULACION"/>
-      <sheetName val="CONSUMO GRANO-PASTAS"/>
-      <sheetName val="GASTOS CERDO"/>
-      <sheetName val="GASTOS AVES"/>
-      <sheetName val="SUELDOS Y SALARIOS AVES"/>
-      <sheetName val="SUELDOS Y SALARIOS CERDO"/>
-      <sheetName val="SUELDOS Y SALARIOS BORREGOS"/>
-      <sheetName val="ALIMENTOS FORMULA AVES"/>
-      <sheetName val="ALIMENTOS FORMULAS CERDOS "/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB0CB5FE-EC69-4A3C-B7F8-2A2B829875A7}" name="VentaCerdo" displayName="VentaCerdo" ref="A3:M139" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="A3:M139" xr:uid="{C9EBBED2-E078-4EE1-9F48-7C43C603BD9F}"/>
@@ -4014,7 +3946,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:V4" totalsRowShown="0" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:V4" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="P3:V4" xr:uid="{F3E1A5D4-2206-4A5B-8082-DCC730185F04}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F593C191-662A-4A08-9C07-3BC417717AF5}" name="AÑO">
@@ -4026,17 +3958,17 @@
     <tableColumn id="3" xr3:uid="{AC94EA02-7DE1-43F2-9333-779EF3503D3B}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NB[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="X3:AD4" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="X3:AD4" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="X3:AD4" xr:uid="{C07E5018-4C77-46A8-A50B-107FA9C88156}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1E8E5BF2-508C-417D-BE57-3AACF0C714C5}" name="AÑO">
@@ -4048,42 +3980,42 @@
     <tableColumn id="3" xr3:uid="{0BD97616-9EFF-4FF6-9E9B-D9B72CED3912}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MB[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73802A7C-9467-411F-9B9E-19B18579D18D}" name="InfoBorrego" displayName="InfoBorrego" ref="A2:N44" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73802A7C-9467-411F-9B9E-19B18579D18D}" name="InfoBorrego" displayName="InfoBorrego" ref="A2:N44" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A2:N44" xr:uid="{4C07E7EB-F7E2-4DFC-BEF6-4C6501D45968}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N41">
     <sortCondition ref="D2:D41"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{25DB43AE-6CB5-4052-9309-BB1A746C2B8A}" name="Año" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{25DB43AE-6CB5-4052-9309-BB1A746C2B8A}" name="Año" dataDxfId="40">
       <calculatedColumnFormula>YEAR(InfoBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B9143660-3AB8-467B-8920-CB6CB4D2AE62}" name="Mes" dataDxfId="41">
+    <tableColumn id="2" xr3:uid="{B9143660-3AB8-467B-8920-CB6CB4D2AE62}" name="Mes" dataDxfId="39">
       <calculatedColumnFormula>MONTH(InfoBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AD20FB6D-7BA0-4707-ADAF-18C68FD3089A}" name="Semana" dataDxfId="40">
+    <tableColumn id="3" xr3:uid="{AD20FB6D-7BA0-4707-ADAF-18C68FD3089A}" name="Semana" dataDxfId="38">
       <calculatedColumnFormula>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18D75885-EEF0-4220-823D-4DA7DDF39375}" name="FECHA" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{43C2662C-CE7E-4866-957A-930698AB7A66}" name="PZA / CABEZA" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{B36A48EC-1A46-443B-B51A-33AD0D405A7B}" name="Granja" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{45BC65EB-537A-46EE-A94D-E1B7DA25F506}" name="Kilos Total B" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{B13E5F32-1CBF-4933-9A8F-8BD77BB84FD1}" name="Kilos Cancelados B" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{13DF204B-F704-4C3D-9381-D61A397A889E}" name="Cabezas Salidas B" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{27CA73FF-4927-4DCD-B37A-432278B1E1F4}" name="Cabezas Entradas B" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{FDAD35B4-C441-497A-A2DE-3236A7DFCE37}" name="Importe Ventas B" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{C3E0BFB5-AFCA-4C46-A1D9-EFB178AD5EEE}" name="Importe Costos B" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{B77506E4-D768-4D48-8C92-80B9A5A43275}" name="No. Ventas B" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{CEA4441E-EC83-441E-B023-EBEADC5A7A4F}" name="No. Cancelaciones B" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{18D75885-EEF0-4220-823D-4DA7DDF39375}" name="FECHA" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{43C2662C-CE7E-4866-957A-930698AB7A66}" name="PZA / CABEZA" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{B36A48EC-1A46-443B-B51A-33AD0D405A7B}" name="Granja" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{45BC65EB-537A-46EE-A94D-E1B7DA25F506}" name="Kilos Total B" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{B13E5F32-1CBF-4933-9A8F-8BD77BB84FD1}" name="Kilos Cancelados B" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{13DF204B-F704-4C3D-9381-D61A397A889E}" name="Cabezas Salidas B" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{27CA73FF-4927-4DCD-B37A-432278B1E1F4}" name="Cabezas Entradas B" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{FDAD35B4-C441-497A-A2DE-3236A7DFCE37}" name="Importe Ventas B" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{C3E0BFB5-AFCA-4C46-A1D9-EFB178AD5EEE}" name="Importe Costos B" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{B77506E4-D768-4D48-8C92-80B9A5A43275}" name="No. Ventas B" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{CEA4441E-EC83-441E-B023-EBEADC5A7A4F}" name="No. Cancelaciones B" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4100,10 +4032,10 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="C1:C6" xr:uid="{79BD6A38-95D5-48F5-B30F-01B067AA4A61}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4202,10 +4134,10 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="C1:C8" xr:uid="{750FC6F7-70F6-4B4E-96D7-A30F50A00065}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4252,27 +4184,27 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="M1:M25" xr:uid="{066AC525-C68B-40D3-AE6B-D275A0A79615}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="O1:O8" xr:uid="{5D329DB3-7365-4EEF-8F0E-32C5AD338BA4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="Q1:Q4" xr:uid="{B76C3F68-F66F-46E8-9784-B4AAADE438F9}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7AF09891-3B17-4F67-912C-FAE5416AB3EF}" name="Unidad"/>
@@ -4344,10 +4276,10 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{14BF97AA-514C-43B8-ACBF-8377CC8F9163}" name="DMB" displayName="DMB" ref="I1:I2" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{14BF97AA-514C-43B8-ACBF-8377CC8F9163}" name="DMB" displayName="DMB" ref="I1:I2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="I1:I2" xr:uid="{7AB45DB3-5E72-4F44-A776-E252D9E90DB7}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4AF18E02-4261-4B0E-844D-1655706EFC80}" name="Descripción" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4AF18E02-4261-4B0E-844D-1655706EFC80}" name="Descripción" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4423,21 +4355,21 @@
     <tableColumn id="2" xr3:uid="{C4348503-323D-43E8-8270-63F3FB635C31}" name="Mes">
       <calculatedColumnFormula>MONTH(RecoleccionHuevo[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B97B1594-D27C-4255-B30B-9D3C3FCE7D1F}" name="Semana" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{B97B1594-D27C-4255-B30B-9D3C3FCE7D1F}" name="Semana" dataDxfId="67">
       <calculatedColumnFormula>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F575BA58-C636-4CCE-AEC8-386F16DEDFFA}" name="Fecha" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{F575BA58-C636-4CCE-AEC8-386F16DEDFFA}" name="Fecha" dataDxfId="66"/>
     <tableColumn id="5" xr3:uid="{D6F82851-3690-4182-8BD9-4BE245CA5B59}" name="Bodega Origen"/>
-    <tableColumn id="6" xr3:uid="{F0B3184E-20DE-4D34-8B90-DB4940FA096B}" name="Cantidad" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{9D264A97-0E03-44D4-AE76-4CD1B7BAA7FD}" name="Kilos" dataDxfId="65"/>
-    <tableColumn id="9" xr3:uid="{89B76523-86A1-41BF-B81B-2D6DD4F17AEE}" name="Cajas" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F0B3184E-20DE-4D34-8B90-DB4940FA096B}" name="Cantidad" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{9D264A97-0E03-44D4-AE76-4CD1B7BAA7FD}" name="Kilos" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{89B76523-86A1-41BF-B81B-2D6DD4F17AEE}" name="Cajas" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{49922715-EB52-4A65-91E4-0475F5534B83}" name="NH" displayName="NH" ref="V3:AB4" totalsRowShown="0" headerRowDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{49922715-EB52-4A65-91E4-0475F5534B83}" name="NH" displayName="NH" ref="V3:AB4" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="V3:AB4" xr:uid="{9E909787-7729-4B69-B0D7-61A481011055}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BB52ECF0-F2EE-4B65-A7D9-9EDA649B5891}" name="AÑO">
@@ -4449,17 +4381,17 @@
     <tableColumn id="3" xr3:uid="{40E66E16-55FD-40FD-8212-C14977333B21}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NH[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4DAFF2EC-25FE-4925-B214-00D322A9AC67}" name="Fecha" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{5EA58C44-0B6E-4368-8DCF-6D66196470FC}" name="Descripción" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{97EB3DE5-BB67-459C-B513-658E8D859B6B}" name="Almacén" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{6E7BB089-A777-4CF9-A575-1F853606112B}" name="Entrada" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{4DAFF2EC-25FE-4925-B214-00D322A9AC67}" name="Fecha" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{5EA58C44-0B6E-4368-8DCF-6D66196470FC}" name="Descripción" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{97EB3DE5-BB67-459C-B513-658E8D859B6B}" name="Almacén" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{6E7BB089-A777-4CF9-A575-1F853606112B}" name="Entrada" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AD3:AJ4" totalsRowShown="0" headerRowDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AD3:AJ4" totalsRowShown="0" headerRowDxfId="57">
   <autoFilter ref="AD3:AJ4" xr:uid="{8AC8429F-5A18-4F92-8A2F-B1AB086595B2}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2909D7D7-7DF1-42BB-B6A6-7E79BD333390}" name="AÑO">
@@ -4471,10 +4403,10 @@
     <tableColumn id="3" xr3:uid="{5BE7723A-8CFB-4D4C-B93F-00B4E59A0013}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MH[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4769,8 +4701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM140"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AM2"/>
+    <sheetView topLeftCell="D130" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4811,44 +4743,44 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
+      <c r="D1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
     </row>
     <row r="2" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -4879,14 +4811,14 @@
       <c r="AA2" s="51"/>
       <c r="AB2" s="51"/>
       <c r="AC2" s="51"/>
-      <c r="AH2" s="59" t="s">
+      <c r="AH2" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -11142,76 +11074,76 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
     </row>
     <row r="2" spans="1:46" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="M2" s="57" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="M2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
       <c r="Y2" s="52" t="s">
         <v>61</v>
       </c>
@@ -11224,14 +11156,14 @@
       <c r="AH2" s="51"/>
       <c r="AI2" s="51"/>
       <c r="AJ2" s="51"/>
-      <c r="AO2" s="59" t="s">
+      <c r="AO2" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -22304,8 +22236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4E6DD1-DFC3-45C9-9E3B-A4985EE15B0A}">
   <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="P1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22322,7 +22254,7 @@
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="11.42578125" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -22332,35 +22264,35 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
     </row>
     <row r="2" spans="1:30" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -24347,32 +24279,26 @@
       <c r="F42" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="42" t="e">
-        <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H42" s="42" t="e">
-        <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Entrada*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I42" s="42" t="e">
-        <f>SUMIFS([1]!Tabla28[Salida],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
+      <c r="G42" s="42">
+        <v>641</v>
+      </c>
+      <c r="H42" s="42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="42">
+        <v>17</v>
       </c>
       <c r="J42" s="42">
         <v>0</v>
       </c>
-      <c r="K42" s="43" t="e">
-        <f>SUMIFS([1]!Tabla28[Importe Venta],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L42" s="43" t="e">
-        <f>SUMIFS([1]!Tabla28[Importe Costo],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M42" s="44" t="e">
-        <f>COUNTIFS([1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
+      <c r="K42" s="43">
+        <v>-25034</v>
+      </c>
+      <c r="L42" s="43">
+        <v>-39439.262999999992</v>
+      </c>
+      <c r="M42" s="44">
+        <v>3</v>
       </c>
       <c r="N42" s="44">
         <v>0</v>
@@ -24400,32 +24326,26 @@
       <c r="F43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="42" t="e">
-        <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H43" s="42" t="e">
-        <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Entrada*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I43" s="42" t="e">
-        <f>SUMIFS([1]!Tabla28[Salida],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
+      <c r="G43" s="42">
+        <v>877</v>
+      </c>
+      <c r="H43" s="42">
+        <v>0</v>
+      </c>
+      <c r="I43" s="42">
+        <v>25</v>
       </c>
       <c r="J43" s="42">
         <v>0</v>
       </c>
-      <c r="K43" s="42" t="e">
-        <f>SUMIFS([1]!Tabla28[Importe Venta],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L43" s="42" t="e">
-        <f>SUMIFS([1]!Tabla28[Importe Costo],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M43" s="44" t="e">
-        <f>COUNTIFS([1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
+      <c r="K43" s="42">
+        <v>-34203</v>
+      </c>
+      <c r="L43" s="42">
+        <v>-59059.222000000002</v>
+      </c>
+      <c r="M43" s="44">
+        <v>1</v>
       </c>
       <c r="N43" s="44">
         <v>0</v>
@@ -24453,33 +24373,26 @@
       <c r="F44" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="46" t="e">
-        <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H44" s="46" t="e">
-        <f>SUMIFS([1]!Tabla28[Kilos],[1]!Tabla28[Tipo de movimiento],"Entrada*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I44" s="46" t="e">
-        <f>SUMIFS([1]!Tabla28[Salida],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J44" s="46" t="e">
-        <f>SUMIFS([1]!Tabla28[Salida],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K44" s="46" t="e">
-        <f>SUMIFS([1]!Tabla28[Importe Venta],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L44" s="46" t="e">
-        <f>SUMIFS([1]!Tabla28[Importe Costo],[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M44" s="47" t="e">
-        <f>COUNTIFS([1]!Tabla28[Tipo de movimiento],"Salida por facturación*",[1]!Tabla28[Almacén],[1]!VentaBorrego[[#This Row],[Granja]],[1]!Tabla28[Unidad],[1]!VentaBorrego[[#This Row],[PZA / CABEZA]],[1]!Tabla28[año],[1]!VentaBorrego[[#This Row],[Año]],[1]!Tabla28[mes],[1]!VentaBorrego[[#This Row],[Mes]],[1]!Tabla28[sem],[1]!VentaBorrego[[#This Row],[Semana]])</f>
-        <v>#REF!</v>
+      <c r="G44" s="46">
+        <v>582</v>
+      </c>
+      <c r="H44" s="46">
+        <v>0</v>
+      </c>
+      <c r="I44" s="46">
+        <v>12</v>
+      </c>
+      <c r="J44" s="46">
+        <v>12</v>
+      </c>
+      <c r="K44" s="46">
+        <v>-16296</v>
+      </c>
+      <c r="L44" s="46">
+        <v>0</v>
+      </c>
+      <c r="M44" s="47">
+        <v>1</v>
       </c>
       <c r="N44" s="47"/>
     </row>

--- a/GV/RegistroInformacion.xlsx
+++ b/GV/RegistroInformacion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC19BB0D-A35D-442C-86D0-1D4DA3B2DDF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8268D4-A6C2-4461-B6E7-5B8FF18178CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CERDO" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,10 @@
     <sheet name="ListasHuevo" sheetId="5" r:id="rId5"/>
     <sheet name="ListasBorrego" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -116,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="165">
   <si>
     <t>CERDOS</t>
   </si>
@@ -925,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1014,6 +1005,7 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3439,8 +3431,8 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>364200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>291664</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2104</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4320,8 +4312,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K106" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A3:K106" xr:uid="{D4382671-7652-40D0-940C-E955EF481B0A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K108" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A3:K108" xr:uid="{D4382671-7652-40D0-940C-E955EF481B0A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{FD9F0EF0-AAEC-44EF-B652-AEE3A7B1514D}" name="Año" dataDxfId="81">
       <calculatedColumnFormula>YEAR(VentaHuevo[[#This Row],[FECHA]])</calculatedColumnFormula>
@@ -4705,41 +4697,41 @@
       <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="15" max="16" width="9.109375" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="13" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" customWidth="1"/>
+    <col min="23" max="25" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="9.33203125" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4782,7 +4774,7 @@
       <c r="AL1" s="55"/>
       <c r="AM1" s="55"/>
     </row>
-    <row r="2" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4820,7 +4812,7 @@
       <c r="AL2" s="54"/>
       <c r="AM2" s="54"/>
     </row>
-    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4931,7 +4923,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5020,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5064,7 +5056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5108,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5152,7 +5144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5196,7 +5188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5240,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5284,7 +5276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5328,7 +5320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5372,7 +5364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5416,7 +5408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5460,7 +5452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5504,7 +5496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5548,7 +5540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5592,7 +5584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5636,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5680,7 +5672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5724,7 +5716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5768,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5812,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5856,7 +5848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5900,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5944,7 +5936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5988,7 +5980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6032,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6076,7 +6068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6120,7 +6112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6164,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6208,7 +6200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6252,7 +6244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6296,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6340,7 +6332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6384,7 +6376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6428,7 +6420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6472,7 +6464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6516,7 +6508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6560,7 +6552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6604,7 +6596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6648,7 +6640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6692,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6736,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6780,7 +6772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6824,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6868,7 +6860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6912,7 +6904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6956,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7000,7 +6992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7044,7 +7036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7088,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7132,7 +7124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7176,7 +7168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7220,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7264,7 +7256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7308,7 +7300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7352,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7396,7 +7388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7440,7 +7432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7484,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7528,7 +7520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7572,7 +7564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7616,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7660,7 +7652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7704,7 +7696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7748,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7792,7 +7784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7836,7 +7828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7880,7 +7872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7924,7 +7916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7968,7 +7960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8012,7 +8004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8056,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8100,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8144,7 +8136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8188,7 +8180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8232,7 +8224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8276,7 +8268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8320,7 +8312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8364,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8408,7 +8400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8452,7 +8444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8496,7 +8488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8540,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8584,7 +8576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8628,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8672,7 +8664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8716,7 +8708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8760,7 +8752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8804,7 +8796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8848,7 +8840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8892,7 +8884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8936,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8980,7 +8972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9024,7 +9016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9068,7 +9060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9112,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9156,7 +9148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9200,7 +9192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9244,7 +9236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9288,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9332,7 +9324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9376,7 +9368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9420,7 +9412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9464,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9508,7 +9500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9552,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9596,7 +9588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9640,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9684,7 +9676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9728,7 +9720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9772,7 +9764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9816,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9860,7 +9852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9904,7 +9896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9948,7 +9940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9992,7 +9984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -10036,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -10080,7 +10072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -10124,7 +10116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -10168,7 +10160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -10212,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10256,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10300,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10344,7 +10336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10388,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10432,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10476,7 +10468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10520,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10564,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10608,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10652,7 +10644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10696,7 +10688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10740,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10784,7 +10776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10828,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10872,7 +10864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10916,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="36">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -10960,7 +10952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D140" s="26"/>
     </row>
   </sheetData>
@@ -11042,35 +11034,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499E0046-CD30-4A1D-8AF4-5FE2DD615F25}">
   <dimension ref="A1:AT248"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AQ7" sqref="AQ7"/>
+    <sheetView tabSelected="1" topLeftCell="H86" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="22" max="24" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11120,7 +11112,7 @@
       <c r="AS1" s="56"/>
       <c r="AT1" s="56"/>
     </row>
-    <row r="2" spans="1:46" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -11165,7 +11157,7 @@
       <c r="AS2" s="54"/>
       <c r="AT2" s="54"/>
     </row>
-    <row r="3" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -11293,7 +11285,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -11402,7 +11394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -11467,7 +11459,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -11532,7 +11524,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -11597,7 +11589,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -11662,7 +11654,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -11727,7 +11719,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -11792,7 +11784,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -11857,7 +11849,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -11922,7 +11914,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -11987,7 +11979,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12052,7 +12044,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12117,7 +12109,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12182,7 +12174,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12247,7 +12239,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12312,7 +12304,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12377,7 +12369,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12442,7 +12434,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12507,7 +12499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12572,7 +12564,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12637,7 +12629,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12702,7 +12694,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12767,7 +12759,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12832,7 +12824,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12897,7 +12889,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -12962,7 +12954,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -13027,7 +13019,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -13092,7 +13084,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -13157,7 +13149,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -13222,7 +13214,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -13287,7 +13279,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -13352,7 +13344,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -13417,7 +13409,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -13482,7 +13474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -13547,7 +13539,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -13612,7 +13604,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -13677,7 +13669,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -13742,7 +13734,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -13807,7 +13799,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -13872,7 +13864,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -13937,7 +13929,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14002,7 +13994,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14067,7 +14059,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14132,7 +14124,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14197,7 +14189,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14262,7 +14254,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14327,7 +14319,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14392,7 +14384,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14457,7 +14449,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14522,7 +14514,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14587,7 +14579,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14652,7 +14644,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14717,7 +14709,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14782,7 +14774,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14847,7 +14839,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14912,7 +14904,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -14977,7 +14969,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -15042,7 +15034,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -15107,7 +15099,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -15172,7 +15164,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -15237,7 +15229,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -15302,7 +15294,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -15367,7 +15359,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -15432,7 +15424,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -15497,7 +15489,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -15562,7 +15554,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -15627,7 +15619,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -15692,7 +15684,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15757,7 +15749,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15822,7 +15814,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15887,7 +15879,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15952,7 +15944,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16017,7 +16009,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16082,7 +16074,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16147,7 +16139,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16212,7 +16204,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16277,7 +16269,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16342,7 +16334,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16407,7 +16399,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16472,7 +16464,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16537,7 +16529,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16602,7 +16594,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16667,7 +16659,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16732,7 +16724,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16797,7 +16789,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16862,7 +16854,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16927,7 +16919,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -16992,7 +16984,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17057,7 +17049,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17122,7 +17114,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17187,7 +17179,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17252,7 +17244,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17317,7 +17309,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17382,7 +17374,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17447,7 +17439,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17512,7 +17504,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17577,7 +17569,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17642,7 +17634,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17707,7 +17699,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17772,7 +17764,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17837,7 +17829,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17902,7 +17894,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -17967,7 +17959,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -18032,7 +18024,43 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="36">
+        <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B107" s="36">
+        <f>MONTH(VentaHuevo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C107" s="36">
+        <f>WEEKNUM(VentaHuevo[[#This Row],[FECHA]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="D107" s="60">
+        <v>44197</v>
+      </c>
+      <c r="E107" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" s="42">
+        <v>5723</v>
+      </c>
+      <c r="G107" s="42">
+        <v>0</v>
+      </c>
+      <c r="H107" s="42">
+        <v>3026510.35</v>
+      </c>
+      <c r="I107" s="42">
+        <v>2039492.29</v>
+      </c>
+      <c r="J107" s="42">
+        <v>249</v>
+      </c>
+      <c r="K107" s="42">
+        <v>0</v>
+      </c>
       <c r="M107">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18061,7 +18089,43 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="36">
+        <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
+        <v>2021</v>
+      </c>
+      <c r="B108" s="36">
+        <f>MONTH(VentaHuevo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C108" s="36">
+        <f>WEEKNUM(VentaHuevo[[#This Row],[FECHA]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="D108" s="60">
+        <v>44197</v>
+      </c>
+      <c r="E108" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="42">
+        <v>415</v>
+      </c>
+      <c r="G108" s="42">
+        <v>0</v>
+      </c>
+      <c r="H108" s="42">
+        <v>219098.25</v>
+      </c>
+      <c r="I108" s="42">
+        <v>174190.99799999999</v>
+      </c>
+      <c r="J108" s="42">
+        <v>16</v>
+      </c>
+      <c r="K108" s="42">
+        <v>0</v>
+      </c>
       <c r="M108">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18090,7 +18154,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M109">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18119,7 +18183,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M110">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18148,7 +18212,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M111">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18177,7 +18241,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M112">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18206,7 +18270,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="113" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M113">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18235,7 +18299,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="114" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M114">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18264,7 +18328,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="115" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M115">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18293,7 +18357,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="116" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M116">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18322,7 +18386,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="117" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M117">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18351,7 +18415,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="118" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M118">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18380,7 +18444,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="119" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M119">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18409,7 +18473,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M120">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18438,7 +18502,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="121" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M121">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18467,7 +18531,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="122" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M122">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18496,7 +18560,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="123" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M123">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18525,7 +18589,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="124" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M124">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18554,7 +18618,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="125" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M125">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18583,7 +18647,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="126" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M126">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18612,7 +18676,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="127" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M127">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18641,7 +18705,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="128" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M128">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18670,7 +18734,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="129" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M129">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18699,7 +18763,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="130" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M130">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18728,7 +18792,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="131" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M131">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18757,7 +18821,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="132" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M132">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18786,7 +18850,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="133" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M133">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18815,7 +18879,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="134" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M134">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18844,7 +18908,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="135" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M135">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18873,7 +18937,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="136" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M136">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18902,7 +18966,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="137" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M137">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18931,7 +18995,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="138" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M138">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18960,7 +19024,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="139" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M139">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -18989,7 +19053,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="140" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M140">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19018,7 +19082,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="141" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M141">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19047,7 +19111,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="142" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M142">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19076,7 +19140,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="143" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M143">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19105,7 +19169,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="144" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M144">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19134,7 +19198,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="145" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M145">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19163,7 +19227,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="146" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M146">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19192,7 +19256,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="147" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M147">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19221,7 +19285,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="148" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M148">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19250,7 +19314,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="149" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M149">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19279,7 +19343,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="150" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M150">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19308,7 +19372,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="151" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M151">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19337,7 +19401,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="152" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M152">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19366,7 +19430,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="153" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M153">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19395,7 +19459,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="154" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M154">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19424,7 +19488,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="155" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M155">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19453,7 +19517,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="156" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M156">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19482,7 +19546,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="157" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M157">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19511,7 +19575,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M158">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19540,7 +19604,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="159" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M159">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19569,7 +19633,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="160" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M160">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19598,7 +19662,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="161" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M161">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19627,7 +19691,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="162" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M162">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19656,7 +19720,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="163" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M163">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19685,7 +19749,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="164" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M164">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19714,7 +19778,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="165" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M165">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -19743,7 +19807,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="166" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M166">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -19772,7 +19836,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="167" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M167">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -19801,7 +19865,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="168" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M168">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -19830,7 +19894,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="169" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M169">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -19859,7 +19923,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M170">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -19888,7 +19952,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="171" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M171">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -19917,7 +19981,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="172" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M172">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -19946,7 +20010,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="173" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M173">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -19975,7 +20039,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="174" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M174">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20004,7 +20068,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="175" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M175">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20033,7 +20097,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="176" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M176">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20062,7 +20126,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="177" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M177">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20091,7 +20155,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="178" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M178">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20120,7 +20184,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="179" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M179">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20149,7 +20213,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="180" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M180">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20178,7 +20242,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="181" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M181">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20207,7 +20271,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="182" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M182">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20236,7 +20300,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="183" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M183">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20265,7 +20329,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="184" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M184">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20294,7 +20358,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="185" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M185">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20323,7 +20387,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="186" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M186">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20352,7 +20416,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="187" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M187">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20381,7 +20445,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="188" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M188">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20410,7 +20474,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="189" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M189">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20439,7 +20503,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="190" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M190">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20468,7 +20532,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="191" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M191">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20497,7 +20561,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="192" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M192">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20526,7 +20590,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="193" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M193">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20555,7 +20619,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="194" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M194">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20584,7 +20648,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="195" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M195">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20613,7 +20677,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="196" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M196">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20642,7 +20706,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="197" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M197">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20671,7 +20735,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="198" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M198">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20700,7 +20764,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="199" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M199">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20729,7 +20793,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="200" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M200">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20758,7 +20822,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="201" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M201">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20787,7 +20851,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="202" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M202">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20816,7 +20880,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="203" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M203">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20845,7 +20909,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="204" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M204">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20874,7 +20938,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="205" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M205">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20903,7 +20967,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="206" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M206">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20932,7 +20996,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="207" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M207">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20961,7 +21025,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="208" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M208">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -20990,7 +21054,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="209" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M209">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21019,7 +21083,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="210" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M210">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21048,7 +21112,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="211" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M211">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21077,7 +21141,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="212" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M212">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21106,7 +21170,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="213" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M213">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21135,7 +21199,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="214" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M214">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21164,7 +21228,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="215" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M215">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21193,7 +21257,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="216" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M216">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21222,7 +21286,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="217" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M217">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21251,7 +21315,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="218" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M218">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21280,7 +21344,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="219" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M219">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21309,7 +21373,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="220" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M220">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21338,7 +21402,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="221" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M221">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21367,7 +21431,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="222" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M222">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21396,7 +21460,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="223" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M223">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21425,7 +21489,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="224" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M224">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21454,7 +21518,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="225" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M225">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21483,7 +21547,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="226" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M226">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21512,7 +21576,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="227" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M227">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21541,7 +21605,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="228" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M228">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21570,7 +21634,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="229" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M229">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21599,7 +21663,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="230" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M230">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21628,7 +21692,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="231" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M231">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21657,7 +21721,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="232" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M232">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21686,7 +21750,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="233" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M233">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21715,7 +21779,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="234" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M234">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21744,7 +21808,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="235" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M235">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21773,7 +21837,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="236" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M236">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21802,7 +21866,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="237" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M237">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21831,7 +21895,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="238" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M238">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21860,7 +21924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M239">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21889,7 +21953,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="240" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M240">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21918,7 +21982,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="241" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M241">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21947,7 +22011,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="242" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M242">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -21976,7 +22040,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="243" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M243">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -22005,7 +22069,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="244" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M244">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -22034,7 +22098,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="245" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M245">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -22063,7 +22127,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="246" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M246">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -22092,7 +22156,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="247" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M247">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -22121,7 +22185,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="248" spans="13:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="13:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M248">
         <f>YEAR(RecoleccionHuevo[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -22176,7 +22240,7 @@
           <x14:formula1>
             <xm:f>ListasHuevo!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E106</xm:sqref>
+          <xm:sqref>E4:E108</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8B8411C-08B5-4DC3-AFD3-A7B565E749A5}">
           <x14:formula1>
@@ -22236,31 +22300,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4E6DD1-DFC3-45C9-9E3B-A4985EE15B0A}">
   <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.44140625" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -22294,7 +22358,7 @@
       <c r="AC1" s="59"/>
       <c r="AD1" s="59"/>
     </row>
-    <row r="2" spans="1:30" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -22350,7 +22414,7 @@
       <c r="AC2" s="51"/>
       <c r="AD2" s="51"/>
     </row>
-    <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -22439,7 +22503,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -22518,7 +22582,7 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
     </row>
-    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -22565,7 +22629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -22612,7 +22676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -22659,7 +22723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -22706,7 +22770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -22753,7 +22817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -22800,7 +22864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -22847,7 +22911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -22894,7 +22958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -22941,7 +23005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -22988,7 +23052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -23035,7 +23099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -23082,7 +23146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -23129,7 +23193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -23176,7 +23240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -23223,7 +23287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -23270,7 +23334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -23317,7 +23381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -23364,7 +23428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -23411,7 +23475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -23458,7 +23522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -23505,7 +23569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -23552,7 +23616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -23599,7 +23663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -23646,7 +23710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -23693,7 +23757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -23740,7 +23804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -23787,7 +23851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -23834,7 +23898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -23881,7 +23945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -23928,7 +23992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -23975,7 +24039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -24022,7 +24086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -24069,7 +24133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -24116,7 +24180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -24163,7 +24227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -24210,7 +24274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -24257,7 +24321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="36">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -24304,7 +24368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="36">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -24351,7 +24415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="45">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -24462,14 +24526,14 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -24495,7 +24559,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -24521,7 +24585,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -24547,7 +24611,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -24573,7 +24637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -24593,7 +24657,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6" s="28" t="s">
         <v>57</v>
       </c>
@@ -24610,7 +24674,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K7" t="s">
         <v>97</v>
       </c>
@@ -24618,7 +24682,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
         <v>99</v>
       </c>
@@ -24626,7 +24690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
         <v>100</v>
       </c>
@@ -24634,7 +24698,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>102</v>
       </c>
@@ -24642,7 +24706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K11" t="s">
         <v>103</v>
       </c>
@@ -24650,7 +24714,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K12" t="s">
         <v>105</v>
       </c>
@@ -24658,102 +24722,102 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K26" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K31" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K32" t="s">
         <v>125</v>
       </c>
@@ -24781,16 +24845,16 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -24819,7 +24883,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -24848,7 +24912,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -24877,7 +24941,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -24906,7 +24970,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="23" t="s">
         <v>31</v>
       </c>
@@ -24929,7 +24993,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="22" t="s">
         <v>30</v>
       </c>
@@ -24949,7 +25013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="23" t="s">
         <v>28</v>
       </c>
@@ -24966,7 +25030,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="24" t="s">
         <v>26</v>
       </c>
@@ -24983,7 +25047,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>77</v>
       </c>
@@ -24994,7 +25058,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
         <v>78</v>
       </c>
@@ -25005,7 +25069,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K11" t="s">
         <v>86</v>
       </c>
@@ -25013,72 +25077,72 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M12" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M13" s="22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M14" s="22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M15" s="22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M16" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M17" s="23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M18" s="22" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M19" s="23" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M20" s="22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M21" s="23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M22" s="22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M23" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M24" s="23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M25" s="24" t="s">
         <v>154</v>
       </c>
@@ -25107,13 +25171,13 @@
       <selection activeCell="K1" sqref="K1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -25133,7 +25197,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -25153,7 +25217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -25170,7 +25234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -25181,7 +25245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>10</v>
       </c>
@@ -25189,7 +25253,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -25197,7 +25261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
         <v>45</v>
       </c>

--- a/GV/RegistroInformacion.xlsx
+++ b/GV/RegistroInformacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A343A43-A833-4C02-A305-CD2F89429650}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE29D860-23D2-46B5-9F26-ED9B67B944FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="165">
   <si>
     <t>CERDOS</t>
   </si>
@@ -925,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -986,12 +986,7 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -999,6 +994,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1010,19 +1011,24 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1122,98 +1128,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2058,12 +1973,50 @@
       <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     </dxf>
     <dxf>
       <font>
@@ -2226,12 +2179,50 @@
       <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     </dxf>
     <dxf>
       <font>
@@ -2603,6 +2594,78 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -2758,14 +2821,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2785,61 +2840,12 @@
       <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3450,7 +3456,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>173515</xdr:colOff>
+      <xdr:colOff>173516</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2249</xdr:rowOff>
     </xdr:to>
@@ -4069,7 +4075,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:W4" totalsRowShown="0" headerRowDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:W4" totalsRowShown="0" headerRowDxfId="59">
   <autoFilter ref="P3:W4" xr:uid="{F3E1A5D4-2206-4A5B-8082-DCC730185F04}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F593C191-662A-4A08-9C07-3BC417717AF5}" name="AÑO">
@@ -4081,18 +4087,18 @@
     <tableColumn id="3" xr3:uid="{AC94EA02-7DE1-43F2-9333-779EF3503D3B}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NB[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{B55103E2-E464-41CC-B7AF-504AF054E128}" name="Costo" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{B55103E2-E464-41CC-B7AF-504AF054E128}" name="Costo" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="Y3:AF4" totalsRowShown="0" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="Y3:AF4" totalsRowShown="0" headerRowDxfId="53">
   <autoFilter ref="Y3:AF4" xr:uid="{C07E5018-4C77-46A8-A50B-107FA9C88156}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1E8E5BF2-508C-417D-BE57-3AACF0C714C5}" name="AÑO">
@@ -4104,43 +4110,43 @@
     <tableColumn id="3" xr3:uid="{0BD97616-9EFF-4FF6-9E9B-D9B72CED3912}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MB[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{4472A864-2AC2-45C2-9FD8-9DA2835143D6}" name="Costo" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{4472A864-2AC2-45C2-9FD8-9DA2835143D6}" name="Costo" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73802A7C-9467-411F-9B9E-19B18579D18D}" name="InfoBorrego" displayName="InfoBorrego" ref="A2:N44" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73802A7C-9467-411F-9B9E-19B18579D18D}" name="InfoBorrego" displayName="InfoBorrego" ref="A2:N44" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A2:N44" xr:uid="{4C07E7EB-F7E2-4DFC-BEF6-4C6501D45968}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N41">
     <sortCondition ref="D2:D41"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{25DB43AE-6CB5-4052-9309-BB1A746C2B8A}" name="Año" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{25DB43AE-6CB5-4052-9309-BB1A746C2B8A}" name="Año" dataDxfId="45">
       <calculatedColumnFormula>YEAR(InfoBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B9143660-3AB8-467B-8920-CB6CB4D2AE62}" name="Mes" dataDxfId="48">
+    <tableColumn id="2" xr3:uid="{B9143660-3AB8-467B-8920-CB6CB4D2AE62}" name="Mes" dataDxfId="44">
       <calculatedColumnFormula>MONTH(InfoBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AD20FB6D-7BA0-4707-ADAF-18C68FD3089A}" name="Semana" dataDxfId="47">
+    <tableColumn id="3" xr3:uid="{AD20FB6D-7BA0-4707-ADAF-18C68FD3089A}" name="Semana" dataDxfId="43">
       <calculatedColumnFormula>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18D75885-EEF0-4220-823D-4DA7DDF39375}" name="FECHA" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{43C2662C-CE7E-4866-957A-930698AB7A66}" name="PZA / CABEZA" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{B36A48EC-1A46-443B-B51A-33AD0D405A7B}" name="Granja" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{45BC65EB-537A-46EE-A94D-E1B7DA25F506}" name="Kilos Total B" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{B13E5F32-1CBF-4933-9A8F-8BD77BB84FD1}" name="Kilos Cancelados B" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{13DF204B-F704-4C3D-9381-D61A397A889E}" name="Cabezas Salidas B" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{27CA73FF-4927-4DCD-B37A-432278B1E1F4}" name="Cabezas Entradas B" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{FDAD35B4-C441-497A-A2DE-3236A7DFCE37}" name="Importe Ventas B" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{C3E0BFB5-AFCA-4C46-A1D9-EFB178AD5EEE}" name="Importe Costos B" dataDxfId="38"/>
-    <tableColumn id="13" xr3:uid="{B77506E4-D768-4D48-8C92-80B9A5A43275}" name="No. Ventas B" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{CEA4441E-EC83-441E-B023-EBEADC5A7A4F}" name="No. Cancelaciones B" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{18D75885-EEF0-4220-823D-4DA7DDF39375}" name="FECHA" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{43C2662C-CE7E-4866-957A-930698AB7A66}" name="PZA / CABEZA" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{B36A48EC-1A46-443B-B51A-33AD0D405A7B}" name="Granja" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{45BC65EB-537A-46EE-A94D-E1B7DA25F506}" name="Kilos Total B" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{B13E5F32-1CBF-4933-9A8F-8BD77BB84FD1}" name="Kilos Cancelados B" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{13DF204B-F704-4C3D-9381-D61A397A889E}" name="Cabezas Salidas B" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{27CA73FF-4927-4DCD-B37A-432278B1E1F4}" name="Cabezas Entradas B" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{FDAD35B4-C441-497A-A2DE-3236A7DFCE37}" name="Importe Ventas B" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{C3E0BFB5-AFCA-4C46-A1D9-EFB178AD5EEE}" name="Importe Costos B" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{B77506E4-D768-4D48-8C92-80B9A5A43275}" name="No. Ventas B" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{CEA4441E-EC83-441E-B023-EBEADC5A7A4F}" name="No. Cancelaciones B" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4157,10 +4163,10 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="35" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="C1:C6" xr:uid="{79BD6A38-95D5-48F5-B30F-01B067AA4A61}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4217,8 +4223,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7FA5903A-793D-41AF-927E-0E5AEF940163}" name="NC" displayName="NC" ref="O3:V4" totalsRowShown="0" headerRowDxfId="99">
-  <autoFilter ref="O3:V4" xr:uid="{02D5D0CD-EDA4-456A-A5E8-9F3730BDF858}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7FA5903A-793D-41AF-927E-0E5AEF940163}" name="NC" displayName="NC" ref="O3:V100" totalsRowShown="0" headerRowDxfId="99">
+  <autoFilter ref="O3:V100" xr:uid="{02D5D0CD-EDA4-456A-A5E8-9F3730BDF858}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C0348CA9-B923-4DF2-B7B8-6F0BEEF03B4F}" name="AÑO">
       <calculatedColumnFormula>YEAR(NC[[#This Row],[Fecha]])</calculatedColumnFormula>
@@ -4229,11 +4235,11 @@
     <tableColumn id="3" xr3:uid="{A92A8AB5-1C79-4CA4-B109-A49731842416}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NC[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1E2C6755-7899-4C5E-8849-9F4DEA103FB6}" name="Fecha" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{3E44B0DD-62A3-4C63-B2ED-8D9F754BC1C8}" name="Descripción" dataDxfId="97"/>
-    <tableColumn id="7" xr3:uid="{9FD31AF2-F6BB-40A9-A5EF-A7BE8C1EE096}" name="Almacén" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{D483493A-6942-4223-8114-7C47B876A768}" name="Entrada" dataDxfId="95"/>
-    <tableColumn id="8" xr3:uid="{272C56E8-53BB-4F5E-822F-DCF7EF3B0B03}" name="Costo" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1E2C6755-7899-4C5E-8849-9F4DEA103FB6}" name="Fecha" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{3E44B0DD-62A3-4C63-B2ED-8D9F754BC1C8}" name="Descripción" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9FD31AF2-F6BB-40A9-A5EF-A7BE8C1EE096}" name="Almacén" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D483493A-6942-4223-8114-7C47B876A768}" name="Entrada" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{272C56E8-53BB-4F5E-822F-DCF7EF3B0B03}" name="Costo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4260,10 +4266,10 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="32" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="C1:C8" xr:uid="{750FC6F7-70F6-4B4E-96D7-A30F50A00065}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4310,27 +4316,27 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="M1:M25" xr:uid="{066AC525-C68B-40D3-AE6B-D275A0A79615}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="O1:O8" xr:uid="{5D329DB3-7365-4EEF-8F0E-32C5AD338BA4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="Q1:Q4" xr:uid="{B76C3F68-F66F-46E8-9784-B4AAADE438F9}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7AF09891-3B17-4F67-912C-FAE5416AB3EF}" name="Unidad"/>
@@ -4340,7 +4346,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{1EEBF04B-5CA7-4B0A-ADFE-2A6A9768B634}" name="MC" displayName="MC" ref="X3:AE4" totalsRowShown="0" headerRowDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{1EEBF04B-5CA7-4B0A-ADFE-2A6A9768B634}" name="MC" displayName="MC" ref="X3:AE4" totalsRowShown="0" headerRowDxfId="98">
   <autoFilter ref="X3:AE4" xr:uid="{15203CCB-6A72-4C9E-82BA-A853B5165F17}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{99A49235-A43E-4B45-948E-613A29DBA5A6}" name="AÑO">
@@ -4352,11 +4358,11 @@
     <tableColumn id="3" xr3:uid="{CC8DCD94-2C62-421E-8A0B-4EE9F9AA0BA6}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MC[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057B6A06-06EB-4370-9C7D-67B564AB477C}" name="Fecha" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{F7D1F4AC-D899-4963-BC58-63184492E881}" name="Descripción" dataDxfId="92"/>
-    <tableColumn id="7" xr3:uid="{C424C129-BB09-45C4-8A52-C928098DD204}" name="Almacén" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{D7883101-3244-4BC1-AC2D-3BFB937551E5}" name="Salida" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{FF4DEFD2-915C-403C-AA9C-29CD60C65D91}" name="Costo" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{057B6A06-06EB-4370-9C7D-67B564AB477C}" name="Fecha" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{F7D1F4AC-D899-4963-BC58-63184492E881}" name="Descripción" dataDxfId="96"/>
+    <tableColumn id="7" xr3:uid="{C424C129-BB09-45C4-8A52-C928098DD204}" name="Almacén" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{D7883101-3244-4BC1-AC2D-3BFB937551E5}" name="Salida" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{FF4DEFD2-915C-403C-AA9C-29CD60C65D91}" name="Costo" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4403,10 +4409,10 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{14BF97AA-514C-43B8-ACBF-8377CC8F9163}" name="DMB" displayName="DMB" ref="I1:I2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{14BF97AA-514C-43B8-ACBF-8377CC8F9163}" name="DMB" displayName="DMB" ref="I1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="I1:I2" xr:uid="{7AB45DB3-5E72-4F44-A776-E252D9E90DB7}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4AF18E02-4261-4B0E-844D-1655706EFC80}" name="Descripción" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{4AF18E02-4261-4B0E-844D-1655706EFC80}" name="Descripción" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4447,23 +4453,23 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K108" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K108" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A3:K108" xr:uid="{D4382671-7652-40D0-940C-E955EF481B0A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K108">
     <sortCondition ref="D3:D108"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD9F0EF0-AAEC-44EF-B652-AEE3A7B1514D}" name="Año" dataDxfId="87">
+    <tableColumn id="1" xr3:uid="{FD9F0EF0-AAEC-44EF-B652-AEE3A7B1514D}" name="Año" dataDxfId="90">
       <calculatedColumnFormula>YEAR(VentaHuevo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{38DF3F1A-ECDF-4B36-9176-FD4C2215E738}" name="Mes" dataDxfId="86">
+    <tableColumn id="2" xr3:uid="{38DF3F1A-ECDF-4B36-9176-FD4C2215E738}" name="Mes" dataDxfId="89">
       <calculatedColumnFormula>MONTH(VentaHuevo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0806F8F4-F211-461B-8637-91E4CE806C4D}" name="Semana" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{0806F8F4-F211-461B-8637-91E4CE806C4D}" name="Semana" dataDxfId="88">
       <calculatedColumnFormula>WEEKNUM(VentaHuevo[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8434CCCE-DE27-4AE6-A002-E0E6CF045C72}" name="FECHA" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{779AD8B5-3C79-434E-A399-2FBAD1799E8D}" name="Postura" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8434CCCE-DE27-4AE6-A002-E0E6CF045C72}" name="FECHA" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{779AD8B5-3C79-434E-A399-2FBAD1799E8D}" name="Postura" dataDxfId="86"/>
     <tableColumn id="6" xr3:uid="{A97041C1-DD4A-498F-8E13-F603ABE564D9}" name="Kilos Total" dataDxfId="85"/>
     <tableColumn id="7" xr3:uid="{CC975B41-EAF3-4B15-B675-8C8CEAE44165}" name="Kilos Cancelados" dataDxfId="84"/>
     <tableColumn id="8" xr3:uid="{AC4B10C7-0849-4C4C-9BA5-AE8FB92493E2}" name="Importe Ventas" dataDxfId="83"/>
@@ -4515,14 +4521,14 @@
     <tableColumn id="5" xr3:uid="{5EA58C44-0B6E-4368-8DCF-6D66196470FC}" name="Descripción" dataDxfId="69"/>
     <tableColumn id="7" xr3:uid="{97EB3DE5-BB67-459C-B513-658E8D859B6B}" name="Almacén" dataDxfId="68"/>
     <tableColumn id="6" xr3:uid="{6E7BB089-A777-4CF9-A575-1F853606112B}" name="Entrada" dataDxfId="67"/>
-    <tableColumn id="8" xr3:uid="{0B588A93-6EAE-419E-B771-7F6C74A2FC4B}" name="Costo" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{0B588A93-6EAE-419E-B771-7F6C74A2FC4B}" name="Costo" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AE3:AL4" totalsRowShown="0" headerRowDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AE3:AL4" totalsRowShown="0" headerRowDxfId="65">
   <autoFilter ref="AE3:AL4" xr:uid="{8AC8429F-5A18-4F92-8A2F-B1AB086595B2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2909D7D7-7DF1-42BB-B6A6-7E79BD333390}" name="AÑO">
@@ -4534,11 +4540,11 @@
     <tableColumn id="3" xr3:uid="{5BE7723A-8CFB-4D4C-B93F-00B4E59A0013}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MH[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{F7A8830A-D216-41B6-9B84-81B835720899}" name="Costo" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{F7A8830A-D216-41B6-9B84-81B835720899}" name="Costo" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4833,8 +4839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q2" sqref="O1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4853,10 +4859,11 @@
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
     <col min="15" max="16" width="9.140625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="13" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.28515625" customWidth="1"/>
-    <col min="21" max="22" width="11.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="9.140625" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
@@ -4876,86 +4883,86 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
+      <c r="D1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
     </row>
     <row r="2" spans="1:41" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="30"/>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="AA2" s="50" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="AA2" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AJ2" s="53" t="s">
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AJ2" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
     </row>
     <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -5120,7 +5127,7 @@
       <c r="N4" s="9"/>
       <c r="O4">
         <f>YEAR(NC[[#This Row],[Fecha]])</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="P4">
         <f>MONTH(NC[[#This Row],[Fecha]])</f>
@@ -5130,11 +5137,21 @@
         <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="R4" s="6">
+        <v>43101</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="7">
+        <v>4</v>
+      </c>
+      <c r="V4" s="7">
+        <v>12000</v>
+      </c>
       <c r="X4">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
         <v>1900</v>
@@ -5208,6 +5225,33 @@
       <c r="M5" s="7">
         <v>26</v>
       </c>
+      <c r="O5">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P5">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="R5" s="6">
+        <v>43132</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="7">
+        <v>1</v>
+      </c>
+      <c r="V5" s="7">
+        <v>3000</v>
+      </c>
     </row>
     <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -5252,6 +5296,33 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
+      <c r="O6">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P6">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="R6" s="6">
+        <v>43160</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1</v>
+      </c>
+      <c r="V6" s="7">
+        <v>3000</v>
+      </c>
     </row>
     <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -5296,6 +5367,33 @@
       <c r="M7" s="7">
         <v>1</v>
       </c>
+      <c r="O7">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P7">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="R7" s="6">
+        <v>43191</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" s="7">
+        <v>29</v>
+      </c>
+      <c r="V7" s="7">
+        <v>87000</v>
+      </c>
     </row>
     <row r="8" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -5340,6 +5438,33 @@
       <c r="M8" s="7">
         <v>6</v>
       </c>
+      <c r="O8">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P8">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="R8" s="6">
+        <v>43221</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="7">
+        <v>13</v>
+      </c>
+      <c r="V8" s="7">
+        <v>39000</v>
+      </c>
     </row>
     <row r="9" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
@@ -5384,6 +5509,33 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
+      <c r="O9">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P9">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>22</v>
+      </c>
+      <c r="R9" s="6">
+        <v>43252</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="7">
+        <v>7</v>
+      </c>
+      <c r="V9" s="7">
+        <v>21000</v>
+      </c>
     </row>
     <row r="10" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -5428,6 +5580,33 @@
       <c r="M10" s="7">
         <v>9</v>
       </c>
+      <c r="O10">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P10">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>26</v>
+      </c>
+      <c r="R10" s="6">
+        <v>43282</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="7">
+        <v>1</v>
+      </c>
+      <c r="V10" s="7">
+        <v>3000</v>
+      </c>
     </row>
     <row r="11" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
@@ -5472,6 +5651,33 @@
       <c r="M11" s="7">
         <v>5</v>
       </c>
+      <c r="O11">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P11">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="R11" s="6">
+        <v>43313</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U11" s="7">
+        <v>53</v>
+      </c>
+      <c r="V11" s="7">
+        <v>159000</v>
+      </c>
     </row>
     <row r="12" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -5516,6 +5722,33 @@
       <c r="M12" s="7">
         <v>2</v>
       </c>
+      <c r="O12">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P12">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
+      </c>
+      <c r="R12" s="6">
+        <v>43344</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="7">
+        <v>33</v>
+      </c>
+      <c r="V12" s="7">
+        <v>99000</v>
+      </c>
     </row>
     <row r="13" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
@@ -5560,6 +5793,33 @@
       <c r="M13" s="7">
         <v>10</v>
       </c>
+      <c r="O13">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P13">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="R13" s="6">
+        <v>43374</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="7">
+        <v>24</v>
+      </c>
+      <c r="V13" s="7">
+        <v>72000</v>
+      </c>
     </row>
     <row r="14" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -5604,6 +5864,33 @@
       <c r="M14" s="7">
         <v>3</v>
       </c>
+      <c r="O14">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P14">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>48</v>
+      </c>
+      <c r="R14" s="6">
+        <v>43435</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="7">
+        <v>80</v>
+      </c>
+      <c r="V14" s="7">
+        <v>240000</v>
+      </c>
     </row>
     <row r="15" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -5648,6 +5935,33 @@
       <c r="M15" s="7">
         <v>3</v>
       </c>
+      <c r="O15">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P15">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="R15" s="6">
+        <v>43160</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="7">
+        <v>9</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -5692,8 +6006,35 @@
       <c r="M16" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P16">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="R16" s="6">
+        <v>43191</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="7">
+        <v>1</v>
+      </c>
+      <c r="V16" s="7">
+        <v>2525.835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5736,8 +6077,35 @@
       <c r="M17" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P17">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="R17" s="6">
+        <v>43221</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="7">
+        <v>7</v>
+      </c>
+      <c r="V17" s="7">
+        <v>5273.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5780,8 +6148,35 @@
       <c r="M18" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P18">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>22</v>
+      </c>
+      <c r="R18" s="6">
+        <v>43252</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U18" s="7">
+        <v>1</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5824,8 +6219,35 @@
       <c r="M19" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P19">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>8</v>
+      </c>
+      <c r="Q19">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="R19" s="6">
+        <v>43313</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U19" s="7">
+        <v>4</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5868,8 +6290,35 @@
       <c r="M20" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P20">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="Q20">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
+      </c>
+      <c r="R20" s="6">
+        <v>43344</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" s="7">
+        <v>1</v>
+      </c>
+      <c r="V20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5912,8 +6361,35 @@
       <c r="M21" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P21">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="R21" s="6">
+        <v>43374</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="7">
+        <v>2</v>
+      </c>
+      <c r="V21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -5956,8 +6432,35 @@
       <c r="M22" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P22">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="Q22">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="R22" s="6">
+        <v>43405</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="7">
+        <v>8</v>
+      </c>
+      <c r="V22" s="7">
+        <v>10998.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6000,8 +6503,35 @@
       <c r="M23" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P23">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>12</v>
+      </c>
+      <c r="Q23">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>48</v>
+      </c>
+      <c r="R23" s="6">
+        <v>43435</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U23" s="7">
+        <v>11</v>
+      </c>
+      <c r="V23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6044,8 +6574,35 @@
       <c r="M24" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P24">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="R24" s="6">
+        <v>43132</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="7">
+        <v>2</v>
+      </c>
+      <c r="V24" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6088,8 +6645,35 @@
       <c r="M25" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P25">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="R25" s="6">
+        <v>43160</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U25" s="7">
+        <v>5</v>
+      </c>
+      <c r="V25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6132,8 +6716,35 @@
       <c r="M26" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P26">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="R26" s="6">
+        <v>43221</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U26" s="7">
+        <v>2</v>
+      </c>
+      <c r="V26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6176,8 +6787,35 @@
       <c r="M27" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P27">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>7</v>
+      </c>
+      <c r="Q27">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>26</v>
+      </c>
+      <c r="R27" s="6">
+        <v>43282</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U27" s="7">
+        <v>1</v>
+      </c>
+      <c r="V27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6220,8 +6858,35 @@
       <c r="M28" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P28">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>8</v>
+      </c>
+      <c r="Q28">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="R28" s="6">
+        <v>43313</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" s="7">
+        <v>80</v>
+      </c>
+      <c r="V28" s="7">
+        <v>238039.64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6264,8 +6929,35 @@
       <c r="M29" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P29">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="Q29">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
+      </c>
+      <c r="R29" s="6">
+        <v>43344</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U29" s="7">
+        <v>1</v>
+      </c>
+      <c r="V29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6308,8 +7000,35 @@
       <c r="M30" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P30">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="Q30">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="R30" s="6">
+        <v>43374</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U30" s="7">
+        <v>4</v>
+      </c>
+      <c r="V30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6352,8 +7071,35 @@
       <c r="M31" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P31">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="Q31">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="R31" s="6">
+        <v>43405</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U31" s="7">
+        <v>2</v>
+      </c>
+      <c r="V31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6396,8 +7142,35 @@
       <c r="M32" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P32">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>12</v>
+      </c>
+      <c r="Q32">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>48</v>
+      </c>
+      <c r="R32" s="6">
+        <v>43435</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U32" s="7">
+        <v>20</v>
+      </c>
+      <c r="V32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6440,8 +7213,35 @@
       <c r="M33" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P33">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="R33" s="6">
+        <v>43101</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" s="7">
+        <v>1</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6484,8 +7284,35 @@
       <c r="M34" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P34">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="R34" s="6">
+        <v>43132</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U34" s="7">
+        <v>2</v>
+      </c>
+      <c r="V34" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6528,8 +7355,35 @@
       <c r="M35" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P35">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="R35" s="6">
+        <v>43160</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="7">
+        <v>14</v>
+      </c>
+      <c r="V35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6572,8 +7426,35 @@
       <c r="M36" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P36">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="R36" s="6">
+        <v>43221</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U36" s="7">
+        <v>643</v>
+      </c>
+      <c r="V36" s="7">
+        <v>748443.38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6616,8 +7497,35 @@
       <c r="M37" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P37">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="Q37">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>22</v>
+      </c>
+      <c r="R37" s="6">
+        <v>43252</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U37" s="7">
+        <v>110</v>
+      </c>
+      <c r="V37" s="7">
+        <v>256767.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6660,8 +7568,35 @@
       <c r="M38" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P38">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>26</v>
+      </c>
+      <c r="R38" s="6">
+        <v>43282</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U38" s="7">
+        <v>1</v>
+      </c>
+      <c r="V38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -6704,8 +7639,35 @@
       <c r="M39" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P39">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="Q39">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
+      </c>
+      <c r="R39" s="6">
+        <v>43344</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U39" s="7">
+        <v>420</v>
+      </c>
+      <c r="V39" s="7">
+        <v>953031.82299999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6748,8 +7710,35 @@
       <c r="M40" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P40">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="Q40">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="R40" s="6">
+        <v>43374</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U40" s="7">
+        <v>382</v>
+      </c>
+      <c r="V40" s="7">
+        <v>1039832.4199999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6792,8 +7781,35 @@
       <c r="M41" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P41">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="Q41">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="R41" s="6">
+        <v>43405</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="7">
+        <v>3</v>
+      </c>
+      <c r="V41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6836,8 +7852,35 @@
       <c r="M42" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P42">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>12</v>
+      </c>
+      <c r="Q42">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>48</v>
+      </c>
+      <c r="R42" s="6">
+        <v>43435</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" s="7">
+        <v>2</v>
+      </c>
+      <c r="V42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6880,8 +7923,35 @@
       <c r="M43" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P43">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="R43" s="6">
+        <v>43221</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U43" s="7">
+        <v>196</v>
+      </c>
+      <c r="V43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6924,8 +7994,35 @@
       <c r="M44" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="P44">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>22</v>
+      </c>
+      <c r="R44" s="6">
+        <v>43252</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T44" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U44" s="7">
+        <v>730</v>
+      </c>
+      <c r="V44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -6968,8 +8065,35 @@
       <c r="M45" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P45">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="R45" s="6">
+        <v>43466</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U45" s="7">
+        <v>43</v>
+      </c>
+      <c r="V45" s="7">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7012,8 +8136,35 @@
       <c r="M46" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P46">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="R46" s="6">
+        <v>43497</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U46" s="7">
+        <v>43</v>
+      </c>
+      <c r="V46" s="7">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7056,8 +8207,35 @@
       <c r="M47" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P47">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q47">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="R47" s="6">
+        <v>43525</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U47" s="7">
+        <v>2</v>
+      </c>
+      <c r="V47" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7100,8 +8278,35 @@
       <c r="M48" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P48">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="Q48">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="R48" s="6">
+        <v>43556</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U48" s="7">
+        <v>54</v>
+      </c>
+      <c r="V48" s="7">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7144,8 +8349,35 @@
       <c r="M49" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P49">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="Q49">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="R49" s="6">
+        <v>43586</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U49" s="7">
+        <v>55</v>
+      </c>
+      <c r="V49" s="7">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7188,8 +8420,35 @@
       <c r="M50" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P50">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>22</v>
+      </c>
+      <c r="R50" s="6">
+        <v>43617</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U50" s="7">
+        <v>40</v>
+      </c>
+      <c r="V50" s="7">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7232,8 +8491,35 @@
       <c r="M51" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P51">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>7</v>
+      </c>
+      <c r="Q51">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="R51" s="6">
+        <v>43647</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U51" s="7">
+        <v>43</v>
+      </c>
+      <c r="V51" s="7">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7276,8 +8562,35 @@
       <c r="M52" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P52">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>8</v>
+      </c>
+      <c r="Q52">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="R52" s="6">
+        <v>43678</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U52" s="7">
+        <v>4</v>
+      </c>
+      <c r="V52" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7320,8 +8633,35 @@
       <c r="M53" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P53">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="Q53">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
+      </c>
+      <c r="R53" s="6">
+        <v>43709</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U53" s="7">
+        <v>6</v>
+      </c>
+      <c r="V53" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7364,8 +8704,35 @@
       <c r="M54" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P54">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="Q54">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="R54" s="6">
+        <v>43739</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U54" s="7">
+        <v>53</v>
+      </c>
+      <c r="V54" s="7">
+        <v>159000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7408,8 +8775,35 @@
       <c r="M55" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P55">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="Q55">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="R55" s="6">
+        <v>43770</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U55" s="7">
+        <v>1</v>
+      </c>
+      <c r="V55" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7452,8 +8846,35 @@
       <c r="M56" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P56">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>12</v>
+      </c>
+      <c r="Q56">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>49</v>
+      </c>
+      <c r="R56" s="6">
+        <v>43801</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U56" s="7">
+        <v>45</v>
+      </c>
+      <c r="V56" s="7">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7496,8 +8917,35 @@
       <c r="M57" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P57">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q57">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="R57" s="6">
+        <v>43525</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U57" s="7">
+        <v>1</v>
+      </c>
+      <c r="V57" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7540,8 +8988,35 @@
       <c r="M58" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P58">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="R58" s="6">
+        <v>43466</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U58" s="7">
+        <v>4</v>
+      </c>
+      <c r="V58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7584,8 +9059,35 @@
       <c r="M59" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P59">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q59">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="R59" s="6">
+        <v>43525</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U59" s="7">
+        <v>4</v>
+      </c>
+      <c r="V59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7628,8 +9130,35 @@
       <c r="M60" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P60">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="Q60">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>22</v>
+      </c>
+      <c r="R60" s="6">
+        <v>43617</v>
+      </c>
+      <c r="S60" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U60" s="7">
+        <v>2</v>
+      </c>
+      <c r="V60" s="7">
+        <v>5107.54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7672,8 +9201,35 @@
       <c r="M61" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P61">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>7</v>
+      </c>
+      <c r="Q61">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="R61" s="6">
+        <v>43647</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U61" s="7">
+        <v>1</v>
+      </c>
+      <c r="V61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7716,8 +9272,35 @@
       <c r="M62" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P62">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="Q62">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="R62" s="6">
+        <v>43497</v>
+      </c>
+      <c r="S62" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U62" s="7">
+        <v>1</v>
+      </c>
+      <c r="V62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7760,8 +9343,35 @@
       <c r="M63" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P63">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="Q63">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="R63" s="6">
+        <v>43586</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U63" s="7">
+        <v>2</v>
+      </c>
+      <c r="V63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7804,8 +9414,35 @@
       <c r="M64" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P64">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="Q64">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>22</v>
+      </c>
+      <c r="R64" s="6">
+        <v>43617</v>
+      </c>
+      <c r="S64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U64" s="7">
+        <v>1</v>
+      </c>
+      <c r="V64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7848,8 +9485,35 @@
       <c r="M65" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P65">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="Q65">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
+      </c>
+      <c r="R65" s="6">
+        <v>43709</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U65" s="7">
+        <v>3</v>
+      </c>
+      <c r="V65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7892,8 +9556,35 @@
       <c r="M66" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P66">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="Q66">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="R66" s="6">
+        <v>43770</v>
+      </c>
+      <c r="S66" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U66" s="7">
+        <v>7</v>
+      </c>
+      <c r="V66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7936,8 +9627,35 @@
       <c r="M67" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P67">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="R67" s="6">
+        <v>43466</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U67" s="7">
+        <v>38</v>
+      </c>
+      <c r="V67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -7980,8 +9698,35 @@
       <c r="M68" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P68">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="Q68">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="R68" s="6">
+        <v>43497</v>
+      </c>
+      <c r="S68" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U68" s="7">
+        <v>1</v>
+      </c>
+      <c r="V68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8024,8 +9769,35 @@
       <c r="M69" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P69">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q69">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="R69" s="6">
+        <v>43525</v>
+      </c>
+      <c r="S69" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U69" s="7">
+        <v>6</v>
+      </c>
+      <c r="V69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8068,8 +9840,35 @@
       <c r="M70" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P70">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="Q70">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="R70" s="6">
+        <v>43556</v>
+      </c>
+      <c r="S70" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U70" s="7">
+        <v>2</v>
+      </c>
+      <c r="V70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8112,8 +9911,35 @@
       <c r="M71" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P71">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="Q71">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="R71" s="6">
+        <v>43586</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U71" s="7">
+        <v>1</v>
+      </c>
+      <c r="V71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8156,8 +9982,35 @@
       <c r="M72" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P72">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="Q72">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="R72" s="6">
+        <v>43739</v>
+      </c>
+      <c r="S72" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="7">
+        <v>1</v>
+      </c>
+      <c r="V72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8200,8 +10053,35 @@
       <c r="M73" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P73">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="Q73">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="R73" s="6">
+        <v>43770</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U73" s="7">
+        <v>2</v>
+      </c>
+      <c r="V73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8244,8 +10124,35 @@
       <c r="M74" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P74">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="Q74">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="R74" s="6">
+        <v>43556</v>
+      </c>
+      <c r="S74" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U74" s="7">
+        <v>1</v>
+      </c>
+      <c r="V74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8288,8 +10195,35 @@
       <c r="M75" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="P75">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="Q75">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="R75" s="6">
+        <v>43497</v>
+      </c>
+      <c r="S75" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T75" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U75" s="7">
+        <v>2</v>
+      </c>
+      <c r="V75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8332,8 +10266,35 @@
       <c r="M76" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P76">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="R76" s="6">
+        <v>43832</v>
+      </c>
+      <c r="S76" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U76" s="7">
+        <v>4</v>
+      </c>
+      <c r="V76" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -8376,8 +10337,35 @@
       <c r="M77" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P77">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="Q77">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="R77" s="6">
+        <v>43863</v>
+      </c>
+      <c r="S77" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U77" s="7">
+        <v>35</v>
+      </c>
+      <c r="V77" s="7">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8420,8 +10408,35 @@
       <c r="M78" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O78">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P78">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q78">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="R78" s="6">
+        <v>43894</v>
+      </c>
+      <c r="S78" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U78" s="7">
+        <v>33</v>
+      </c>
+      <c r="V78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8464,8 +10479,35 @@
       <c r="M79" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P79">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="Q79">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="R79" s="6">
+        <v>43925</v>
+      </c>
+      <c r="S79" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U79" s="7">
+        <v>47</v>
+      </c>
+      <c r="V79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8508,8 +10550,35 @@
       <c r="M80" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P80">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="Q80">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>19</v>
+      </c>
+      <c r="R80" s="6">
+        <v>43956</v>
+      </c>
+      <c r="S80" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U80" s="7">
+        <v>7</v>
+      </c>
+      <c r="V80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8552,8 +10621,35 @@
       <c r="M81" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P81">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="Q81">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>23</v>
+      </c>
+      <c r="R81" s="6">
+        <v>43987</v>
+      </c>
+      <c r="S81" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U81" s="7">
+        <v>39</v>
+      </c>
+      <c r="V81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8596,8 +10692,35 @@
       <c r="M82" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P82">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>7</v>
+      </c>
+      <c r="Q82">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>28</v>
+      </c>
+      <c r="R82" s="6">
+        <v>44018</v>
+      </c>
+      <c r="S82" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U82" s="7">
+        <v>80</v>
+      </c>
+      <c r="V82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8640,8 +10763,35 @@
       <c r="M83" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P83">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>8</v>
+      </c>
+      <c r="Q83">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>32</v>
+      </c>
+      <c r="R83" s="6">
+        <v>44049</v>
+      </c>
+      <c r="S83" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U83" s="7">
+        <v>86</v>
+      </c>
+      <c r="V83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8684,8 +10834,35 @@
       <c r="M84" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P84">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="Q84">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>36</v>
+      </c>
+      <c r="R84" s="6">
+        <v>44080</v>
+      </c>
+      <c r="S84" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U84" s="7">
+        <v>85</v>
+      </c>
+      <c r="V84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8728,8 +10905,35 @@
       <c r="M85" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P85">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="Q85">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>41</v>
+      </c>
+      <c r="R85" s="6">
+        <v>44111</v>
+      </c>
+      <c r="S85" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U85" s="7">
+        <v>54</v>
+      </c>
+      <c r="V85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8772,8 +10976,35 @@
       <c r="M86" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P86">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="Q86">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>45</v>
+      </c>
+      <c r="R86" s="6">
+        <v>44142</v>
+      </c>
+      <c r="S86" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U86" s="7">
+        <v>73</v>
+      </c>
+      <c r="V86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8816,8 +11047,35 @@
       <c r="M87" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P87">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>12</v>
+      </c>
+      <c r="Q87">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>50</v>
+      </c>
+      <c r="R87" s="6">
+        <v>44173</v>
+      </c>
+      <c r="S87" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U87" s="7">
+        <v>140</v>
+      </c>
+      <c r="V87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8860,8 +11118,35 @@
       <c r="M88" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P88">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="Q88">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="R88" s="6">
+        <v>43925</v>
+      </c>
+      <c r="S88" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U88" s="7">
+        <v>26</v>
+      </c>
+      <c r="V88" s="7">
+        <v>59975.37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8904,8 +11189,35 @@
       <c r="M89" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P89">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="Q89">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>19</v>
+      </c>
+      <c r="R89" s="6">
+        <v>43956</v>
+      </c>
+      <c r="S89" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U89" s="7">
+        <v>6</v>
+      </c>
+      <c r="V89" s="7">
+        <v>15630</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8948,8 +11260,35 @@
       <c r="M90" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P90">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>8</v>
+      </c>
+      <c r="Q90">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>32</v>
+      </c>
+      <c r="R90" s="6">
+        <v>44049</v>
+      </c>
+      <c r="S90" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U90" s="7">
+        <v>16</v>
+      </c>
+      <c r="V90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -8992,8 +11331,35 @@
       <c r="M91" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P91">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>7</v>
+      </c>
+      <c r="Q91">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>28</v>
+      </c>
+      <c r="R91" s="6">
+        <v>44018</v>
+      </c>
+      <c r="S91" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U91" s="7">
+        <v>3</v>
+      </c>
+      <c r="V91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9036,8 +11402,35 @@
       <c r="M92" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P92">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="Q92">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>41</v>
+      </c>
+      <c r="R92" s="6">
+        <v>44111</v>
+      </c>
+      <c r="S92" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T92" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U92" s="7">
+        <v>1</v>
+      </c>
+      <c r="V92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9080,8 +11473,35 @@
       <c r="M93" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P93">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>12</v>
+      </c>
+      <c r="Q93">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>50</v>
+      </c>
+      <c r="R93" s="6">
+        <v>44173</v>
+      </c>
+      <c r="S93" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T93" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U93" s="7">
+        <v>6</v>
+      </c>
+      <c r="V93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9124,8 +11544,35 @@
       <c r="M94" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P94">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="Q94">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="R94" s="6">
+        <v>43925</v>
+      </c>
+      <c r="S94" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T94" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="7">
+        <v>1</v>
+      </c>
+      <c r="V94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9168,8 +11615,35 @@
       <c r="M95" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P95">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="Q95">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>23</v>
+      </c>
+      <c r="R95" s="6">
+        <v>43987</v>
+      </c>
+      <c r="S95" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T95" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U95" s="7">
+        <v>13</v>
+      </c>
+      <c r="V95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9212,8 +11686,35 @@
       <c r="M96" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O96">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P96">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="Q96">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>41</v>
+      </c>
+      <c r="R96" s="6">
+        <v>44111</v>
+      </c>
+      <c r="S96" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T96" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U96" s="7">
+        <v>1</v>
+      </c>
+      <c r="V96" s="7">
+        <v>78771</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9256,8 +11757,35 @@
       <c r="M97" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P97">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="Q97">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>45</v>
+      </c>
+      <c r="R97" s="6">
+        <v>44142</v>
+      </c>
+      <c r="S97" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T97" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U97" s="7">
+        <v>1</v>
+      </c>
+      <c r="V97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9300,8 +11828,35 @@
       <c r="M98" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O98">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="P98">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>12</v>
+      </c>
+      <c r="Q98">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>50</v>
+      </c>
+      <c r="R98" s="6">
+        <v>44173</v>
+      </c>
+      <c r="S98" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T98" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U98" s="7">
+        <v>14</v>
+      </c>
+      <c r="V98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9344,8 +11899,35 @@
       <c r="M99" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O99">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2021</v>
+      </c>
+      <c r="P99">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="R99" s="63">
+        <v>44202</v>
+      </c>
+      <c r="S99" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="T99" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U99" s="7">
+        <v>2</v>
+      </c>
+      <c r="V99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9388,8 +11970,35 @@
       <c r="M100" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O100" s="65">
+        <f>YEAR(NC[[#This Row],[Fecha]])</f>
+        <v>2021</v>
+      </c>
+      <c r="P100" s="65">
+        <f>MONTH(NC[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q100" s="65">
+        <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="R100" s="66">
+        <v>44203</v>
+      </c>
+      <c r="S100" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="T100" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="U100" s="68">
+        <v>11</v>
+      </c>
+      <c r="V100" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9433,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9477,7 +12086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9521,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9565,7 +12174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9609,7 +12218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9653,7 +12262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9697,7 +12306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9741,7 +12350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9785,7 +12394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9829,7 +12438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -9873,7 +12482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -11134,18 +13743,6 @@
             <xm:f>ListasCerdo!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>E4:E139</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C36725EF-B06F-4509-8254-2CEC4261F233}">
-          <x14:formula1>
-            <xm:f>ListasCerdo!$C$2:$C$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>S4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A78B206-98D4-4B08-B517-76A164F0A6DC}">
-          <x14:formula1>
-            <xm:f>ListasCerdo!$E$2:$E$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>T4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{62A2F8C1-9D5E-4C6E-81F9-CEEB6872C335}">
           <x14:formula1>
@@ -11177,6 +13774,18 @@
           </x14:formula1>
           <xm:sqref>AM4</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4646B4B7-5AB0-4DEF-B44B-945A940670E7}">
+          <x14:formula1>
+            <xm:f>ListasCerdo!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>T4:T100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{132D1221-CD46-4A23-8769-69E245C73EED}">
+          <x14:formula1>
+            <xm:f>ListasCerdo!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>S4:S100</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -11187,7 +13796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499E0046-CD30-4A1D-8AF4-5FE2DD615F25}">
   <dimension ref="A1:AV248"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2:AC2"/>
     </sheetView>
   </sheetViews>
@@ -11220,100 +13829,100 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
     </row>
     <row r="2" spans="1:48" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="M2" s="57" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="M2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="Y2" s="62" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="Y2" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AH2" s="60" t="s">
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AH2" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AQ2" s="53" t="s">
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AQ2" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
     </row>
     <row r="3" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -11325,7 +13934,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="50" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
@@ -22494,36 +25103,36 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
     </row>
     <row r="2" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -22568,20 +25177,20 @@
       <c r="N2" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="AB2" s="61" t="s">
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="AB2" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
     </row>
     <row r="3" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -24657,13 +27266,13 @@
           <x14:formula1>
             <xm:f>ListasBorrego!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T4</xm:sqref>
+          <xm:sqref>T4:T100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D9FAA49-5F3D-4440-A76C-6428691A6507}">
           <x14:formula1>
             <xm:f>ListasBorrego!$G$2:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>U4</xm:sqref>
+          <xm:sqref>U4:U100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E05D79B9-0688-4638-97F2-AFB9DA3C690D}">
           <x14:formula1>

--- a/GV/RegistroInformacion.xlsx
+++ b/GV/RegistroInformacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE29D860-23D2-46B5-9F26-ED9B67B944FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B83F14-7467-40F5-808B-CA264ED1DA42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CERDO" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="165">
   <si>
     <t>CERDOS</t>
   </si>
@@ -623,7 +623,7 @@
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +748,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -925,7 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -987,6 +993,12 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,12 +1035,7 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1129,6 +1136,117 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2135,212 +2253,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
@@ -2846,6 +2758,101 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <fill>
@@ -4075,8 +4082,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:W4" totalsRowShown="0" headerRowDxfId="59">
-  <autoFilter ref="P3:W4" xr:uid="{F3E1A5D4-2206-4A5B-8082-DCC730185F04}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:W47" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="P3:W47" xr:uid="{F3E1A5D4-2206-4A5B-8082-DCC730185F04}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F593C191-662A-4A08-9C07-3BC417717AF5}" name="AÑO">
       <calculatedColumnFormula>YEAR(NB[[#This Row],[Fecha]])</calculatedColumnFormula>
@@ -4087,18 +4094,18 @@
     <tableColumn id="3" xr3:uid="{AC94EA02-7DE1-43F2-9333-779EF3503D3B}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NB[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{B55103E2-E464-41CC-B7AF-504AF054E128}" name="Costo" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{B55103E2-E464-41CC-B7AF-504AF054E128}" name="Costo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="Y3:AF4" totalsRowShown="0" headerRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="Y3:AF4" totalsRowShown="0" headerRowDxfId="60">
   <autoFilter ref="Y3:AF4" xr:uid="{C07E5018-4C77-46A8-A50B-107FA9C88156}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1E8E5BF2-508C-417D-BE57-3AACF0C714C5}" name="AÑO">
@@ -4110,43 +4117,43 @@
     <tableColumn id="3" xr3:uid="{0BD97616-9EFF-4FF6-9E9B-D9B72CED3912}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MB[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{4472A864-2AC2-45C2-9FD8-9DA2835143D6}" name="Costo" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{4472A864-2AC2-45C2-9FD8-9DA2835143D6}" name="Costo" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73802A7C-9467-411F-9B9E-19B18579D18D}" name="InfoBorrego" displayName="InfoBorrego" ref="A2:N44" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73802A7C-9467-411F-9B9E-19B18579D18D}" name="InfoBorrego" displayName="InfoBorrego" ref="A2:N44" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A2:N44" xr:uid="{4C07E7EB-F7E2-4DFC-BEF6-4C6501D45968}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N41">
     <sortCondition ref="D2:D41"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{25DB43AE-6CB5-4052-9309-BB1A746C2B8A}" name="Año" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{25DB43AE-6CB5-4052-9309-BB1A746C2B8A}" name="Año" dataDxfId="52">
       <calculatedColumnFormula>YEAR(InfoBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B9143660-3AB8-467B-8920-CB6CB4D2AE62}" name="Mes" dataDxfId="44">
+    <tableColumn id="2" xr3:uid="{B9143660-3AB8-467B-8920-CB6CB4D2AE62}" name="Mes" dataDxfId="51">
       <calculatedColumnFormula>MONTH(InfoBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AD20FB6D-7BA0-4707-ADAF-18C68FD3089A}" name="Semana" dataDxfId="43">
+    <tableColumn id="3" xr3:uid="{AD20FB6D-7BA0-4707-ADAF-18C68FD3089A}" name="Semana" dataDxfId="50">
       <calculatedColumnFormula>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18D75885-EEF0-4220-823D-4DA7DDF39375}" name="FECHA" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{43C2662C-CE7E-4866-957A-930698AB7A66}" name="PZA / CABEZA" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{B36A48EC-1A46-443B-B51A-33AD0D405A7B}" name="Granja" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{45BC65EB-537A-46EE-A94D-E1B7DA25F506}" name="Kilos Total B" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{B13E5F32-1CBF-4933-9A8F-8BD77BB84FD1}" name="Kilos Cancelados B" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{13DF204B-F704-4C3D-9381-D61A397A889E}" name="Cabezas Salidas B" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{27CA73FF-4927-4DCD-B37A-432278B1E1F4}" name="Cabezas Entradas B" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{FDAD35B4-C441-497A-A2DE-3236A7DFCE37}" name="Importe Ventas B" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{C3E0BFB5-AFCA-4C46-A1D9-EFB178AD5EEE}" name="Importe Costos B" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{B77506E4-D768-4D48-8C92-80B9A5A43275}" name="No. Ventas B" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{CEA4441E-EC83-441E-B023-EBEADC5A7A4F}" name="No. Cancelaciones B" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{18D75885-EEF0-4220-823D-4DA7DDF39375}" name="FECHA" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{43C2662C-CE7E-4866-957A-930698AB7A66}" name="PZA / CABEZA" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{B36A48EC-1A46-443B-B51A-33AD0D405A7B}" name="Granja" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{45BC65EB-537A-46EE-A94D-E1B7DA25F506}" name="Kilos Total B" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{B13E5F32-1CBF-4933-9A8F-8BD77BB84FD1}" name="Kilos Cancelados B" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{13DF204B-F704-4C3D-9381-D61A397A889E}" name="Cabezas Salidas B" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{27CA73FF-4927-4DCD-B37A-432278B1E1F4}" name="Cabezas Entradas B" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{FDAD35B4-C441-497A-A2DE-3236A7DFCE37}" name="Importe Ventas B" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{C3E0BFB5-AFCA-4C46-A1D9-EFB178AD5EEE}" name="Importe Costos B" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{B77506E4-D768-4D48-8C92-80B9A5A43275}" name="No. Ventas B" dataDxfId="40"/>
+    <tableColumn id="14" xr3:uid="{CEA4441E-EC83-441E-B023-EBEADC5A7A4F}" name="No. Cancelaciones B" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4163,10 +4170,10 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="31" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="C1:C6" xr:uid="{79BD6A38-95D5-48F5-B30F-01B067AA4A61}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4235,11 +4242,11 @@
     <tableColumn id="3" xr3:uid="{A92A8AB5-1C79-4CA4-B109-A49731842416}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NC[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1E2C6755-7899-4C5E-8849-9F4DEA103FB6}" name="Fecha" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{3E44B0DD-62A3-4C63-B2ED-8D9F754BC1C8}" name="Descripción" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9FD31AF2-F6BB-40A9-A5EF-A7BE8C1EE096}" name="Almacén" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{D483493A-6942-4223-8114-7C47B876A768}" name="Entrada" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{272C56E8-53BB-4F5E-822F-DCF7EF3B0B03}" name="Costo" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{1E2C6755-7899-4C5E-8849-9F4DEA103FB6}" name="Fecha" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{3E44B0DD-62A3-4C63-B2ED-8D9F754BC1C8}" name="Descripción" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{9FD31AF2-F6BB-40A9-A5EF-A7BE8C1EE096}" name="Almacén" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{D483493A-6942-4223-8114-7C47B876A768}" name="Entrada" dataDxfId="95"/>
+    <tableColumn id="8" xr3:uid="{272C56E8-53BB-4F5E-822F-DCF7EF3B0B03}" name="Costo" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4266,10 +4273,10 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="35" tableBorderDxfId="34">
   <autoFilter ref="C1:C8" xr:uid="{750FC6F7-70F6-4B4E-96D7-A30F50A00065}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4316,27 +4323,27 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="M1:M25" xr:uid="{066AC525-C68B-40D3-AE6B-D275A0A79615}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="O1:O8" xr:uid="{5D329DB3-7365-4EEF-8F0E-32C5AD338BA4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="Q1:Q4" xr:uid="{B76C3F68-F66F-46E8-9784-B4AAADE438F9}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7AF09891-3B17-4F67-912C-FAE5416AB3EF}" name="Unidad"/>
@@ -4346,7 +4353,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{1EEBF04B-5CA7-4B0A-ADFE-2A6A9768B634}" name="MC" displayName="MC" ref="X3:AE4" totalsRowShown="0" headerRowDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{1EEBF04B-5CA7-4B0A-ADFE-2A6A9768B634}" name="MC" displayName="MC" ref="X3:AE4" totalsRowShown="0" headerRowDxfId="93">
   <autoFilter ref="X3:AE4" xr:uid="{15203CCB-6A72-4C9E-82BA-A853B5165F17}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{99A49235-A43E-4B45-948E-613A29DBA5A6}" name="AÑO">
@@ -4358,11 +4365,11 @@
     <tableColumn id="3" xr3:uid="{CC8DCD94-2C62-421E-8A0B-4EE9F9AA0BA6}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MC[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057B6A06-06EB-4370-9C7D-67B564AB477C}" name="Fecha" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{F7D1F4AC-D899-4963-BC58-63184492E881}" name="Descripción" dataDxfId="96"/>
-    <tableColumn id="7" xr3:uid="{C424C129-BB09-45C4-8A52-C928098DD204}" name="Almacén" dataDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{D7883101-3244-4BC1-AC2D-3BFB937551E5}" name="Salida" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{FF4DEFD2-915C-403C-AA9C-29CD60C65D91}" name="Costo" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{057B6A06-06EB-4370-9C7D-67B564AB477C}" name="Fecha" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{F7D1F4AC-D899-4963-BC58-63184492E881}" name="Descripción" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{C424C129-BB09-45C4-8A52-C928098DD204}" name="Almacén" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{D7883101-3244-4BC1-AC2D-3BFB937551E5}" name="Salida" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{FF4DEFD2-915C-403C-AA9C-29CD60C65D91}" name="Costo" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4409,10 +4416,10 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{14BF97AA-514C-43B8-ACBF-8377CC8F9163}" name="DMB" displayName="DMB" ref="I1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{14BF97AA-514C-43B8-ACBF-8377CC8F9163}" name="DMB" displayName="DMB" ref="I1:I2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="I1:I2" xr:uid="{7AB45DB3-5E72-4F44-A776-E252D9E90DB7}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4AF18E02-4261-4B0E-844D-1655706EFC80}" name="Descripción" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{4AF18E02-4261-4B0E-844D-1655706EFC80}" name="Descripción" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4453,36 +4460,36 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K108" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K108" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="A3:K108" xr:uid="{D4382671-7652-40D0-940C-E955EF481B0A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K108">
     <sortCondition ref="D3:D108"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD9F0EF0-AAEC-44EF-B652-AEE3A7B1514D}" name="Año" dataDxfId="90">
+    <tableColumn id="1" xr3:uid="{FD9F0EF0-AAEC-44EF-B652-AEE3A7B1514D}" name="Año" dataDxfId="85">
       <calculatedColumnFormula>YEAR(VentaHuevo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{38DF3F1A-ECDF-4B36-9176-FD4C2215E738}" name="Mes" dataDxfId="89">
+    <tableColumn id="2" xr3:uid="{38DF3F1A-ECDF-4B36-9176-FD4C2215E738}" name="Mes" dataDxfId="84">
       <calculatedColumnFormula>MONTH(VentaHuevo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0806F8F4-F211-461B-8637-91E4CE806C4D}" name="Semana" dataDxfId="88">
+    <tableColumn id="3" xr3:uid="{0806F8F4-F211-461B-8637-91E4CE806C4D}" name="Semana" dataDxfId="83">
       <calculatedColumnFormula>WEEKNUM(VentaHuevo[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8434CCCE-DE27-4AE6-A002-E0E6CF045C72}" name="FECHA" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{779AD8B5-3C79-434E-A399-2FBAD1799E8D}" name="Postura" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{A97041C1-DD4A-498F-8E13-F603ABE564D9}" name="Kilos Total" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{CC975B41-EAF3-4B15-B675-8C8CEAE44165}" name="Kilos Cancelados" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{AC4B10C7-0849-4C4C-9BA5-AE8FB92493E2}" name="Importe Ventas" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{B2B64C19-21ED-42F7-B0F5-7AE2560707DB}" name="Importe Costos" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{777D0A0A-820D-4722-8450-983DB543ED2D}" name="No. Ventas" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{7E467BF3-DE83-4056-B631-B9B5060F190D}" name="No. Cancelaciones" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{8434CCCE-DE27-4AE6-A002-E0E6CF045C72}" name="FECHA" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{779AD8B5-3C79-434E-A399-2FBAD1799E8D}" name="Postura" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{A97041C1-DD4A-498F-8E13-F603ABE564D9}" name="Kilos Total" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{CC975B41-EAF3-4B15-B675-8C8CEAE44165}" name="Kilos Cancelados" dataDxfId="79"/>
+    <tableColumn id="8" xr3:uid="{AC4B10C7-0849-4C4C-9BA5-AE8FB92493E2}" name="Importe Ventas" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{B2B64C19-21ED-42F7-B0F5-7AE2560707DB}" name="Importe Costos" dataDxfId="77"/>
+    <tableColumn id="10" xr3:uid="{777D0A0A-820D-4722-8450-983DB543ED2D}" name="No. Ventas" dataDxfId="76"/>
+    <tableColumn id="11" xr3:uid="{7E467BF3-DE83-4056-B631-B9B5060F190D}" name="No. Cancelaciones" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B8C3BF5-B426-4FC9-8CCD-BD04125E8FC9}" name="RecoleccionHuevo" displayName="RecoleccionHuevo" ref="M3:T248" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B8C3BF5-B426-4FC9-8CCD-BD04125E8FC9}" name="RecoleccionHuevo" displayName="RecoleccionHuevo" ref="M3:T248" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72">
   <autoFilter ref="M3:T248" xr:uid="{60C9021B-900B-4B60-A55B-39BD4E52B0C3}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5556DBC3-8C5C-48FF-AC71-14BD1764535F}" name="Año">
@@ -4491,22 +4498,22 @@
     <tableColumn id="2" xr3:uid="{C4348503-323D-43E8-8270-63F3FB635C31}" name="Mes">
       <calculatedColumnFormula>MONTH(RecoleccionHuevo[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B97B1594-D27C-4255-B30B-9D3C3FCE7D1F}" name="Semana" dataDxfId="76">
+    <tableColumn id="3" xr3:uid="{B97B1594-D27C-4255-B30B-9D3C3FCE7D1F}" name="Semana" dataDxfId="71">
       <calculatedColumnFormula>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F575BA58-C636-4CCE-AEC8-386F16DEDFFA}" name="Fecha" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{F575BA58-C636-4CCE-AEC8-386F16DEDFFA}" name="Fecha" dataDxfId="70"/>
     <tableColumn id="5" xr3:uid="{D6F82851-3690-4182-8BD9-4BE245CA5B59}" name="Bodega Origen"/>
-    <tableColumn id="6" xr3:uid="{F0B3184E-20DE-4D34-8B90-DB4940FA096B}" name="Cantidad" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{9D264A97-0E03-44D4-AE76-4CD1B7BAA7FD}" name="Kilos" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{89B76523-86A1-41BF-B81B-2D6DD4F17AEE}" name="Cajas" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{F0B3184E-20DE-4D34-8B90-DB4940FA096B}" name="Cantidad" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{9D264A97-0E03-44D4-AE76-4CD1B7BAA7FD}" name="Kilos" dataDxfId="68"/>
+    <tableColumn id="9" xr3:uid="{89B76523-86A1-41BF-B81B-2D6DD4F17AEE}" name="Cajas" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{49922715-EB52-4A65-91E4-0475F5534B83}" name="NH" displayName="NH" ref="V3:AC4" totalsRowShown="0" headerRowDxfId="71">
-  <autoFilter ref="V3:AC4" xr:uid="{9E909787-7729-4B69-B0D7-61A481011055}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{49922715-EB52-4A65-91E4-0475F5534B83}" name="NH" displayName="NH" ref="V3:AC32" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="V3:AC32" xr:uid="{9E909787-7729-4B69-B0D7-61A481011055}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BB52ECF0-F2EE-4B65-A7D9-9EDA649B5891}" name="AÑO">
       <calculatedColumnFormula>YEAR(NH[[#This Row],[Fecha]])</calculatedColumnFormula>
@@ -4517,18 +4524,18 @@
     <tableColumn id="3" xr3:uid="{40E66E16-55FD-40FD-8212-C14977333B21}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NH[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4DAFF2EC-25FE-4925-B214-00D322A9AC67}" name="Fecha" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{5EA58C44-0B6E-4368-8DCF-6D66196470FC}" name="Descripción" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{97EB3DE5-BB67-459C-B513-658E8D859B6B}" name="Almacén" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{6E7BB089-A777-4CF9-A575-1F853606112B}" name="Entrada" dataDxfId="67"/>
-    <tableColumn id="8" xr3:uid="{0B588A93-6EAE-419E-B771-7F6C74A2FC4B}" name="Costo" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{4DAFF2EC-25FE-4925-B214-00D322A9AC67}" name="Fecha" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{5EA58C44-0B6E-4368-8DCF-6D66196470FC}" name="Descripción" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{97EB3DE5-BB67-459C-B513-658E8D859B6B}" name="Almacén" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{6E7BB089-A777-4CF9-A575-1F853606112B}" name="Entrada" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{0B588A93-6EAE-419E-B771-7F6C74A2FC4B}" name="Costo" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AE3:AL4" totalsRowShown="0" headerRowDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AE3:AL4" totalsRowShown="0" headerRowDxfId="66">
   <autoFilter ref="AE3:AL4" xr:uid="{8AC8429F-5A18-4F92-8A2F-B1AB086595B2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2909D7D7-7DF1-42BB-B6A6-7E79BD333390}" name="AÑO">
@@ -4540,11 +4547,11 @@
     <tableColumn id="3" xr3:uid="{5BE7723A-8CFB-4D4C-B93F-00B4E59A0013}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MH[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{F7A8830A-D216-41B6-9B84-81B835720899}" name="Costo" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{F7A8830A-D216-41B6-9B84-81B835720899}" name="Costo" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4839,8 +4846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q2" sqref="O1:Q1048576"/>
+    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,86 +4890,86 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
+      <c r="D1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
     </row>
     <row r="2" spans="1:41" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="30"/>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="AA2" s="55" t="s">
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="AA2" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AJ2" s="52" t="s">
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AJ2" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
     </row>
     <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -11911,10 +11918,10 @@
         <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
         <v>2</v>
       </c>
-      <c r="R99" s="63">
+      <c r="R99" s="51">
         <v>44202</v>
       </c>
-      <c r="S99" s="64" t="s">
+      <c r="S99" s="52" t="s">
         <v>54</v>
       </c>
       <c r="T99" s="7" t="s">
@@ -11970,31 +11977,31 @@
       <c r="M100" s="7">
         <v>4</v>
       </c>
-      <c r="O100" s="65">
+      <c r="O100" s="53">
         <f>YEAR(NC[[#This Row],[Fecha]])</f>
         <v>2021</v>
       </c>
-      <c r="P100" s="65">
+      <c r="P100" s="53">
         <f>MONTH(NC[[#This Row],[Fecha]])</f>
         <v>1</v>
       </c>
-      <c r="Q100" s="65">
+      <c r="Q100" s="53">
         <f>WEEKNUM(NC[[#This Row],[Fecha]],2)</f>
         <v>2</v>
       </c>
-      <c r="R100" s="66">
+      <c r="R100" s="54">
         <v>44203</v>
       </c>
-      <c r="S100" s="67" t="s">
+      <c r="S100" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="T100" s="68" t="s">
+      <c r="T100" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="U100" s="68">
+      <c r="U100" s="56">
         <v>11</v>
       </c>
-      <c r="V100" s="68">
+      <c r="V100" s="56">
         <v>0</v>
       </c>
     </row>
@@ -13748,13 +13755,13 @@
           <x14:formula1>
             <xm:f>ListasCerdo!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB4</xm:sqref>
+          <xm:sqref>AB4:AB32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AA0F929-4B76-47AB-A9A6-3F15331894A0}">
           <x14:formula1>
             <xm:f>ListasCerdo!$I$2:$I$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AC4</xm:sqref>
+          <xm:sqref>AC4:AC32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{103B7644-AC14-4CFA-851C-F986FCB406E1}">
           <x14:formula1>
@@ -13796,8 +13803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499E0046-CD30-4A1D-8AF4-5FE2DD615F25}">
   <dimension ref="A1:AV248"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AC2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13817,8 +13824,10 @@
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
     <col min="22" max="24" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="33" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="42" width="11.42578125" hidden="1" customWidth="1"/>
@@ -13829,100 +13838,100 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
     </row>
     <row r="2" spans="1:48" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="M2" s="58" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="M2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="Y2" s="60" t="s">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="Y2" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AH2" s="59" t="s">
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AH2" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AQ2" s="52" t="s">
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AQ2" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
     </row>
     <row r="3" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -14124,21 +14133,31 @@
       </c>
       <c r="V4">
         <f>YEAR(NH[[#This Row],[Fecha]])</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="W4">
         <f>MONTH(NH[[#This Row],[Fecha]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X4">
         <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>43221</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>11775</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>663293.10199999996</v>
+      </c>
       <c r="AE4">
         <f>YEAR(MH[[#This Row],[Fecha]])</f>
         <v>1900</v>
@@ -14233,6 +14252,33 @@
       <c r="T5" s="7">
         <v>308</v>
       </c>
+      <c r="V5">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="W5">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>22</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>43252</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>15500</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>962689.5</v>
+      </c>
     </row>
     <row r="6" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -14298,6 +14344,33 @@
       <c r="T6" s="7">
         <v>380</v>
       </c>
+      <c r="V6">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="W6">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>43374</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>15400</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>883260.84</v>
+      </c>
     </row>
     <row r="7" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -14363,6 +14436,33 @@
       <c r="T7" s="7">
         <v>313</v>
       </c>
+      <c r="V7">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="W7">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>43132</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>15600</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>762235.25</v>
+      </c>
     </row>
     <row r="8" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -14428,6 +14528,33 @@
       <c r="T8" s="7">
         <v>299</v>
       </c>
+      <c r="V8">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="W8">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="X8">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>43374</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>27.779999999999998</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>400.77199999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -14493,6 +14620,33 @@
       <c r="T9" s="7">
         <v>318</v>
       </c>
+      <c r="V9">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="W9">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>43101</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>12996</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -14558,6 +14712,33 @@
       <c r="T10" s="7">
         <v>273</v>
       </c>
+      <c r="V10">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="W10">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>43221</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>10960</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -14623,6 +14804,33 @@
       <c r="T11" s="7">
         <v>300</v>
       </c>
+      <c r="V11">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="W11">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>43344</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>12200</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -14688,6 +14896,33 @@
       <c r="T12" s="7">
         <v>224</v>
       </c>
+      <c r="V12">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="W12">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>43132</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>630</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -14753,6 +14988,33 @@
       <c r="T13" s="7">
         <v>211</v>
       </c>
+      <c r="V13">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="W13">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>43191</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>50</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -14818,6 +15080,33 @@
       <c r="T14" s="7">
         <v>1025</v>
       </c>
+      <c r="V14">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="W14">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>43739</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>15228.64</v>
+      </c>
     </row>
     <row r="15" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -14883,6 +15172,33 @@
       <c r="T15" s="7">
         <v>872</v>
       </c>
+      <c r="V15">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="W15">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>22</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>43617</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>15450</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>910777.5</v>
+      </c>
     </row>
     <row r="16" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -14948,8 +15264,35 @@
       <c r="T16" s="7">
         <v>962</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="W16">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>43739</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>15300</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>957045.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15013,8 +15356,35 @@
       <c r="T17" s="7">
         <v>895</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="W17">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>8</v>
+      </c>
+      <c r="X17">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>43678</v>
+      </c>
+      <c r="Z17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>61.51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15078,8 +15448,35 @@
       <c r="T18" s="7">
         <v>721</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="W18">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>43556</v>
+      </c>
+      <c r="Z18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>5070</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>423882.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15143,8 +15540,35 @@
       <c r="T19" s="7">
         <v>837</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="W19">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>43497</v>
+      </c>
+      <c r="Z19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>3946</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15208,8 +15632,35 @@
       <c r="T20" s="7">
         <v>341</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="W20">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>43556</v>
+      </c>
+      <c r="Z20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>10920</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15273,8 +15724,35 @@
       <c r="T21" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="W21">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>8</v>
+      </c>
+      <c r="X21">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>43678</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>10533</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15338,8 +15816,35 @@
       <c r="T22" s="7">
         <v>906</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="W22">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="X22">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>43770</v>
+      </c>
+      <c r="Z22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>16802</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15403,8 +15908,35 @@
       <c r="T23" s="7">
         <v>1191</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="W23">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>8</v>
+      </c>
+      <c r="X23">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>44044</v>
+      </c>
+      <c r="Z23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>14939</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>1008427.317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15468,8 +16000,35 @@
       <c r="T24" s="7">
         <v>950</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="W24">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="X24">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>44136</v>
+      </c>
+      <c r="Z24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>14655</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>946329.03899999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15533,8 +16092,35 @@
       <c r="T25" s="7">
         <v>1422</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="W25">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>43952</v>
+      </c>
+      <c r="Z25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15598,8 +16184,35 @@
       <c r="T26" s="7">
         <v>949</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="W26">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>43831</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB26" s="9">
+        <v>14830</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>976221.82499999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15663,8 +16276,35 @@
       <c r="T27" s="7">
         <v>821</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="W27">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>43891</v>
+      </c>
+      <c r="Z27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB27" s="9">
+        <v>14688</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>915951.02399999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15728,8 +16368,35 @@
       <c r="T28" s="7">
         <v>900</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="W28">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="X28">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>36</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>44075</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>1935.5350000000001</v>
+      </c>
+      <c r="AC28" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15793,8 +16460,35 @@
       <c r="T29" s="7">
         <v>900</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V29">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="W29">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>43891</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB29" s="9">
+        <v>11825</v>
+      </c>
+      <c r="AC29" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15858,8 +16552,35 @@
       <c r="T30" s="7">
         <v>748</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="W30">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>7</v>
+      </c>
+      <c r="X30">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>44013</v>
+      </c>
+      <c r="Z30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>11825</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15923,8 +16644,35 @@
       <c r="T31" s="7">
         <v>831</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V31">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="W31">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>44105</v>
+      </c>
+      <c r="Z31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB31" s="9">
+        <v>14271</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>YEAR(VentaHuevo[[#This Row],[FECHA]])</f>
         <v>2018</v>
@@ -15987,6 +16735,33 @@
       </c>
       <c r="T32" s="7">
         <v>749</v>
+      </c>
+      <c r="V32">
+        <f>YEAR(NH[[#This Row],[Fecha]])</f>
+        <v>2021</v>
+      </c>
+      <c r="W32">
+        <f>MONTH(NH[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <f>WEEKNUM(NH[[#This Row],[Fecha]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="Y32" s="69">
+        <v>44205</v>
+      </c>
+      <c r="Z32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>20</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -25010,7 +25785,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{790FD62A-F1E4-49CF-A081-798E30152890}">
           <x14:formula1>
             <xm:f>ListasHuevo!$A$2:$A$4</xm:f>
@@ -25022,18 +25797,6 @@
             <xm:f>ListasHuevo!$C$2:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>Q4:Q248</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F44612F1-4D87-4FE9-B763-000575E0877B}">
-          <x14:formula1>
-            <xm:f>ListasHuevo!$E$2:$E$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>Z4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D063F869-EC00-490C-B7E4-5DD799AF75EC}">
-          <x14:formula1>
-            <xm:f>ListasHuevo!$G$2:$G$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>AA4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AD1E7AC2-8889-419C-B988-B1385F9FF878}">
           <x14:formula1>
@@ -25073,10 +25836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4E6DD1-DFC3-45C9-9E3B-A4985EE15B0A}">
-  <dimension ref="A1:AF44"/>
+  <dimension ref="A1:AF47"/>
   <sheetViews>
-    <sheetView topLeftCell="P2" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AF2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W46" sqref="S4:W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25093,8 +25856,9 @@
     <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -25103,36 +25867,36 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
     </row>
     <row r="2" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -25177,20 +25941,20 @@
       <c r="N2" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="AB2" s="62" t="s">
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="AB2" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
     </row>
     <row r="3" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -25335,7 +26099,7 @@
       </c>
       <c r="P4">
         <f>YEAR(NB[[#This Row],[Fecha]])</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="Q4">
         <f>MONTH(NB[[#This Row],[Fecha]])</f>
@@ -25345,11 +26109,21 @@
         <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
+      <c r="S4" s="6">
+        <v>43101</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" s="7">
+        <v>131</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
       <c r="Y4">
         <f>YEAR(MB[[#This Row],[Fecha]])</f>
         <v>1900</v>
@@ -25414,6 +26188,33 @@
       <c r="N5" s="20">
         <v>0</v>
       </c>
+      <c r="P5">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="Q5">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="S5" s="6">
+        <v>43132</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V5" s="7">
+        <v>103</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -25461,6 +26262,33 @@
       <c r="N6" s="20">
         <v>0</v>
       </c>
+      <c r="P6">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="Q6">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="S6" s="6">
+        <v>43160</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V6" s="7">
+        <v>71</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -25508,6 +26336,33 @@
       <c r="N7" s="20">
         <v>0</v>
       </c>
+      <c r="P7">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="Q7">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="S7" s="6">
+        <v>43191</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V7" s="7">
+        <v>85</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -25555,6 +26410,33 @@
       <c r="N8" s="20">
         <v>0</v>
       </c>
+      <c r="P8">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="Q8">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="S8" s="6">
+        <v>43221</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V8" s="7">
+        <v>85</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -25602,6 +26484,33 @@
       <c r="N9" s="20">
         <v>0</v>
       </c>
+      <c r="P9">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="Q9">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>22</v>
+      </c>
+      <c r="S9" s="6">
+        <v>43252</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V9" s="7">
+        <v>99</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -25649,6 +26558,33 @@
       <c r="N10" s="20">
         <v>0</v>
       </c>
+      <c r="P10">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="Q10">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>26</v>
+      </c>
+      <c r="S10" s="6">
+        <v>43282</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V10" s="7">
+        <v>51</v>
+      </c>
+      <c r="W10" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -25696,6 +26632,33 @@
       <c r="N11" s="20">
         <v>0</v>
       </c>
+      <c r="P11">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="Q11">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="S11" s="6">
+        <v>43313</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V11" s="7">
+        <v>100</v>
+      </c>
+      <c r="W11" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -25743,6 +26706,33 @@
       <c r="N12" s="20">
         <v>0</v>
       </c>
+      <c r="P12">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="Q12">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
+      </c>
+      <c r="S12" s="6">
+        <v>43344</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V12" s="7">
+        <v>49</v>
+      </c>
+      <c r="W12" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -25790,6 +26780,33 @@
       <c r="N13" s="20">
         <v>0</v>
       </c>
+      <c r="P13">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="Q13">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="S13" s="6">
+        <v>43374</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V13" s="7">
+        <v>137</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -25837,6 +26854,33 @@
       <c r="N14" s="20">
         <v>1</v>
       </c>
+      <c r="P14">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="Q14">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="R14">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="S14" s="6">
+        <v>43405</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V14" s="7">
+        <v>127</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -25884,6 +26928,33 @@
       <c r="N15" s="20">
         <v>0</v>
       </c>
+      <c r="P15">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2018</v>
+      </c>
+      <c r="Q15">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>48</v>
+      </c>
+      <c r="S15" s="6">
+        <v>43435</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V15" s="7">
+        <v>159</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -25931,8 +27002,35 @@
       <c r="N16" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="Q16">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="6">
+        <v>43466</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V16" s="7">
+        <v>89</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -25978,8 +27076,35 @@
       <c r="N17" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="Q17">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="S17" s="6">
+        <v>43497</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V17" s="7">
+        <v>198</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -26025,8 +27150,35 @@
       <c r="N18" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="Q18">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="S18" s="6">
+        <v>43525</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V18" s="7">
+        <v>154</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -26072,8 +27224,35 @@
       <c r="N19" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="Q19">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="S19" s="6">
+        <v>43556</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V19" s="7">
+        <v>108</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -26119,8 +27298,35 @@
       <c r="N20" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="Q20">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="S20" s="6">
+        <v>43586</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V20" s="7">
+        <v>144</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -26166,8 +27372,35 @@
       <c r="N21" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="Q21">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>22</v>
+      </c>
+      <c r="S21" s="6">
+        <v>43617</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V21" s="7">
+        <v>42</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -26213,8 +27446,35 @@
       <c r="N22" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="Q22">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>7</v>
+      </c>
+      <c r="R22">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="S22" s="6">
+        <v>43647</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V22" s="7">
+        <v>177</v>
+      </c>
+      <c r="W22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -26260,8 +27520,35 @@
       <c r="N23" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="Q23">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>8</v>
+      </c>
+      <c r="R23">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="S23" s="6">
+        <v>43678</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V23" s="7">
+        <v>75</v>
+      </c>
+      <c r="W23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2019</v>
@@ -26307,8 +27594,35 @@
       <c r="N24" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="Q24">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="R24">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>35</v>
+      </c>
+      <c r="S24" s="6">
+        <v>43709</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V24" s="7">
+        <v>53</v>
+      </c>
+      <c r="W24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26354,8 +27668,35 @@
       <c r="N25" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="Q25">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="R25">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="S25" s="6">
+        <v>43739</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V25" s="7">
+        <v>53</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26401,8 +27742,35 @@
       <c r="N26" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="Q26">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="R26">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="S26" s="6">
+        <v>43770</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V26" s="7">
+        <v>225</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26448,8 +27816,35 @@
       <c r="N27" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2019</v>
+      </c>
+      <c r="Q27">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>12</v>
+      </c>
+      <c r="R27">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>48</v>
+      </c>
+      <c r="S27" s="6">
+        <v>43800</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V27" s="7">
+        <v>146</v>
+      </c>
+      <c r="W27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26495,8 +27890,35 @@
       <c r="N28" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q28">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="R28">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>36</v>
+      </c>
+      <c r="S28" s="6">
+        <v>44075</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V28" s="7">
+        <v>16</v>
+      </c>
+      <c r="W28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26542,8 +27964,35 @@
       <c r="N29" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q29">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>40</v>
+      </c>
+      <c r="S29" s="6">
+        <v>44105</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V29" s="7">
+        <v>30</v>
+      </c>
+      <c r="W29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26589,8 +28038,35 @@
       <c r="N30" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q30">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="R30">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="S30" s="6">
+        <v>44136</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V30" s="7">
+        <v>134</v>
+      </c>
+      <c r="W30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26636,8 +28112,35 @@
       <c r="N31" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q31">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>12</v>
+      </c>
+      <c r="R31">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>49</v>
+      </c>
+      <c r="S31" s="6">
+        <v>44166</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V31" s="7">
+        <v>4</v>
+      </c>
+      <c r="W31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26683,8 +28186,35 @@
       <c r="N32" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q32">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>12</v>
+      </c>
+      <c r="R32">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>49</v>
+      </c>
+      <c r="S32" s="6">
+        <v>44166</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="V32" s="7">
+        <v>116</v>
+      </c>
+      <c r="W32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26730,8 +28260,35 @@
       <c r="N33" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q33">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="S33" s="6">
+        <v>43831</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V33" s="7">
+        <v>122</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26777,8 +28334,35 @@
       <c r="N34" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q34">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>5</v>
+      </c>
+      <c r="S34" s="6">
+        <v>43862</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V34" s="7">
+        <v>151</v>
+      </c>
+      <c r="W34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26824,8 +28408,35 @@
       <c r="N35" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q35">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>9</v>
+      </c>
+      <c r="S35" s="6">
+        <v>43891</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V35" s="7">
+        <v>233</v>
+      </c>
+      <c r="W35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26871,8 +28482,35 @@
       <c r="N36" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q36">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="S36" s="6">
+        <v>43922</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V36" s="7">
+        <v>122</v>
+      </c>
+      <c r="W36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26918,8 +28556,35 @@
       <c r="N37" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q37">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>5</v>
+      </c>
+      <c r="R37">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>18</v>
+      </c>
+      <c r="S37" s="6">
+        <v>43952</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V37" s="7">
+        <v>45</v>
+      </c>
+      <c r="W37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -26965,8 +28630,35 @@
       <c r="N38" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q38">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>23</v>
+      </c>
+      <c r="S38" s="6">
+        <v>43983</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V38" s="7">
+        <v>108</v>
+      </c>
+      <c r="W38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -27012,8 +28704,35 @@
       <c r="N39" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q39">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>7</v>
+      </c>
+      <c r="R39">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="S39" s="6">
+        <v>44013</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V39" s="7">
+        <v>70</v>
+      </c>
+      <c r="W39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -27059,8 +28778,35 @@
       <c r="N40" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q40">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>8</v>
+      </c>
+      <c r="R40">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="S40" s="6">
+        <v>44044</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V40" s="7">
+        <v>92</v>
+      </c>
+      <c r="W40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2020</v>
@@ -27106,8 +28852,35 @@
       <c r="N41" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q41">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="R41">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>36</v>
+      </c>
+      <c r="S41" s="6">
+        <v>44075</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U41" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V41" s="7">
+        <v>51</v>
+      </c>
+      <c r="W41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="35">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -27153,8 +28926,35 @@
       <c r="N42" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q42">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>8</v>
+      </c>
+      <c r="R42">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>31</v>
+      </c>
+      <c r="S42" s="6">
+        <v>44044</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V42" s="7">
+        <v>15</v>
+      </c>
+      <c r="W42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -27200,8 +29000,35 @@
       <c r="N43" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q43">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>9</v>
+      </c>
+      <c r="R43">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>36</v>
+      </c>
+      <c r="S43" s="6">
+        <v>44075</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V43" s="7">
+        <v>11</v>
+      </c>
+      <c r="W43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="44">
         <f>YEAR(InfoBorrego[[#This Row],[FECHA]])</f>
         <v>2021</v>
@@ -27245,6 +29072,120 @@
         <v>1</v>
       </c>
       <c r="N44" s="46"/>
+      <c r="P44">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q44">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>11</v>
+      </c>
+      <c r="R44">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>44</v>
+      </c>
+      <c r="S44" s="6">
+        <v>44136</v>
+      </c>
+      <c r="T44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V44" s="7">
+        <v>62</v>
+      </c>
+      <c r="W44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2020</v>
+      </c>
+      <c r="Q45">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>12</v>
+      </c>
+      <c r="R45">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>49</v>
+      </c>
+      <c r="S45" s="6">
+        <v>44166</v>
+      </c>
+      <c r="T45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U45" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V45" s="7">
+        <v>10</v>
+      </c>
+      <c r="W45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2021</v>
+      </c>
+      <c r="Q46">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="S46" s="6">
+        <v>44201</v>
+      </c>
+      <c r="T46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="V46" s="7">
+        <v>37</v>
+      </c>
+      <c r="W46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <f>YEAR(NB[[#This Row],[Fecha]])</f>
+        <v>2021</v>
+      </c>
+      <c r="Q47">
+        <f>MONTH(NB[[#This Row],[Fecha]])</f>
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <f>WEEKNUM(NB[[#This Row],[Fecha]],2)</f>
+        <v>4</v>
+      </c>
+      <c r="S47" s="6">
+        <v>44218</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V47" s="7">
+        <v>12</v>
+      </c>
+      <c r="W47" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -27262,23 +29203,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{509F3F27-9F6D-46EF-BF57-EDF56909569C}">
-          <x14:formula1>
-            <xm:f>ListasBorrego!$E$2:$E$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>T4:T100</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D9FAA49-5F3D-4440-A76C-6428691A6507}">
-          <x14:formula1>
-            <xm:f>ListasBorrego!$G$2:$G$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>U4:U100</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E05D79B9-0688-4638-97F2-AFB9DA3C690D}">
           <x14:formula1>
             <xm:f>ListasBorrego!$I$2</xm:f>
           </x14:formula1>
-          <xm:sqref>AC4</xm:sqref>
+          <xm:sqref>AC4:AC32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43E177EC-0BF2-4831-9403-427187E84403}">
           <x14:formula1>
@@ -27297,6 +29226,18 @@
             <xm:f>ListasBorrego!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{509F3F27-9F6D-46EF-BF57-EDF56909569C}">
+          <x14:formula1>
+            <xm:f>ListasBorrego!$E$2:$E$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>T4:T141</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D9FAA49-5F3D-4440-A76C-6428691A6507}">
+          <x14:formula1>
+            <xm:f>ListasBorrego!$G$2:$G$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>U4:U141</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27627,8 +29568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7063C5-D334-4BE2-952D-DF2C3B67705E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GV/RegistroInformacion.xlsx
+++ b/GV/RegistroInformacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED4CC62-35FD-446B-9365-A7886F19FAD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AF44FA-05B9-46CC-820A-24CC75F59473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16248" yWindow="840" windowWidth="11940" windowHeight="8712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CERDO" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4947" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4984" uniqueCount="183">
   <si>
     <t>CERDOS</t>
   </si>
@@ -679,7 +679,7 @@
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +819,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1046,7 +1051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1129,6 +1134,11 @@
     <xf numFmtId="4" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1165,55 +1175,17 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="7" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="120">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2901,6 +2873,44 @@
       <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4112,8 +4122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB0CB5FE-EC69-4A3C-B7F8-2A2B829875A7}" name="VentaCerdo" displayName="VentaCerdo" ref="A3:M139" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
-  <autoFilter ref="A3:M139" xr:uid="{C9EBBED2-E078-4EE1-9F48-7C43C603BD9F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB0CB5FE-EC69-4A3C-B7F8-2A2B829875A7}" name="VentaCerdo" displayName="VentaCerdo" ref="A3:M144" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+  <autoFilter ref="A3:M144" xr:uid="{C9EBBED2-E078-4EE1-9F48-7C43C603BD9F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M122">
     <sortCondition ref="D3:D122"/>
   </sortState>
@@ -4143,7 +4153,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:W47" totalsRowShown="0" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8651429E-3CCF-4283-963F-CE1D86878DE3}" name="NB" displayName="NB" ref="P3:W47" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="P3:W47" xr:uid="{F3E1A5D4-2206-4A5B-8082-DCC730185F04}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F593C191-662A-4A08-9C07-3BC417717AF5}" name="AÑO">
@@ -4155,18 +4165,18 @@
     <tableColumn id="3" xr3:uid="{AC94EA02-7DE1-43F2-9333-779EF3503D3B}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NB[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{B55103E2-E464-41CC-B7AF-504AF054E128}" name="Costo" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{262F6740-57C6-42B0-95B2-CA81288CD2CD}" name="Fecha" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{86F88214-2BD2-441F-8F5D-6918680F83CC}" name="Producto" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{CB17BC44-E2BE-4CCE-AAD8-2D70C83B4842}" name="Almacén" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{20B296C9-926F-4D06-B340-1B3183A1F0E5}" name="Entrada" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{B55103E2-E464-41CC-B7AF-504AF054E128}" name="Costo" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="Y3:AF109" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{87BC9115-FF64-4CCD-870C-F5486EBE0BF6}" name="MB" displayName="MB" ref="Y3:AF109" totalsRowShown="0" headerRowDxfId="48">
   <autoFilter ref="Y3:AF109" xr:uid="{C07E5018-4C77-46A8-A50B-107FA9C88156}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1E8E5BF2-508C-417D-BE57-3AACF0C714C5}" name="AÑO">
@@ -4178,43 +4188,43 @@
     <tableColumn id="3" xr3:uid="{0BD97616-9EFF-4FF6-9E9B-D9B72CED3912}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MB[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{4472A864-2AC2-45C2-9FD8-9DA2835143D6}" name="Costo" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{7F573887-B59C-4BEE-9E01-7A8C9A0FB227}" name="Fecha" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{C91C4368-6E38-4907-8554-722F18CCA7AC}" name="Descripción" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{8E66D7C9-E4E6-43F9-B89C-603982C07332}" name="Almacén" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{77D0FF8F-7647-48FF-A88B-9E8A6485B51B}" name="Salida" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{4472A864-2AC2-45C2-9FD8-9DA2835143D6}" name="Costo" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73802A7C-9467-411F-9B9E-19B18579D18D}" name="InfoBorrego" displayName="InfoBorrego" ref="A2:N44" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73802A7C-9467-411F-9B9E-19B18579D18D}" name="InfoBorrego" displayName="InfoBorrego" ref="A2:N44" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A2:N44" xr:uid="{4C07E7EB-F7E2-4DFC-BEF6-4C6501D45968}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N41">
     <sortCondition ref="D2:D41"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{25DB43AE-6CB5-4052-9309-BB1A746C2B8A}" name="Año" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{25DB43AE-6CB5-4052-9309-BB1A746C2B8A}" name="Año" dataDxfId="40">
       <calculatedColumnFormula>YEAR(InfoBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B9143660-3AB8-467B-8920-CB6CB4D2AE62}" name="Mes" dataDxfId="41">
+    <tableColumn id="2" xr3:uid="{B9143660-3AB8-467B-8920-CB6CB4D2AE62}" name="Mes" dataDxfId="39">
       <calculatedColumnFormula>MONTH(InfoBorrego[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AD20FB6D-7BA0-4707-ADAF-18C68FD3089A}" name="Semana" dataDxfId="40">
+    <tableColumn id="3" xr3:uid="{AD20FB6D-7BA0-4707-ADAF-18C68FD3089A}" name="Semana" dataDxfId="38">
       <calculatedColumnFormula>WEEKNUM(InfoBorrego[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18D75885-EEF0-4220-823D-4DA7DDF39375}" name="FECHA" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{43C2662C-CE7E-4866-957A-930698AB7A66}" name="PZA / CABEZA" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{B36A48EC-1A46-443B-B51A-33AD0D405A7B}" name="Granja" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{45BC65EB-537A-46EE-A94D-E1B7DA25F506}" name="Kilos Total B" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{B13E5F32-1CBF-4933-9A8F-8BD77BB84FD1}" name="Kilos Cancelados B" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{13DF204B-F704-4C3D-9381-D61A397A889E}" name="Cabezas Salidas B" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{27CA73FF-4927-4DCD-B37A-432278B1E1F4}" name="Cabezas Entradas B" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{FDAD35B4-C441-497A-A2DE-3236A7DFCE37}" name="Importe Ventas B" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{C3E0BFB5-AFCA-4C46-A1D9-EFB178AD5EEE}" name="Importe Costos B" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{B77506E4-D768-4D48-8C92-80B9A5A43275}" name="No. Ventas B" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{CEA4441E-EC83-441E-B023-EBEADC5A7A4F}" name="No. Cancelaciones B" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{18D75885-EEF0-4220-823D-4DA7DDF39375}" name="FECHA" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{43C2662C-CE7E-4866-957A-930698AB7A66}" name="PZA / CABEZA" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{B36A48EC-1A46-443B-B51A-33AD0D405A7B}" name="Granja" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{45BC65EB-537A-46EE-A94D-E1B7DA25F506}" name="Kilos Total B" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{B13E5F32-1CBF-4933-9A8F-8BD77BB84FD1}" name="Kilos Cancelados B" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{13DF204B-F704-4C3D-9381-D61A397A889E}" name="Cabezas Salidas B" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{27CA73FF-4927-4DCD-B37A-432278B1E1F4}" name="Cabezas Entradas B" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{FDAD35B4-C441-497A-A2DE-3236A7DFCE37}" name="Importe Ventas B" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{C3E0BFB5-AFCA-4C46-A1D9-EFB178AD5EEE}" name="Importe Costos B" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{B77506E4-D768-4D48-8C92-80B9A5A43275}" name="No. Ventas B" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{CEA4441E-EC83-441E-B023-EBEADC5A7A4F}" name="No. Cancelaciones B" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4231,10 +4241,10 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{87D3F1B1-9BFB-4962-B1E1-B5A3B607B8E6}" name="PNC" displayName="PNC" ref="C1:C6" totalsRowShown="0" dataDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="C1:C6" xr:uid="{79BD6A38-95D5-48F5-B30F-01B067AA4A61}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{E272FD8D-EB97-4C4A-B51C-B3A7AF0EBA0A}" name="ProductoNacimiento" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4334,10 +4344,10 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF45D115-374A-40C0-8D86-25AE41DDE243}" name="RH" displayName="RH" ref="C1:C8" totalsRowShown="0" dataDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="C1:C8" xr:uid="{750FC6F7-70F6-4B4E-96D7-A30F50A00065}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{0F2F3A8E-A423-4F30-80DD-B0FF8E6F61FE}" name="Bodega Postura H" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4384,27 +4394,27 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6B4177F0-5950-447A-8A7E-EECFDE618E9D}" name="DFH" displayName="DFH" ref="M1:M25" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="M1:M25" xr:uid="{066AC525-C68B-40D3-AE6B-D275A0A79615}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{799DDA5E-B376-41AA-A689-3A660979943E}" name="Descripción" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{F4AC4A7A-6B8E-4F6D-84F1-88848C4BFC53}" name="AFH" displayName="AFH" ref="O1:O8" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="O1:O8" xr:uid="{5D329DB3-7365-4EEF-8F0E-32C5AD338BA4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{A972FACD-4BAA-4284-A344-B0B89AAEF5A6}" name="Almacén" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{DF3123BF-C6EE-4852-BE92-1F3C04FDF032}" name="UFH" displayName="UFH" ref="Q1:Q4" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="Q1:Q4" xr:uid="{B76C3F68-F66F-46E8-9784-B4AAADE438F9}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7AF09891-3B17-4F67-912C-FAE5416AB3EF}" name="Unidad"/>
@@ -4426,11 +4436,11 @@
     <tableColumn id="3" xr3:uid="{CC8DCD94-2C62-421E-8A0B-4EE9F9AA0BA6}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MC[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057B6A06-06EB-4370-9C7D-67B564AB477C}" name="Fecha" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{F7D1F4AC-D899-4963-BC58-63184492E881}" name="Descripción" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{C424C129-BB09-45C4-8A52-C928098DD204}" name="Almacén" dataDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{D7883101-3244-4BC1-AC2D-3BFB937551E5}" name="Salida" dataDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{FF4DEFD2-915C-403C-AA9C-29CD60C65D91}" name="Costo" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{057B6A06-06EB-4370-9C7D-67B564AB477C}" name="Fecha" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{F7D1F4AC-D899-4963-BC58-63184492E881}" name="Descripción" dataDxfId="96"/>
+    <tableColumn id="7" xr3:uid="{C424C129-BB09-45C4-8A52-C928098DD204}" name="Almacén" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{D7883101-3244-4BC1-AC2D-3BFB937551E5}" name="Salida" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{FF4DEFD2-915C-403C-AA9C-29CD60C65D91}" name="Costo" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4477,10 +4487,10 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{14BF97AA-514C-43B8-ACBF-8377CC8F9163}" name="DMB" displayName="DMB" ref="I1:I2" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{14BF97AA-514C-43B8-ACBF-8377CC8F9163}" name="DMB" displayName="DMB" ref="I1:I2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="I1:I2" xr:uid="{7AB45DB3-5E72-4F44-A776-E252D9E90DB7}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4AF18E02-4261-4B0E-844D-1655706EFC80}" name="Descripción" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4AF18E02-4261-4B0E-844D-1655706EFC80}" name="Descripción" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4500,16 +4510,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{F8A2BD01-4AE8-4802-9B16-76ABC20DFBF1}" name="Alimento_2" displayName="Alimento_2" ref="AG3:AL265" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AG3:AL265" xr:uid="{97E8351D-8808-4947-8B68-26C0B69B8529}"/>
   <tableColumns count="6">
-    <tableColumn id="7" xr3:uid="{84A05541-E455-4F8A-9EFB-9B5BF4F88587}" uniqueName="7" name="Año" queryTableFieldId="7" dataDxfId="94">
+    <tableColumn id="7" xr3:uid="{84A05541-E455-4F8A-9EFB-9B5BF4F88587}" uniqueName="7" name="Año" queryTableFieldId="7" dataDxfId="92">
       <calculatedColumnFormula>YEAR(Alimento_2[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{11799CE2-00C9-475D-B488-58D76F986584}" uniqueName="6" name="Mes" queryTableFieldId="6" dataDxfId="93">
+    <tableColumn id="6" xr3:uid="{11799CE2-00C9-475D-B488-58D76F986584}" uniqueName="6" name="Mes" queryTableFieldId="6" dataDxfId="91">
       <calculatedColumnFormula>MONTH(Alimento_2[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B954B1E9-ED29-4F9B-9687-8C1E96885439}" uniqueName="5" name="Semana" queryTableFieldId="5" dataDxfId="92">
+    <tableColumn id="5" xr3:uid="{B954B1E9-ED29-4F9B-9687-8C1E96885439}" uniqueName="5" name="Semana" queryTableFieldId="5" dataDxfId="90">
       <calculatedColumnFormula>WEEKNUM(Alimento_2[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{A2D405AD-1FC1-4743-81B6-4BE8C5F5E51D}" uniqueName="1" name="Fecha" queryTableFieldId="1" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{A2D405AD-1FC1-4743-81B6-4BE8C5F5E51D}" uniqueName="1" name="Fecha" queryTableFieldId="1" dataDxfId="89"/>
     <tableColumn id="2" xr3:uid="{E618FA1A-92AC-45F7-A2B5-6F52C5CD8D41}" uniqueName="2" name="Almacen" queryTableFieldId="2"/>
     <tableColumn id="4" xr3:uid="{D8BCB348-EE7C-4E03-A808-59A794CE29F7}" uniqueName="4" name="Costo" queryTableFieldId="4"/>
   </tableColumns>
@@ -4518,36 +4528,36 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K108" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCB7B361-D7AD-453D-B08D-6A7BDC433A61}" name="VentaHuevo" displayName="VentaHuevo" ref="A3:K108" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <autoFilter ref="A3:K108" xr:uid="{D4382671-7652-40D0-940C-E955EF481B0A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K108">
     <sortCondition ref="D3:D108"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FD9F0EF0-AAEC-44EF-B652-AEE3A7B1514D}" name="Año" dataDxfId="88">
+    <tableColumn id="1" xr3:uid="{FD9F0EF0-AAEC-44EF-B652-AEE3A7B1514D}" name="Año" dataDxfId="86">
       <calculatedColumnFormula>YEAR(VentaHuevo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{38DF3F1A-ECDF-4B36-9176-FD4C2215E738}" name="Mes" dataDxfId="87">
+    <tableColumn id="2" xr3:uid="{38DF3F1A-ECDF-4B36-9176-FD4C2215E738}" name="Mes" dataDxfId="85">
       <calculatedColumnFormula>MONTH(VentaHuevo[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0806F8F4-F211-461B-8637-91E4CE806C4D}" name="Semana" dataDxfId="86">
+    <tableColumn id="3" xr3:uid="{0806F8F4-F211-461B-8637-91E4CE806C4D}" name="Semana" dataDxfId="84">
       <calculatedColumnFormula>WEEKNUM(VentaHuevo[[#This Row],[FECHA]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8434CCCE-DE27-4AE6-A002-E0E6CF045C72}" name="FECHA" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{779AD8B5-3C79-434E-A399-2FBAD1799E8D}" name="Postura" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{A97041C1-DD4A-498F-8E13-F603ABE564D9}" name="Kilos Total" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{CC975B41-EAF3-4B15-B675-8C8CEAE44165}" name="Kilos Cancelados" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{AC4B10C7-0849-4C4C-9BA5-AE8FB92493E2}" name="Importe Ventas" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{B2B64C19-21ED-42F7-B0F5-7AE2560707DB}" name="Importe Costos" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{777D0A0A-820D-4722-8450-983DB543ED2D}" name="No. Ventas" dataDxfId="79"/>
-    <tableColumn id="11" xr3:uid="{7E467BF3-DE83-4056-B631-B9B5060F190D}" name="No. Cancelaciones" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{8434CCCE-DE27-4AE6-A002-E0E6CF045C72}" name="FECHA" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{779AD8B5-3C79-434E-A399-2FBAD1799E8D}" name="Postura" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{A97041C1-DD4A-498F-8E13-F603ABE564D9}" name="Kilos Total" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{CC975B41-EAF3-4B15-B675-8C8CEAE44165}" name="Kilos Cancelados" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{AC4B10C7-0849-4C4C-9BA5-AE8FB92493E2}" name="Importe Ventas" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{B2B64C19-21ED-42F7-B0F5-7AE2560707DB}" name="Importe Costos" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{777D0A0A-820D-4722-8450-983DB543ED2D}" name="No. Ventas" dataDxfId="77"/>
+    <tableColumn id="11" xr3:uid="{7E467BF3-DE83-4056-B631-B9B5060F190D}" name="No. Cancelaciones" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B8C3BF5-B426-4FC9-8CCD-BD04125E8FC9}" name="RecoleccionHuevo" displayName="RecoleccionHuevo" ref="M3:T248" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76" tableBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B8C3BF5-B426-4FC9-8CCD-BD04125E8FC9}" name="RecoleccionHuevo" displayName="RecoleccionHuevo" ref="M3:T248" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" tableBorderDxfId="73">
   <autoFilter ref="M3:T248" xr:uid="{60C9021B-900B-4B60-A55B-39BD4E52B0C3}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5556DBC3-8C5C-48FF-AC71-14BD1764535F}" name="Año">
@@ -4556,21 +4566,21 @@
     <tableColumn id="2" xr3:uid="{C4348503-323D-43E8-8270-63F3FB635C31}" name="Mes">
       <calculatedColumnFormula>MONTH(RecoleccionHuevo[[#This Row],[Fecha]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B97B1594-D27C-4255-B30B-9D3C3FCE7D1F}" name="Semana" dataDxfId="74">
+    <tableColumn id="3" xr3:uid="{B97B1594-D27C-4255-B30B-9D3C3FCE7D1F}" name="Semana" dataDxfId="72">
       <calculatedColumnFormula>WEEKNUM(RecoleccionHuevo[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F575BA58-C636-4CCE-AEC8-386F16DEDFFA}" name="Fecha" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{F575BA58-C636-4CCE-AEC8-386F16DEDFFA}" name="Fecha" dataDxfId="71"/>
     <tableColumn id="5" xr3:uid="{D6F82851-3690-4182-8BD9-4BE245CA5B59}" name="Bodega Origen"/>
-    <tableColumn id="6" xr3:uid="{F0B3184E-20DE-4D34-8B90-DB4940FA096B}" name="Cantidad" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{9D264A97-0E03-44D4-AE76-4CD1B7BAA7FD}" name="Kilos" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{89B76523-86A1-41BF-B81B-2D6DD4F17AEE}" name="Cajas" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{F0B3184E-20DE-4D34-8B90-DB4940FA096B}" name="Cantidad" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{9D264A97-0E03-44D4-AE76-4CD1B7BAA7FD}" name="Kilos" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{89B76523-86A1-41BF-B81B-2D6DD4F17AEE}" name="Cajas" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{49922715-EB52-4A65-91E4-0475F5534B83}" name="NH" displayName="NH" ref="V3:AC32" totalsRowShown="0" headerRowDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{49922715-EB52-4A65-91E4-0475F5534B83}" name="NH" displayName="NH" ref="V3:AC32" totalsRowShown="0" headerRowDxfId="67">
   <autoFilter ref="V3:AC32" xr:uid="{9E909787-7729-4B69-B0D7-61A481011055}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BB52ECF0-F2EE-4B65-A7D9-9EDA649B5891}" name="AÑO">
@@ -4582,18 +4592,18 @@
     <tableColumn id="3" xr3:uid="{40E66E16-55FD-40FD-8212-C14977333B21}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(NH[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4DAFF2EC-25FE-4925-B214-00D322A9AC67}" name="Fecha" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{5EA58C44-0B6E-4368-8DCF-6D66196470FC}" name="Descripción" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{97EB3DE5-BB67-459C-B513-658E8D859B6B}" name="Almacén" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{6E7BB089-A777-4CF9-A575-1F853606112B}" name="Entrada" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{0B588A93-6EAE-419E-B771-7F6C74A2FC4B}" name="Costo" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{4DAFF2EC-25FE-4925-B214-00D322A9AC67}" name="Fecha" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{5EA58C44-0B6E-4368-8DCF-6D66196470FC}" name="Descripción" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{97EB3DE5-BB67-459C-B513-658E8D859B6B}" name="Almacén" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{6E7BB089-A777-4CF9-A575-1F853606112B}" name="Entrada" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{0B588A93-6EAE-419E-B771-7F6C74A2FC4B}" name="Costo" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AE3:AL541" totalsRowShown="0" headerRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{08ECE305-8696-4B92-AAC1-994C138F8197}" name="MH" displayName="MH" ref="AE3:AL541" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="AE3:AL541" xr:uid="{8AC8429F-5A18-4F92-8A2F-B1AB086595B2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2909D7D7-7DF1-42BB-B6A6-7E79BD333390}" name="AÑO">
@@ -4605,11 +4615,11 @@
     <tableColumn id="3" xr3:uid="{5BE7723A-8CFB-4D4C-B93F-00B4E59A0013}" name="SEMANA">
       <calculatedColumnFormula>WEEKNUM(MH[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{F7A8830A-D216-41B6-9B84-81B835720899}" name="Costo" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{E166EAA6-E7FA-47F4-8663-D36E75BD4551}" name="Fecha" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{1C4A59CE-B9EC-4404-AB42-D74C1B7D3FBC}" name="Descripción" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{0C49F5F7-A98C-41C3-BA35-87B49A7CD89C}" name="Almacén" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{D3993B0E-C1D3-4431-AE55-F8A1AECA4B2B}" name="Salida" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{F7A8830A-D216-41B6-9B84-81B835720899}" name="Costo" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4628,7 +4638,7 @@
     <tableColumn id="3" xr3:uid="{2C877E85-B15F-4BDC-B7AA-AB9C9AB720F1}" name="Semana">
       <calculatedColumnFormula>WEEKNUM(FH[[#This Row],[Fecha]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{048B4BCB-E965-4D52-8535-C29744E88416}" name="Fecha" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{048B4BCB-E965-4D52-8535-C29744E88416}" name="Fecha" dataDxfId="55"/>
     <tableColumn id="5" xr3:uid="{F52BA2AE-2A75-45DD-9152-32ECD5DBB404}" name="Descripción"/>
     <tableColumn id="6" xr3:uid="{76914CE7-754F-429D-8325-60BFF5EDAC18}" name="Almacén"/>
     <tableColumn id="7" xr3:uid="{6D7949CD-D2ED-4516-8FBD-2631E097A73D}" name="Unidad"/>
@@ -4904,8 +4914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+    <sheetView topLeftCell="F1" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4947,82 +4957,82 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
     </row>
     <row r="2" spans="1:38" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="D2" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
       <c r="N2" s="30"/>
-      <c r="R2" s="74" t="s">
+      <c r="R2" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="AA2" s="75" t="s">
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="AA2" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
       <c r="AH2" s="58"/>
       <c r="AI2" s="58"/>
-      <c r="AJ2" s="76" t="s">
+      <c r="AJ2" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
     </row>
     <row r="3" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -5098,7 +5108,7 @@
       <c r="Z3" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="72" t="s">
         <v>23</v>
       </c>
       <c r="AB3" s="3" t="s">
@@ -7823,7 +7833,7 @@
       </c>
       <c r="X26">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="Y26">
         <f>MONTH(MC[[#This Row],[Fecha]])</f>
@@ -7831,12 +7841,23 @@
       </c>
       <c r="Z26">
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>43131</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD26" s="7">
+        <v>862</v>
+      </c>
+      <c r="AE26" s="7">
+        <v>533834.99</v>
+      </c>
       <c r="AG26" s="59">
         <f>YEAR(Alimento_2[[#This Row],[Fecha]])</f>
         <v>2020</v>
@@ -7929,22 +7950,33 @@
       <c r="V27" s="7">
         <v>0</v>
       </c>
-      <c r="X27">
+      <c r="X27" t="e">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
-        <v>1900</v>
-      </c>
-      <c r="Y27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y27" t="e">
         <f>MONTH(MC[[#This Row],[Fecha]])</f>
-        <v>1</v>
-      </c>
-      <c r="Z27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z27" t="e">
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD27" s="7">
+        <v>157</v>
+      </c>
+      <c r="AE27" s="7">
+        <v>169500</v>
+      </c>
       <c r="AG27" s="59">
         <f>YEAR(Alimento_2[[#This Row],[Fecha]])</f>
         <v>2020</v>
@@ -8039,20 +8071,31 @@
       </c>
       <c r="X28">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="Y28">
         <f>MONTH(MC[[#This Row],[Fecha]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z28">
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>43190</v>
+      </c>
+      <c r="AB28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD28" s="7">
+        <v>64</v>
+      </c>
+      <c r="AE28" s="7">
+        <v>0</v>
+      </c>
       <c r="AG28" s="59">
         <f>YEAR(Alimento_2[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -8145,22 +8188,33 @@
       <c r="V29" s="7">
         <v>0</v>
       </c>
-      <c r="X29">
+      <c r="X29" t="e">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
-        <v>1900</v>
-      </c>
-      <c r="Y29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y29" t="e">
         <f>MONTH(MC[[#This Row],[Fecha]])</f>
-        <v>1</v>
-      </c>
-      <c r="Z29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z29" t="e">
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="7">
+        <v>127</v>
+      </c>
+      <c r="AE29" s="7">
+        <v>0</v>
+      </c>
       <c r="AG29" s="59">
         <f>YEAR(Alimento_2[[#This Row],[Fecha]])</f>
         <v>2019</v>
@@ -8255,20 +8309,31 @@
       </c>
       <c r="X30">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="Y30">
         <f>MONTH(MC[[#This Row],[Fecha]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z30">
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="AA30" s="25">
+        <v>43251</v>
+      </c>
+      <c r="AB30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD30" s="7">
+        <v>447</v>
+      </c>
+      <c r="AE30" s="7">
+        <v>864475.86</v>
+      </c>
       <c r="AG30" s="59">
         <f>YEAR(Alimento_2[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -8361,20 +8426,27 @@
       <c r="V31" s="7">
         <v>0</v>
       </c>
-      <c r="X31">
+      <c r="X31" t="e">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
-        <v>1900</v>
-      </c>
-      <c r="Y31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y31" t="e">
         <f>MONTH(MC[[#This Row],[Fecha]])</f>
-        <v>1</v>
-      </c>
-      <c r="Z31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z31" t="e">
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC31" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
       <c r="AG31" s="59">
@@ -8471,19 +8543,25 @@
       </c>
       <c r="X32">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="Y32">
         <f>MONTH(MC[[#This Row],[Fecha]])</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z32">
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="AA32" s="86"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="AA32" s="25">
+        <v>43312</v>
+      </c>
+      <c r="AB32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC32" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
       <c r="AG32" s="59">
@@ -8580,19 +8658,25 @@
       </c>
       <c r="X33">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="Y33">
         <f>MONTH(MC[[#This Row],[Fecha]])</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z33">
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="AA33" s="86"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>43343</v>
+      </c>
+      <c r="AB33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC33" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AG33" s="59">
@@ -8687,21 +8771,27 @@
       <c r="V34" s="7">
         <v>2E-3</v>
       </c>
-      <c r="X34">
+      <c r="X34" t="e">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
-        <v>1900</v>
-      </c>
-      <c r="Y34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y34" t="e">
         <f>MONTH(MC[[#This Row],[Fecha]])</f>
-        <v>1</v>
-      </c>
-      <c r="Z34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z34" t="e">
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="AA34" s="86"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA34" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC34" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
       <c r="AG34" s="59">
@@ -8798,21 +8888,31 @@
       </c>
       <c r="X35">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="Y35">
         <f>MONTH(MC[[#This Row],[Fecha]])</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z35">
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="AA35" s="86"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="AA35" s="6">
+        <v>43404</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD35" s="7">
+        <v>428</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>941011.79</v>
+      </c>
       <c r="AG35" s="59">
         <f>YEAR(Alimento_2[[#This Row],[Fecha]])</f>
         <v>2018</v>
@@ -8905,22 +9005,30 @@
       <c r="V36" s="7">
         <v>748443.38</v>
       </c>
-      <c r="X36">
+      <c r="X36" t="e">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
-        <v>1900</v>
-      </c>
-      <c r="Y36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y36" t="e">
         <f>MONTH(MC[[#This Row],[Fecha]])</f>
-        <v>1</v>
-      </c>
-      <c r="Z36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z36" t="e">
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="AA36" s="86"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
-      <c r="AD36" s="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD36" s="7">
+        <v>32</v>
+      </c>
       <c r="AE36" s="7"/>
       <c r="AG36" s="59">
         <f>YEAR(Alimento_2[[#This Row],[Fecha]])</f>
@@ -9016,20 +9124,28 @@
       </c>
       <c r="X37">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="Y37">
         <f>MONTH(MC[[#This Row],[Fecha]])</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Z37">
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
-        <v>1</v>
-      </c>
-      <c r="AA37" s="86"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="AA37" s="25">
+        <v>43465</v>
+      </c>
+      <c r="AB37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD37" s="7">
+        <v>37</v>
+      </c>
       <c r="AE37" s="7"/>
       <c r="AG37" s="59">
         <f>YEAR(Alimento_2[[#This Row],[Fecha]])</f>
@@ -9135,9 +9251,13 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA38" s="86"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7"/>
+      <c r="AA38" s="74"/>
+      <c r="AB38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC38" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
       <c r="AG38" s="59">
@@ -9244,9 +9364,13 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA39" s="86"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7"/>
+      <c r="AA39" s="74"/>
+      <c r="AB39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC39" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
       <c r="AG39" s="59">
@@ -9353,9 +9477,13 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA40" s="86"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7"/>
+      <c r="AA40" s="74"/>
+      <c r="AB40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC40" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
       <c r="AG40" s="59">
@@ -9462,9 +9590,13 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA41" s="86"/>
-      <c r="AB41" s="7"/>
-      <c r="AC41" s="7"/>
+      <c r="AA41" s="74"/>
+      <c r="AB41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC41" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="AD41" s="7"/>
       <c r="AE41" s="7"/>
       <c r="AG41" s="59">
@@ -9571,7 +9703,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA42" s="86"/>
+      <c r="AA42" s="74"/>
       <c r="AB42" s="7"/>
       <c r="AC42" s="7"/>
       <c r="AD42" s="7"/>
@@ -9680,7 +9812,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA43" s="86"/>
+      <c r="AA43" s="74"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
@@ -9789,7 +9921,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA44" s="86"/>
+      <c r="AA44" s="74"/>
       <c r="AB44" s="7"/>
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
@@ -9898,7 +10030,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA45" s="86"/>
+      <c r="AA45" s="74"/>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
@@ -10007,7 +10139,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA46" s="86"/>
+      <c r="AA46" s="74"/>
       <c r="AB46" s="7"/>
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
@@ -10116,7 +10248,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA47" s="85"/>
+      <c r="AA47" s="73"/>
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
@@ -10225,7 +10357,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA48" s="86"/>
+      <c r="AA48" s="74"/>
       <c r="AB48" s="7"/>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
@@ -10334,7 +10466,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA49" s="86"/>
+      <c r="AA49" s="74"/>
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
@@ -10443,7 +10575,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA50" s="86"/>
+      <c r="AA50" s="74"/>
       <c r="AB50" s="7"/>
       <c r="AC50" s="7"/>
       <c r="AD50" s="7"/>
@@ -10552,7 +10684,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA51" s="86"/>
+      <c r="AA51" s="74"/>
       <c r="AB51" s="7"/>
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
@@ -10661,7 +10793,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA52" s="86"/>
+      <c r="AA52" s="74"/>
       <c r="AB52" s="7"/>
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
@@ -10770,7 +10902,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA53" s="86"/>
+      <c r="AA53" s="74"/>
       <c r="AB53" s="7"/>
       <c r="AC53" s="7"/>
       <c r="AD53" s="7"/>
@@ -10879,7 +11011,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA54" s="86"/>
+      <c r="AA54" s="74"/>
       <c r="AB54" s="7"/>
       <c r="AC54" s="7"/>
       <c r="AD54" s="7"/>
@@ -10988,7 +11120,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA55" s="86"/>
+      <c r="AA55" s="74"/>
       <c r="AB55" s="7"/>
       <c r="AC55" s="7"/>
       <c r="AD55" s="7"/>
@@ -11097,7 +11229,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA56" s="86"/>
+      <c r="AA56" s="74"/>
       <c r="AB56" s="7"/>
       <c r="AC56" s="7"/>
       <c r="AD56" s="7"/>
@@ -11206,7 +11338,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA57" s="86"/>
+      <c r="AA57" s="74"/>
       <c r="AB57" s="7"/>
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
@@ -11315,7 +11447,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA58" s="86"/>
+      <c r="AA58" s="74"/>
       <c r="AB58" s="7"/>
       <c r="AC58" s="7"/>
       <c r="AD58" s="7"/>
@@ -11424,7 +11556,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA59" s="86"/>
+      <c r="AA59" s="74"/>
       <c r="AB59" s="7"/>
       <c r="AC59" s="7"/>
       <c r="AD59" s="7"/>
@@ -11533,7 +11665,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA60" s="86"/>
+      <c r="AA60" s="74"/>
       <c r="AB60" s="7"/>
       <c r="AC60" s="7"/>
       <c r="AD60" s="7"/>
@@ -11642,7 +11774,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA61" s="86"/>
+      <c r="AA61" s="74"/>
       <c r="AB61" s="7"/>
       <c r="AC61" s="7"/>
       <c r="AD61" s="7"/>
@@ -11751,7 +11883,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA62" s="86"/>
+      <c r="AA62" s="74"/>
       <c r="AB62" s="7"/>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
@@ -11860,7 +11992,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA63" s="86"/>
+      <c r="AA63" s="74"/>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
       <c r="AD63" s="7"/>
@@ -11969,7 +12101,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA64" s="86"/>
+      <c r="AA64" s="74"/>
       <c r="AB64" s="7"/>
       <c r="AC64" s="7"/>
       <c r="AD64" s="7"/>
@@ -12078,7 +12210,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA65" s="86"/>
+      <c r="AA65" s="74"/>
       <c r="AB65" s="7"/>
       <c r="AC65" s="7"/>
       <c r="AD65" s="7"/>
@@ -12187,7 +12319,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA66" s="86"/>
+      <c r="AA66" s="74"/>
       <c r="AB66" s="7"/>
       <c r="AC66" s="7"/>
       <c r="AD66" s="7"/>
@@ -12296,7 +12428,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA67" s="86"/>
+      <c r="AA67" s="74"/>
       <c r="AB67" s="7"/>
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
@@ -12405,7 +12537,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA68" s="86"/>
+      <c r="AA68" s="74"/>
       <c r="AB68" s="7"/>
       <c r="AC68" s="7"/>
       <c r="AD68" s="7"/>
@@ -12514,7 +12646,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA69" s="86"/>
+      <c r="AA69" s="74"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
@@ -12623,7 +12755,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA70" s="86"/>
+      <c r="AA70" s="74"/>
       <c r="AB70" s="7"/>
       <c r="AC70" s="7"/>
       <c r="AD70" s="7"/>
@@ -12732,7 +12864,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA71" s="86"/>
+      <c r="AA71" s="74"/>
       <c r="AB71" s="7"/>
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
@@ -12841,7 +12973,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA72" s="86"/>
+      <c r="AA72" s="74"/>
       <c r="AB72" s="7"/>
       <c r="AC72" s="7"/>
       <c r="AD72" s="7"/>
@@ -12950,7 +13082,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA73" s="86"/>
+      <c r="AA73" s="74"/>
       <c r="AB73" s="7"/>
       <c r="AC73" s="7"/>
       <c r="AD73" s="7"/>
@@ -13059,7 +13191,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA74" s="86"/>
+      <c r="AA74" s="74"/>
       <c r="AB74" s="7"/>
       <c r="AC74" s="7"/>
       <c r="AD74" s="7"/>
@@ -13168,7 +13300,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA75" s="86"/>
+      <c r="AA75" s="74"/>
       <c r="AB75" s="7"/>
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
@@ -13277,7 +13409,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA76" s="87"/>
+      <c r="AA76" s="75"/>
       <c r="AB76" s="7"/>
       <c r="AC76" s="7"/>
       <c r="AD76" s="7"/>
@@ -13386,7 +13518,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA77" s="86"/>
+      <c r="AA77" s="74"/>
       <c r="AB77" s="7"/>
       <c r="AC77" s="7"/>
       <c r="AD77" s="7"/>
@@ -13495,7 +13627,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA78" s="87"/>
+      <c r="AA78" s="75"/>
       <c r="AB78" s="7"/>
       <c r="AC78" s="7"/>
       <c r="AD78" s="7"/>
@@ -13604,7 +13736,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA79" s="87"/>
+      <c r="AA79" s="75"/>
       <c r="AB79" s="7"/>
       <c r="AC79" s="7"/>
       <c r="AD79" s="7"/>
@@ -13713,7 +13845,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA80" s="87"/>
+      <c r="AA80" s="75"/>
       <c r="AB80" s="7"/>
       <c r="AC80" s="7"/>
       <c r="AD80" s="7"/>
@@ -13822,7 +13954,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA81" s="87"/>
+      <c r="AA81" s="75"/>
       <c r="AB81" s="7"/>
       <c r="AC81" s="7"/>
       <c r="AD81" s="7"/>
@@ -13931,7 +14063,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA82" s="87"/>
+      <c r="AA82" s="75"/>
       <c r="AB82" s="7"/>
       <c r="AC82" s="7"/>
       <c r="AD82" s="7"/>
@@ -14040,7 +14172,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA83" s="87"/>
+      <c r="AA83" s="75"/>
       <c r="AB83" s="7"/>
       <c r="AC83" s="7"/>
       <c r="AD83" s="7"/>
@@ -14149,7 +14281,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA84" s="86"/>
+      <c r="AA84" s="74"/>
       <c r="AB84" s="7"/>
       <c r="AC84" s="7"/>
       <c r="AD84" s="7"/>
@@ -14258,7 +14390,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA85" s="86"/>
+      <c r="AA85" s="74"/>
       <c r="AB85" s="7"/>
       <c r="AC85" s="7"/>
       <c r="AD85" s="7"/>
@@ -14367,7 +14499,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA86" s="86"/>
+      <c r="AA86" s="74"/>
       <c r="AB86" s="7"/>
       <c r="AC86" s="7"/>
       <c r="AD86" s="7"/>
@@ -14476,7 +14608,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA87" s="86"/>
+      <c r="AA87" s="74"/>
       <c r="AB87" s="7"/>
       <c r="AC87" s="7"/>
       <c r="AD87" s="7"/>
@@ -14585,7 +14717,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA88" s="86"/>
+      <c r="AA88" s="74"/>
       <c r="AB88" s="7"/>
       <c r="AC88" s="7"/>
       <c r="AD88" s="7"/>
@@ -14694,7 +14826,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA89" s="86"/>
+      <c r="AA89" s="74"/>
       <c r="AB89" s="7"/>
       <c r="AC89" s="7"/>
       <c r="AD89" s="7"/>
@@ -14803,7 +14935,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA90" s="86"/>
+      <c r="AA90" s="74"/>
       <c r="AB90" s="7"/>
       <c r="AC90" s="7"/>
       <c r="AD90" s="7"/>
@@ -14912,7 +15044,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA91" s="86"/>
+      <c r="AA91" s="74"/>
       <c r="AB91" s="7"/>
       <c r="AC91" s="7"/>
       <c r="AD91" s="7"/>
@@ -15021,7 +15153,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA92" s="86"/>
+      <c r="AA92" s="74"/>
       <c r="AB92" s="7"/>
       <c r="AC92" s="7"/>
       <c r="AD92" s="7"/>
@@ -15130,7 +15262,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA93" s="86"/>
+      <c r="AA93" s="74"/>
       <c r="AB93" s="7"/>
       <c r="AC93" s="7"/>
       <c r="AD93" s="7"/>
@@ -15239,7 +15371,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA94" s="86"/>
+      <c r="AA94" s="74"/>
       <c r="AB94" s="7"/>
       <c r="AC94" s="7"/>
       <c r="AD94" s="7"/>
@@ -15348,7 +15480,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA95" s="86"/>
+      <c r="AA95" s="74"/>
       <c r="AB95" s="7"/>
       <c r="AC95" s="7"/>
       <c r="AD95" s="7"/>
@@ -15457,7 +15589,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA96" s="86"/>
+      <c r="AA96" s="74"/>
       <c r="AB96" s="7"/>
       <c r="AC96" s="7"/>
       <c r="AD96" s="7"/>
@@ -15566,7 +15698,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA97" s="86"/>
+      <c r="AA97" s="74"/>
       <c r="AB97" s="7"/>
       <c r="AC97" s="7"/>
       <c r="AD97" s="7"/>
@@ -15675,7 +15807,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA98" s="86"/>
+      <c r="AA98" s="74"/>
       <c r="AB98" s="7"/>
       <c r="AC98" s="7"/>
       <c r="AD98" s="7"/>
@@ -15784,7 +15916,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA99" s="86"/>
+      <c r="AA99" s="74"/>
       <c r="AB99" s="7"/>
       <c r="AC99" s="7"/>
       <c r="AD99" s="7"/>
@@ -15893,7 +16025,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA100" s="86"/>
+      <c r="AA100" s="74"/>
       <c r="AB100" s="7"/>
       <c r="AC100" s="7"/>
       <c r="AD100" s="7"/>
@@ -15975,7 +16107,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA101" s="86"/>
+      <c r="AA101" s="74"/>
       <c r="AB101" s="7"/>
       <c r="AC101" s="7"/>
       <c r="AD101" s="7"/>
@@ -16057,7 +16189,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA102" s="86"/>
+      <c r="AA102" s="74"/>
       <c r="AB102" s="7"/>
       <c r="AC102" s="7"/>
       <c r="AD102" s="7"/>
@@ -16139,7 +16271,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA103" s="86"/>
+      <c r="AA103" s="74"/>
       <c r="AB103" s="7"/>
       <c r="AC103" s="7"/>
       <c r="AD103" s="7"/>
@@ -16221,7 +16353,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA104" s="86"/>
+      <c r="AA104" s="74"/>
       <c r="AB104" s="7"/>
       <c r="AC104" s="7"/>
       <c r="AD104" s="7"/>
@@ -16303,7 +16435,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA105" s="86"/>
+      <c r="AA105" s="74"/>
       <c r="AB105" s="7"/>
       <c r="AC105" s="7"/>
       <c r="AD105" s="7"/>
@@ -16385,7 +16517,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA106" s="86"/>
+      <c r="AA106" s="74"/>
       <c r="AB106" s="7"/>
       <c r="AC106" s="7"/>
       <c r="AD106" s="7"/>
@@ -16467,7 +16599,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA107" s="86"/>
+      <c r="AA107" s="74"/>
       <c r="AB107" s="7"/>
       <c r="AC107" s="7"/>
       <c r="AD107" s="7"/>
@@ -16549,7 +16681,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA108" s="86"/>
+      <c r="AA108" s="74"/>
       <c r="AB108" s="7"/>
       <c r="AC108" s="7"/>
       <c r="AD108" s="7"/>
@@ -16631,7 +16763,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA109" s="86"/>
+      <c r="AA109" s="74"/>
       <c r="AB109" s="7"/>
       <c r="AC109" s="7"/>
       <c r="AD109" s="7"/>
@@ -16713,7 +16845,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA110" s="86"/>
+      <c r="AA110" s="74"/>
       <c r="AB110" s="7"/>
       <c r="AC110" s="7"/>
       <c r="AD110" s="7"/>
@@ -16795,7 +16927,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA111" s="86"/>
+      <c r="AA111" s="74"/>
       <c r="AB111" s="7"/>
       <c r="AC111" s="7"/>
       <c r="AD111" s="7"/>
@@ -16877,7 +17009,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA112" s="86"/>
+      <c r="AA112" s="74"/>
       <c r="AB112" s="7"/>
       <c r="AC112" s="7"/>
       <c r="AD112" s="7"/>
@@ -16959,7 +17091,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA113" s="86"/>
+      <c r="AA113" s="74"/>
       <c r="AB113" s="7"/>
       <c r="AC113" s="7"/>
       <c r="AD113" s="7"/>
@@ -17041,7 +17173,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA114" s="86"/>
+      <c r="AA114" s="74"/>
       <c r="AB114" s="7"/>
       <c r="AC114" s="7"/>
       <c r="AD114" s="7"/>
@@ -17123,7 +17255,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA115" s="86"/>
+      <c r="AA115" s="74"/>
       <c r="AB115" s="7"/>
       <c r="AC115" s="7"/>
       <c r="AD115" s="7"/>
@@ -17205,7 +17337,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA116" s="86"/>
+      <c r="AA116" s="74"/>
       <c r="AB116" s="7"/>
       <c r="AC116" s="7"/>
       <c r="AD116" s="7"/>
@@ -17287,7 +17419,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA117" s="86"/>
+      <c r="AA117" s="74"/>
       <c r="AB117" s="7"/>
       <c r="AC117" s="7"/>
       <c r="AD117" s="7"/>
@@ -17369,7 +17501,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA118" s="86"/>
+      <c r="AA118" s="74"/>
       <c r="AB118" s="7"/>
       <c r="AC118" s="7"/>
       <c r="AD118" s="7"/>
@@ -17451,7 +17583,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA119" s="86"/>
+      <c r="AA119" s="74"/>
       <c r="AB119" s="7"/>
       <c r="AC119" s="7"/>
       <c r="AD119" s="7"/>
@@ -17533,7 +17665,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA120" s="86"/>
+      <c r="AA120" s="74"/>
       <c r="AB120" s="7"/>
       <c r="AC120" s="7"/>
       <c r="AD120" s="7"/>
@@ -17615,7 +17747,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA121" s="86"/>
+      <c r="AA121" s="74"/>
       <c r="AB121" s="7"/>
       <c r="AC121" s="7"/>
       <c r="AD121" s="7"/>
@@ -17697,7 +17829,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA122" s="86"/>
+      <c r="AA122" s="74"/>
       <c r="AB122" s="7"/>
       <c r="AC122" s="7"/>
       <c r="AD122" s="7"/>
@@ -17779,7 +17911,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA123" s="86"/>
+      <c r="AA123" s="74"/>
       <c r="AB123" s="7"/>
       <c r="AC123" s="7"/>
       <c r="AD123" s="7"/>
@@ -17861,7 +17993,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA124" s="88"/>
+      <c r="AA124" s="76"/>
       <c r="AB124" s="7"/>
       <c r="AC124" s="7"/>
       <c r="AD124" s="7"/>
@@ -17943,7 +18075,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA125" s="88"/>
+      <c r="AA125" s="76"/>
       <c r="AB125" s="7"/>
       <c r="AC125" s="7"/>
       <c r="AD125" s="7"/>
@@ -18025,7 +18157,7 @@
         <f>WEEKNUM(MC[[#This Row],[Fecha]],2)</f>
         <v>1</v>
       </c>
-      <c r="AA126" s="88"/>
+      <c r="AA126" s="76"/>
       <c r="AB126" s="7"/>
       <c r="AC126" s="7"/>
       <c r="AD126" s="7"/>
@@ -19119,7 +19251,28 @@
       </c>
     </row>
     <row r="140" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D140" s="25"/>
+      <c r="A140" s="89">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1900</v>
+      </c>
+      <c r="B140" s="89">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C140" s="89">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="D140" s="90"/>
+      <c r="E140" s="91"/>
+      <c r="F140" s="92"/>
+      <c r="G140" s="92"/>
+      <c r="H140" s="92"/>
+      <c r="I140" s="92"/>
+      <c r="J140" s="93"/>
+      <c r="K140" s="93"/>
+      <c r="L140" s="93"/>
+      <c r="M140" s="93"/>
       <c r="X140">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
         <v>1900</v>
@@ -19160,6 +19313,28 @@
       </c>
     </row>
     <row r="141" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="89">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1900</v>
+      </c>
+      <c r="B141" s="89">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C141" s="89">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="D141" s="90"/>
+      <c r="E141" s="91"/>
+      <c r="F141" s="92"/>
+      <c r="G141" s="92"/>
+      <c r="H141" s="92"/>
+      <c r="I141" s="92"/>
+      <c r="J141" s="93"/>
+      <c r="K141" s="93"/>
+      <c r="L141" s="93"/>
+      <c r="M141" s="93"/>
       <c r="X141">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
         <v>1900</v>
@@ -19200,6 +19375,28 @@
       </c>
     </row>
     <row r="142" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="89">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1900</v>
+      </c>
+      <c r="B142" s="89">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C142" s="89">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="D142" s="90"/>
+      <c r="E142" s="91"/>
+      <c r="F142" s="92"/>
+      <c r="G142" s="92"/>
+      <c r="H142" s="92"/>
+      <c r="I142" s="92"/>
+      <c r="J142" s="93"/>
+      <c r="K142" s="93"/>
+      <c r="L142" s="93"/>
+      <c r="M142" s="93"/>
       <c r="X142">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
         <v>1900</v>
@@ -19240,6 +19437,28 @@
       </c>
     </row>
     <row r="143" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="89">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1900</v>
+      </c>
+      <c r="B143" s="89">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C143" s="89">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="D143" s="90"/>
+      <c r="E143" s="91"/>
+      <c r="F143" s="92"/>
+      <c r="G143" s="92"/>
+      <c r="H143" s="92"/>
+      <c r="I143" s="92"/>
+      <c r="J143" s="93"/>
+      <c r="K143" s="93"/>
+      <c r="L143" s="93"/>
+      <c r="M143" s="93"/>
       <c r="X143">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
         <v>1900</v>
@@ -19280,6 +19499,28 @@
       </c>
     </row>
     <row r="144" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="89">
+        <f>YEAR(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1900</v>
+      </c>
+      <c r="B144" s="89">
+        <f>MONTH(VentaCerdo[[#This Row],[FECHA]])</f>
+        <v>1</v>
+      </c>
+      <c r="C144" s="89">
+        <f>WEEKNUM(VentaCerdo[[#This Row],[FECHA]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="D144" s="90"/>
+      <c r="E144" s="91"/>
+      <c r="F144" s="92"/>
+      <c r="G144" s="92"/>
+      <c r="H144" s="92"/>
+      <c r="I144" s="92"/>
+      <c r="J144" s="93"/>
+      <c r="K144" s="93"/>
+      <c r="L144" s="93"/>
+      <c r="M144" s="93"/>
       <c r="X144">
         <f>YEAR(MC[[#This Row],[Fecha]])</f>
         <v>1900</v>
@@ -24318,19 +24559,19 @@
           <x14:formula1>
             <xm:f>ListasCerdo!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E139</xm:sqref>
+          <xm:sqref>E4:E144</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{62A2F8C1-9D5E-4C6E-81F9-CEEB6872C335}">
           <x14:formula1>
             <xm:f>ListasCerdo!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB4:AB32</xm:sqref>
+          <xm:sqref>AB4:AB41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AA0F929-4B76-47AB-A9A6-3F15331894A0}">
           <x14:formula1>
             <xm:f>ListasCerdo!$I$2:$I$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AC4:AC32</xm:sqref>
+          <xm:sqref>AC4:AC41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4646B4B7-5AB0-4DEF-B44B-945A940670E7}">
           <x14:formula1>
@@ -24391,100 +24632,100 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="82"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
     </row>
     <row r="2" spans="1:48" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="M2" s="79" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="M2" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="Y2" s="81" t="s">
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="Y2" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AH2" s="80" t="s">
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AH2" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AQ2" s="76" t="s">
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AQ2" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="76"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="76"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="81"/>
+      <c r="AU2" s="81"/>
+      <c r="AV2" s="81"/>
     </row>
     <row r="3" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -76237,36 +76478,36 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
     </row>
     <row r="2" spans="1:32" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -76311,20 +76552,20 @@
       <c r="N2" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="S2" s="74" t="s">
+      <c r="S2" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="AB2" s="83" t="s">
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="AB2" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
     </row>
     <row r="3" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -82376,8 +82617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A051A8DC-641C-49D6-8AC0-A75FC51D70EC}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
